--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7A0AD3-C521-46CC-A86C-40299C377EF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90143C82-D613-403D-BD7C-9EC1673CFFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -838,9 +838,6 @@
     <t>4.click on "continue " button</t>
   </si>
   <si>
-    <t>5.under DEPART SECTION check label is showing "London to New York"</t>
-  </si>
-  <si>
     <t>label should show slected cities correctly</t>
   </si>
   <si>
@@ -1265,6 +1262,9 @@
   </si>
   <si>
     <t>user should be navigated to 'purchase2 page'</t>
+  </si>
+  <si>
+    <t>5.Verify under DEPART SECTION check label is showing "London to New York"</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1381,6 +1381,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1812,18 +1818,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1833,17 +1827,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1854,64 +1845,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,6 +1877,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1956,14 +1905,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1974,14 +1980,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2001,8 +2001,32 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2336,722 +2360,722 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="82"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="86"/>
+      <c r="F3" s="63"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="86"/>
+      <c r="F4" s="63"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="82"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="86"/>
+      <c r="F5" s="63"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="83"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="87"/>
+      <c r="F6" s="64"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="73"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="79"/>
+      <c r="F8" s="74"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="73"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="79"/>
+      <c r="F9" s="74"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="73"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="79"/>
+      <c r="F10" s="74"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="74"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="80"/>
+      <c r="F11" s="75"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="66"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="67"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="61"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="83"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="80"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="61"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="83"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="67"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="61"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="83"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="71"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="68"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="84"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="66"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="67"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="61"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="83"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="67"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="61"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="83"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="67"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="61"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="83"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="71"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="68"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="84"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="51" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="66"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="67"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="61"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="83"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="67"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="61"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="83"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="67"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="61"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="83"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="67"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="61"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="83"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="44"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="67"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="61"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="51"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="83"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="51"/>
       <c r="D28" s="71"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="68"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="84"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="73"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="61"/>
+      <c r="F30" s="74"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="80"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="73"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="61"/>
+      <c r="F31" s="74"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="80"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="65"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="73"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="61"/>
+      <c r="F32" s="74"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="73"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="61"/>
+      <c r="F33" s="74"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="80"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="44"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="73"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="61"/>
+      <c r="F34" s="74"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
       <c r="D35" s="71"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="74"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="F35" s="75"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="66"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="67"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="61"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="83"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="80"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="67"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="61"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="83"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="67"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="61"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="83"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="67"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="61"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="83"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="44"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="67"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="61"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="51"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="83"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="80"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="51"/>
       <c r="D42" s="71"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="68"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="84"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="66"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="82"/>
       <c r="G43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="60"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="67"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="61"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="83"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="80"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="67"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="61"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="83"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="80"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="67"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="61"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="83"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="80"/>
     </row>
     <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="67"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="61"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="83"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="80"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="44"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="67"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="61"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="83"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="80"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
       <c r="D49" s="71"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="68"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="63"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="84"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="85" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="66"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="82"/>
       <c r="G50" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="60"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="67"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="61"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="83"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="80"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="67"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="61"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="83"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="80"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="67"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="61"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="83"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="80"/>
     </row>
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="70"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="67"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="61"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="83"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="80"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="70"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="67"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="61"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="85"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="83"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="80"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="70"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="68"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="61"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="85"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="84"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D57" s="34" t="s">
@@ -3066,9 +3090,9 @@
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="43"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="34"/>
       <c r="E58" s="14"/>
       <c r="F58" s="17"/>
@@ -3076,8 +3100,8 @@
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="13" t="s">
         <v>22</v>
       </c>
@@ -3088,8 +3112,8 @@
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="13" t="s">
         <v>21</v>
       </c>
@@ -3100,8 +3124,8 @@
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13" t="s">
         <v>181</v>
       </c>
@@ -3112,8 +3136,8 @@
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="13" t="s">
         <v>183</v>
       </c>
@@ -3124,8 +3148,8 @@
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
       <c r="D63" s="34"/>
       <c r="E63" s="14"/>
       <c r="F63" s="17"/>
@@ -3133,13 +3157,13 @@
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D64" s="34" t="s">
@@ -3154,9 +3178,9 @@
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="34"/>
       <c r="E65" s="14"/>
       <c r="F65" s="17"/>
@@ -3164,8 +3188,8 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13" t="s">
         <v>22</v>
       </c>
@@ -3176,8 +3200,8 @@
       <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="13" t="s">
         <v>23</v>
       </c>
@@ -3188,8 +3212,8 @@
       <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="13" t="s">
         <v>181</v>
       </c>
@@ -3200,8 +3224,8 @@
       <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="13" t="s">
         <v>182</v>
       </c>
@@ -3212,8 +3236,8 @@
       <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="51"/>
       <c r="D70" s="34"/>
       <c r="E70" s="14"/>
       <c r="F70" s="17"/>
@@ -3221,13 +3245,13 @@
       <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D71" s="34" t="s">
@@ -3242,9 +3266,9 @@
       <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="56"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="34"/>
       <c r="E72" s="14"/>
       <c r="F72" s="17"/>
@@ -3252,8 +3276,8 @@
       <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="56"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="42"/>
       <c r="D73" s="34"/>
       <c r="E73" s="14"/>
       <c r="F73" s="17"/>
@@ -3261,8 +3285,8 @@
       <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="56"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="13" t="s">
         <v>20</v>
       </c>
@@ -3273,8 +3297,8 @@
       <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="13" t="s">
         <v>23</v>
       </c>
@@ -3285,8 +3309,8 @@
       <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="13" t="s">
         <v>181</v>
       </c>
@@ -3297,8 +3321,8 @@
       <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="13" t="s">
         <v>185</v>
       </c>
@@ -3309,13 +3333,13 @@
       <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D78" s="34" t="s">
@@ -3330,9 +3354,9 @@
       <c r="I78" s="14"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="34"/>
       <c r="E79" s="14"/>
       <c r="F79" s="17"/>
@@ -3340,8 +3364,8 @@
       <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="53"/>
       <c r="D80" s="34"/>
       <c r="E80" s="14"/>
       <c r="F80" s="17"/>
@@ -3349,8 +3373,8 @@
       <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="13" t="s">
         <v>20</v>
       </c>
@@ -3361,8 +3385,8 @@
       <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="13" t="s">
         <v>21</v>
       </c>
@@ -3373,8 +3397,8 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="13" t="s">
         <v>181</v>
       </c>
@@ -3385,8 +3409,8 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="54"/>
-      <c r="B84" s="50"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="13" t="s">
         <v>185</v>
       </c>
@@ -3397,13 +3421,13 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D85" s="34" t="s">
@@ -3418,9 +3442,9 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="42"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="34"/>
       <c r="E86" s="2"/>
       <c r="F86" s="18"/>
@@ -3428,9 +3452,9 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="51"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="34"/>
       <c r="E87" s="2"/>
       <c r="F87" s="18"/>
@@ -3438,8 +3462,8 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="51"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="13" t="s">
         <v>22</v>
       </c>
@@ -3450,8 +3474,8 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="51"/>
-      <c r="B89" s="44"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="13" t="s">
         <v>21</v>
       </c>
@@ -3462,8 +3486,8 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="51"/>
-      <c r="B90" s="44"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="13" t="s">
         <v>181</v>
       </c>
@@ -3474,8 +3498,8 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="51"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="13" t="s">
         <v>185</v>
       </c>
@@ -3486,13 +3510,13 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D92" s="34" t="s">
@@ -3507,9 +3531,9 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="34"/>
       <c r="E93" s="2"/>
       <c r="F93" s="18"/>
@@ -3517,9 +3541,9 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="43"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="34"/>
       <c r="E94" s="2"/>
       <c r="F94" s="18"/>
@@ -3527,8 +3551,8 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
-      <c r="B95" s="44"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="13" t="s">
         <v>22</v>
       </c>
@@ -3539,8 +3563,8 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="13" t="s">
         <v>23</v>
       </c>
@@ -3551,8 +3575,8 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="13" t="s">
         <v>181</v>
       </c>
@@ -3563,8 +3587,8 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="13" t="s">
         <v>182</v>
       </c>
@@ -3575,13 +3599,13 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="34" t="s">
@@ -3596,9 +3620,9 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="51"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="42"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="91"/>
       <c r="D100" s="34"/>
       <c r="E100" s="2"/>
       <c r="F100" s="18"/>
@@ -3606,9 +3630,9 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="51"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="43"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="34"/>
       <c r="E101" s="2"/>
       <c r="F101" s="18"/>
@@ -3616,8 +3640,8 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="51"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="13" t="s">
         <v>42</v>
       </c>
@@ -3628,8 +3652,8 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="51"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="50"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="13" t="s">
         <v>43</v>
       </c>
@@ -3640,8 +3664,8 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="51"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="13" t="s">
         <v>44</v>
       </c>
@@ -3652,8 +3676,8 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="51"/>
-      <c r="B105" s="44"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="13" t="s">
         <v>53</v>
       </c>
@@ -3664,13 +3688,13 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D106" s="34" t="s">
@@ -3685,9 +3709,9 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="42"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="91"/>
       <c r="D107" s="34"/>
       <c r="E107" s="2"/>
       <c r="F107" s="18"/>
@@ -3695,9 +3719,9 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="43"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="34"/>
       <c r="E108" s="2"/>
       <c r="F108" s="18"/>
@@ -3705,8 +3729,8 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="53"/>
-      <c r="B109" s="49"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="13" t="s">
         <v>20</v>
       </c>
@@ -3717,8 +3741,8 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="53"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="13" t="s">
         <v>21</v>
       </c>
@@ -3729,8 +3753,8 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
-      <c r="B111" s="49"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="13" t="s">
         <v>181</v>
       </c>
@@ -3741,8 +3765,8 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="54"/>
-      <c r="B112" s="50"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="13" t="s">
         <v>185</v>
       </c>
@@ -3753,10 +3777,10 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -3774,8 +3798,8 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="90"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="13" t="s">
         <v>22</v>
       </c>
@@ -3786,8 +3810,8 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="46"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="13" t="s">
         <v>23</v>
       </c>
@@ -3798,8 +3822,8 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="46"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="13" t="s">
         <v>68</v>
       </c>
@@ -3810,8 +3834,8 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="46"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="13" t="s">
         <v>174</v>
       </c>
@@ -3822,8 +3846,8 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="13" t="s">
         <v>69</v>
       </c>
@@ -3834,8 +3858,8 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="91"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="13" t="s">
         <v>53</v>
       </c>
@@ -3846,10 +3870,10 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="52" t="s">
+      <c r="A120" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="41" t="s">
         <v>70</v>
       </c>
       <c r="C120" s="13" t="s">
@@ -3867,8 +3891,8 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
-      <c r="B121" s="46"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="42"/>
       <c r="D121" s="34"/>
       <c r="E121" s="2"/>
       <c r="F121" s="18"/>
@@ -3876,8 +3900,8 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
-      <c r="B122" s="46"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="13" t="s">
         <v>22</v>
       </c>
@@ -3888,8 +3912,8 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="53"/>
-      <c r="B123" s="46"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="13" t="s">
         <v>23</v>
       </c>
@@ -3900,8 +3924,8 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="53"/>
-      <c r="B124" s="46"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="13" t="s">
         <v>71</v>
       </c>
@@ -3912,8 +3936,8 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="53"/>
-      <c r="B125" s="46"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="13" t="s">
         <v>72</v>
       </c>
@@ -3924,8 +3948,8 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="53"/>
-      <c r="B126" s="46"/>
+      <c r="A126" s="48"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="13" t="s">
         <v>73</v>
       </c>
@@ -3936,8 +3960,8 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="54"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="49"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="13" t="s">
         <v>74</v>
       </c>
@@ -3948,10 +3972,10 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C128" s="13" t="s">
@@ -3969,8 +3993,8 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="53"/>
-      <c r="B129" s="46"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="42"/>
       <c r="D129" s="34"/>
       <c r="E129" s="2"/>
       <c r="F129" s="18"/>
@@ -3978,8 +4002,8 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="53"/>
-      <c r="B130" s="46"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="13" t="s">
         <v>22</v>
       </c>
@@ -3990,8 +4014,8 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
-      <c r="B131" s="46"/>
+      <c r="A131" s="48"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="13" t="s">
         <v>23</v>
       </c>
@@ -4002,8 +4026,8 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="53"/>
-      <c r="B132" s="46"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="13" t="s">
         <v>68</v>
       </c>
@@ -4014,8 +4038,8 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="53"/>
-      <c r="B133" s="46"/>
+      <c r="A133" s="48"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="13" t="s">
         <v>26</v>
       </c>
@@ -4026,8 +4050,8 @@
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="53"/>
-      <c r="B134" s="46"/>
+      <c r="A134" s="48"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="13" t="s">
         <v>69</v>
       </c>
@@ -4038,8 +4062,8 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="54"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="13" t="s">
         <v>184</v>
       </c>
@@ -4049,10 +4073,10 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C136" s="13" t="s">
@@ -4070,16 +4094,16 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="53"/>
-      <c r="B137" s="46"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="42"/>
       <c r="E137" s="10"/>
       <c r="F137" s="18"/>
       <c r="H137" s="10"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="53"/>
-      <c r="B138" s="46"/>
+      <c r="A138" s="48"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="13" t="s">
         <v>22</v>
       </c>
@@ -4089,8 +4113,8 @@
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="53"/>
-      <c r="B139" s="46"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="13" t="s">
         <v>23</v>
       </c>
@@ -4100,8 +4124,8 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="53"/>
-      <c r="B140" s="46"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="13" t="s">
         <v>68</v>
       </c>
@@ -4111,8 +4135,8 @@
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="53"/>
-      <c r="B141" s="46"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="13" t="s">
         <v>26</v>
       </c>
@@ -4122,8 +4146,8 @@
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="53"/>
-      <c r="B142" s="46"/>
+      <c r="A142" s="48"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="13" t="s">
         <v>69</v>
       </c>
@@ -4133,8 +4157,8 @@
       <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="54"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="13" t="s">
         <v>184</v>
       </c>
@@ -5391,58 +5415,30 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A136:A143"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="I29:I35"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
     <mergeCell ref="D50:D56"/>
     <mergeCell ref="E50:E56"/>
     <mergeCell ref="F50:F56"/>
@@ -5459,30 +5455,58 @@
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="F29:F35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="H29:H35"/>
-    <mergeCell ref="I29:I35"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="A136:A143"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5494,9 +5518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I465"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G284" sqref="G284"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5545,7 +5569,7 @@
       <c r="A2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="96" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -5562,7 +5586,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
-      <c r="B3" s="99"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
@@ -5575,7 +5599,7 @@
     </row>
     <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="94"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="31" t="s">
         <v>85</v>
       </c>
@@ -5590,7 +5614,7 @@
       <c r="A5" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="96" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -5607,7 +5631,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
-      <c r="B6" s="99"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="31" t="s">
         <v>90</v>
       </c>
@@ -5620,7 +5644,7 @@
     </row>
     <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="94"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="31" t="s">
         <v>91</v>
       </c>
@@ -5635,7 +5659,7 @@
       <c r="A8" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="96" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -5652,7 +5676,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
-      <c r="B9" s="99"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="31" t="s">
         <v>186</v>
       </c>
@@ -5665,7 +5689,7 @@
     </row>
     <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="94"/>
-      <c r="B10" s="100"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
@@ -5680,7 +5704,7 @@
       <c r="A11" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="96" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -5697,7 +5721,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="93"/>
-      <c r="B12" s="99"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="31" t="s">
         <v>99</v>
       </c>
@@ -5710,7 +5734,7 @@
     </row>
     <row r="13" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="94"/>
-      <c r="B13" s="100"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="31" t="s">
         <v>96</v>
       </c>
@@ -5725,7 +5749,7 @@
       <c r="A14" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="96" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -5742,7 +5766,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
-      <c r="B15" s="99"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="31" t="s">
         <v>101</v>
       </c>
@@ -5755,7 +5779,7 @@
     </row>
     <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="100"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="31" t="s">
         <v>102</v>
       </c>
@@ -5770,7 +5794,7 @@
       <c r="A17" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="96" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -5787,7 +5811,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="93"/>
-      <c r="B18" s="99"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="31" t="s">
         <v>105</v>
       </c>
@@ -5800,7 +5824,7 @@
     </row>
     <row r="19" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="94"/>
-      <c r="B19" s="100"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="31" t="s">
         <v>96</v>
       </c>
@@ -5815,7 +5839,7 @@
       <c r="A20" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="96" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -5832,7 +5856,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
-      <c r="B21" s="99"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="31" t="s">
         <v>111</v>
       </c>
@@ -5845,7 +5869,7 @@
     </row>
     <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94"/>
-      <c r="B22" s="100"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="31" t="s">
         <v>96</v>
       </c>
@@ -5860,7 +5884,7 @@
       <c r="A23" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="96" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -5877,7 +5901,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="93"/>
-      <c r="B24" s="99"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="31" t="s">
         <v>113</v>
       </c>
@@ -5890,7 +5914,7 @@
     </row>
     <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="94"/>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="31" t="s">
         <v>114</v>
       </c>
@@ -5905,7 +5929,7 @@
       <c r="A26" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="96" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -5922,7 +5946,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
-      <c r="B27" s="99"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="31" t="s">
         <v>117</v>
       </c>
@@ -5935,7 +5959,7 @@
     </row>
     <row r="28" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="94"/>
-      <c r="B28" s="100"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="31" t="s">
         <v>118</v>
       </c>
@@ -5950,7 +5974,7 @@
       <c r="A29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="96" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -5967,7 +5991,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="93"/>
-      <c r="B30" s="99"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="31" t="s">
         <v>121</v>
       </c>
@@ -5980,7 +6004,7 @@
     </row>
     <row r="31" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="94"/>
-      <c r="B31" s="100"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="31" t="s">
         <v>96</v>
       </c>
@@ -5995,7 +6019,7 @@
       <c r="A32" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="96" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -6012,7 +6036,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="93"/>
-      <c r="B33" s="99"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="31" t="s">
         <v>126</v>
       </c>
@@ -6025,7 +6049,7 @@
     </row>
     <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="94"/>
-      <c r="B34" s="100"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="31" t="s">
         <v>96</v>
       </c>
@@ -6040,7 +6064,7 @@
       <c r="A35" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="96" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -6057,7 +6081,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="93"/>
-      <c r="B36" s="99"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="31" t="s">
         <v>127</v>
       </c>
@@ -6070,7 +6094,7 @@
     </row>
     <row r="37" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A37" s="94"/>
-      <c r="B37" s="100"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="31" t="s">
         <v>96</v>
       </c>
@@ -6085,7 +6109,7 @@
       <c r="A38" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="96" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -6102,7 +6126,7 @@
     </row>
     <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
-      <c r="B39" s="99"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="31" t="s">
         <v>140</v>
       </c>
@@ -6115,7 +6139,7 @@
     </row>
     <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="94"/>
-      <c r="B40" s="100"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="31" t="s">
         <v>96</v>
       </c>
@@ -6130,7 +6154,7 @@
       <c r="A41" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="96" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -6147,7 +6171,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="93"/>
-      <c r="B42" s="99"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="31" t="s">
         <v>142</v>
       </c>
@@ -6160,7 +6184,7 @@
     </row>
     <row r="43" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="94"/>
-      <c r="B43" s="100"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="31" t="s">
         <v>118</v>
       </c>
@@ -6175,7 +6199,7 @@
       <c r="A44" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="96" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -6192,7 +6216,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="93"/>
-      <c r="B45" s="99"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="31" t="s">
         <v>145</v>
       </c>
@@ -6205,7 +6229,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="94"/>
-      <c r="B46" s="100"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="30"/>
@@ -6218,7 +6242,7 @@
       <c r="A47" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="96" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -6235,7 +6259,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="93"/>
-      <c r="B48" s="99"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="31" t="s">
         <v>127</v>
       </c>
@@ -6248,7 +6272,7 @@
     </row>
     <row r="49" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="94"/>
-      <c r="B49" s="100"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="31" t="s">
         <v>96</v>
       </c>
@@ -6263,7 +6287,7 @@
       <c r="A50" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="96" t="s">
         <v>149</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -6280,7 +6304,7 @@
     </row>
     <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="93"/>
-      <c r="B51" s="99"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="31" t="s">
         <v>140</v>
       </c>
@@ -6293,7 +6317,7 @@
     </row>
     <row r="52" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A52" s="94"/>
-      <c r="B52" s="100"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="31" t="s">
         <v>96</v>
       </c>
@@ -6308,7 +6332,7 @@
       <c r="A53" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="96" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -6325,7 +6349,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="93"/>
-      <c r="B54" s="99"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="31" t="s">
         <v>142</v>
       </c>
@@ -6338,7 +6362,7 @@
     </row>
     <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A55" s="94"/>
-      <c r="B55" s="100"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="31" t="s">
         <v>118</v>
       </c>
@@ -6353,7 +6377,7 @@
       <c r="A56" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="96" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="31" t="s">
@@ -6370,7 +6394,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="93"/>
-      <c r="B57" s="99"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="31" t="s">
         <v>145</v>
       </c>
@@ -6383,7 +6407,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="94"/>
-      <c r="B58" s="100"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="30"/>
@@ -6396,7 +6420,7 @@
       <c r="A59" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="99" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="31" t="s">
@@ -6413,7 +6437,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="93"/>
-      <c r="B60" s="102"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="31" t="s">
         <v>127</v>
       </c>
@@ -6426,7 +6450,7 @@
     </row>
     <row r="61" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="94"/>
-      <c r="B61" s="103"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="31" t="s">
         <v>96</v>
       </c>
@@ -6441,7 +6465,7 @@
       <c r="A62" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="96" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -6458,7 +6482,7 @@
     </row>
     <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="93"/>
-      <c r="B63" s="99"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="31" t="s">
         <v>140</v>
       </c>
@@ -6471,7 +6495,7 @@
     </row>
     <row r="64" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94"/>
-      <c r="B64" s="100"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="31" t="s">
         <v>96</v>
       </c>
@@ -6486,7 +6510,7 @@
       <c r="A65" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="96" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -6503,7 +6527,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="93"/>
-      <c r="B66" s="99"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="31" t="s">
         <v>142</v>
       </c>
@@ -6516,7 +6540,7 @@
     </row>
     <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94"/>
-      <c r="B67" s="100"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
@@ -6531,7 +6555,7 @@
       <c r="A68" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="96" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -6548,7 +6572,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="93"/>
-      <c r="B69" s="99"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="31" t="s">
         <v>145</v>
       </c>
@@ -6561,7 +6585,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="94"/>
-      <c r="B70" s="100"/>
+      <c r="B70" s="98"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="30"/>
@@ -6574,7 +6598,7 @@
       <c r="A71" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="98" t="s">
+      <c r="B71" s="96" t="s">
         <v>162</v>
       </c>
       <c r="C71" s="31" t="s">
@@ -6591,7 +6615,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="93"/>
-      <c r="B72" s="99"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="31" t="s">
         <v>164</v>
       </c>
@@ -6604,7 +6628,7 @@
     </row>
     <row r="73" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A73" s="94"/>
-      <c r="B73" s="100"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="31" t="s">
         <v>187</v>
       </c>
@@ -6619,7 +6643,7 @@
       <c r="A74" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="98" t="s">
+      <c r="B74" s="96" t="s">
         <v>166</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -6636,7 +6660,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="93"/>
-      <c r="B75" s="99"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="31" t="s">
         <v>168</v>
       </c>
@@ -6649,7 +6673,7 @@
     </row>
     <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="94"/>
-      <c r="B76" s="100"/>
+      <c r="B76" s="98"/>
       <c r="C76" s="31" t="s">
         <v>169</v>
       </c>
@@ -6664,7 +6688,7 @@
       <c r="A77" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="98" t="s">
+      <c r="B77" s="96" t="s">
         <v>188</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -6681,7 +6705,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="93"/>
-      <c r="B78" s="99"/>
+      <c r="B78" s="97"/>
       <c r="C78" s="31" t="s">
         <v>190</v>
       </c>
@@ -6694,7 +6718,7 @@
     </row>
     <row r="79" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="93"/>
-      <c r="B79" s="99"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="31" t="s">
         <v>191</v>
       </c>
@@ -6707,7 +6731,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="93"/>
-      <c r="B80" s="99"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="38" t="s">
         <v>192</v>
       </c>
@@ -6720,7 +6744,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="94"/>
-      <c r="B81" s="100"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="31" t="s">
         <v>193</v>
       </c>
@@ -6735,7 +6759,7 @@
       <c r="A82" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="98" t="s">
+      <c r="B82" s="96" t="s">
         <v>201</v>
       </c>
       <c r="C82" s="31" t="s">
@@ -6752,7 +6776,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="93"/>
-      <c r="B83" s="99"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="31" t="s">
         <v>194</v>
       </c>
@@ -6765,7 +6789,7 @@
     </row>
     <row r="84" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="93"/>
-      <c r="B84" s="99"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="31" t="s">
         <v>195</v>
       </c>
@@ -6778,7 +6802,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="93"/>
-      <c r="B85" s="99"/>
+      <c r="B85" s="97"/>
       <c r="C85" s="31" t="s">
         <v>196</v>
       </c>
@@ -6791,7 +6815,7 @@
     </row>
     <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="93"/>
-      <c r="B86" s="99"/>
+      <c r="B86" s="97"/>
       <c r="C86" s="31" t="s">
         <v>197</v>
       </c>
@@ -6804,7 +6828,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="93"/>
-      <c r="B87" s="99"/>
+      <c r="B87" s="97"/>
       <c r="C87" s="31" t="s">
         <v>198</v>
       </c>
@@ -6817,7 +6841,7 @@
     </row>
     <row r="88" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="94"/>
-      <c r="B88" s="100"/>
+      <c r="B88" s="98"/>
       <c r="C88" s="31" t="s">
         <v>199</v>
       </c>
@@ -6832,7 +6856,7 @@
       <c r="A89" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="96" t="s">
         <v>203</v>
       </c>
       <c r="C89" s="31" t="s">
@@ -6849,7 +6873,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="93"/>
-      <c r="B90" s="99"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="31" t="s">
         <v>202</v>
       </c>
@@ -6862,7 +6886,7 @@
     </row>
     <row r="91" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="93"/>
-      <c r="B91" s="100"/>
+      <c r="B91" s="98"/>
       <c r="C91" s="31" t="s">
         <v>227</v>
       </c>
@@ -6877,7 +6901,7 @@
       <c r="A92" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="98" t="s">
+      <c r="B92" s="96" t="s">
         <v>208</v>
       </c>
       <c r="C92" s="31" t="s">
@@ -6894,7 +6918,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="93"/>
-      <c r="B93" s="99"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="31" t="s">
         <v>209</v>
       </c>
@@ -6907,7 +6931,7 @@
     </row>
     <row r="94" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="93"/>
-      <c r="B94" s="100"/>
+      <c r="B94" s="98"/>
       <c r="C94" s="31" t="s">
         <v>204</v>
       </c>
@@ -6922,7 +6946,7 @@
       <c r="A95" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="98" t="s">
+      <c r="B95" s="96" t="s">
         <v>210</v>
       </c>
       <c r="C95" s="31" t="s">
@@ -6939,7 +6963,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="93"/>
-      <c r="B96" s="99"/>
+      <c r="B96" s="97"/>
       <c r="C96" s="31" t="s">
         <v>213</v>
       </c>
@@ -6952,7 +6976,7 @@
     </row>
     <row r="97" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="93"/>
-      <c r="B97" s="100"/>
+      <c r="B97" s="98"/>
       <c r="C97" s="31" t="s">
         <v>204</v>
       </c>
@@ -6967,7 +6991,7 @@
       <c r="A98" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="98" t="s">
+      <c r="B98" s="96" t="s">
         <v>211</v>
       </c>
       <c r="C98" s="31" t="s">
@@ -6984,7 +7008,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="93"/>
-      <c r="B99" s="99"/>
+      <c r="B99" s="97"/>
       <c r="C99" s="31" t="s">
         <v>212</v>
       </c>
@@ -6997,7 +7021,7 @@
     </row>
     <row r="100" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A100" s="93"/>
-      <c r="B100" s="100"/>
+      <c r="B100" s="98"/>
       <c r="C100" s="31" t="s">
         <v>204</v>
       </c>
@@ -7012,7 +7036,7 @@
       <c r="A101" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="98" t="s">
+      <c r="B101" s="96" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="31" t="s">
@@ -7029,7 +7053,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="93"/>
-      <c r="B102" s="99"/>
+      <c r="B102" s="97"/>
       <c r="C102" s="31" t="s">
         <v>219</v>
       </c>
@@ -7042,7 +7066,7 @@
     </row>
     <row r="103" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="93"/>
-      <c r="B103" s="100"/>
+      <c r="B103" s="98"/>
       <c r="C103" s="31" t="s">
         <v>204</v>
       </c>
@@ -7057,7 +7081,7 @@
       <c r="A104" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="98" t="s">
+      <c r="B104" s="96" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="31" t="s">
@@ -7074,7 +7098,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="93"/>
-      <c r="B105" s="99"/>
+      <c r="B105" s="97"/>
       <c r="C105" s="31" t="s">
         <v>221</v>
       </c>
@@ -7087,7 +7111,7 @@
     </row>
     <row r="106" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="93"/>
-      <c r="B106" s="100"/>
+      <c r="B106" s="98"/>
       <c r="C106" s="31" t="s">
         <v>204</v>
       </c>
@@ -7102,7 +7126,7 @@
       <c r="A107" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="98" t="s">
+      <c r="B107" s="96" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="31" t="s">
@@ -7119,7 +7143,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="93"/>
-      <c r="B108" s="99"/>
+      <c r="B108" s="97"/>
       <c r="C108" s="31" t="s">
         <v>223</v>
       </c>
@@ -7132,7 +7156,7 @@
     </row>
     <row r="109" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A109" s="93"/>
-      <c r="B109" s="100"/>
+      <c r="B109" s="98"/>
       <c r="C109" s="31" t="s">
         <v>204</v>
       </c>
@@ -7147,7 +7171,7 @@
       <c r="A110" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="98" t="s">
+      <c r="B110" s="96" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="31" t="s">
@@ -7164,7 +7188,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="93"/>
-      <c r="B111" s="99"/>
+      <c r="B111" s="97"/>
       <c r="C111" s="31" t="s">
         <v>226</v>
       </c>
@@ -7177,7 +7201,7 @@
     </row>
     <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="93"/>
-      <c r="B112" s="100"/>
+      <c r="B112" s="98"/>
       <c r="C112" s="31" t="s">
         <v>204</v>
       </c>
@@ -7192,7 +7216,7 @@
       <c r="A113" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="31" t="s">
+      <c r="B113" s="96" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="31" t="s">
@@ -7209,7 +7233,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="93"/>
-      <c r="B114" s="31"/>
+      <c r="B114" s="97"/>
       <c r="C114" s="31" t="s">
         <v>229</v>
       </c>
@@ -7222,7 +7246,7 @@
     </row>
     <row r="115" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A115" s="93"/>
-      <c r="B115" s="39"/>
+      <c r="B115" s="98"/>
       <c r="C115" s="31" t="s">
         <v>230</v>
       </c>
@@ -7237,7 +7261,7 @@
       <c r="A116" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="96" t="s">
         <v>233</v>
       </c>
       <c r="C116" s="31" t="s">
@@ -7254,7 +7278,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="93"/>
-      <c r="B117" s="31"/>
+      <c r="B117" s="97"/>
       <c r="C117" s="31" t="s">
         <v>234</v>
       </c>
@@ -7267,7 +7291,7 @@
     </row>
     <row r="118" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A118" s="93"/>
-      <c r="B118" s="31"/>
+      <c r="B118" s="98"/>
       <c r="C118" s="31" t="s">
         <v>235</v>
       </c>
@@ -7282,7 +7306,7 @@
       <c r="A119" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="31" t="s">
+      <c r="B119" s="96" t="s">
         <v>237</v>
       </c>
       <c r="C119" s="31" t="s">
@@ -7299,7 +7323,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="93"/>
-      <c r="B120" s="31"/>
+      <c r="B120" s="97"/>
       <c r="C120" s="31" t="s">
         <v>238</v>
       </c>
@@ -7312,7 +7336,7 @@
     </row>
     <row r="121" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A121" s="93"/>
-      <c r="B121" s="31"/>
+      <c r="B121" s="98"/>
       <c r="C121" s="31" t="s">
         <v>239</v>
       </c>
@@ -7327,7 +7351,7 @@
       <c r="A122" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="31" t="s">
+      <c r="B122" s="108" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -7344,7 +7368,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="93"/>
-      <c r="B123" s="31"/>
+      <c r="B123" s="109"/>
       <c r="C123" s="31" t="s">
         <v>242</v>
       </c>
@@ -7357,7 +7381,7 @@
     </row>
     <row r="124" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="93"/>
-      <c r="B124" s="31"/>
+      <c r="B124" s="109"/>
       <c r="C124" s="31" t="s">
         <v>243</v>
       </c>
@@ -7370,6 +7394,7 @@
     </row>
     <row r="125" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A125" s="94"/>
+      <c r="B125" s="110"/>
       <c r="C125" s="31" t="s">
         <v>244</v>
       </c>
@@ -7384,7 +7409,7 @@
       <c r="A126" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="B126" s="31" t="s">
+      <c r="B126" s="96" t="s">
         <v>247</v>
       </c>
       <c r="C126" s="31" t="s">
@@ -7401,7 +7426,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="93"/>
-      <c r="B127" s="31"/>
+      <c r="B127" s="97"/>
       <c r="C127" s="31" t="s">
         <v>248</v>
       </c>
@@ -7414,7 +7439,7 @@
     </row>
     <row r="128" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="93"/>
-      <c r="B128" s="31"/>
+      <c r="B128" s="97"/>
       <c r="C128" s="31" t="s">
         <v>249</v>
       </c>
@@ -7427,7 +7452,7 @@
     </row>
     <row r="129" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="93"/>
-      <c r="B129" s="31"/>
+      <c r="B129" s="97"/>
       <c r="C129" s="31" t="s">
         <v>250</v>
       </c>
@@ -7440,7 +7465,7 @@
     </row>
     <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="93"/>
-      <c r="B130" s="31"/>
+      <c r="B130" s="97"/>
       <c r="C130" s="31" t="s">
         <v>251</v>
       </c>
@@ -7453,7 +7478,7 @@
     </row>
     <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="93"/>
-      <c r="B131" s="31"/>
+      <c r="B131" s="97"/>
       <c r="C131" s="31" t="s">
         <v>252</v>
       </c>
@@ -7466,7 +7491,7 @@
     </row>
     <row r="132" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A132" s="93"/>
-      <c r="B132" s="31"/>
+      <c r="B132" s="97"/>
       <c r="C132" s="31" t="s">
         <v>253</v>
       </c>
@@ -7479,7 +7504,7 @@
     </row>
     <row r="133" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="93"/>
-      <c r="B133" s="31"/>
+      <c r="B133" s="97"/>
       <c r="C133" s="31" t="s">
         <v>254</v>
       </c>
@@ -7492,7 +7517,7 @@
     </row>
     <row r="134" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="93"/>
-      <c r="B134" s="31"/>
+      <c r="B134" s="97"/>
       <c r="C134" s="31" t="s">
         <v>256</v>
       </c>
@@ -7505,7 +7530,7 @@
     </row>
     <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="94"/>
-      <c r="B135" s="31"/>
+      <c r="B135" s="98"/>
       <c r="C135" s="31" t="s">
         <v>255</v>
       </c>
@@ -7520,7 +7545,7 @@
       <c r="A136" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="B136" s="31" t="s">
+      <c r="B136" s="96" t="s">
         <v>259</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -7537,7 +7562,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="93"/>
-      <c r="B137" s="31"/>
+      <c r="B137" s="97"/>
       <c r="C137" s="31" t="s">
         <v>248</v>
       </c>
@@ -7550,7 +7575,7 @@
     </row>
     <row r="138" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A138" s="93"/>
-      <c r="B138" s="31"/>
+      <c r="B138" s="97"/>
       <c r="C138" s="31" t="s">
         <v>260</v>
       </c>
@@ -7563,7 +7588,7 @@
     </row>
     <row r="139" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A139" s="93"/>
-      <c r="B139" s="31"/>
+      <c r="B139" s="97"/>
       <c r="C139" s="31" t="s">
         <v>250</v>
       </c>
@@ -7576,7 +7601,7 @@
     </row>
     <row r="140" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A140" s="93"/>
-      <c r="B140" s="31"/>
+      <c r="B140" s="97"/>
       <c r="C140" s="31" t="s">
         <v>261</v>
       </c>
@@ -7589,7 +7614,7 @@
     </row>
     <row r="141" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="93"/>
-      <c r="B141" s="31"/>
+      <c r="B141" s="97"/>
       <c r="C141" s="31" t="s">
         <v>252</v>
       </c>
@@ -7602,7 +7627,7 @@
     </row>
     <row r="142" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="93"/>
-      <c r="B142" s="31"/>
+      <c r="B142" s="97"/>
       <c r="C142" s="31" t="s">
         <v>262</v>
       </c>
@@ -7615,7 +7640,7 @@
     </row>
     <row r="143" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A143" s="93"/>
-      <c r="B143" s="31"/>
+      <c r="B143" s="97"/>
       <c r="C143" s="31" t="s">
         <v>254</v>
       </c>
@@ -7628,7 +7653,7 @@
     </row>
     <row r="144" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="93"/>
-      <c r="B144" s="31"/>
+      <c r="B144" s="97"/>
       <c r="C144" s="31" t="s">
         <v>263</v>
       </c>
@@ -7641,7 +7666,7 @@
     </row>
     <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="94"/>
-      <c r="B145" s="31"/>
+      <c r="B145" s="98"/>
       <c r="C145" s="31" t="s">
         <v>255</v>
       </c>
@@ -7652,12 +7677,12 @@
       <c r="H145" s="30"/>
       <c r="I145" s="30"/>
     </row>
-    <row r="146" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="B146" s="31" t="s">
-        <v>271</v>
+      <c r="B146" s="105" t="s">
+        <v>270</v>
       </c>
       <c r="C146" s="31" t="s">
         <v>189</v>
@@ -7666,14 +7691,14 @@
       <c r="E146" s="30"/>
       <c r="F146" s="30"/>
       <c r="G146" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
     </row>
     <row r="147" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="93"/>
-      <c r="B147" s="31"/>
+      <c r="B147" s="106"/>
       <c r="C147" s="31" t="s">
         <v>265</v>
       </c>
@@ -7686,7 +7711,7 @@
     </row>
     <row r="148" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A148" s="93"/>
-      <c r="B148" s="31"/>
+      <c r="B148" s="106"/>
       <c r="C148" s="31" t="s">
         <v>266</v>
       </c>
@@ -7699,7 +7724,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="93"/>
-      <c r="B149" s="31"/>
+      <c r="B149" s="106"/>
       <c r="C149" s="31" t="s">
         <v>267</v>
       </c>
@@ -7712,9 +7737,9 @@
     </row>
     <row r="150" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A150" s="93"/>
-      <c r="B150" s="39"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="22" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="D150" s="31"/>
       <c r="E150" s="30"/>
@@ -7725,10 +7750,10 @@
     </row>
     <row r="151" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A151" s="92" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C151" s="31" t="s">
         <v>189</v>
@@ -7737,7 +7762,7 @@
       <c r="E151" s="30"/>
       <c r="F151" s="30"/>
       <c r="G151" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H151" s="30"/>
       <c r="I151" s="30"/>
@@ -7785,7 +7810,7 @@
       <c r="A155" s="93"/>
       <c r="B155" s="39"/>
       <c r="C155" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D155" s="31"/>
       <c r="E155" s="30"/>
@@ -7796,10 +7821,10 @@
     </row>
     <row r="156" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A156" s="92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C156" s="31" t="s">
         <v>189</v>
@@ -7808,7 +7833,7 @@
       <c r="E156" s="30"/>
       <c r="F156" s="30"/>
       <c r="G156" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H156" s="30"/>
       <c r="I156" s="30"/>
@@ -7817,7 +7842,7 @@
       <c r="A157" s="93"/>
       <c r="B157" s="31"/>
       <c r="C157" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D157" s="31"/>
       <c r="E157" s="30"/>
@@ -7830,7 +7855,7 @@
       <c r="A158" s="93"/>
       <c r="B158" s="31"/>
       <c r="C158" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D158" s="31"/>
       <c r="E158" s="30"/>
@@ -7843,7 +7868,7 @@
       <c r="A159" s="93"/>
       <c r="B159" s="31"/>
       <c r="C159" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D159" s="31"/>
       <c r="E159" s="30"/>
@@ -7856,7 +7881,7 @@
       <c r="A160" s="93"/>
       <c r="B160" s="31"/>
       <c r="C160" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D160" s="31"/>
       <c r="E160" s="30"/>
@@ -7866,11 +7891,11 @@
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A161" s="104" t="s">
-        <v>277</v>
+      <c r="A161" s="95" t="s">
+        <v>276</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C161" s="31" t="s">
         <v>189</v>
@@ -7879,16 +7904,16 @@
       <c r="E161" s="30"/>
       <c r="F161" s="30"/>
       <c r="G161" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H161" s="30"/>
       <c r="I161" s="30"/>
     </row>
     <row r="162" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="104"/>
+      <c r="A162" s="95"/>
       <c r="B162" s="31"/>
       <c r="C162" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D162" s="31"/>
       <c r="E162" s="30"/>
@@ -7898,10 +7923,10 @@
       <c r="I162" s="30"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="104"/>
+      <c r="A163" s="95"/>
       <c r="B163" s="31"/>
       <c r="C163" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D163" s="31"/>
       <c r="E163" s="30"/>
@@ -7911,10 +7936,10 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="104"/>
+      <c r="A164" s="95"/>
       <c r="B164" s="31"/>
       <c r="C164" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D164" s="31"/>
       <c r="E164" s="30"/>
@@ -7924,10 +7949,10 @@
       <c r="I164" s="30"/>
     </row>
     <row r="165" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="104"/>
+      <c r="A165" s="95"/>
       <c r="B165" s="31"/>
       <c r="C165" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D165" s="31"/>
       <c r="E165" s="30"/>
@@ -7938,10 +7963,10 @@
     </row>
     <row r="166" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A166" s="92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B166" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C166" s="31" t="s">
         <v>189</v>
@@ -7950,7 +7975,7 @@
       <c r="E166" s="30"/>
       <c r="F166" s="30"/>
       <c r="G166" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
@@ -7959,7 +7984,7 @@
       <c r="A167" s="93"/>
       <c r="B167" s="31"/>
       <c r="C167" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D167" s="31"/>
       <c r="E167" s="30"/>
@@ -7972,7 +7997,7 @@
       <c r="A168" s="93"/>
       <c r="B168" s="31"/>
       <c r="C168" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D168" s="31"/>
       <c r="E168" s="30"/>
@@ -7985,7 +8010,7 @@
       <c r="A169" s="94"/>
       <c r="B169" s="31"/>
       <c r="C169" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D169" s="31"/>
       <c r="E169" s="30"/>
@@ -7996,10 +8021,10 @@
     </row>
     <row r="170" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A170" s="92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C170" s="31" t="s">
         <v>189</v>
@@ -8008,7 +8033,7 @@
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
       <c r="G170" s="31" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
@@ -8056,7 +8081,7 @@
       <c r="A174" s="93"/>
       <c r="B174" s="31"/>
       <c r="C174" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D174" s="31"/>
       <c r="E174" s="30"/>
@@ -8069,7 +8094,7 @@
       <c r="A175" s="94"/>
       <c r="B175" s="31"/>
       <c r="C175" s="31" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D175" s="31"/>
       <c r="E175" s="30"/>
@@ -8080,10 +8105,10 @@
     </row>
     <row r="176" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A176" s="92" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C176" s="31" t="s">
         <v>189</v>
@@ -8092,7 +8117,7 @@
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
@@ -8140,7 +8165,7 @@
       <c r="A180" s="93"/>
       <c r="B180" s="31"/>
       <c r="C180" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D180" s="31"/>
       <c r="E180" s="30"/>
@@ -8153,7 +8178,7 @@
       <c r="A181" s="94"/>
       <c r="B181" s="31"/>
       <c r="C181" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D181" s="31"/>
       <c r="E181" s="30"/>
@@ -8164,10 +8189,10 @@
     </row>
     <row r="182" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A182" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="B182" s="31" t="s">
         <v>300</v>
-      </c>
-      <c r="B182" s="31" t="s">
-        <v>301</v>
       </c>
       <c r="C182" s="31" t="s">
         <v>189</v>
@@ -8176,7 +8201,7 @@
       <c r="E182" s="30"/>
       <c r="F182" s="30"/>
       <c r="G182" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
@@ -8185,7 +8210,7 @@
       <c r="A183" s="93"/>
       <c r="B183" s="31"/>
       <c r="C183" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D183" s="31"/>
       <c r="E183" s="30"/>
@@ -8198,7 +8223,7 @@
       <c r="A184" s="93"/>
       <c r="B184" s="31"/>
       <c r="C184" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D184" s="31"/>
       <c r="E184" s="30"/>
@@ -8211,7 +8236,7 @@
       <c r="A185" s="93"/>
       <c r="B185" s="31"/>
       <c r="C185" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D185" s="31"/>
       <c r="E185" s="30"/>
@@ -8224,7 +8249,7 @@
       <c r="A186" s="93"/>
       <c r="B186" s="31"/>
       <c r="C186" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D186" s="31"/>
       <c r="E186" s="30"/>
@@ -8237,7 +8262,7 @@
       <c r="A187" s="94"/>
       <c r="B187" s="31"/>
       <c r="C187" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D187" s="31"/>
       <c r="E187" s="30"/>
@@ -8248,10 +8273,10 @@
     </row>
     <row r="188" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A188" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="B188" s="31" t="s">
         <v>304</v>
-      </c>
-      <c r="B188" s="31" t="s">
-        <v>305</v>
       </c>
       <c r="C188" s="31" t="s">
         <v>189</v>
@@ -8260,7 +8285,7 @@
       <c r="E188" s="30"/>
       <c r="F188" s="30"/>
       <c r="G188" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
@@ -8269,7 +8294,7 @@
       <c r="A189" s="93"/>
       <c r="B189" s="31"/>
       <c r="C189" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="30"/>
@@ -8282,7 +8307,7 @@
       <c r="A190" s="93"/>
       <c r="B190" s="31"/>
       <c r="C190" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D190" s="31"/>
       <c r="E190" s="30"/>
@@ -8295,7 +8320,7 @@
       <c r="A191" s="93"/>
       <c r="B191" s="31"/>
       <c r="C191" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D191" s="31"/>
       <c r="E191" s="30"/>
@@ -8308,7 +8333,7 @@
       <c r="A192" s="93"/>
       <c r="B192" s="31"/>
       <c r="C192" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D192" s="31"/>
       <c r="E192" s="30"/>
@@ -8321,7 +8346,7 @@
       <c r="A193" s="94"/>
       <c r="B193" s="31"/>
       <c r="C193" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D193" s="31"/>
       <c r="E193" s="30"/>
@@ -8332,10 +8357,10 @@
     </row>
     <row r="194" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A194" s="92" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C194" s="31" t="s">
         <v>189</v>
@@ -8344,7 +8369,7 @@
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
       <c r="G194" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
@@ -8353,7 +8378,7 @@
       <c r="A195" s="93"/>
       <c r="B195" s="31"/>
       <c r="C195" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D195" s="31"/>
       <c r="E195" s="30"/>
@@ -8366,7 +8391,7 @@
       <c r="A196" s="93"/>
       <c r="B196" s="31"/>
       <c r="C196" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D196" s="31"/>
       <c r="E196" s="30"/>
@@ -8379,7 +8404,7 @@
       <c r="A197" s="93"/>
       <c r="B197" s="31"/>
       <c r="C197" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D197" s="31"/>
       <c r="E197" s="30"/>
@@ -8392,7 +8417,7 @@
       <c r="A198" s="93"/>
       <c r="B198" s="31"/>
       <c r="C198" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D198" s="31"/>
       <c r="E198" s="30"/>
@@ -8403,10 +8428,10 @@
     </row>
     <row r="199" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A199" s="92" t="s">
+        <v>313</v>
+      </c>
+      <c r="B199" s="31" t="s">
         <v>314</v>
-      </c>
-      <c r="B199" s="31" t="s">
-        <v>315</v>
       </c>
       <c r="C199" s="31" t="s">
         <v>189</v>
@@ -8415,7 +8440,7 @@
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H199" s="30"/>
       <c r="I199" s="30"/>
@@ -8424,7 +8449,7 @@
       <c r="A200" s="93"/>
       <c r="B200" s="31"/>
       <c r="C200" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D200" s="31"/>
       <c r="E200" s="30"/>
@@ -8437,7 +8462,7 @@
       <c r="A201" s="93"/>
       <c r="B201" s="31"/>
       <c r="C201" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D201" s="31"/>
       <c r="E201" s="30"/>
@@ -8450,7 +8475,7 @@
       <c r="A202" s="93"/>
       <c r="B202" s="31"/>
       <c r="C202" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D202" s="31"/>
       <c r="E202" s="30"/>
@@ -8463,7 +8488,7 @@
       <c r="A203" s="93"/>
       <c r="B203" s="31"/>
       <c r="C203" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D203" s="31"/>
       <c r="E203" s="30"/>
@@ -8474,10 +8499,10 @@
     </row>
     <row r="204" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A204" s="92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B204" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C204" s="31" t="s">
         <v>189</v>
@@ -8486,7 +8511,7 @@
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
       <c r="G204" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H204" s="30"/>
       <c r="I204" s="30"/>
@@ -8495,7 +8520,7 @@
       <c r="A205" s="93"/>
       <c r="B205" s="31"/>
       <c r="C205" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D205" s="31"/>
       <c r="E205" s="30"/>
@@ -8508,7 +8533,7 @@
       <c r="A206" s="93"/>
       <c r="B206" s="31"/>
       <c r="C206" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D206" s="31"/>
       <c r="E206" s="30"/>
@@ -8521,7 +8546,7 @@
       <c r="A207" s="93"/>
       <c r="B207" s="31"/>
       <c r="C207" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D207" s="31"/>
       <c r="E207" s="30"/>
@@ -8534,7 +8559,7 @@
       <c r="A208" s="93"/>
       <c r="B208" s="31"/>
       <c r="C208" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D208" s="31"/>
       <c r="E208" s="30"/>
@@ -8545,10 +8570,10 @@
     </row>
     <row r="209" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A209" s="92" t="s">
+        <v>321</v>
+      </c>
+      <c r="B209" s="31" t="s">
         <v>322</v>
-      </c>
-      <c r="B209" s="31" t="s">
-        <v>323</v>
       </c>
       <c r="C209" s="31" t="s">
         <v>189</v>
@@ -8557,7 +8582,7 @@
       <c r="E209" s="30"/>
       <c r="F209" s="30"/>
       <c r="G209" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H209" s="30"/>
       <c r="I209" s="30"/>
@@ -8566,7 +8591,7 @@
       <c r="A210" s="93"/>
       <c r="B210" s="31"/>
       <c r="C210" s="31" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D210" s="31"/>
       <c r="E210" s="30"/>
@@ -8579,7 +8604,7 @@
       <c r="A211" s="93"/>
       <c r="B211" s="31"/>
       <c r="C211" s="31" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D211" s="31"/>
       <c r="E211" s="30"/>
@@ -8592,7 +8617,7 @@
       <c r="A212" s="93"/>
       <c r="B212" s="31"/>
       <c r="C212" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D212" s="31"/>
       <c r="E212" s="30"/>
@@ -8605,7 +8630,7 @@
       <c r="A213" s="93"/>
       <c r="B213" s="31"/>
       <c r="C213" s="31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D213" s="31"/>
       <c r="E213" s="30"/>
@@ -8616,10 +8641,10 @@
     </row>
     <row r="214" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A214" s="92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C214" s="31" t="s">
         <v>189</v>
@@ -8628,7 +8653,7 @@
       <c r="E214" s="30"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H214" s="30"/>
       <c r="I214" s="30"/>
@@ -8637,7 +8662,7 @@
       <c r="A215" s="93"/>
       <c r="B215" s="31"/>
       <c r="C215" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D215" s="31"/>
       <c r="E215" s="30"/>
@@ -8650,7 +8675,7 @@
       <c r="A216" s="93"/>
       <c r="B216" s="31"/>
       <c r="C216" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D216" s="31"/>
       <c r="E216" s="30"/>
@@ -8663,7 +8688,7 @@
       <c r="A217" s="93"/>
       <c r="B217" s="31"/>
       <c r="C217" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D217" s="31"/>
       <c r="E217" s="30"/>
@@ -8676,7 +8701,7 @@
       <c r="A218" s="93"/>
       <c r="B218" s="31"/>
       <c r="C218" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D218" s="31"/>
       <c r="E218" s="30"/>
@@ -8687,10 +8712,10 @@
     </row>
     <row r="219" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A219" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C219" s="31" t="s">
         <v>189</v>
@@ -8699,7 +8724,7 @@
       <c r="E219" s="30"/>
       <c r="F219" s="30"/>
       <c r="G219" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H219" s="30"/>
       <c r="I219" s="30"/>
@@ -8708,7 +8733,7 @@
       <c r="A220" s="93"/>
       <c r="B220" s="31"/>
       <c r="C220" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D220" s="31"/>
       <c r="E220" s="30"/>
@@ -8721,7 +8746,7 @@
       <c r="A221" s="93"/>
       <c r="B221" s="31"/>
       <c r="C221" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D221" s="31"/>
       <c r="E221" s="30"/>
@@ -8734,7 +8759,7 @@
       <c r="A222" s="93"/>
       <c r="B222" s="31"/>
       <c r="C222" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D222" s="31"/>
       <c r="E222" s="30"/>
@@ -8747,7 +8772,7 @@
       <c r="A223" s="93"/>
       <c r="B223" s="31"/>
       <c r="C223" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D223" s="31"/>
       <c r="E223" s="30"/>
@@ -8758,10 +8783,10 @@
     </row>
     <row r="224" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A224" s="92" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B224" s="31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C224" s="31" t="s">
         <v>189</v>
@@ -8770,7 +8795,7 @@
       <c r="E224" s="30"/>
       <c r="F224" s="30"/>
       <c r="G224" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H224" s="30"/>
       <c r="I224" s="30"/>
@@ -8779,7 +8804,7 @@
       <c r="A225" s="93"/>
       <c r="B225" s="31"/>
       <c r="C225" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D225" s="31"/>
       <c r="E225" s="30"/>
@@ -8792,7 +8817,7 @@
       <c r="A226" s="93"/>
       <c r="B226" s="31"/>
       <c r="C226" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D226" s="31"/>
       <c r="E226" s="30"/>
@@ -8805,7 +8830,7 @@
       <c r="A227" s="93"/>
       <c r="B227" s="31"/>
       <c r="C227" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D227" s="31"/>
       <c r="E227" s="30"/>
@@ -8818,7 +8843,7 @@
       <c r="A228" s="93"/>
       <c r="B228" s="31"/>
       <c r="C228" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D228" s="31"/>
       <c r="E228" s="30"/>
@@ -8829,10 +8854,10 @@
     </row>
     <row r="229" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A229" s="92" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C229" s="31" t="s">
         <v>189</v>
@@ -8841,7 +8866,7 @@
       <c r="E229" s="30"/>
       <c r="F229" s="30"/>
       <c r="G229" s="31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H229" s="30"/>
       <c r="I229" s="30"/>
@@ -8850,7 +8875,7 @@
       <c r="A230" s="93"/>
       <c r="B230" s="31"/>
       <c r="C230" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D230" s="31"/>
       <c r="E230" s="30"/>
@@ -8863,7 +8888,7 @@
       <c r="A231" s="93"/>
       <c r="B231" s="31"/>
       <c r="C231" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D231" s="31"/>
       <c r="E231" s="30"/>
@@ -8876,7 +8901,7 @@
       <c r="A232" s="93"/>
       <c r="B232" s="31"/>
       <c r="C232" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D232" s="31"/>
       <c r="E232" s="30"/>
@@ -8889,7 +8914,7 @@
       <c r="A233" s="93"/>
       <c r="B233" s="31"/>
       <c r="C233" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D233" s="31"/>
       <c r="E233" s="30"/>
@@ -8900,10 +8925,10 @@
     </row>
     <row r="234" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A234" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="B234" s="31" t="s">
         <v>350</v>
-      </c>
-      <c r="B234" s="31" t="s">
-        <v>351</v>
       </c>
       <c r="C234" s="31" t="s">
         <v>189</v>
@@ -8912,7 +8937,7 @@
       <c r="E234" s="30"/>
       <c r="F234" s="30"/>
       <c r="G234" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H234" s="30"/>
       <c r="I234" s="30"/>
@@ -8921,7 +8946,7 @@
       <c r="A235" s="93"/>
       <c r="B235" s="31"/>
       <c r="C235" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D235" s="31"/>
       <c r="E235" s="30"/>
@@ -8934,7 +8959,7 @@
       <c r="A236" s="93"/>
       <c r="B236" s="31"/>
       <c r="C236" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D236" s="31"/>
       <c r="E236" s="30"/>
@@ -8947,7 +8972,7 @@
       <c r="A237" s="93"/>
       <c r="B237" s="31"/>
       <c r="C237" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D237" s="31"/>
       <c r="E237" s="30"/>
@@ -8960,7 +8985,7 @@
       <c r="A238" s="93"/>
       <c r="B238" s="31"/>
       <c r="C238" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D238" s="31"/>
       <c r="E238" s="30"/>
@@ -8971,10 +8996,10 @@
     </row>
     <row r="239" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A239" s="92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C239" s="31" t="s">
         <v>189</v>
@@ -8983,7 +9008,7 @@
       <c r="E239" s="30"/>
       <c r="F239" s="30"/>
       <c r="G239" s="31" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H239" s="30"/>
       <c r="I239" s="30"/>
@@ -8992,7 +9017,7 @@
       <c r="A240" s="93"/>
       <c r="B240" s="31"/>
       <c r="C240" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D240" s="31"/>
       <c r="E240" s="30"/>
@@ -9005,7 +9030,7 @@
       <c r="A241" s="93"/>
       <c r="B241" s="31"/>
       <c r="C241" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D241" s="31"/>
       <c r="E241" s="30"/>
@@ -9018,7 +9043,7 @@
       <c r="A242" s="93"/>
       <c r="B242" s="39"/>
       <c r="C242" s="39" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D242" s="39"/>
       <c r="E242" s="40"/>
@@ -9029,10 +9054,10 @@
     </row>
     <row r="243" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A243" s="92" t="s">
-        <v>360</v>
-      </c>
-      <c r="B243" s="95" t="s">
-        <v>355</v>
+        <v>359</v>
+      </c>
+      <c r="B243" s="102" t="s">
+        <v>354</v>
       </c>
       <c r="C243" s="31" t="s">
         <v>189</v>
@@ -9048,9 +9073,9 @@
     </row>
     <row r="244" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A244" s="93"/>
-      <c r="B244" s="96"/>
+      <c r="B244" s="103"/>
       <c r="C244" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D244" s="31"/>
       <c r="E244" s="30"/>
@@ -9061,9 +9086,9 @@
     </row>
     <row r="245" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A245" s="93"/>
-      <c r="B245" s="97"/>
+      <c r="B245" s="104"/>
       <c r="C245" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D245" s="31"/>
       <c r="E245" s="30"/>
@@ -9076,7 +9101,7 @@
       <c r="A246" s="93"/>
       <c r="B246" s="31"/>
       <c r="C246" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D246" s="31"/>
       <c r="E246" s="30"/>
@@ -9089,7 +9114,7 @@
       <c r="A247" s="94"/>
       <c r="B247" s="31"/>
       <c r="C247" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D247" s="31"/>
       <c r="E247" s="30"/>
@@ -9100,10 +9125,10 @@
     </row>
     <row r="248" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A248" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="B248" s="95" t="s">
-        <v>369</v>
+        <v>366</v>
+      </c>
+      <c r="B248" s="102" t="s">
+        <v>368</v>
       </c>
       <c r="C248" s="31" t="s">
         <v>189</v>
@@ -9119,9 +9144,9 @@
     </row>
     <row r="249" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A249" s="93"/>
-      <c r="B249" s="96"/>
+      <c r="B249" s="103"/>
       <c r="C249" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D249" s="31"/>
       <c r="E249" s="30"/>
@@ -9132,9 +9157,9 @@
     </row>
     <row r="250" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A250" s="93"/>
-      <c r="B250" s="97"/>
+      <c r="B250" s="104"/>
       <c r="C250" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D250" s="31"/>
       <c r="E250" s="30"/>
@@ -9147,7 +9172,7 @@
       <c r="A251" s="93"/>
       <c r="B251" s="31"/>
       <c r="C251" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D251" s="31"/>
       <c r="E251" s="30"/>
@@ -9160,7 +9185,7 @@
       <c r="A252" s="94"/>
       <c r="B252" s="31"/>
       <c r="C252" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D252" s="31"/>
       <c r="E252" s="30"/>
@@ -9171,10 +9196,10 @@
     </row>
     <row r="253" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A253" s="92" t="s">
-        <v>368</v>
-      </c>
-      <c r="B253" s="95" t="s">
-        <v>371</v>
+        <v>367</v>
+      </c>
+      <c r="B253" s="102" t="s">
+        <v>370</v>
       </c>
       <c r="C253" s="31" t="s">
         <v>189</v>
@@ -9190,9 +9215,9 @@
     </row>
     <row r="254" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A254" s="93"/>
-      <c r="B254" s="96"/>
+      <c r="B254" s="103"/>
       <c r="C254" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D254" s="31"/>
       <c r="E254" s="30"/>
@@ -9203,9 +9228,9 @@
     </row>
     <row r="255" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A255" s="93"/>
-      <c r="B255" s="97"/>
+      <c r="B255" s="104"/>
       <c r="C255" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D255" s="31"/>
       <c r="E255" s="30"/>
@@ -9218,7 +9243,7 @@
       <c r="A256" s="93"/>
       <c r="B256" s="31"/>
       <c r="C256" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D256" s="31"/>
       <c r="E256" s="30"/>
@@ -9231,7 +9256,7 @@
       <c r="A257" s="94"/>
       <c r="B257" s="31"/>
       <c r="C257" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D257" s="31"/>
       <c r="E257" s="30"/>
@@ -9242,10 +9267,10 @@
     </row>
     <row r="258" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A258" s="92" t="s">
-        <v>373</v>
-      </c>
-      <c r="B258" s="95" t="s">
-        <v>376</v>
+        <v>372</v>
+      </c>
+      <c r="B258" s="102" t="s">
+        <v>375</v>
       </c>
       <c r="C258" s="31" t="s">
         <v>189</v>
@@ -9261,9 +9286,9 @@
     </row>
     <row r="259" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A259" s="93"/>
-      <c r="B259" s="96"/>
+      <c r="B259" s="103"/>
       <c r="C259" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D259" s="31"/>
       <c r="E259" s="30"/>
@@ -9274,9 +9299,9 @@
     </row>
     <row r="260" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A260" s="93"/>
-      <c r="B260" s="97"/>
+      <c r="B260" s="104"/>
       <c r="C260" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D260" s="31"/>
       <c r="E260" s="30"/>
@@ -9289,7 +9314,7 @@
       <c r="A261" s="93"/>
       <c r="B261" s="31"/>
       <c r="C261" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D261" s="31"/>
       <c r="E261" s="30"/>
@@ -9302,7 +9327,7 @@
       <c r="A262" s="94"/>
       <c r="B262" s="31"/>
       <c r="C262" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D262" s="31"/>
       <c r="E262" s="30"/>
@@ -9313,10 +9338,10 @@
     </row>
     <row r="263" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A263" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="B263" s="102" t="s">
         <v>374</v>
-      </c>
-      <c r="B263" s="95" t="s">
-        <v>375</v>
       </c>
       <c r="C263" s="31" t="s">
         <v>189</v>
@@ -9332,9 +9357,9 @@
     </row>
     <row r="264" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A264" s="93"/>
-      <c r="B264" s="96"/>
+      <c r="B264" s="103"/>
       <c r="C264" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D264" s="31"/>
       <c r="E264" s="30"/>
@@ -9345,9 +9370,9 @@
     </row>
     <row r="265" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A265" s="93"/>
-      <c r="B265" s="97"/>
+      <c r="B265" s="104"/>
       <c r="C265" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D265" s="31"/>
       <c r="E265" s="30"/>
@@ -9360,7 +9385,7 @@
       <c r="A266" s="93"/>
       <c r="B266" s="31"/>
       <c r="C266" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D266" s="31"/>
       <c r="E266" s="30"/>
@@ -9373,7 +9398,7 @@
       <c r="A267" s="94"/>
       <c r="B267" s="31"/>
       <c r="C267" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D267" s="31"/>
       <c r="E267" s="30"/>
@@ -9384,10 +9409,10 @@
     </row>
     <row r="268" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A268" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="B268" s="102" t="s">
         <v>379</v>
-      </c>
-      <c r="B268" s="95" t="s">
-        <v>380</v>
       </c>
       <c r="C268" s="31" t="s">
         <v>189</v>
@@ -9403,9 +9428,9 @@
     </row>
     <row r="269" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A269" s="93"/>
-      <c r="B269" s="96"/>
+      <c r="B269" s="103"/>
       <c r="C269" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D269" s="31"/>
       <c r="E269" s="30"/>
@@ -9416,9 +9441,9 @@
     </row>
     <row r="270" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A270" s="93"/>
-      <c r="B270" s="97"/>
+      <c r="B270" s="104"/>
       <c r="C270" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D270" s="31"/>
       <c r="E270" s="30"/>
@@ -9431,7 +9456,7 @@
       <c r="A271" s="93"/>
       <c r="B271" s="31"/>
       <c r="C271" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D271" s="31"/>
       <c r="E271" s="30"/>
@@ -9444,7 +9469,7 @@
       <c r="A272" s="94"/>
       <c r="B272" s="31"/>
       <c r="C272" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D272" s="31"/>
       <c r="E272" s="30"/>
@@ -9455,10 +9480,10 @@
     </row>
     <row r="273" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A273" s="92" t="s">
-        <v>382</v>
-      </c>
-      <c r="B273" s="95" t="s">
-        <v>384</v>
+        <v>381</v>
+      </c>
+      <c r="B273" s="102" t="s">
+        <v>383</v>
       </c>
       <c r="C273" s="31" t="s">
         <v>189</v>
@@ -9467,16 +9492,16 @@
       <c r="E273" s="30"/>
       <c r="F273" s="30"/>
       <c r="G273" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H273" s="30"/>
       <c r="I273" s="30"/>
     </row>
     <row r="274" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A274" s="93"/>
-      <c r="B274" s="96"/>
+      <c r="B274" s="103"/>
       <c r="C274" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D274" s="31"/>
       <c r="E274" s="30"/>
@@ -9487,9 +9512,9 @@
     </row>
     <row r="275" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A275" s="93"/>
-      <c r="B275" s="97"/>
+      <c r="B275" s="104"/>
       <c r="C275" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D275" s="31"/>
       <c r="E275" s="30"/>
@@ -9502,7 +9527,7 @@
       <c r="A276" s="93"/>
       <c r="B276" s="31"/>
       <c r="C276" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D276" s="31"/>
       <c r="E276" s="30"/>
@@ -9515,7 +9540,7 @@
       <c r="A277" s="94"/>
       <c r="B277" s="31"/>
       <c r="C277" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D277" s="31"/>
       <c r="E277" s="30"/>
@@ -9526,10 +9551,10 @@
     </row>
     <row r="278" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A278" s="92" t="s">
-        <v>383</v>
-      </c>
-      <c r="B278" s="95" t="s">
-        <v>388</v>
+        <v>382</v>
+      </c>
+      <c r="B278" s="102" t="s">
+        <v>387</v>
       </c>
       <c r="C278" s="31" t="s">
         <v>189</v>
@@ -9538,16 +9563,16 @@
       <c r="E278" s="30"/>
       <c r="F278" s="30"/>
       <c r="G278" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H278" s="30"/>
       <c r="I278" s="30"/>
     </row>
     <row r="279" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A279" s="93"/>
-      <c r="B279" s="96"/>
+      <c r="B279" s="103"/>
       <c r="C279" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D279" s="31"/>
       <c r="E279" s="30"/>
@@ -9558,9 +9583,9 @@
     </row>
     <row r="280" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A280" s="93"/>
-      <c r="B280" s="97"/>
+      <c r="B280" s="104"/>
       <c r="C280" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D280" s="31"/>
       <c r="E280" s="30"/>
@@ -9573,7 +9598,7 @@
       <c r="A281" s="93"/>
       <c r="B281" s="31"/>
       <c r="C281" s="31" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D281" s="31"/>
       <c r="E281" s="30"/>
@@ -9586,7 +9611,7 @@
       <c r="A282" s="94"/>
       <c r="B282" s="31"/>
       <c r="C282" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D282" s="31"/>
       <c r="E282" s="30"/>
@@ -9597,10 +9622,10 @@
     </row>
     <row r="283" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="B283" s="31" t="s">
         <v>390</v>
-      </c>
-      <c r="B283" s="31" t="s">
-        <v>391</v>
       </c>
       <c r="C283" s="31" t="s">
         <v>189</v>
@@ -9609,7 +9634,7 @@
       <c r="E283" s="30"/>
       <c r="F283" s="30"/>
       <c r="G283" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H283" s="30"/>
       <c r="I283" s="30"/>
@@ -9618,7 +9643,7 @@
       <c r="A284" s="93"/>
       <c r="B284" s="31"/>
       <c r="C284" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D284" s="31"/>
       <c r="E284" s="30"/>
@@ -9631,7 +9656,7 @@
       <c r="A285" s="93"/>
       <c r="B285" s="31"/>
       <c r="C285" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D285" s="31"/>
       <c r="E285" s="30"/>
@@ -9644,7 +9669,7 @@
       <c r="A286" s="93"/>
       <c r="B286" s="31"/>
       <c r="C286" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D286" s="31"/>
       <c r="E286" s="30"/>
@@ -9657,7 +9682,7 @@
       <c r="A287" s="94"/>
       <c r="B287" s="31"/>
       <c r="C287" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D287" s="31"/>
       <c r="E287" s="30"/>
@@ -11625,49 +11650,66 @@
       <c r="I465" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A135"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A136:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
+  <mergeCells count="119">
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B126:B135"/>
+    <mergeCell ref="B136:B145"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="B268:B270"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A278:A282"/>
+    <mergeCell ref="B273:B275"/>
+    <mergeCell ref="B278:B280"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="B253:B255"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="B258:B260"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A224:A228"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -11686,58 +11728,48 @@
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A278:A282"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A135"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90143C82-D613-403D-BD7C-9EC1673CFFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C88B78-D15F-4385-A642-155B536FFB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1710,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2010,15 +2010,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2312,7 +2303,7 @@
   <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
@@ -5519,8 +5510,8 @@
   <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146:B150"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199:B203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7351,7 +7342,7 @@
       <c r="A122" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="108" t="s">
+      <c r="B122" s="105" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -7368,7 +7359,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="93"/>
-      <c r="B123" s="109"/>
+      <c r="B123" s="106"/>
       <c r="C123" s="31" t="s">
         <v>242</v>
       </c>
@@ -7381,7 +7372,7 @@
     </row>
     <row r="124" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="93"/>
-      <c r="B124" s="109"/>
+      <c r="B124" s="106"/>
       <c r="C124" s="31" t="s">
         <v>243</v>
       </c>
@@ -7394,7 +7385,7 @@
     </row>
     <row r="125" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A125" s="94"/>
-      <c r="B125" s="110"/>
+      <c r="B125" s="107"/>
       <c r="C125" s="31" t="s">
         <v>244</v>
       </c>
@@ -7681,7 +7672,7 @@
       <c r="A146" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="B146" s="105" t="s">
+      <c r="B146" s="96" t="s">
         <v>270</v>
       </c>
       <c r="C146" s="31" t="s">
@@ -7698,7 +7689,7 @@
     </row>
     <row r="147" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="93"/>
-      <c r="B147" s="106"/>
+      <c r="B147" s="97"/>
       <c r="C147" s="31" t="s">
         <v>265</v>
       </c>
@@ -7711,7 +7702,7 @@
     </row>
     <row r="148" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A148" s="93"/>
-      <c r="B148" s="106"/>
+      <c r="B148" s="97"/>
       <c r="C148" s="31" t="s">
         <v>266</v>
       </c>
@@ -7724,7 +7715,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="93"/>
-      <c r="B149" s="106"/>
+      <c r="B149" s="97"/>
       <c r="C149" s="31" t="s">
         <v>267</v>
       </c>
@@ -7737,7 +7728,7 @@
     </row>
     <row r="150" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A150" s="93"/>
-      <c r="B150" s="107"/>
+      <c r="B150" s="98"/>
       <c r="C150" s="22" t="s">
         <v>394</v>
       </c>
@@ -7748,11 +7739,11 @@
       <c r="H150" s="30"/>
       <c r="I150" s="30"/>
     </row>
-    <row r="151" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="B151" s="31" t="s">
+      <c r="B151" s="96" t="s">
         <v>271</v>
       </c>
       <c r="C151" s="31" t="s">
@@ -7769,7 +7760,7 @@
     </row>
     <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="93"/>
-      <c r="B152" s="31"/>
+      <c r="B152" s="97"/>
       <c r="C152" s="31" t="s">
         <v>265</v>
       </c>
@@ -7782,7 +7773,7 @@
     </row>
     <row r="153" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A153" s="93"/>
-      <c r="B153" s="31"/>
+      <c r="B153" s="97"/>
       <c r="C153" s="31" t="s">
         <v>266</v>
       </c>
@@ -7795,7 +7786,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="93"/>
-      <c r="B154" s="31"/>
+      <c r="B154" s="97"/>
       <c r="C154" s="31" t="s">
         <v>267</v>
       </c>
@@ -7808,7 +7799,7 @@
     </row>
     <row r="155" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A155" s="93"/>
-      <c r="B155" s="39"/>
+      <c r="B155" s="98"/>
       <c r="C155" s="22" t="s">
         <v>275</v>
       </c>
@@ -7819,11 +7810,11 @@
       <c r="H155" s="30"/>
       <c r="I155" s="30"/>
     </row>
-    <row r="156" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="B156" s="31" t="s">
+      <c r="B156" s="96" t="s">
         <v>281</v>
       </c>
       <c r="C156" s="31" t="s">
@@ -7840,7 +7831,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="93"/>
-      <c r="B157" s="31"/>
+      <c r="B157" s="97"/>
       <c r="C157" s="31" t="s">
         <v>273</v>
       </c>
@@ -7853,7 +7844,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="93"/>
-      <c r="B158" s="31"/>
+      <c r="B158" s="97"/>
       <c r="C158" s="31" t="s">
         <v>274</v>
       </c>
@@ -7866,7 +7857,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="93"/>
-      <c r="B159" s="31"/>
+      <c r="B159" s="97"/>
       <c r="C159" s="31" t="s">
         <v>278</v>
       </c>
@@ -7879,7 +7870,7 @@
     </row>
     <row r="160" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A160" s="93"/>
-      <c r="B160" s="31"/>
+      <c r="B160" s="98"/>
       <c r="C160" s="31" t="s">
         <v>279</v>
       </c>
@@ -7890,11 +7881,11 @@
       <c r="H160" s="30"/>
       <c r="I160" s="30"/>
     </row>
-    <row r="161" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="B161" s="31" t="s">
+      <c r="B161" s="96" t="s">
         <v>280</v>
       </c>
       <c r="C161" s="31" t="s">
@@ -7911,7 +7902,7 @@
     </row>
     <row r="162" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A162" s="95"/>
-      <c r="B162" s="31"/>
+      <c r="B162" s="97"/>
       <c r="C162" s="31" t="s">
         <v>283</v>
       </c>
@@ -7924,7 +7915,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="95"/>
-      <c r="B163" s="31"/>
+      <c r="B163" s="97"/>
       <c r="C163" s="31" t="s">
         <v>282</v>
       </c>
@@ -7937,7 +7928,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="95"/>
-      <c r="B164" s="31"/>
+      <c r="B164" s="97"/>
       <c r="C164" s="31" t="s">
         <v>278</v>
       </c>
@@ -7950,7 +7941,7 @@
     </row>
     <row r="165" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A165" s="95"/>
-      <c r="B165" s="31"/>
+      <c r="B165" s="98"/>
       <c r="C165" s="31" t="s">
         <v>284</v>
       </c>
@@ -7965,7 +7956,7 @@
       <c r="A166" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="96" t="s">
         <v>289</v>
       </c>
       <c r="C166" s="31" t="s">
@@ -7982,7 +7973,7 @@
     </row>
     <row r="167" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="93"/>
-      <c r="B167" s="31"/>
+      <c r="B167" s="97"/>
       <c r="C167" s="31" t="s">
         <v>290</v>
       </c>
@@ -7995,7 +7986,7 @@
     </row>
     <row r="168" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="93"/>
-      <c r="B168" s="31"/>
+      <c r="B168" s="97"/>
       <c r="C168" s="31" t="s">
         <v>291</v>
       </c>
@@ -8008,7 +7999,7 @@
     </row>
     <row r="169" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A169" s="94"/>
-      <c r="B169" s="31"/>
+      <c r="B169" s="98"/>
       <c r="C169" s="31" t="s">
         <v>292</v>
       </c>
@@ -8019,11 +8010,11 @@
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
     </row>
-    <row r="170" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="B170" s="31" t="s">
+      <c r="B170" s="96" t="s">
         <v>286</v>
       </c>
       <c r="C170" s="31" t="s">
@@ -8040,7 +8031,7 @@
     </row>
     <row r="171" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A171" s="93"/>
-      <c r="B171" s="31"/>
+      <c r="B171" s="97"/>
       <c r="C171" s="31" t="s">
         <v>265</v>
       </c>
@@ -8053,7 +8044,7 @@
     </row>
     <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A172" s="93"/>
-      <c r="B172" s="31"/>
+      <c r="B172" s="97"/>
       <c r="C172" s="31" t="s">
         <v>266</v>
       </c>
@@ -8066,7 +8057,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="93"/>
-      <c r="B173" s="31"/>
+      <c r="B173" s="97"/>
       <c r="C173" s="31" t="s">
         <v>267</v>
       </c>
@@ -8079,7 +8070,7 @@
     </row>
     <row r="174" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A174" s="93"/>
-      <c r="B174" s="31"/>
+      <c r="B174" s="97"/>
       <c r="C174" s="22" t="s">
         <v>287</v>
       </c>
@@ -8092,7 +8083,7 @@
     </row>
     <row r="175" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A175" s="94"/>
-      <c r="B175" s="31"/>
+      <c r="B175" s="98"/>
       <c r="C175" s="31" t="s">
         <v>288</v>
       </c>
@@ -8103,11 +8094,11 @@
       <c r="H175" s="30"/>
       <c r="I175" s="30"/>
     </row>
-    <row r="176" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="B176" s="31" t="s">
+      <c r="B176" s="96" t="s">
         <v>286</v>
       </c>
       <c r="C176" s="31" t="s">
@@ -8124,7 +8115,7 @@
     </row>
     <row r="177" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A177" s="93"/>
-      <c r="B177" s="31"/>
+      <c r="B177" s="97"/>
       <c r="C177" s="31" t="s">
         <v>265</v>
       </c>
@@ -8137,7 +8128,7 @@
     </row>
     <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="93"/>
-      <c r="B178" s="31"/>
+      <c r="B178" s="97"/>
       <c r="C178" s="31" t="s">
         <v>266</v>
       </c>
@@ -8150,7 +8141,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="93"/>
-      <c r="B179" s="31"/>
+      <c r="B179" s="97"/>
       <c r="C179" s="31" t="s">
         <v>267</v>
       </c>
@@ -8163,7 +8154,7 @@
     </row>
     <row r="180" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A180" s="93"/>
-      <c r="B180" s="31"/>
+      <c r="B180" s="97"/>
       <c r="C180" s="22" t="s">
         <v>287</v>
       </c>
@@ -8176,7 +8167,7 @@
     </row>
     <row r="181" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A181" s="94"/>
-      <c r="B181" s="31"/>
+      <c r="B181" s="98"/>
       <c r="C181" s="31" t="s">
         <v>297</v>
       </c>
@@ -8187,11 +8178,11 @@
       <c r="H181" s="30"/>
       <c r="I181" s="30"/>
     </row>
-    <row r="182" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="B182" s="31" t="s">
+      <c r="B182" s="96" t="s">
         <v>300</v>
       </c>
       <c r="C182" s="31" t="s">
@@ -8208,7 +8199,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="93"/>
-      <c r="B183" s="31"/>
+      <c r="B183" s="97"/>
       <c r="C183" s="31" t="s">
         <v>273</v>
       </c>
@@ -8221,7 +8212,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="93"/>
-      <c r="B184" s="31"/>
+      <c r="B184" s="97"/>
       <c r="C184" s="31" t="s">
         <v>274</v>
       </c>
@@ -8234,7 +8225,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="93"/>
-      <c r="B185" s="31"/>
+      <c r="B185" s="97"/>
       <c r="C185" s="31" t="s">
         <v>278</v>
       </c>
@@ -8247,7 +8238,7 @@
     </row>
     <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A186" s="93"/>
-      <c r="B186" s="31"/>
+      <c r="B186" s="97"/>
       <c r="C186" s="31" t="s">
         <v>305</v>
       </c>
@@ -8260,7 +8251,7 @@
     </row>
     <row r="187" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A187" s="94"/>
-      <c r="B187" s="31"/>
+      <c r="B187" s="98"/>
       <c r="C187" s="31" t="s">
         <v>302</v>
       </c>
@@ -8271,11 +8262,11 @@
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
     </row>
-    <row r="188" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="B188" s="31" t="s">
+      <c r="B188" s="96" t="s">
         <v>304</v>
       </c>
       <c r="C188" s="31" t="s">
@@ -8292,7 +8283,7 @@
     </row>
     <row r="189" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A189" s="93"/>
-      <c r="B189" s="31"/>
+      <c r="B189" s="97"/>
       <c r="C189" s="31" t="s">
         <v>283</v>
       </c>
@@ -8305,7 +8296,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="93"/>
-      <c r="B190" s="31"/>
+      <c r="B190" s="97"/>
       <c r="C190" s="31" t="s">
         <v>282</v>
       </c>
@@ -8318,7 +8309,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="93"/>
-      <c r="B191" s="31"/>
+      <c r="B191" s="97"/>
       <c r="C191" s="31" t="s">
         <v>278</v>
       </c>
@@ -8331,7 +8322,7 @@
     </row>
     <row r="192" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A192" s="93"/>
-      <c r="B192" s="31"/>
+      <c r="B192" s="97"/>
       <c r="C192" s="31" t="s">
         <v>305</v>
       </c>
@@ -8344,7 +8335,7 @@
     </row>
     <row r="193" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A193" s="94"/>
-      <c r="B193" s="31"/>
+      <c r="B193" s="98"/>
       <c r="C193" s="31" t="s">
         <v>306</v>
       </c>
@@ -8355,11 +8346,11 @@
       <c r="H193" s="30"/>
       <c r="I193" s="30"/>
     </row>
-    <row r="194" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="92" t="s">
         <v>307</v>
       </c>
-      <c r="B194" s="31" t="s">
+      <c r="B194" s="96" t="s">
         <v>309</v>
       </c>
       <c r="C194" s="31" t="s">
@@ -8376,7 +8367,7 @@
     </row>
     <row r="195" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="93"/>
-      <c r="B195" s="31"/>
+      <c r="B195" s="97"/>
       <c r="C195" s="31" t="s">
         <v>308</v>
       </c>
@@ -8389,7 +8380,7 @@
     </row>
     <row r="196" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="93"/>
-      <c r="B196" s="31"/>
+      <c r="B196" s="97"/>
       <c r="C196" s="31" t="s">
         <v>310</v>
       </c>
@@ -8402,7 +8393,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="93"/>
-      <c r="B197" s="31"/>
+      <c r="B197" s="97"/>
       <c r="C197" s="31" t="s">
         <v>311</v>
       </c>
@@ -8415,7 +8406,7 @@
     </row>
     <row r="198" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A198" s="93"/>
-      <c r="B198" s="31"/>
+      <c r="B198" s="98"/>
       <c r="C198" s="31" t="s">
         <v>316</v>
       </c>
@@ -8426,11 +8417,11 @@
       <c r="H198" s="30"/>
       <c r="I198" s="30"/>
     </row>
-    <row r="199" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="92" t="s">
         <v>313</v>
       </c>
-      <c r="B199" s="31" t="s">
+      <c r="B199" s="96" t="s">
         <v>314</v>
       </c>
       <c r="C199" s="31" t="s">
@@ -8447,7 +8438,7 @@
     </row>
     <row r="200" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="93"/>
-      <c r="B200" s="31"/>
+      <c r="B200" s="97"/>
       <c r="C200" s="31" t="s">
         <v>308</v>
       </c>
@@ -8460,7 +8451,7 @@
     </row>
     <row r="201" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="93"/>
-      <c r="B201" s="31"/>
+      <c r="B201" s="97"/>
       <c r="C201" s="31" t="s">
         <v>317</v>
       </c>
@@ -8473,7 +8464,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="93"/>
-      <c r="B202" s="31"/>
+      <c r="B202" s="97"/>
       <c r="C202" s="31" t="s">
         <v>311</v>
       </c>
@@ -8486,7 +8477,7 @@
     </row>
     <row r="203" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A203" s="93"/>
-      <c r="B203" s="31"/>
+      <c r="B203" s="98"/>
       <c r="C203" s="31" t="s">
         <v>315</v>
       </c>
@@ -11650,7 +11641,15 @@
       <c r="I465" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
+  <mergeCells count="129">
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="B199:B203"/>
     <mergeCell ref="B113:B115"/>
     <mergeCell ref="B116:B118"/>
     <mergeCell ref="B119:B121"/>
@@ -11658,6 +11657,8 @@
     <mergeCell ref="B126:B135"/>
     <mergeCell ref="B136:B145"/>
     <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B160"/>
     <mergeCell ref="A283:A287"/>
     <mergeCell ref="A268:A272"/>
     <mergeCell ref="B268:B270"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C88B78-D15F-4385-A642-155B536FFB9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02EC59-3984-4810-8C99-1A31BF1C76ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -763,9 +763,6 @@
     <t>2.click on"Itenerary" link</t>
   </si>
   <si>
-    <t>3.then click "Cancel all Reservations" button</t>
-  </si>
-  <si>
     <t>4.verify user is navigated to"http://newtours.demoaut.com/mercurywelcome.php"</t>
   </si>
   <si>
@@ -1265,6 +1262,9 @@
   </si>
   <si>
     <t>5.Verify under DEPART SECTION check label is showing "London to New York"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.then click "Cancel all Reservations" button </t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1818,6 +1818,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1827,14 +1839,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1845,19 +1860,64 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,9 +1937,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1905,71 +1962,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1980,18 +1998,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2001,23 +2007,8 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2351,722 +2342,722 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="81" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="69"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="63"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
-      <c r="B3" s="51"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="70"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="63"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="67"/>
+      <c r="F3" s="82"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="63"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="67"/>
+      <c r="F4" s="82"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="63"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="67"/>
+      <c r="F5" s="82"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="86"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="64"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="68"/>
+      <c r="F6" s="83"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="87"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="44" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="73"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="58"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="74"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="59"/>
+      <c r="F8" s="73"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="79"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="70"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="74"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="59"/>
+      <c r="F9" s="73"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="70"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="74"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="59"/>
+      <c r="F10" s="73"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="79"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="75"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="60"/>
+      <c r="F11" s="74"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="80"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="44" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="79"/>
-      <c r="F12" s="82"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="66"/>
       <c r="G12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="79"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="60"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="83"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="80"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="67"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="61"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="83"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="80"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="67"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="61"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="83"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="80"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="67"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="71"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="84"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="81"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="68"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="44" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="82"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="76"/>
-      <c r="I17" s="79"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="60"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="83"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="80"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="67"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="83"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="80"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="67"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="83"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="80"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="67"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="61"/>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="71"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="84"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="81"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="68"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="44" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="82"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="79"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="83"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="80"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="67"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="61"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="83"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="80"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="67"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="61"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="69"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="83"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="80"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="67"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="61"/>
     </row>
     <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="51"/>
+      <c r="A26" s="69"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="83"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="80"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="67"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="61"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="51"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="83"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="80"/>
+      <c r="A27" s="69"/>
+      <c r="B27" s="44"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="67"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="61"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="51"/>
+      <c r="A28" s="69"/>
+      <c r="B28" s="44"/>
       <c r="D28" s="71"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="84"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="81"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="68"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="44" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="73"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="76"/>
-      <c r="I29" s="79"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="44"/>
       <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="74"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="80"/>
+      <c r="F30" s="73"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="61"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="44"/>
       <c r="C31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="74"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="80"/>
+      <c r="F31" s="73"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="50"/>
-      <c r="B32" s="51"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="74"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="80"/>
+      <c r="F32" s="73"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="44"/>
       <c r="C33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="70"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="74"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="80"/>
+      <c r="F33" s="73"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="51"/>
-      <c r="D34" s="70"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="44"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="74"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="80"/>
+      <c r="F34" s="73"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="61"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="50"/>
-      <c r="B35" s="51"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="44"/>
       <c r="D35" s="71"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="75"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="81"/>
+      <c r="F35" s="74"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="44" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="82"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="79"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="70"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="83"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="80"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="67"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="61"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="51"/>
+      <c r="A38" s="69"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="70"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="83"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="80"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="67"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="61"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="51"/>
+      <c r="A39" s="69"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="83"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="80"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="67"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="61"/>
     </row>
     <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="51"/>
+      <c r="A40" s="69"/>
+      <c r="B40" s="44"/>
       <c r="C40" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="83"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="80"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="67"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="61"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="51"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="83"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="80"/>
+      <c r="A41" s="69"/>
+      <c r="B41" s="44"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="67"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="61"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="69"/>
+      <c r="B42" s="44"/>
       <c r="D42" s="71"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="84"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="81"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="68"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="44" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="72" t="s">
+      <c r="D43" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="82"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="66"/>
       <c r="G43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="76"/>
-      <c r="I43" s="79"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="60"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="50"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="83"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="80"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="67"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="61"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="83"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="80"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="67"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="61"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="70"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="83"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="80"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="67"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="83"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="80"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="67"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="50"/>
-      <c r="B48" s="51"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="83"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="80"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="44"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="67"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="61"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="44"/>
       <c r="D49" s="71"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="84"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="81"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="68"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="63"/>
     </row>
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="70" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="72" t="s">
+      <c r="D50" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="79"/>
-      <c r="F50" s="82"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="66"/>
       <c r="G50" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="76"/>
-      <c r="I50" s="79"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="60"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="48"/>
-      <c r="B51" s="85"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="83"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="80"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="67"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="61"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="48"/>
-      <c r="B52" s="85"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="70"/>
       <c r="C52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="70"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="83"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="80"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="67"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="61"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="48"/>
-      <c r="B53" s="85"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="83"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="80"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="67"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="61"/>
     </row>
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="48"/>
-      <c r="B54" s="85"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="70"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="83"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="80"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="67"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="61"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="48"/>
-      <c r="B55" s="85"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="83"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="80"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="70"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="67"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="61"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="49"/>
-      <c r="B56" s="85"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="84"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="80"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="70"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="68"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="61"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D57" s="34" t="s">
@@ -3081,9 +3072,9 @@
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="50"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="90"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="34"/>
       <c r="E58" s="14"/>
       <c r="F58" s="17"/>
@@ -3091,8 +3082,8 @@
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="50"/>
-      <c r="B59" s="51"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="13" t="s">
         <v>22</v>
       </c>
@@ -3103,8 +3094,8 @@
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="50"/>
-      <c r="B60" s="51"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="13" t="s">
         <v>21</v>
       </c>
@@ -3115,8 +3106,8 @@
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="13" t="s">
         <v>181</v>
       </c>
@@ -3127,8 +3118,8 @@
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="50"/>
-      <c r="B62" s="51"/>
+      <c r="A62" s="51"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="13" t="s">
         <v>183</v>
       </c>
@@ -3139,8 +3130,8 @@
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="50"/>
-      <c r="B63" s="51"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="44"/>
       <c r="D63" s="34"/>
       <c r="E63" s="14"/>
       <c r="F63" s="17"/>
@@ -3148,13 +3139,13 @@
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D64" s="34" t="s">
@@ -3169,9 +3160,9 @@
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="90"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="34"/>
       <c r="E65" s="14"/>
       <c r="F65" s="17"/>
@@ -3179,8 +3170,8 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="48"/>
-      <c r="B66" s="51"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="13" t="s">
         <v>22</v>
       </c>
@@ -3191,8 +3182,8 @@
       <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="48"/>
-      <c r="B67" s="51"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="13" t="s">
         <v>23</v>
       </c>
@@ -3203,8 +3194,8 @@
       <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="48"/>
-      <c r="B68" s="51"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="13" t="s">
         <v>181</v>
       </c>
@@ -3215,8 +3206,8 @@
       <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="48"/>
-      <c r="B69" s="51"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="13" t="s">
         <v>182</v>
       </c>
@@ -3227,8 +3218,8 @@
       <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="49"/>
-      <c r="B70" s="51"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="44"/>
       <c r="D70" s="34"/>
       <c r="E70" s="14"/>
       <c r="F70" s="17"/>
@@ -3236,13 +3227,13 @@
       <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="86" t="s">
+      <c r="A71" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="89" t="s">
+      <c r="C71" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D71" s="34" t="s">
@@ -3257,9 +3248,9 @@
       <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="87"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="90"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="34"/>
       <c r="E72" s="14"/>
       <c r="F72" s="17"/>
@@ -3267,8 +3258,8 @@
       <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="87"/>
-      <c r="B73" s="42"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="46"/>
       <c r="D73" s="34"/>
       <c r="E73" s="14"/>
       <c r="F73" s="17"/>
@@ -3276,8 +3267,8 @@
       <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
-      <c r="B74" s="42"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="13" t="s">
         <v>20</v>
       </c>
@@ -3288,8 +3279,8 @@
       <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="87"/>
-      <c r="B75" s="42"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="13" t="s">
         <v>23</v>
       </c>
@@ -3300,8 +3291,8 @@
       <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="87"/>
-      <c r="B76" s="42"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="13" t="s">
         <v>181</v>
       </c>
@@ -3312,8 +3303,8 @@
       <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="88"/>
-      <c r="B77" s="43"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="13" t="s">
         <v>185</v>
       </c>
@@ -3324,13 +3315,13 @@
       <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="89" t="s">
+      <c r="C78" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D78" s="34" t="s">
@@ -3345,9 +3336,9 @@
       <c r="I78" s="14"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="48"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="90"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="34"/>
       <c r="E79" s="14"/>
       <c r="F79" s="17"/>
@@ -3355,8 +3346,8 @@
       <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="48"/>
-      <c r="B80" s="53"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="49"/>
       <c r="D80" s="34"/>
       <c r="E80" s="14"/>
       <c r="F80" s="17"/>
@@ -3364,8 +3355,8 @@
       <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="48"/>
-      <c r="B81" s="53"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="49"/>
       <c r="C81" s="13" t="s">
         <v>20</v>
       </c>
@@ -3376,8 +3367,8 @@
       <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="48"/>
-      <c r="B82" s="53"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="49"/>
       <c r="C82" s="13" t="s">
         <v>21</v>
       </c>
@@ -3388,8 +3379,8 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="48"/>
-      <c r="B83" s="53"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="13" t="s">
         <v>181</v>
       </c>
@@ -3400,8 +3391,8 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="49"/>
-      <c r="B84" s="54"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="13" t="s">
         <v>185</v>
       </c>
@@ -3412,13 +3403,13 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="51" t="s">
+      <c r="B85" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="89" t="s">
+      <c r="C85" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D85" s="34" t="s">
@@ -3433,9 +3424,9 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="50"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="91"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="42"/>
       <c r="D86" s="34"/>
       <c r="E86" s="2"/>
       <c r="F86" s="18"/>
@@ -3443,9 +3434,9 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="50"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="90"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="34"/>
       <c r="E87" s="2"/>
       <c r="F87" s="18"/>
@@ -3453,8 +3444,8 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="50"/>
-      <c r="B88" s="51"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="13" t="s">
         <v>22</v>
       </c>
@@ -3465,8 +3456,8 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="50"/>
-      <c r="B89" s="51"/>
+      <c r="A89" s="51"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="13" t="s">
         <v>21</v>
       </c>
@@ -3477,8 +3468,8 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="50"/>
-      <c r="B90" s="51"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="13" t="s">
         <v>181</v>
       </c>
@@ -3489,8 +3480,8 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="50"/>
-      <c r="B91" s="51"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="13" t="s">
         <v>185</v>
       </c>
@@ -3501,13 +3492,13 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="89" t="s">
+      <c r="C92" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D92" s="34" t="s">
@@ -3522,9 +3513,9 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="48"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="91"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="34"/>
       <c r="E93" s="2"/>
       <c r="F93" s="18"/>
@@ -3532,9 +3523,9 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="48"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="90"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="34"/>
       <c r="E94" s="2"/>
       <c r="F94" s="18"/>
@@ -3542,8 +3533,8 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="48"/>
-      <c r="B95" s="51"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="13" t="s">
         <v>22</v>
       </c>
@@ -3554,8 +3545,8 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="48"/>
-      <c r="B96" s="51"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="13" t="s">
         <v>23</v>
       </c>
@@ -3566,8 +3557,8 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="48"/>
-      <c r="B97" s="51"/>
+      <c r="A97" s="53"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="13" t="s">
         <v>181</v>
       </c>
@@ -3578,8 +3569,8 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="49"/>
-      <c r="B98" s="51"/>
+      <c r="A98" s="54"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="13" t="s">
         <v>182</v>
       </c>
@@ -3590,13 +3581,13 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="50" t="s">
+      <c r="A99" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="51" t="s">
+      <c r="B99" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="89" t="s">
+      <c r="C99" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="34" t="s">
@@ -3611,9 +3602,9 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="50"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="91"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="42"/>
       <c r="D100" s="34"/>
       <c r="E100" s="2"/>
       <c r="F100" s="18"/>
@@ -3621,9 +3612,9 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="50"/>
-      <c r="B101" s="51"/>
-      <c r="C101" s="90"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="43"/>
       <c r="D101" s="34"/>
       <c r="E101" s="2"/>
       <c r="F101" s="18"/>
@@ -3631,8 +3622,8 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="50"/>
-      <c r="B102" s="51"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="44"/>
       <c r="C102" s="13" t="s">
         <v>42</v>
       </c>
@@ -3643,8 +3634,8 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="50"/>
-      <c r="B103" s="51"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="44"/>
       <c r="C103" s="13" t="s">
         <v>43</v>
       </c>
@@ -3655,8 +3646,8 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="50"/>
-      <c r="B104" s="51"/>
+      <c r="A104" s="51"/>
+      <c r="B104" s="44"/>
       <c r="C104" s="13" t="s">
         <v>44</v>
       </c>
@@ -3667,8 +3658,8 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="50"/>
-      <c r="B105" s="51"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="44"/>
       <c r="C105" s="13" t="s">
         <v>53</v>
       </c>
@@ -3679,13 +3670,13 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="89" t="s">
+      <c r="C106" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D106" s="34" t="s">
@@ -3700,9 +3691,9 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="48"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="91"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="49"/>
+      <c r="C107" s="42"/>
       <c r="D107" s="34"/>
       <c r="E107" s="2"/>
       <c r="F107" s="18"/>
@@ -3710,9 +3701,9 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="48"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="90"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="49"/>
+      <c r="C108" s="43"/>
       <c r="D108" s="34"/>
       <c r="E108" s="2"/>
       <c r="F108" s="18"/>
@@ -3720,8 +3711,8 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="48"/>
-      <c r="B109" s="53"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="49"/>
       <c r="C109" s="13" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3723,8 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="48"/>
-      <c r="B110" s="53"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="49"/>
       <c r="C110" s="13" t="s">
         <v>21</v>
       </c>
@@ -3744,8 +3735,8 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="48"/>
-      <c r="B111" s="53"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="49"/>
       <c r="C111" s="13" t="s">
         <v>181</v>
       </c>
@@ -3756,8 +3747,8 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="49"/>
-      <c r="B112" s="54"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="13" t="s">
         <v>185</v>
       </c>
@@ -3768,10 +3759,10 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -3789,8 +3780,8 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="45"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="90"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="13" t="s">
         <v>22</v>
       </c>
@@ -3801,8 +3792,8 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="45"/>
-      <c r="B115" s="42"/>
+      <c r="A115" s="90"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="13" t="s">
         <v>23</v>
       </c>
@@ -3813,8 +3804,8 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="45"/>
-      <c r="B116" s="42"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="13" t="s">
         <v>68</v>
       </c>
@@ -3825,8 +3816,8 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="45"/>
-      <c r="B117" s="42"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="13" t="s">
         <v>174</v>
       </c>
@@ -3837,8 +3828,8 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="45"/>
-      <c r="B118" s="42"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="13" t="s">
         <v>69</v>
       </c>
@@ -3849,8 +3840,8 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="46"/>
-      <c r="B119" s="43"/>
+      <c r="A119" s="91"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="13" t="s">
         <v>53</v>
       </c>
@@ -3861,10 +3852,10 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="45" t="s">
         <v>70</v>
       </c>
       <c r="C120" s="13" t="s">
@@ -3882,8 +3873,8 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="48"/>
-      <c r="B121" s="42"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="46"/>
       <c r="D121" s="34"/>
       <c r="E121" s="2"/>
       <c r="F121" s="18"/>
@@ -3891,8 +3882,8 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="48"/>
-      <c r="B122" s="42"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="13" t="s">
         <v>22</v>
       </c>
@@ -3903,8 +3894,8 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="48"/>
-      <c r="B123" s="42"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="13" t="s">
         <v>23</v>
       </c>
@@ -3915,8 +3906,8 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="48"/>
-      <c r="B124" s="42"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="13" t="s">
         <v>71</v>
       </c>
@@ -3927,8 +3918,8 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="48"/>
-      <c r="B125" s="42"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="13" t="s">
         <v>72</v>
       </c>
@@ -3939,8 +3930,8 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="48"/>
-      <c r="B126" s="42"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="13" t="s">
         <v>73</v>
       </c>
@@ -3951,8 +3942,8 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="49"/>
-      <c r="B127" s="43"/>
+      <c r="A127" s="54"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="13" t="s">
         <v>74</v>
       </c>
@@ -3963,10 +3954,10 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="47" t="s">
+      <c r="A128" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="41" t="s">
+      <c r="B128" s="45" t="s">
         <v>75</v>
       </c>
       <c r="C128" s="13" t="s">
@@ -3984,8 +3975,8 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="48"/>
-      <c r="B129" s="42"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="46"/>
       <c r="D129" s="34"/>
       <c r="E129" s="2"/>
       <c r="F129" s="18"/>
@@ -3993,8 +3984,8 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="48"/>
-      <c r="B130" s="42"/>
+      <c r="A130" s="53"/>
+      <c r="B130" s="46"/>
       <c r="C130" s="13" t="s">
         <v>22</v>
       </c>
@@ -4005,8 +3996,8 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="48"/>
-      <c r="B131" s="42"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="13" t="s">
         <v>23</v>
       </c>
@@ -4017,8 +4008,8 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="48"/>
-      <c r="B132" s="42"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="13" t="s">
         <v>68</v>
       </c>
@@ -4029,8 +4020,8 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="48"/>
-      <c r="B133" s="42"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="13" t="s">
         <v>26</v>
       </c>
@@ -4041,8 +4032,8 @@
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="48"/>
-      <c r="B134" s="42"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="46"/>
       <c r="C134" s="13" t="s">
         <v>69</v>
       </c>
@@ -4053,8 +4044,8 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="49"/>
-      <c r="B135" s="43"/>
+      <c r="A135" s="54"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="13" t="s">
         <v>184</v>
       </c>
@@ -4064,10 +4055,10 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="47" t="s">
+      <c r="A136" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="41" t="s">
+      <c r="B136" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C136" s="13" t="s">
@@ -4085,16 +4076,16 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="48"/>
-      <c r="B137" s="42"/>
+      <c r="A137" s="53"/>
+      <c r="B137" s="46"/>
       <c r="E137" s="10"/>
       <c r="F137" s="18"/>
       <c r="H137" s="10"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="48"/>
-      <c r="B138" s="42"/>
+      <c r="A138" s="53"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="13" t="s">
         <v>22</v>
       </c>
@@ -4104,8 +4095,8 @@
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="48"/>
-      <c r="B139" s="42"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="46"/>
       <c r="C139" s="13" t="s">
         <v>23</v>
       </c>
@@ -4115,8 +4106,8 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="48"/>
-      <c r="B140" s="42"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="13" t="s">
         <v>68</v>
       </c>
@@ -4126,8 +4117,8 @@
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="48"/>
-      <c r="B141" s="42"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="13" t="s">
         <v>26</v>
       </c>
@@ -4137,8 +4128,8 @@
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="48"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="53"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="13" t="s">
         <v>69</v>
       </c>
@@ -4148,8 +4139,8 @@
       <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="49"/>
-      <c r="B143" s="43"/>
+      <c r="A143" s="54"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="13" t="s">
         <v>184</v>
       </c>
@@ -5406,30 +5397,58 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C99:C101"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="H29:H35"/>
-    <mergeCell ref="I29:I35"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="A136:A143"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="D50:D56"/>
     <mergeCell ref="E50:E56"/>
     <mergeCell ref="F50:F56"/>
@@ -5446,58 +5465,30 @@
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="F29:F35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A136:A143"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="I29:I35"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C99:C101"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5510,8 +5501,8 @@
   <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B199" sqref="B199:B203"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5557,10 +5548,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="92" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -5576,8 +5567,8 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="93"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="99"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
@@ -5589,8 +5580,8 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="31" t="s">
         <v>85</v>
       </c>
@@ -5602,10 +5593,10 @@
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="92" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -5621,8 +5612,8 @@
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="31" t="s">
         <v>90</v>
       </c>
@@ -5634,8 +5625,8 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="31" t="s">
         <v>91</v>
       </c>
@@ -5647,10 +5638,10 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="92" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -5666,8 +5657,8 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="31" t="s">
         <v>186</v>
       </c>
@@ -5679,8 +5670,8 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="98"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
@@ -5692,10 +5683,10 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="92" t="s">
+      <c r="A11" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="92" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -5711,8 +5702,8 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="93"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="93"/>
       <c r="C12" s="31" t="s">
         <v>99</v>
       </c>
@@ -5724,8 +5715,8 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="98"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="31" t="s">
         <v>96</v>
       </c>
@@ -5737,10 +5728,10 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="92" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -5756,8 +5747,8 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="93"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="31" t="s">
         <v>101</v>
       </c>
@@ -5769,8 +5760,8 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="98"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="31" t="s">
         <v>102</v>
       </c>
@@ -5782,10 +5773,10 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="B17" s="92" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -5801,8 +5792,8 @@
       <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="93"/>
-      <c r="B18" s="97"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="31" t="s">
         <v>105</v>
       </c>
@@ -5814,8 +5805,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="98"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="31" t="s">
         <v>96</v>
       </c>
@@ -5827,10 +5818,10 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="92" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -5846,8 +5837,8 @@
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="93"/>
       <c r="C21" s="31" t="s">
         <v>111</v>
       </c>
@@ -5859,8 +5850,8 @@
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="31" t="s">
         <v>96</v>
       </c>
@@ -5872,10 +5863,10 @@
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="92" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -5891,8 +5882,8 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="93"/>
-      <c r="B24" s="97"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="93"/>
       <c r="C24" s="31" t="s">
         <v>113</v>
       </c>
@@ -5904,8 +5895,8 @@
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
-      <c r="B25" s="98"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="31" t="s">
         <v>114</v>
       </c>
@@ -5917,10 +5908,10 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="92" t="s">
+      <c r="A26" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="92" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -5936,8 +5927,8 @@
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="97"/>
+      <c r="A27" s="99"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="31" t="s">
         <v>117</v>
       </c>
@@ -5949,8 +5940,8 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
-      <c r="B28" s="98"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="31" t="s">
         <v>118</v>
       </c>
@@ -5962,10 +5953,10 @@
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="92" t="s">
+      <c r="A29" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="96" t="s">
+      <c r="B29" s="92" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -5981,8 +5972,8 @@
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="93"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="99"/>
+      <c r="B30" s="93"/>
       <c r="C30" s="31" t="s">
         <v>121</v>
       </c>
@@ -5994,8 +5985,8 @@
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="98"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="31" t="s">
         <v>96</v>
       </c>
@@ -6007,10 +5998,10 @@
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="98" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="92" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -6026,8 +6017,8 @@
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="93"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="93"/>
       <c r="C33" s="31" t="s">
         <v>126</v>
       </c>
@@ -6039,8 +6030,8 @@
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="98"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="31" t="s">
         <v>96</v>
       </c>
@@ -6052,10 +6043,10 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="92" t="s">
+      <c r="A35" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="92" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -6071,8 +6062,8 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="93"/>
-      <c r="B36" s="97"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="31" t="s">
         <v>127</v>
       </c>
@@ -6084,8 +6075,8 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="31" t="s">
         <v>96</v>
       </c>
@@ -6097,10 +6088,10 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="92" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -6116,8 +6107,8 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="93"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="31" t="s">
         <v>140</v>
       </c>
@@ -6129,8 +6120,8 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="31" t="s">
         <v>96</v>
       </c>
@@ -6142,10 +6133,10 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="92" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -6161,8 +6152,8 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
-      <c r="B42" s="97"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="31" t="s">
         <v>142</v>
       </c>
@@ -6174,8 +6165,8 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
-      <c r="B43" s="98"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="31" t="s">
         <v>118</v>
       </c>
@@ -6187,10 +6178,10 @@
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="96" t="s">
+      <c r="B44" s="92" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -6206,8 +6197,8 @@
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="93"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="99"/>
+      <c r="B45" s="93"/>
       <c r="C45" s="31" t="s">
         <v>145</v>
       </c>
@@ -6219,8 +6210,8 @@
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="30"/>
@@ -6230,10 +6221,10 @@
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="92" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -6249,8 +6240,8 @@
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="93"/>
-      <c r="B48" s="97"/>
+      <c r="A48" s="99"/>
+      <c r="B48" s="93"/>
       <c r="C48" s="31" t="s">
         <v>127</v>
       </c>
@@ -6262,8 +6253,8 @@
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
-      <c r="B49" s="98"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="31" t="s">
         <v>96</v>
       </c>
@@ -6275,10 +6266,10 @@
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="92" t="s">
         <v>149</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -6294,8 +6285,8 @@
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="93"/>
-      <c r="B51" s="97"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="31" t="s">
         <v>140</v>
       </c>
@@ -6307,8 +6298,8 @@
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="94"/>
-      <c r="B52" s="98"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="31" t="s">
         <v>96</v>
       </c>
@@ -6320,10 +6311,10 @@
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="92" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -6339,8 +6330,8 @@
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="93"/>
-      <c r="B54" s="97"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="31" t="s">
         <v>142</v>
       </c>
@@ -6352,8 +6343,8 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="94"/>
-      <c r="B55" s="98"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="31" t="s">
         <v>118</v>
       </c>
@@ -6365,10 +6356,10 @@
       <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="92" t="s">
+      <c r="A56" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="92" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="31" t="s">
@@ -6384,8 +6375,8 @@
       <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="93"/>
-      <c r="B57" s="97"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="31" t="s">
         <v>145</v>
       </c>
@@ -6397,8 +6388,8 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="94"/>
-      <c r="B58" s="98"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="30"/>
@@ -6408,10 +6399,10 @@
       <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="101" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="31" t="s">
@@ -6427,8 +6418,8 @@
       <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="93"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="99"/>
+      <c r="B60" s="102"/>
       <c r="C60" s="31" t="s">
         <v>127</v>
       </c>
@@ -6440,8 +6431,8 @@
       <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="94"/>
-      <c r="B61" s="101"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="31" t="s">
         <v>96</v>
       </c>
@@ -6453,10 +6444,10 @@
       <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="98" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="96" t="s">
+      <c r="B62" s="92" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -6472,8 +6463,8 @@
       <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="93"/>
-      <c r="B63" s="97"/>
+      <c r="A63" s="99"/>
+      <c r="B63" s="93"/>
       <c r="C63" s="31" t="s">
         <v>140</v>
       </c>
@@ -6485,8 +6476,8 @@
       <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="94"/>
-      <c r="B64" s="98"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="31" t="s">
         <v>96</v>
       </c>
@@ -6498,10 +6489,10 @@
       <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="92" t="s">
+      <c r="A65" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="96" t="s">
+      <c r="B65" s="92" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -6517,8 +6508,8 @@
       <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="93"/>
-      <c r="B66" s="97"/>
+      <c r="A66" s="99"/>
+      <c r="B66" s="93"/>
       <c r="C66" s="31" t="s">
         <v>142</v>
       </c>
@@ -6530,8 +6521,8 @@
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="94"/>
-      <c r="B67" s="98"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
@@ -6543,10 +6534,10 @@
       <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="92" t="s">
+      <c r="A68" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="96" t="s">
+      <c r="B68" s="92" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -6562,8 +6553,8 @@
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="93"/>
-      <c r="B69" s="97"/>
+      <c r="A69" s="99"/>
+      <c r="B69" s="93"/>
       <c r="C69" s="31" t="s">
         <v>145</v>
       </c>
@@ -6575,8 +6566,8 @@
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="94"/>
-      <c r="B70" s="98"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="30"/>
@@ -6586,10 +6577,10 @@
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="92" t="s">
+      <c r="A71" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="92" t="s">
         <v>162</v>
       </c>
       <c r="C71" s="31" t="s">
@@ -6605,8 +6596,8 @@
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="93"/>
-      <c r="B72" s="97"/>
+      <c r="A72" s="99"/>
+      <c r="B72" s="93"/>
       <c r="C72" s="31" t="s">
         <v>164</v>
       </c>
@@ -6618,8 +6609,8 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="94"/>
-      <c r="B73" s="98"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="31" t="s">
         <v>187</v>
       </c>
@@ -6631,10 +6622,10 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="92" t="s">
+      <c r="A74" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="96" t="s">
+      <c r="B74" s="92" t="s">
         <v>166</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -6650,8 +6641,8 @@
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="93"/>
-      <c r="B75" s="97"/>
+      <c r="A75" s="99"/>
+      <c r="B75" s="93"/>
       <c r="C75" s="31" t="s">
         <v>168</v>
       </c>
@@ -6663,8 +6654,8 @@
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="94"/>
-      <c r="B76" s="98"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="31" t="s">
         <v>169</v>
       </c>
@@ -6676,10 +6667,10 @@
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="92" t="s">
+      <c r="A77" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="96" t="s">
+      <c r="B77" s="92" t="s">
         <v>188</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -6695,8 +6686,8 @@
       <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="93"/>
-      <c r="B78" s="97"/>
+      <c r="A78" s="99"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="31" t="s">
         <v>190</v>
       </c>
@@ -6708,8 +6699,8 @@
       <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="93"/>
-      <c r="B79" s="97"/>
+      <c r="A79" s="99"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="31" t="s">
         <v>191</v>
       </c>
@@ -6721,8 +6712,8 @@
       <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="93"/>
-      <c r="B80" s="97"/>
+      <c r="A80" s="99"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="38" t="s">
         <v>192</v>
       </c>
@@ -6734,8 +6725,8 @@
       <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="94"/>
-      <c r="B81" s="98"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="31" t="s">
         <v>193</v>
       </c>
@@ -6747,10 +6738,10 @@
       <c r="I81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="92" t="s">
+      <c r="A82" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="92" t="s">
         <v>201</v>
       </c>
       <c r="C82" s="31" t="s">
@@ -6766,8 +6757,8 @@
       <c r="I82" s="30"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="93"/>
-      <c r="B83" s="97"/>
+      <c r="A83" s="99"/>
+      <c r="B83" s="93"/>
       <c r="C83" s="31" t="s">
         <v>194</v>
       </c>
@@ -6779,8 +6770,8 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="93"/>
-      <c r="B84" s="97"/>
+      <c r="A84" s="99"/>
+      <c r="B84" s="93"/>
       <c r="C84" s="31" t="s">
         <v>195</v>
       </c>
@@ -6792,8 +6783,8 @@
       <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="93"/>
-      <c r="B85" s="97"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="31" t="s">
         <v>196</v>
       </c>
@@ -6805,8 +6796,8 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="93"/>
-      <c r="B86" s="97"/>
+      <c r="A86" s="99"/>
+      <c r="B86" s="93"/>
       <c r="C86" s="31" t="s">
         <v>197</v>
       </c>
@@ -6818,8 +6809,8 @@
       <c r="I86" s="30"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="93"/>
-      <c r="B87" s="97"/>
+      <c r="A87" s="99"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="31" t="s">
         <v>198</v>
       </c>
@@ -6831,8 +6822,8 @@
       <c r="I87" s="30"/>
     </row>
     <row r="88" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="94"/>
-      <c r="B88" s="98"/>
+      <c r="A88" s="100"/>
+      <c r="B88" s="94"/>
       <c r="C88" s="31" t="s">
         <v>199</v>
       </c>
@@ -6844,10 +6835,10 @@
       <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="92" t="s">
+      <c r="A89" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="96" t="s">
+      <c r="B89" s="92" t="s">
         <v>203</v>
       </c>
       <c r="C89" s="31" t="s">
@@ -6863,8 +6854,8 @@
       <c r="I89" s="30"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="93"/>
-      <c r="B90" s="97"/>
+      <c r="A90" s="99"/>
+      <c r="B90" s="93"/>
       <c r="C90" s="31" t="s">
         <v>202</v>
       </c>
@@ -6876,8 +6867,8 @@
       <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="93"/>
-      <c r="B91" s="98"/>
+      <c r="A91" s="99"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="31" t="s">
         <v>227</v>
       </c>
@@ -6889,10 +6880,10 @@
       <c r="I91" s="30"/>
     </row>
     <row r="92" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="92" t="s">
+      <c r="A92" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="96" t="s">
+      <c r="B92" s="92" t="s">
         <v>208</v>
       </c>
       <c r="C92" s="31" t="s">
@@ -6908,8 +6899,8 @@
       <c r="I92" s="30"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="93"/>
-      <c r="B93" s="97"/>
+      <c r="A93" s="99"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="31" t="s">
         <v>209</v>
       </c>
@@ -6921,8 +6912,8 @@
       <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="93"/>
-      <c r="B94" s="98"/>
+      <c r="A94" s="99"/>
+      <c r="B94" s="94"/>
       <c r="C94" s="31" t="s">
         <v>204</v>
       </c>
@@ -6934,10 +6925,10 @@
       <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="92" t="s">
+      <c r="A95" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="96" t="s">
+      <c r="B95" s="92" t="s">
         <v>210</v>
       </c>
       <c r="C95" s="31" t="s">
@@ -6953,8 +6944,8 @@
       <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="93"/>
-      <c r="B96" s="97"/>
+      <c r="A96" s="99"/>
+      <c r="B96" s="93"/>
       <c r="C96" s="31" t="s">
         <v>213</v>
       </c>
@@ -6966,8 +6957,8 @@
       <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="93"/>
-      <c r="B97" s="98"/>
+      <c r="A97" s="99"/>
+      <c r="B97" s="94"/>
       <c r="C97" s="31" t="s">
         <v>204</v>
       </c>
@@ -6979,10 +6970,10 @@
       <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="92" t="s">
+      <c r="A98" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="96" t="s">
+      <c r="B98" s="92" t="s">
         <v>211</v>
       </c>
       <c r="C98" s="31" t="s">
@@ -6998,8 +6989,8 @@
       <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="93"/>
-      <c r="B99" s="97"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="93"/>
       <c r="C99" s="31" t="s">
         <v>212</v>
       </c>
@@ -7011,8 +7002,8 @@
       <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="93"/>
-      <c r="B100" s="98"/>
+      <c r="A100" s="99"/>
+      <c r="B100" s="94"/>
       <c r="C100" s="31" t="s">
         <v>204</v>
       </c>
@@ -7024,10 +7015,10 @@
       <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="92" t="s">
+      <c r="A101" s="98" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="96" t="s">
+      <c r="B101" s="92" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="31" t="s">
@@ -7043,8 +7034,8 @@
       <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="93"/>
-      <c r="B102" s="97"/>
+      <c r="A102" s="99"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="31" t="s">
         <v>219</v>
       </c>
@@ -7056,8 +7047,8 @@
       <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="93"/>
-      <c r="B103" s="98"/>
+      <c r="A103" s="99"/>
+      <c r="B103" s="94"/>
       <c r="C103" s="31" t="s">
         <v>204</v>
       </c>
@@ -7069,10 +7060,10 @@
       <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="92" t="s">
+      <c r="A104" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="96" t="s">
+      <c r="B104" s="92" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="31" t="s">
@@ -7088,8 +7079,8 @@
       <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="93"/>
-      <c r="B105" s="97"/>
+      <c r="A105" s="99"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="31" t="s">
         <v>221</v>
       </c>
@@ -7101,8 +7092,8 @@
       <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="93"/>
-      <c r="B106" s="98"/>
+      <c r="A106" s="99"/>
+      <c r="B106" s="94"/>
       <c r="C106" s="31" t="s">
         <v>204</v>
       </c>
@@ -7114,10 +7105,10 @@
       <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="92" t="s">
+      <c r="A107" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="96" t="s">
+      <c r="B107" s="92" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="31" t="s">
@@ -7133,8 +7124,8 @@
       <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="93"/>
-      <c r="B108" s="97"/>
+      <c r="A108" s="99"/>
+      <c r="B108" s="93"/>
       <c r="C108" s="31" t="s">
         <v>223</v>
       </c>
@@ -7146,8 +7137,8 @@
       <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="93"/>
-      <c r="B109" s="98"/>
+      <c r="A109" s="99"/>
+      <c r="B109" s="94"/>
       <c r="C109" s="31" t="s">
         <v>204</v>
       </c>
@@ -7159,10 +7150,10 @@
       <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="92" t="s">
+      <c r="A110" s="98" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="96" t="s">
+      <c r="B110" s="92" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="31" t="s">
@@ -7178,8 +7169,8 @@
       <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="93"/>
-      <c r="B111" s="97"/>
+      <c r="A111" s="99"/>
+      <c r="B111" s="93"/>
       <c r="C111" s="31" t="s">
         <v>226</v>
       </c>
@@ -7191,8 +7182,8 @@
       <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="93"/>
-      <c r="B112" s="98"/>
+      <c r="A112" s="99"/>
+      <c r="B112" s="94"/>
       <c r="C112" s="31" t="s">
         <v>204</v>
       </c>
@@ -7204,10 +7195,10 @@
       <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="92" t="s">
+      <c r="A113" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="96" t="s">
+      <c r="B113" s="92" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="31" t="s">
@@ -7223,8 +7214,8 @@
       <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="93"/>
-      <c r="B114" s="97"/>
+      <c r="A114" s="99"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="31" t="s">
         <v>229</v>
       </c>
@@ -7236,8 +7227,8 @@
       <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="93"/>
-      <c r="B115" s="98"/>
+      <c r="A115" s="99"/>
+      <c r="B115" s="94"/>
       <c r="C115" s="31" t="s">
         <v>230</v>
       </c>
@@ -7249,10 +7240,10 @@
       <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="92" t="s">
+      <c r="A116" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="B116" s="96" t="s">
+      <c r="B116" s="92" t="s">
         <v>233</v>
       </c>
       <c r="C116" s="31" t="s">
@@ -7268,8 +7259,8 @@
       <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="93"/>
-      <c r="B117" s="97"/>
+      <c r="A117" s="99"/>
+      <c r="B117" s="93"/>
       <c r="C117" s="31" t="s">
         <v>234</v>
       </c>
@@ -7281,8 +7272,8 @@
       <c r="I117" s="30"/>
     </row>
     <row r="118" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="93"/>
-      <c r="B118" s="98"/>
+      <c r="A118" s="99"/>
+      <c r="B118" s="94"/>
       <c r="C118" s="31" t="s">
         <v>235</v>
       </c>
@@ -7294,10 +7285,10 @@
       <c r="I118" s="30"/>
     </row>
     <row r="119" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="92" t="s">
+      <c r="A119" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="96" t="s">
+      <c r="B119" s="92" t="s">
         <v>237</v>
       </c>
       <c r="C119" s="31" t="s">
@@ -7313,8 +7304,8 @@
       <c r="I119" s="30"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="93"/>
-      <c r="B120" s="97"/>
+      <c r="A120" s="99"/>
+      <c r="B120" s="93"/>
       <c r="C120" s="31" t="s">
         <v>238</v>
       </c>
@@ -7326,8 +7317,8 @@
       <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="93"/>
-      <c r="B121" s="98"/>
+      <c r="A121" s="99"/>
+      <c r="B121" s="94"/>
       <c r="C121" s="31" t="s">
         <v>239</v>
       </c>
@@ -7339,10 +7330,10 @@
       <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="92" t="s">
+      <c r="A122" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="105" t="s">
+      <c r="B122" s="95" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -7352,14 +7343,14 @@
       <c r="E122" s="30"/>
       <c r="F122" s="30"/>
       <c r="G122" s="31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H122" s="30"/>
       <c r="I122" s="30"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="93"/>
-      <c r="B123" s="106"/>
+      <c r="A123" s="99"/>
+      <c r="B123" s="96"/>
       <c r="C123" s="31" t="s">
         <v>242</v>
       </c>
@@ -7371,10 +7362,10 @@
       <c r="I123" s="30"/>
     </row>
     <row r="124" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="93"/>
-      <c r="B124" s="106"/>
+      <c r="A124" s="99"/>
+      <c r="B124" s="96"/>
       <c r="C124" s="31" t="s">
-        <v>243</v>
+        <v>394</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="30"/>
@@ -7384,10 +7375,10 @@
       <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="94"/>
-      <c r="B125" s="107"/>
+      <c r="A125" s="100"/>
+      <c r="B125" s="97"/>
       <c r="C125" s="31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D125" s="31"/>
       <c r="E125" s="30"/>
@@ -7397,11 +7388,11 @@
       <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="92" t="s">
+      <c r="A126" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="92" t="s">
         <v>246</v>
-      </c>
-      <c r="B126" s="96" t="s">
-        <v>247</v>
       </c>
       <c r="C126" s="31" t="s">
         <v>189</v>
@@ -7410,16 +7401,16 @@
       <c r="E126" s="30"/>
       <c r="F126" s="30"/>
       <c r="G126" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="93"/>
-      <c r="B127" s="97"/>
+      <c r="A127" s="99"/>
+      <c r="B127" s="93"/>
       <c r="C127" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D127" s="31"/>
       <c r="E127" s="30"/>
@@ -7429,10 +7420,10 @@
       <c r="I127" s="30"/>
     </row>
     <row r="128" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="93"/>
-      <c r="B128" s="97"/>
+      <c r="A128" s="99"/>
+      <c r="B128" s="93"/>
       <c r="C128" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D128" s="31"/>
       <c r="E128" s="30"/>
@@ -7442,10 +7433,10 @@
       <c r="I128" s="30"/>
     </row>
     <row r="129" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="93"/>
-      <c r="B129" s="97"/>
+      <c r="A129" s="99"/>
+      <c r="B129" s="93"/>
       <c r="C129" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D129" s="31"/>
       <c r="E129" s="30"/>
@@ -7455,10 +7446,10 @@
       <c r="I129" s="30"/>
     </row>
     <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="93"/>
-      <c r="B130" s="97"/>
+      <c r="A130" s="99"/>
+      <c r="B130" s="93"/>
       <c r="C130" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D130" s="31"/>
       <c r="E130" s="30"/>
@@ -7468,10 +7459,10 @@
       <c r="I130" s="30"/>
     </row>
     <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="93"/>
-      <c r="B131" s="97"/>
+      <c r="A131" s="99"/>
+      <c r="B131" s="93"/>
       <c r="C131" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D131" s="31"/>
       <c r="E131" s="30"/>
@@ -7481,10 +7472,10 @@
       <c r="I131" s="30"/>
     </row>
     <row r="132" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="93"/>
-      <c r="B132" s="97"/>
+      <c r="A132" s="99"/>
+      <c r="B132" s="93"/>
       <c r="C132" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D132" s="31"/>
       <c r="E132" s="30"/>
@@ -7494,10 +7485,10 @@
       <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="93"/>
-      <c r="B133" s="97"/>
+      <c r="A133" s="99"/>
+      <c r="B133" s="93"/>
       <c r="C133" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D133" s="31"/>
       <c r="E133" s="30"/>
@@ -7507,10 +7498,10 @@
       <c r="I133" s="30"/>
     </row>
     <row r="134" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="93"/>
-      <c r="B134" s="97"/>
+      <c r="A134" s="99"/>
+      <c r="B134" s="93"/>
       <c r="C134" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D134" s="31"/>
       <c r="E134" s="30"/>
@@ -7520,10 +7511,10 @@
       <c r="I134" s="30"/>
     </row>
     <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="94"/>
-      <c r="B135" s="98"/>
+      <c r="A135" s="100"/>
+      <c r="B135" s="94"/>
       <c r="C135" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D135" s="31"/>
       <c r="E135" s="30"/>
@@ -7533,11 +7524,11 @@
       <c r="I135" s="30"/>
     </row>
     <row r="136" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="92" t="s">
+      <c r="A136" s="98" t="s">
+        <v>257</v>
+      </c>
+      <c r="B136" s="92" t="s">
         <v>258</v>
-      </c>
-      <c r="B136" s="96" t="s">
-        <v>259</v>
       </c>
       <c r="C136" s="31" t="s">
         <v>189</v>
@@ -7546,16 +7537,16 @@
       <c r="E136" s="30"/>
       <c r="F136" s="30"/>
       <c r="G136" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H136" s="30"/>
       <c r="I136" s="30"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="93"/>
-      <c r="B137" s="97"/>
+      <c r="A137" s="99"/>
+      <c r="B137" s="93"/>
       <c r="C137" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D137" s="31"/>
       <c r="E137" s="30"/>
@@ -7565,10 +7556,10 @@
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="93"/>
-      <c r="B138" s="97"/>
+      <c r="A138" s="99"/>
+      <c r="B138" s="93"/>
       <c r="C138" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D138" s="31"/>
       <c r="E138" s="30"/>
@@ -7578,10 +7569,10 @@
       <c r="I138" s="30"/>
     </row>
     <row r="139" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="93"/>
-      <c r="B139" s="97"/>
+      <c r="A139" s="99"/>
+      <c r="B139" s="93"/>
       <c r="C139" s="31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D139" s="31"/>
       <c r="E139" s="30"/>
@@ -7591,10 +7582,10 @@
       <c r="I139" s="30"/>
     </row>
     <row r="140" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="93"/>
-      <c r="B140" s="97"/>
+      <c r="A140" s="99"/>
+      <c r="B140" s="93"/>
       <c r="C140" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D140" s="31"/>
       <c r="E140" s="30"/>
@@ -7604,10 +7595,10 @@
       <c r="I140" s="30"/>
     </row>
     <row r="141" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="93"/>
-      <c r="B141" s="97"/>
+      <c r="A141" s="99"/>
+      <c r="B141" s="93"/>
       <c r="C141" s="31" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D141" s="31"/>
       <c r="E141" s="30"/>
@@ -7617,10 +7608,10 @@
       <c r="I141" s="30"/>
     </row>
     <row r="142" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="93"/>
-      <c r="B142" s="97"/>
+      <c r="A142" s="99"/>
+      <c r="B142" s="93"/>
       <c r="C142" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D142" s="31"/>
       <c r="E142" s="30"/>
@@ -7630,10 +7621,10 @@
       <c r="I142" s="30"/>
     </row>
     <row r="143" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="93"/>
-      <c r="B143" s="97"/>
+      <c r="A143" s="99"/>
+      <c r="B143" s="93"/>
       <c r="C143" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D143" s="31"/>
       <c r="E143" s="30"/>
@@ -7643,10 +7634,10 @@
       <c r="I143" s="30"/>
     </row>
     <row r="144" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="93"/>
-      <c r="B144" s="97"/>
+      <c r="A144" s="99"/>
+      <c r="B144" s="93"/>
       <c r="C144" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D144" s="31"/>
       <c r="E144" s="30"/>
@@ -7656,10 +7647,10 @@
       <c r="I144" s="30"/>
     </row>
     <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="94"/>
-      <c r="B145" s="98"/>
+      <c r="A145" s="100"/>
+      <c r="B145" s="94"/>
       <c r="C145" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D145" s="31"/>
       <c r="E145" s="30"/>
@@ -7669,11 +7660,11 @@
       <c r="I145" s="30"/>
     </row>
     <row r="146" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="92" t="s">
-        <v>264</v>
-      </c>
-      <c r="B146" s="96" t="s">
-        <v>270</v>
+      <c r="A146" s="98" t="s">
+        <v>263</v>
+      </c>
+      <c r="B146" s="92" t="s">
+        <v>269</v>
       </c>
       <c r="C146" s="31" t="s">
         <v>189</v>
@@ -7682,16 +7673,16 @@
       <c r="E146" s="30"/>
       <c r="F146" s="30"/>
       <c r="G146" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H146" s="30"/>
       <c r="I146" s="30"/>
     </row>
     <row r="147" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="93"/>
-      <c r="B147" s="97"/>
+      <c r="A147" s="99"/>
+      <c r="B147" s="93"/>
       <c r="C147" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D147" s="31"/>
       <c r="E147" s="30"/>
@@ -7701,10 +7692,10 @@
       <c r="I147" s="30"/>
     </row>
     <row r="148" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="93"/>
-      <c r="B148" s="97"/>
+      <c r="A148" s="99"/>
+      <c r="B148" s="93"/>
       <c r="C148" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D148" s="31"/>
       <c r="E148" s="30"/>
@@ -7714,10 +7705,10 @@
       <c r="I148" s="30"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="93"/>
-      <c r="B149" s="97"/>
+      <c r="A149" s="99"/>
+      <c r="B149" s="93"/>
       <c r="C149" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D149" s="31"/>
       <c r="E149" s="30"/>
@@ -7727,10 +7718,10 @@
       <c r="I149" s="30"/>
     </row>
     <row r="150" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="93"/>
-      <c r="B150" s="98"/>
+      <c r="A150" s="99"/>
+      <c r="B150" s="94"/>
       <c r="C150" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D150" s="31"/>
       <c r="E150" s="30"/>
@@ -7740,11 +7731,11 @@
       <c r="I150" s="30"/>
     </row>
     <row r="151" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="B151" s="96" t="s">
-        <v>271</v>
+      <c r="A151" s="98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" s="92" t="s">
+        <v>270</v>
       </c>
       <c r="C151" s="31" t="s">
         <v>189</v>
@@ -7753,16 +7744,16 @@
       <c r="E151" s="30"/>
       <c r="F151" s="30"/>
       <c r="G151" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H151" s="30"/>
       <c r="I151" s="30"/>
     </row>
     <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="93"/>
-      <c r="B152" s="97"/>
+      <c r="A152" s="99"/>
+      <c r="B152" s="93"/>
       <c r="C152" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D152" s="31"/>
       <c r="E152" s="30"/>
@@ -7772,10 +7763,10 @@
       <c r="I152" s="30"/>
     </row>
     <row r="153" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="93"/>
-      <c r="B153" s="97"/>
+      <c r="A153" s="99"/>
+      <c r="B153" s="93"/>
       <c r="C153" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D153" s="31"/>
       <c r="E153" s="30"/>
@@ -7785,10 +7776,10 @@
       <c r="I153" s="30"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="93"/>
-      <c r="B154" s="97"/>
+      <c r="A154" s="99"/>
+      <c r="B154" s="93"/>
       <c r="C154" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D154" s="31"/>
       <c r="E154" s="30"/>
@@ -7798,10 +7789,10 @@
       <c r="I154" s="30"/>
     </row>
     <row r="155" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="93"/>
-      <c r="B155" s="98"/>
+      <c r="A155" s="99"/>
+      <c r="B155" s="94"/>
       <c r="C155" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D155" s="31"/>
       <c r="E155" s="30"/>
@@ -7811,11 +7802,11 @@
       <c r="I155" s="30"/>
     </row>
     <row r="156" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="B156" s="96" t="s">
-        <v>281</v>
+      <c r="A156" s="98" t="s">
+        <v>271</v>
+      </c>
+      <c r="B156" s="92" t="s">
+        <v>280</v>
       </c>
       <c r="C156" s="31" t="s">
         <v>189</v>
@@ -7824,16 +7815,16 @@
       <c r="E156" s="30"/>
       <c r="F156" s="30"/>
       <c r="G156" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H156" s="30"/>
       <c r="I156" s="30"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="93"/>
-      <c r="B157" s="97"/>
+      <c r="A157" s="99"/>
+      <c r="B157" s="93"/>
       <c r="C157" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D157" s="31"/>
       <c r="E157" s="30"/>
@@ -7843,10 +7834,10 @@
       <c r="I157" s="30"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="93"/>
-      <c r="B158" s="97"/>
+      <c r="A158" s="99"/>
+      <c r="B158" s="93"/>
       <c r="C158" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D158" s="31"/>
       <c r="E158" s="30"/>
@@ -7856,10 +7847,10 @@
       <c r="I158" s="30"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="93"/>
-      <c r="B159" s="97"/>
+      <c r="A159" s="99"/>
+      <c r="B159" s="93"/>
       <c r="C159" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D159" s="31"/>
       <c r="E159" s="30"/>
@@ -7869,10 +7860,10 @@
       <c r="I159" s="30"/>
     </row>
     <row r="160" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="93"/>
-      <c r="B160" s="98"/>
+      <c r="A160" s="99"/>
+      <c r="B160" s="94"/>
       <c r="C160" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D160" s="31"/>
       <c r="E160" s="30"/>
@@ -7882,11 +7873,11 @@
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="95" t="s">
-        <v>276</v>
-      </c>
-      <c r="B161" s="96" t="s">
-        <v>280</v>
+      <c r="A161" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="B161" s="92" t="s">
+        <v>279</v>
       </c>
       <c r="C161" s="31" t="s">
         <v>189</v>
@@ -7895,16 +7886,16 @@
       <c r="E161" s="30"/>
       <c r="F161" s="30"/>
       <c r="G161" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H161" s="30"/>
       <c r="I161" s="30"/>
     </row>
     <row r="162" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="95"/>
-      <c r="B162" s="97"/>
+      <c r="A162" s="104"/>
+      <c r="B162" s="93"/>
       <c r="C162" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D162" s="31"/>
       <c r="E162" s="30"/>
@@ -7914,10 +7905,10 @@
       <c r="I162" s="30"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="95"/>
-      <c r="B163" s="97"/>
+      <c r="A163" s="104"/>
+      <c r="B163" s="93"/>
       <c r="C163" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D163" s="31"/>
       <c r="E163" s="30"/>
@@ -7927,10 +7918,10 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="95"/>
-      <c r="B164" s="97"/>
+      <c r="A164" s="104"/>
+      <c r="B164" s="93"/>
       <c r="C164" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D164" s="31"/>
       <c r="E164" s="30"/>
@@ -7940,10 +7931,10 @@
       <c r="I164" s="30"/>
     </row>
     <row r="165" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="95"/>
-      <c r="B165" s="98"/>
+      <c r="A165" s="104"/>
+      <c r="B165" s="94"/>
       <c r="C165" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D165" s="31"/>
       <c r="E165" s="30"/>
@@ -7953,11 +7944,11 @@
       <c r="I165" s="30"/>
     </row>
     <row r="166" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A166" s="92" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="96" t="s">
-        <v>289</v>
+      <c r="A166" s="98" t="s">
+        <v>284</v>
+      </c>
+      <c r="B166" s="92" t="s">
+        <v>288</v>
       </c>
       <c r="C166" s="31" t="s">
         <v>189</v>
@@ -7966,16 +7957,16 @@
       <c r="E166" s="30"/>
       <c r="F166" s="30"/>
       <c r="G166" s="31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
     </row>
     <row r="167" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="93"/>
-      <c r="B167" s="97"/>
+      <c r="A167" s="99"/>
+      <c r="B167" s="93"/>
       <c r="C167" s="31" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D167" s="31"/>
       <c r="E167" s="30"/>
@@ -7985,10 +7976,10 @@
       <c r="I167" s="30"/>
     </row>
     <row r="168" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="93"/>
-      <c r="B168" s="97"/>
+      <c r="A168" s="99"/>
+      <c r="B168" s="93"/>
       <c r="C168" s="31" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D168" s="31"/>
       <c r="E168" s="30"/>
@@ -7998,10 +7989,10 @@
       <c r="I168" s="30"/>
     </row>
     <row r="169" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="94"/>
-      <c r="B169" s="98"/>
+      <c r="A169" s="100"/>
+      <c r="B169" s="94"/>
       <c r="C169" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D169" s="31"/>
       <c r="E169" s="30"/>
@@ -8011,11 +8002,11 @@
       <c r="I169" s="30"/>
     </row>
     <row r="170" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="92" t="s">
-        <v>294</v>
-      </c>
-      <c r="B170" s="96" t="s">
-        <v>286</v>
+      <c r="A170" s="98" t="s">
+        <v>293</v>
+      </c>
+      <c r="B170" s="92" t="s">
+        <v>285</v>
       </c>
       <c r="C170" s="31" t="s">
         <v>189</v>
@@ -8024,16 +8015,16 @@
       <c r="E170" s="30"/>
       <c r="F170" s="30"/>
       <c r="G170" s="31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
     </row>
     <row r="171" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A171" s="93"/>
-      <c r="B171" s="97"/>
+      <c r="A171" s="99"/>
+      <c r="B171" s="93"/>
       <c r="C171" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D171" s="31"/>
       <c r="E171" s="30"/>
@@ -8043,10 +8034,10 @@
       <c r="I171" s="30"/>
     </row>
     <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="93"/>
-      <c r="B172" s="97"/>
+      <c r="A172" s="99"/>
+      <c r="B172" s="93"/>
       <c r="C172" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D172" s="31"/>
       <c r="E172" s="30"/>
@@ -8056,10 +8047,10 @@
       <c r="I172" s="30"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="93"/>
-      <c r="B173" s="97"/>
+      <c r="A173" s="99"/>
+      <c r="B173" s="93"/>
       <c r="C173" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D173" s="31"/>
       <c r="E173" s="30"/>
@@ -8069,10 +8060,10 @@
       <c r="I173" s="30"/>
     </row>
     <row r="174" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="93"/>
-      <c r="B174" s="97"/>
+      <c r="A174" s="99"/>
+      <c r="B174" s="93"/>
       <c r="C174" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D174" s="31"/>
       <c r="E174" s="30"/>
@@ -8082,10 +8073,10 @@
       <c r="I174" s="30"/>
     </row>
     <row r="175" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="94"/>
-      <c r="B175" s="98"/>
+      <c r="A175" s="100"/>
+      <c r="B175" s="94"/>
       <c r="C175" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D175" s="31"/>
       <c r="E175" s="30"/>
@@ -8095,11 +8086,11 @@
       <c r="I175" s="30"/>
     </row>
     <row r="176" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="92" t="s">
-        <v>296</v>
-      </c>
-      <c r="B176" s="96" t="s">
-        <v>286</v>
+      <c r="A176" s="98" t="s">
+        <v>295</v>
+      </c>
+      <c r="B176" s="92" t="s">
+        <v>285</v>
       </c>
       <c r="C176" s="31" t="s">
         <v>189</v>
@@ -8108,16 +8099,16 @@
       <c r="E176" s="30"/>
       <c r="F176" s="30"/>
       <c r="G176" s="31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H176" s="30"/>
       <c r="I176" s="30"/>
     </row>
     <row r="177" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="93"/>
-      <c r="B177" s="97"/>
+      <c r="A177" s="99"/>
+      <c r="B177" s="93"/>
       <c r="C177" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D177" s="31"/>
       <c r="E177" s="30"/>
@@ -8127,10 +8118,10 @@
       <c r="I177" s="30"/>
     </row>
     <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="93"/>
-      <c r="B178" s="97"/>
+      <c r="A178" s="99"/>
+      <c r="B178" s="93"/>
       <c r="C178" s="31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D178" s="31"/>
       <c r="E178" s="30"/>
@@ -8140,10 +8131,10 @@
       <c r="I178" s="30"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="93"/>
-      <c r="B179" s="97"/>
+      <c r="A179" s="99"/>
+      <c r="B179" s="93"/>
       <c r="C179" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D179" s="31"/>
       <c r="E179" s="30"/>
@@ -8153,10 +8144,10 @@
       <c r="I179" s="30"/>
     </row>
     <row r="180" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="93"/>
-      <c r="B180" s="97"/>
+      <c r="A180" s="99"/>
+      <c r="B180" s="93"/>
       <c r="C180" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D180" s="31"/>
       <c r="E180" s="30"/>
@@ -8166,10 +8157,10 @@
       <c r="I180" s="30"/>
     </row>
     <row r="181" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="94"/>
-      <c r="B181" s="98"/>
+      <c r="A181" s="100"/>
+      <c r="B181" s="94"/>
       <c r="C181" s="31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D181" s="31"/>
       <c r="E181" s="30"/>
@@ -8179,11 +8170,11 @@
       <c r="I181" s="30"/>
     </row>
     <row r="182" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="92" t="s">
+      <c r="A182" s="98" t="s">
+        <v>298</v>
+      </c>
+      <c r="B182" s="92" t="s">
         <v>299</v>
-      </c>
-      <c r="B182" s="96" t="s">
-        <v>300</v>
       </c>
       <c r="C182" s="31" t="s">
         <v>189</v>
@@ -8192,16 +8183,16 @@
       <c r="E182" s="30"/>
       <c r="F182" s="30"/>
       <c r="G182" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H182" s="30"/>
       <c r="I182" s="30"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="93"/>
-      <c r="B183" s="97"/>
+      <c r="A183" s="99"/>
+      <c r="B183" s="93"/>
       <c r="C183" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D183" s="31"/>
       <c r="E183" s="30"/>
@@ -8211,10 +8202,10 @@
       <c r="I183" s="30"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="93"/>
-      <c r="B184" s="97"/>
+      <c r="A184" s="99"/>
+      <c r="B184" s="93"/>
       <c r="C184" s="31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D184" s="31"/>
       <c r="E184" s="30"/>
@@ -8224,10 +8215,10 @@
       <c r="I184" s="30"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="93"/>
-      <c r="B185" s="97"/>
+      <c r="A185" s="99"/>
+      <c r="B185" s="93"/>
       <c r="C185" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D185" s="31"/>
       <c r="E185" s="30"/>
@@ -8237,10 +8228,10 @@
       <c r="I185" s="30"/>
     </row>
     <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="93"/>
-      <c r="B186" s="97"/>
+      <c r="A186" s="99"/>
+      <c r="B186" s="93"/>
       <c r="C186" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D186" s="31"/>
       <c r="E186" s="30"/>
@@ -8250,10 +8241,10 @@
       <c r="I186" s="30"/>
     </row>
     <row r="187" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="94"/>
-      <c r="B187" s="98"/>
+      <c r="A187" s="100"/>
+      <c r="B187" s="94"/>
       <c r="C187" s="31" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D187" s="31"/>
       <c r="E187" s="30"/>
@@ -8263,11 +8254,11 @@
       <c r="I187" s="30"/>
     </row>
     <row r="188" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="92" t="s">
+      <c r="A188" s="98" t="s">
+        <v>302</v>
+      </c>
+      <c r="B188" s="92" t="s">
         <v>303</v>
-      </c>
-      <c r="B188" s="96" t="s">
-        <v>304</v>
       </c>
       <c r="C188" s="31" t="s">
         <v>189</v>
@@ -8276,16 +8267,16 @@
       <c r="E188" s="30"/>
       <c r="F188" s="30"/>
       <c r="G188" s="31" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H188" s="30"/>
       <c r="I188" s="30"/>
     </row>
     <row r="189" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A189" s="93"/>
-      <c r="B189" s="97"/>
+      <c r="A189" s="99"/>
+      <c r="B189" s="93"/>
       <c r="C189" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="30"/>
@@ -8295,10 +8286,10 @@
       <c r="I189" s="30"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="93"/>
-      <c r="B190" s="97"/>
+      <c r="A190" s="99"/>
+      <c r="B190" s="93"/>
       <c r="C190" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D190" s="31"/>
       <c r="E190" s="30"/>
@@ -8308,10 +8299,10 @@
       <c r="I190" s="30"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="93"/>
-      <c r="B191" s="97"/>
+      <c r="A191" s="99"/>
+      <c r="B191" s="93"/>
       <c r="C191" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D191" s="31"/>
       <c r="E191" s="30"/>
@@ -8321,10 +8312,10 @@
       <c r="I191" s="30"/>
     </row>
     <row r="192" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="93"/>
-      <c r="B192" s="97"/>
+      <c r="A192" s="99"/>
+      <c r="B192" s="93"/>
       <c r="C192" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D192" s="31"/>
       <c r="E192" s="30"/>
@@ -8334,10 +8325,10 @@
       <c r="I192" s="30"/>
     </row>
     <row r="193" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="94"/>
-      <c r="B193" s="98"/>
+      <c r="A193" s="100"/>
+      <c r="B193" s="94"/>
       <c r="C193" s="31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D193" s="31"/>
       <c r="E193" s="30"/>
@@ -8347,11 +8338,11 @@
       <c r="I193" s="30"/>
     </row>
     <row r="194" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="B194" s="96" t="s">
-        <v>309</v>
+      <c r="A194" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="B194" s="92" t="s">
+        <v>308</v>
       </c>
       <c r="C194" s="31" t="s">
         <v>189</v>
@@ -8360,16 +8351,16 @@
       <c r="E194" s="30"/>
       <c r="F194" s="30"/>
       <c r="G194" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H194" s="30"/>
       <c r="I194" s="30"/>
     </row>
     <row r="195" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="93"/>
-      <c r="B195" s="97"/>
+      <c r="A195" s="99"/>
+      <c r="B195" s="93"/>
       <c r="C195" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D195" s="31"/>
       <c r="E195" s="30"/>
@@ -8379,10 +8370,10 @@
       <c r="I195" s="30"/>
     </row>
     <row r="196" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="93"/>
-      <c r="B196" s="97"/>
+      <c r="A196" s="99"/>
+      <c r="B196" s="93"/>
       <c r="C196" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D196" s="31"/>
       <c r="E196" s="30"/>
@@ -8392,10 +8383,10 @@
       <c r="I196" s="30"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="93"/>
-      <c r="B197" s="97"/>
+      <c r="A197" s="99"/>
+      <c r="B197" s="93"/>
       <c r="C197" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D197" s="31"/>
       <c r="E197" s="30"/>
@@ -8405,10 +8396,10 @@
       <c r="I197" s="30"/>
     </row>
     <row r="198" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="93"/>
-      <c r="B198" s="98"/>
+      <c r="A198" s="99"/>
+      <c r="B198" s="94"/>
       <c r="C198" s="31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D198" s="31"/>
       <c r="E198" s="30"/>
@@ -8418,11 +8409,11 @@
       <c r="I198" s="30"/>
     </row>
     <row r="199" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="92" t="s">
+      <c r="A199" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="B199" s="92" t="s">
         <v>313</v>
-      </c>
-      <c r="B199" s="96" t="s">
-        <v>314</v>
       </c>
       <c r="C199" s="31" t="s">
         <v>189</v>
@@ -8431,16 +8422,16 @@
       <c r="E199" s="30"/>
       <c r="F199" s="30"/>
       <c r="G199" s="31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H199" s="30"/>
       <c r="I199" s="30"/>
     </row>
     <row r="200" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="93"/>
-      <c r="B200" s="97"/>
+      <c r="A200" s="99"/>
+      <c r="B200" s="93"/>
       <c r="C200" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D200" s="31"/>
       <c r="E200" s="30"/>
@@ -8450,10 +8441,10 @@
       <c r="I200" s="30"/>
     </row>
     <row r="201" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="93"/>
-      <c r="B201" s="97"/>
+      <c r="A201" s="99"/>
+      <c r="B201" s="93"/>
       <c r="C201" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D201" s="31"/>
       <c r="E201" s="30"/>
@@ -8463,10 +8454,10 @@
       <c r="I201" s="30"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="93"/>
-      <c r="B202" s="97"/>
+      <c r="A202" s="99"/>
+      <c r="B202" s="93"/>
       <c r="C202" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D202" s="31"/>
       <c r="E202" s="30"/>
@@ -8476,10 +8467,10 @@
       <c r="I202" s="30"/>
     </row>
     <row r="203" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="93"/>
-      <c r="B203" s="98"/>
+      <c r="A203" s="99"/>
+      <c r="B203" s="94"/>
       <c r="C203" s="31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D203" s="31"/>
       <c r="E203" s="30"/>
@@ -8489,11 +8480,11 @@
       <c r="I203" s="30"/>
     </row>
     <row r="204" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="92" t="s">
-        <v>318</v>
-      </c>
-      <c r="B204" s="31" t="s">
-        <v>323</v>
+      <c r="A204" s="98" t="s">
+        <v>317</v>
+      </c>
+      <c r="B204" s="92" t="s">
+        <v>322</v>
       </c>
       <c r="C204" s="31" t="s">
         <v>189</v>
@@ -8502,16 +8493,16 @@
       <c r="E204" s="30"/>
       <c r="F204" s="30"/>
       <c r="G204" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H204" s="30"/>
       <c r="I204" s="30"/>
     </row>
     <row r="205" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A205" s="93"/>
-      <c r="B205" s="31"/>
+      <c r="A205" s="99"/>
+      <c r="B205" s="93"/>
       <c r="C205" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D205" s="31"/>
       <c r="E205" s="30"/>
@@ -8521,10 +8512,10 @@
       <c r="I205" s="30"/>
     </row>
     <row r="206" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="93"/>
-      <c r="B206" s="31"/>
+      <c r="A206" s="99"/>
+      <c r="B206" s="93"/>
       <c r="C206" s="31" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D206" s="31"/>
       <c r="E206" s="30"/>
@@ -8534,10 +8525,10 @@
       <c r="I206" s="30"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="93"/>
-      <c r="B207" s="31"/>
+      <c r="A207" s="99"/>
+      <c r="B207" s="93"/>
       <c r="C207" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D207" s="31"/>
       <c r="E207" s="30"/>
@@ -8547,10 +8538,10 @@
       <c r="I207" s="30"/>
     </row>
     <row r="208" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="93"/>
-      <c r="B208" s="31"/>
+      <c r="A208" s="99"/>
+      <c r="B208" s="94"/>
       <c r="C208" s="31" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D208" s="31"/>
       <c r="E208" s="30"/>
@@ -8560,11 +8551,11 @@
       <c r="I208" s="30"/>
     </row>
     <row r="209" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="92" t="s">
+      <c r="A209" s="98" t="s">
+        <v>320</v>
+      </c>
+      <c r="B209" s="92" t="s">
         <v>321</v>
-      </c>
-      <c r="B209" s="31" t="s">
-        <v>322</v>
       </c>
       <c r="C209" s="31" t="s">
         <v>189</v>
@@ -8573,16 +8564,16 @@
       <c r="E209" s="30"/>
       <c r="F209" s="30"/>
       <c r="G209" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H209" s="30"/>
       <c r="I209" s="30"/>
     </row>
     <row r="210" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="93"/>
-      <c r="B210" s="31"/>
+      <c r="A210" s="99"/>
+      <c r="B210" s="93"/>
       <c r="C210" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D210" s="31"/>
       <c r="E210" s="30"/>
@@ -8592,10 +8583,10 @@
       <c r="I210" s="30"/>
     </row>
     <row r="211" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A211" s="93"/>
-      <c r="B211" s="31"/>
+      <c r="A211" s="99"/>
+      <c r="B211" s="93"/>
       <c r="C211" s="31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D211" s="31"/>
       <c r="E211" s="30"/>
@@ -8605,10 +8596,10 @@
       <c r="I211" s="30"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="93"/>
-      <c r="B212" s="31"/>
+      <c r="A212" s="99"/>
+      <c r="B212" s="93"/>
       <c r="C212" s="31" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D212" s="31"/>
       <c r="E212" s="30"/>
@@ -8618,10 +8609,10 @@
       <c r="I212" s="30"/>
     </row>
     <row r="213" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="93"/>
-      <c r="B213" s="31"/>
+      <c r="A213" s="99"/>
+      <c r="B213" s="94"/>
       <c r="C213" s="31" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D213" s="31"/>
       <c r="E213" s="30"/>
@@ -8630,12 +8621,12 @@
       <c r="H213" s="30"/>
       <c r="I213" s="30"/>
     </row>
-    <row r="214" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A214" s="92" t="s">
-        <v>325</v>
-      </c>
-      <c r="B214" s="31" t="s">
-        <v>342</v>
+    <row r="214" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="98" t="s">
+        <v>324</v>
+      </c>
+      <c r="B214" s="92" t="s">
+        <v>341</v>
       </c>
       <c r="C214" s="31" t="s">
         <v>189</v>
@@ -8644,16 +8635,16 @@
       <c r="E214" s="30"/>
       <c r="F214" s="30"/>
       <c r="G214" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H214" s="30"/>
       <c r="I214" s="30"/>
     </row>
     <row r="215" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="93"/>
-      <c r="B215" s="31"/>
+      <c r="A215" s="99"/>
+      <c r="B215" s="93"/>
       <c r="C215" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D215" s="31"/>
       <c r="E215" s="30"/>
@@ -8663,10 +8654,10 @@
       <c r="I215" s="30"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="93"/>
-      <c r="B216" s="31"/>
+      <c r="A216" s="99"/>
+      <c r="B216" s="93"/>
       <c r="C216" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D216" s="31"/>
       <c r="E216" s="30"/>
@@ -8676,10 +8667,10 @@
       <c r="I216" s="30"/>
     </row>
     <row r="217" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="93"/>
-      <c r="B217" s="31"/>
+      <c r="A217" s="99"/>
+      <c r="B217" s="93"/>
       <c r="C217" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D217" s="31"/>
       <c r="E217" s="30"/>
@@ -8689,10 +8680,10 @@
       <c r="I217" s="30"/>
     </row>
     <row r="218" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="93"/>
-      <c r="B218" s="31"/>
+      <c r="A218" s="99"/>
+      <c r="B218" s="94"/>
       <c r="C218" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D218" s="31"/>
       <c r="E218" s="30"/>
@@ -8701,12 +8692,12 @@
       <c r="H218" s="30"/>
       <c r="I218" s="30"/>
     </row>
-    <row r="219" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A219" s="92" t="s">
-        <v>331</v>
-      </c>
-      <c r="B219" s="31" t="s">
-        <v>341</v>
+    <row r="219" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="98" t="s">
+        <v>330</v>
+      </c>
+      <c r="B219" s="92" t="s">
+        <v>340</v>
       </c>
       <c r="C219" s="31" t="s">
         <v>189</v>
@@ -8715,16 +8706,16 @@
       <c r="E219" s="30"/>
       <c r="F219" s="30"/>
       <c r="G219" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H219" s="30"/>
       <c r="I219" s="30"/>
     </row>
     <row r="220" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="93"/>
-      <c r="B220" s="31"/>
+      <c r="A220" s="99"/>
+      <c r="B220" s="93"/>
       <c r="C220" s="31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D220" s="31"/>
       <c r="E220" s="30"/>
@@ -8734,10 +8725,10 @@
       <c r="I220" s="30"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="93"/>
-      <c r="B221" s="31"/>
+      <c r="A221" s="99"/>
+      <c r="B221" s="93"/>
       <c r="C221" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D221" s="31"/>
       <c r="E221" s="30"/>
@@ -8747,10 +8738,10 @@
       <c r="I221" s="30"/>
     </row>
     <row r="222" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A222" s="93"/>
-      <c r="B222" s="31"/>
+      <c r="A222" s="99"/>
+      <c r="B222" s="93"/>
       <c r="C222" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D222" s="31"/>
       <c r="E222" s="30"/>
@@ -8760,10 +8751,10 @@
       <c r="I222" s="30"/>
     </row>
     <row r="223" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="93"/>
-      <c r="B223" s="31"/>
+      <c r="A223" s="99"/>
+      <c r="B223" s="94"/>
       <c r="C223" s="31" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D223" s="31"/>
       <c r="E223" s="30"/>
@@ -8772,12 +8763,12 @@
       <c r="H223" s="30"/>
       <c r="I223" s="30"/>
     </row>
-    <row r="224" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A224" s="92" t="s">
-        <v>332</v>
-      </c>
-      <c r="B224" s="31" t="s">
-        <v>340</v>
+    <row r="224" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="98" t="s">
+        <v>331</v>
+      </c>
+      <c r="B224" s="92" t="s">
+        <v>339</v>
       </c>
       <c r="C224" s="31" t="s">
         <v>189</v>
@@ -8786,16 +8777,16 @@
       <c r="E224" s="30"/>
       <c r="F224" s="30"/>
       <c r="G224" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H224" s="30"/>
       <c r="I224" s="30"/>
     </row>
     <row r="225" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="93"/>
-      <c r="B225" s="31"/>
+      <c r="A225" s="99"/>
+      <c r="B225" s="93"/>
       <c r="C225" s="31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D225" s="31"/>
       <c r="E225" s="30"/>
@@ -8805,10 +8796,10 @@
       <c r="I225" s="30"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="93"/>
-      <c r="B226" s="31"/>
+      <c r="A226" s="99"/>
+      <c r="B226" s="93"/>
       <c r="C226" s="31" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D226" s="31"/>
       <c r="E226" s="30"/>
@@ -8818,10 +8809,10 @@
       <c r="I226" s="30"/>
     </row>
     <row r="227" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A227" s="93"/>
-      <c r="B227" s="31"/>
+      <c r="A227" s="99"/>
+      <c r="B227" s="93"/>
       <c r="C227" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D227" s="31"/>
       <c r="E227" s="30"/>
@@ -8831,10 +8822,10 @@
       <c r="I227" s="30"/>
     </row>
     <row r="228" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="93"/>
-      <c r="B228" s="31"/>
+      <c r="A228" s="99"/>
+      <c r="B228" s="94"/>
       <c r="C228" s="31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D228" s="31"/>
       <c r="E228" s="30"/>
@@ -8844,11 +8835,11 @@
       <c r="I228" s="30"/>
     </row>
     <row r="229" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A229" s="92" t="s">
-        <v>339</v>
-      </c>
-      <c r="B229" s="31" t="s">
-        <v>343</v>
+      <c r="A229" s="98" t="s">
+        <v>338</v>
+      </c>
+      <c r="B229" s="92" t="s">
+        <v>342</v>
       </c>
       <c r="C229" s="31" t="s">
         <v>189</v>
@@ -8857,16 +8848,16 @@
       <c r="E229" s="30"/>
       <c r="F229" s="30"/>
       <c r="G229" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H229" s="30"/>
       <c r="I229" s="30"/>
     </row>
     <row r="230" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A230" s="93"/>
-      <c r="B230" s="31"/>
+      <c r="A230" s="99"/>
+      <c r="B230" s="93"/>
       <c r="C230" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D230" s="31"/>
       <c r="E230" s="30"/>
@@ -8876,10 +8867,10 @@
       <c r="I230" s="30"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="93"/>
-      <c r="B231" s="31"/>
+      <c r="A231" s="99"/>
+      <c r="B231" s="93"/>
       <c r="C231" s="31" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D231" s="31"/>
       <c r="E231" s="30"/>
@@ -8889,10 +8880,10 @@
       <c r="I231" s="30"/>
     </row>
     <row r="232" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="93"/>
-      <c r="B232" s="31"/>
+      <c r="A232" s="99"/>
+      <c r="B232" s="93"/>
       <c r="C232" s="31" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D232" s="31"/>
       <c r="E232" s="30"/>
@@ -8902,10 +8893,10 @@
       <c r="I232" s="30"/>
     </row>
     <row r="233" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="93"/>
-      <c r="B233" s="31"/>
+      <c r="A233" s="99"/>
+      <c r="B233" s="94"/>
       <c r="C233" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D233" s="31"/>
       <c r="E233" s="30"/>
@@ -8914,12 +8905,12 @@
       <c r="H233" s="30"/>
       <c r="I233" s="30"/>
     </row>
-    <row r="234" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A234" s="92" t="s">
+    <row r="234" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="B234" s="92" t="s">
         <v>349</v>
-      </c>
-      <c r="B234" s="31" t="s">
-        <v>350</v>
       </c>
       <c r="C234" s="31" t="s">
         <v>189</v>
@@ -8928,16 +8919,16 @@
       <c r="E234" s="30"/>
       <c r="F234" s="30"/>
       <c r="G234" s="31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H234" s="30"/>
       <c r="I234" s="30"/>
     </row>
     <row r="235" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="93"/>
-      <c r="B235" s="31"/>
+      <c r="A235" s="99"/>
+      <c r="B235" s="93"/>
       <c r="C235" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D235" s="31"/>
       <c r="E235" s="30"/>
@@ -8947,10 +8938,10 @@
       <c r="I235" s="30"/>
     </row>
     <row r="236" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="93"/>
-      <c r="B236" s="31"/>
+      <c r="A236" s="99"/>
+      <c r="B236" s="93"/>
       <c r="C236" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D236" s="31"/>
       <c r="E236" s="30"/>
@@ -8960,10 +8951,10 @@
       <c r="I236" s="30"/>
     </row>
     <row r="237" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A237" s="93"/>
-      <c r="B237" s="31"/>
+      <c r="A237" s="99"/>
+      <c r="B237" s="93"/>
       <c r="C237" s="31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D237" s="31"/>
       <c r="E237" s="30"/>
@@ -8973,10 +8964,10 @@
       <c r="I237" s="30"/>
     </row>
     <row r="238" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="93"/>
-      <c r="B238" s="31"/>
+      <c r="A238" s="99"/>
+      <c r="B238" s="94"/>
       <c r="C238" s="31" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D238" s="31"/>
       <c r="E238" s="30"/>
@@ -8985,12 +8976,12 @@
       <c r="H238" s="30"/>
       <c r="I238" s="30"/>
     </row>
-    <row r="239" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A239" s="92" t="s">
-        <v>353</v>
-      </c>
-      <c r="B239" s="31" t="s">
-        <v>362</v>
+    <row r="239" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="B239" s="92" t="s">
+        <v>361</v>
       </c>
       <c r="C239" s="31" t="s">
         <v>189</v>
@@ -8999,16 +8990,16 @@
       <c r="E239" s="30"/>
       <c r="F239" s="30"/>
       <c r="G239" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H239" s="30"/>
       <c r="I239" s="30"/>
     </row>
     <row r="240" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A240" s="93"/>
-      <c r="B240" s="31"/>
+      <c r="A240" s="99"/>
+      <c r="B240" s="93"/>
       <c r="C240" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D240" s="31"/>
       <c r="E240" s="30"/>
@@ -9018,10 +9009,10 @@
       <c r="I240" s="30"/>
     </row>
     <row r="241" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A241" s="93"/>
-      <c r="B241" s="31"/>
+      <c r="A241" s="99"/>
+      <c r="B241" s="93"/>
       <c r="C241" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D241" s="31"/>
       <c r="E241" s="30"/>
@@ -9031,10 +9022,10 @@
       <c r="I241" s="30"/>
     </row>
     <row r="242" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A242" s="93"/>
-      <c r="B242" s="39"/>
+      <c r="A242" s="99"/>
+      <c r="B242" s="94"/>
       <c r="C242" s="39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D242" s="39"/>
       <c r="E242" s="40"/>
@@ -9043,12 +9034,12 @@
       <c r="H242" s="30"/>
       <c r="I242" s="30"/>
     </row>
-    <row r="243" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A243" s="92" t="s">
-        <v>359</v>
-      </c>
-      <c r="B243" s="102" t="s">
-        <v>354</v>
+    <row r="243" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="98" t="s">
+        <v>358</v>
+      </c>
+      <c r="B243" s="92" t="s">
+        <v>353</v>
       </c>
       <c r="C243" s="31" t="s">
         <v>189</v>
@@ -9063,10 +9054,10 @@
       <c r="I243" s="30"/>
     </row>
     <row r="244" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A244" s="93"/>
-      <c r="B244" s="103"/>
+      <c r="A244" s="99"/>
+      <c r="B244" s="93"/>
       <c r="C244" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D244" s="31"/>
       <c r="E244" s="30"/>
@@ -9076,10 +9067,10 @@
       <c r="I244" s="30"/>
     </row>
     <row r="245" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A245" s="93"/>
-      <c r="B245" s="104"/>
+      <c r="A245" s="99"/>
+      <c r="B245" s="93"/>
       <c r="C245" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D245" s="31"/>
       <c r="E245" s="30"/>
@@ -9089,10 +9080,10 @@
       <c r="I245" s="30"/>
     </row>
     <row r="246" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A246" s="93"/>
-      <c r="B246" s="31"/>
+      <c r="A246" s="99"/>
+      <c r="B246" s="93"/>
       <c r="C246" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D246" s="31"/>
       <c r="E246" s="30"/>
@@ -9102,10 +9093,10 @@
       <c r="I246" s="30"/>
     </row>
     <row r="247" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="94"/>
-      <c r="B247" s="31"/>
+      <c r="A247" s="100"/>
+      <c r="B247" s="94"/>
       <c r="C247" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D247" s="31"/>
       <c r="E247" s="30"/>
@@ -9114,12 +9105,12 @@
       <c r="H247" s="30"/>
       <c r="I247" s="30"/>
     </row>
-    <row r="248" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A248" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="B248" s="102" t="s">
-        <v>368</v>
+    <row r="248" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="98" t="s">
+        <v>365</v>
+      </c>
+      <c r="B248" s="92" t="s">
+        <v>367</v>
       </c>
       <c r="C248" s="31" t="s">
         <v>189</v>
@@ -9134,10 +9125,10 @@
       <c r="I248" s="30"/>
     </row>
     <row r="249" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A249" s="93"/>
-      <c r="B249" s="103"/>
+      <c r="A249" s="99"/>
+      <c r="B249" s="93"/>
       <c r="C249" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D249" s="31"/>
       <c r="E249" s="30"/>
@@ -9147,10 +9138,10 @@
       <c r="I249" s="30"/>
     </row>
     <row r="250" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="93"/>
-      <c r="B250" s="104"/>
+      <c r="A250" s="99"/>
+      <c r="B250" s="93"/>
       <c r="C250" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D250" s="31"/>
       <c r="E250" s="30"/>
@@ -9160,10 +9151,10 @@
       <c r="I250" s="30"/>
     </row>
     <row r="251" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A251" s="93"/>
-      <c r="B251" s="31"/>
+      <c r="A251" s="99"/>
+      <c r="B251" s="93"/>
       <c r="C251" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D251" s="31"/>
       <c r="E251" s="30"/>
@@ -9173,10 +9164,10 @@
       <c r="I251" s="30"/>
     </row>
     <row r="252" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A252" s="94"/>
-      <c r="B252" s="31"/>
+      <c r="A252" s="100"/>
+      <c r="B252" s="94"/>
       <c r="C252" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D252" s="31"/>
       <c r="E252" s="30"/>
@@ -9185,12 +9176,12 @@
       <c r="H252" s="30"/>
       <c r="I252" s="30"/>
     </row>
-    <row r="253" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A253" s="92" t="s">
-        <v>367</v>
-      </c>
-      <c r="B253" s="102" t="s">
-        <v>370</v>
+    <row r="253" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="98" t="s">
+        <v>366</v>
+      </c>
+      <c r="B253" s="92" t="s">
+        <v>369</v>
       </c>
       <c r="C253" s="31" t="s">
         <v>189</v>
@@ -9205,10 +9196,10 @@
       <c r="I253" s="30"/>
     </row>
     <row r="254" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A254" s="93"/>
-      <c r="B254" s="103"/>
+      <c r="A254" s="99"/>
+      <c r="B254" s="93"/>
       <c r="C254" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D254" s="31"/>
       <c r="E254" s="30"/>
@@ -9218,10 +9209,10 @@
       <c r="I254" s="30"/>
     </row>
     <row r="255" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A255" s="93"/>
-      <c r="B255" s="104"/>
+      <c r="A255" s="99"/>
+      <c r="B255" s="93"/>
       <c r="C255" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D255" s="31"/>
       <c r="E255" s="30"/>
@@ -9231,10 +9222,10 @@
       <c r="I255" s="30"/>
     </row>
     <row r="256" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="93"/>
-      <c r="B256" s="31"/>
+      <c r="A256" s="99"/>
+      <c r="B256" s="93"/>
       <c r="C256" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D256" s="31"/>
       <c r="E256" s="30"/>
@@ -9244,10 +9235,10 @@
       <c r="I256" s="30"/>
     </row>
     <row r="257" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A257" s="94"/>
-      <c r="B257" s="31"/>
+      <c r="A257" s="100"/>
+      <c r="B257" s="94"/>
       <c r="C257" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D257" s="31"/>
       <c r="E257" s="30"/>
@@ -9256,12 +9247,12 @@
       <c r="H257" s="30"/>
       <c r="I257" s="30"/>
     </row>
-    <row r="258" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A258" s="92" t="s">
-        <v>372</v>
-      </c>
-      <c r="B258" s="102" t="s">
-        <v>375</v>
+    <row r="258" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="98" t="s">
+        <v>371</v>
+      </c>
+      <c r="B258" s="92" t="s">
+        <v>374</v>
       </c>
       <c r="C258" s="31" t="s">
         <v>189</v>
@@ -9276,10 +9267,10 @@
       <c r="I258" s="30"/>
     </row>
     <row r="259" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="93"/>
-      <c r="B259" s="103"/>
+      <c r="A259" s="99"/>
+      <c r="B259" s="93"/>
       <c r="C259" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D259" s="31"/>
       <c r="E259" s="30"/>
@@ -9289,10 +9280,10 @@
       <c r="I259" s="30"/>
     </row>
     <row r="260" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A260" s="93"/>
-      <c r="B260" s="104"/>
+      <c r="A260" s="99"/>
+      <c r="B260" s="93"/>
       <c r="C260" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D260" s="31"/>
       <c r="E260" s="30"/>
@@ -9302,10 +9293,10 @@
       <c r="I260" s="30"/>
     </row>
     <row r="261" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A261" s="93"/>
-      <c r="B261" s="31"/>
+      <c r="A261" s="99"/>
+      <c r="B261" s="93"/>
       <c r="C261" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D261" s="31"/>
       <c r="E261" s="30"/>
@@ -9315,10 +9306,10 @@
       <c r="I261" s="30"/>
     </row>
     <row r="262" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A262" s="94"/>
-      <c r="B262" s="31"/>
+      <c r="A262" s="100"/>
+      <c r="B262" s="94"/>
       <c r="C262" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D262" s="31"/>
       <c r="E262" s="30"/>
@@ -9327,12 +9318,12 @@
       <c r="H262" s="30"/>
       <c r="I262" s="30"/>
     </row>
-    <row r="263" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A263" s="92" t="s">
+    <row r="263" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="98" t="s">
+        <v>372</v>
+      </c>
+      <c r="B263" s="92" t="s">
         <v>373</v>
-      </c>
-      <c r="B263" s="102" t="s">
-        <v>374</v>
       </c>
       <c r="C263" s="31" t="s">
         <v>189</v>
@@ -9347,10 +9338,10 @@
       <c r="I263" s="30"/>
     </row>
     <row r="264" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="93"/>
-      <c r="B264" s="103"/>
+      <c r="A264" s="99"/>
+      <c r="B264" s="93"/>
       <c r="C264" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D264" s="31"/>
       <c r="E264" s="30"/>
@@ -9360,10 +9351,10 @@
       <c r="I264" s="30"/>
     </row>
     <row r="265" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A265" s="93"/>
-      <c r="B265" s="104"/>
+      <c r="A265" s="99"/>
+      <c r="B265" s="93"/>
       <c r="C265" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D265" s="31"/>
       <c r="E265" s="30"/>
@@ -9373,10 +9364,10 @@
       <c r="I265" s="30"/>
     </row>
     <row r="266" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A266" s="93"/>
-      <c r="B266" s="31"/>
+      <c r="A266" s="99"/>
+      <c r="B266" s="93"/>
       <c r="C266" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D266" s="31"/>
       <c r="E266" s="30"/>
@@ -9386,10 +9377,10 @@
       <c r="I266" s="30"/>
     </row>
     <row r="267" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A267" s="94"/>
-      <c r="B267" s="31"/>
+      <c r="A267" s="100"/>
+      <c r="B267" s="94"/>
       <c r="C267" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D267" s="31"/>
       <c r="E267" s="30"/>
@@ -9398,12 +9389,12 @@
       <c r="H267" s="30"/>
       <c r="I267" s="30"/>
     </row>
-    <row r="268" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A268" s="92" t="s">
+    <row r="268" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="B268" s="92" t="s">
         <v>378</v>
-      </c>
-      <c r="B268" s="102" t="s">
-        <v>379</v>
       </c>
       <c r="C268" s="31" t="s">
         <v>189</v>
@@ -9418,10 +9409,10 @@
       <c r="I268" s="30"/>
     </row>
     <row r="269" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A269" s="93"/>
-      <c r="B269" s="103"/>
+      <c r="A269" s="99"/>
+      <c r="B269" s="93"/>
       <c r="C269" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D269" s="31"/>
       <c r="E269" s="30"/>
@@ -9431,10 +9422,10 @@
       <c r="I269" s="30"/>
     </row>
     <row r="270" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A270" s="93"/>
-      <c r="B270" s="104"/>
+      <c r="A270" s="99"/>
+      <c r="B270" s="93"/>
       <c r="C270" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D270" s="31"/>
       <c r="E270" s="30"/>
@@ -9444,10 +9435,10 @@
       <c r="I270" s="30"/>
     </row>
     <row r="271" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A271" s="93"/>
-      <c r="B271" s="31"/>
+      <c r="A271" s="99"/>
+      <c r="B271" s="93"/>
       <c r="C271" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D271" s="31"/>
       <c r="E271" s="30"/>
@@ -9457,10 +9448,10 @@
       <c r="I271" s="30"/>
     </row>
     <row r="272" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A272" s="94"/>
-      <c r="B272" s="31"/>
+      <c r="A272" s="100"/>
+      <c r="B272" s="94"/>
       <c r="C272" s="31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D272" s="31"/>
       <c r="E272" s="30"/>
@@ -9469,12 +9460,12 @@
       <c r="H272" s="30"/>
       <c r="I272" s="30"/>
     </row>
-    <row r="273" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A273" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="B273" s="102" t="s">
-        <v>383</v>
+    <row r="273" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="98" t="s">
+        <v>380</v>
+      </c>
+      <c r="B273" s="92" t="s">
+        <v>382</v>
       </c>
       <c r="C273" s="31" t="s">
         <v>189</v>
@@ -9483,16 +9474,16 @@
       <c r="E273" s="30"/>
       <c r="F273" s="30"/>
       <c r="G273" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H273" s="30"/>
       <c r="I273" s="30"/>
     </row>
     <row r="274" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A274" s="93"/>
-      <c r="B274" s="103"/>
+      <c r="A274" s="99"/>
+      <c r="B274" s="93"/>
       <c r="C274" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D274" s="31"/>
       <c r="E274" s="30"/>
@@ -9502,10 +9493,10 @@
       <c r="I274" s="30"/>
     </row>
     <row r="275" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A275" s="93"/>
-      <c r="B275" s="104"/>
+      <c r="A275" s="99"/>
+      <c r="B275" s="93"/>
       <c r="C275" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D275" s="31"/>
       <c r="E275" s="30"/>
@@ -9515,10 +9506,10 @@
       <c r="I275" s="30"/>
     </row>
     <row r="276" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="93"/>
-      <c r="B276" s="31"/>
+      <c r="A276" s="99"/>
+      <c r="B276" s="93"/>
       <c r="C276" s="31" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D276" s="31"/>
       <c r="E276" s="30"/>
@@ -9528,10 +9519,10 @@
       <c r="I276" s="30"/>
     </row>
     <row r="277" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="94"/>
-      <c r="B277" s="31"/>
+      <c r="A277" s="100"/>
+      <c r="B277" s="94"/>
       <c r="C277" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D277" s="31"/>
       <c r="E277" s="30"/>
@@ -9540,12 +9531,12 @@
       <c r="H277" s="30"/>
       <c r="I277" s="30"/>
     </row>
-    <row r="278" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A278" s="92" t="s">
-        <v>382</v>
-      </c>
-      <c r="B278" s="102" t="s">
-        <v>387</v>
+    <row r="278" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="98" t="s">
+        <v>381</v>
+      </c>
+      <c r="B278" s="92" t="s">
+        <v>386</v>
       </c>
       <c r="C278" s="31" t="s">
         <v>189</v>
@@ -9554,16 +9545,16 @@
       <c r="E278" s="30"/>
       <c r="F278" s="30"/>
       <c r="G278" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H278" s="30"/>
       <c r="I278" s="30"/>
     </row>
     <row r="279" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="93"/>
-      <c r="B279" s="103"/>
+      <c r="A279" s="99"/>
+      <c r="B279" s="93"/>
       <c r="C279" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D279" s="31"/>
       <c r="E279" s="30"/>
@@ -9573,10 +9564,10 @@
       <c r="I279" s="30"/>
     </row>
     <row r="280" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="93"/>
-      <c r="B280" s="104"/>
+      <c r="A280" s="99"/>
+      <c r="B280" s="93"/>
       <c r="C280" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D280" s="31"/>
       <c r="E280" s="30"/>
@@ -9586,10 +9577,10 @@
       <c r="I280" s="30"/>
     </row>
     <row r="281" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A281" s="93"/>
-      <c r="B281" s="31"/>
+      <c r="A281" s="99"/>
+      <c r="B281" s="93"/>
       <c r="C281" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D281" s="31"/>
       <c r="E281" s="30"/>
@@ -9599,10 +9590,10 @@
       <c r="I281" s="30"/>
     </row>
     <row r="282" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A282" s="94"/>
-      <c r="B282" s="31"/>
+      <c r="A282" s="100"/>
+      <c r="B282" s="94"/>
       <c r="C282" s="31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D282" s="31"/>
       <c r="E282" s="30"/>
@@ -9612,11 +9603,11 @@
       <c r="I282" s="30"/>
     </row>
     <row r="283" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="92" t="s">
+      <c r="A283" s="98" t="s">
+        <v>388</v>
+      </c>
+      <c r="B283" s="92" t="s">
         <v>389</v>
-      </c>
-      <c r="B283" s="31" t="s">
-        <v>390</v>
       </c>
       <c r="C283" s="31" t="s">
         <v>189</v>
@@ -9625,16 +9616,16 @@
       <c r="E283" s="30"/>
       <c r="F283" s="30"/>
       <c r="G283" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H283" s="30"/>
       <c r="I283" s="30"/>
     </row>
     <row r="284" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="93"/>
-      <c r="B284" s="31"/>
+      <c r="A284" s="99"/>
+      <c r="B284" s="93"/>
       <c r="C284" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D284" s="31"/>
       <c r="E284" s="30"/>
@@ -9644,10 +9635,10 @@
       <c r="I284" s="30"/>
     </row>
     <row r="285" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A285" s="93"/>
-      <c r="B285" s="31"/>
+      <c r="A285" s="99"/>
+      <c r="B285" s="93"/>
       <c r="C285" s="31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D285" s="31"/>
       <c r="E285" s="30"/>
@@ -9657,10 +9648,10 @@
       <c r="I285" s="30"/>
     </row>
     <row r="286" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="93"/>
-      <c r="B286" s="31"/>
+      <c r="A286" s="99"/>
+      <c r="B286" s="93"/>
       <c r="C286" s="31" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D286" s="31"/>
       <c r="E286" s="30"/>
@@ -9670,10 +9661,10 @@
       <c r="I286" s="30"/>
     </row>
     <row r="287" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="94"/>
-      <c r="B287" s="31"/>
+      <c r="A287" s="100"/>
+      <c r="B287" s="94"/>
       <c r="C287" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D287" s="31"/>
       <c r="E287" s="30"/>
@@ -11641,76 +11632,60 @@
       <c r="I465" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="B199:B203"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B126:B135"/>
-    <mergeCell ref="B136:B145"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="B268:B270"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A278:A282"/>
-    <mergeCell ref="B273:B275"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="B243:B245"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="B258:B260"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B8:B10"/>
+  <mergeCells count="138">
+    <mergeCell ref="B278:B282"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
@@ -11729,48 +11704,73 @@
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B82:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A136:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A224:A228"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A278:A282"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B126:B135"/>
+    <mergeCell ref="B136:B145"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B160"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D02EC59-3984-4810-8C99-1A31BF1C76ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C4ECFF-C2CD-4629-A4CB-927F2E1105A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="TestScriptSet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="486">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1265,6 +1266,279 @@
   </si>
   <si>
     <t xml:space="preserve">3.then click "Cancel all Reservations" button </t>
+  </si>
+  <si>
+    <t>ID 91</t>
+  </si>
+  <si>
+    <t>verify "Your itinerary has been booked!" message is shown on purchase2 page after succesful flight ticket booking</t>
+  </si>
+  <si>
+    <t>5.on purchase2 page veify "Your itinerary has been booked!" is displayed</t>
+  </si>
+  <si>
+    <t>"Your itinerary has been booked!" message should be shown on purchase2 page after succsful flight ticket booking</t>
+  </si>
+  <si>
+    <t>ID 92</t>
+  </si>
+  <si>
+    <t>verify departure and arriviving flight  loctions  are shown as selected by user under 'departing section' on 'purchase2 page'</t>
+  </si>
+  <si>
+    <t>2.on 'reservation page' choose Departing from location as "London" and arriving location as "New York" and click "continue" button</t>
+  </si>
+  <si>
+    <t>3.again on 'reservation2 page' click "continue" button</t>
+  </si>
+  <si>
+    <t>4.on purchase page click "sercure Purchase" button</t>
+  </si>
+  <si>
+    <t>5.on 'purchase2' page under departing section verify "departure and arriving flight label is showing "London to New York"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label should show "London to NewYork" text </t>
+  </si>
+  <si>
+    <t>ID 93</t>
+  </si>
+  <si>
+    <t>verify "departure date, time and airline" are shown as selected by user under 'Departing'  section on  'purchase2 page'</t>
+  </si>
+  <si>
+    <t>2.on 'reservation page' choose On: month 'January' and day '1'  and click "continue' button</t>
+  </si>
+  <si>
+    <t>3.on 'reservation 2 'page under depart section choose 1st flight and note down its depart time and airline name and click "continue" button</t>
+  </si>
+  <si>
+    <t>ID 94</t>
+  </si>
+  <si>
+    <t>verify correct service class  is shown as selected by user under 'Depart' section on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>label should show correct 'date,time,airline' on purchase2 page as selected by user</t>
+  </si>
+  <si>
+    <t>2.on  reservation page under 'preferences' section choose service class as "Business Class"  and click on "continue" button</t>
+  </si>
+  <si>
+    <t>3.on 'reservation 2'page click "continue" button</t>
+  </si>
+  <si>
+    <t>5.verify on purchase2 page under depart section its showing service class as "Business"</t>
+  </si>
+  <si>
+    <t>ID 95</t>
+  </si>
+  <si>
+    <t>2.onr reservation page click "continue " button</t>
+  </si>
+  <si>
+    <t>3.under 'deaprt' section on reservation2 page select '2nd' flight and note down its price and then click "continue" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.verify on purchase 2 page under depart section its showing correct price as selected in step:3 </t>
+  </si>
+  <si>
+    <t>verify correct flight price is shown as per selected airline by user on purchse 2 page under "depart section' on 'purchae2 page'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price label should show correct price of flight as per select by user </t>
+  </si>
+  <si>
+    <t>service class label should show service class as "Business"</t>
+  </si>
+  <si>
+    <t>ID 96</t>
+  </si>
+  <si>
+    <t>ID 97</t>
+  </si>
+  <si>
+    <t>ID 98</t>
+  </si>
+  <si>
+    <t>ID 99</t>
+  </si>
+  <si>
+    <t>verify departure and arriviving flight  loctions  are shown as selected by user under 'returning section' on 'purchase2 page'</t>
+  </si>
+  <si>
+    <t>5.on 'purchase2' page under returning section verify "departure and arriving flight label is showing "New York to London"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label should show "New York to London" text </t>
+  </si>
+  <si>
+    <t>2.on 'reservation page' choose returning: month 'February' and day '1'  and click "continue' button</t>
+  </si>
+  <si>
+    <t>3.on 'reservation 2 'page under RETURN section choose 1st flight and note down its depart time and airline name and click "continue" button</t>
+  </si>
+  <si>
+    <t>5.verify on 'purchase2' page under 'Return' section correct 'date,time and airline 'are shown as selected in step:2 and step:3</t>
+  </si>
+  <si>
+    <t>5.verify on 'purchase2' page under 'Depart' section correct 'date,time and airline 'are shown as selected in step:2 and step:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">label should show correct 'date,time,airline' on purchase2 page as selected by user </t>
+  </si>
+  <si>
+    <t>verify correct service class  is shown as selected by user under 'Return' section on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>5.verify on purchase2 page under 'Return' section its showing service class as "Business"</t>
+  </si>
+  <si>
+    <t>verify correct flight price is shown as per selected airline by user on purchse 2 page under "return section' on 'purchae2 page'</t>
+  </si>
+  <si>
+    <t>2.on reservation page click "continue " button</t>
+  </si>
+  <si>
+    <t>3.under 'return' section on reservation2 page select '2nd' flight and note down its price and then click "continue" button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.verify on purchase 2 page under  'return' section its showing correct price as selected in step:3 </t>
+  </si>
+  <si>
+    <t>ID 100</t>
+  </si>
+  <si>
+    <t>ID 101</t>
+  </si>
+  <si>
+    <t>verify number of passengers under 'Passengers' section on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>2.on 'reservation' page select "4" from passengers dropdown list then click on "continue"button</t>
+  </si>
+  <si>
+    <t>3.on 'reservation2' page click "continue" button</t>
+  </si>
+  <si>
+    <t>4.on "purchase" page click on "secure purchase" button</t>
+  </si>
+  <si>
+    <t>5.verify under passengers section its showing number of passerngers "4"</t>
+  </si>
+  <si>
+    <t>label should should show number of passengers as "4"</t>
+  </si>
+  <si>
+    <t>verify Billing address of customer on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>2. on 'reservation' page click on "continue" button</t>
+  </si>
+  <si>
+    <t>3.on resevation2'page click on "continue" button</t>
+  </si>
+  <si>
+    <t>4.on 'purchase' page enter addresss in 1st address box  "N-12 C-30/2" and in 2nd address box enter "Hudco",    enter in city text box "Aurangabad'    , enter in state text box "Germany"    ,enter in postal text box "431001"  , choose country as "Germany" from country dripdown list then click on "Sercure Purchase" button</t>
+  </si>
+  <si>
+    <t>5.verify on 'purchase2' page under 'Billed to' section address is shown as filled by customer in step:4</t>
+  </si>
+  <si>
+    <t>address should be same as fiilled by customer on purchase page</t>
+  </si>
+  <si>
+    <t>ID 102</t>
+  </si>
+  <si>
+    <t>verify Delivery address of customer on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>4.on 'purchase' page under 'Billing address' section enter addresss in 1st address box  "N-12 C-30/2" and in 2nd address box enter "Hudco",    enter in city text box "Aurangabad'    , enter in state text box "Germany"    ,enter in postal text box "431001"  , choose country as "Germany" from country dripdown list then click on "Sercure Purchase" button</t>
+  </si>
+  <si>
+    <t>5.verify on 'purchase2' page under 'Delivery address' section address is shown as filled by customer in step:4</t>
+  </si>
+  <si>
+    <t>ID 103</t>
+  </si>
+  <si>
+    <t>verify 'total taxes' price label on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>2. on 'reservation' page select "2" passenger form passerngers dropdown list then  click on "continue" button</t>
+  </si>
+  <si>
+    <t>4.on purchase page note down the 'Taxes' price under 'summary' section then click on 'sercure purchse' button</t>
+  </si>
+  <si>
+    <t>5.verify on 'purchase2' page 'Toatal Taxes' label is showing same tax price as  noted in step:4</t>
+  </si>
+  <si>
+    <t>toatal tax should be same as shown on purchase page</t>
+  </si>
+  <si>
+    <t>ID 104</t>
+  </si>
+  <si>
+    <t>verify 'Total Price (including taxes)' price label on 'purchase2' page</t>
+  </si>
+  <si>
+    <t>4.on purchase page note down the 'Total Price (including taxes)' price under 'summary' section then click on 'sercure purchse' button</t>
+  </si>
+  <si>
+    <t>5.verify on 'purchase2' page 'Total Price (including taxes)s' label is showing same  price as  noted in step:4</t>
+  </si>
+  <si>
+    <t>Total Price (including taxes) should be same as shown on purchase page</t>
+  </si>
+  <si>
+    <t>ID 105</t>
+  </si>
+  <si>
+    <t>ID 106</t>
+  </si>
+  <si>
+    <t>ID 107</t>
+  </si>
+  <si>
+    <t>verify 'back to flights' button funtionality</t>
+  </si>
+  <si>
+    <t>4.on 'purchase'page note click on 'sercure purchse' button</t>
+  </si>
+  <si>
+    <t>5.on purchase2 page click on 'Back To Flights' button</t>
+  </si>
+  <si>
+    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercuryreservation.php"</t>
+  </si>
+  <si>
+    <t>button should be clicked and user should be navigated to url =http://newtours.demoaut.com/mercuryreservation.php</t>
+  </si>
+  <si>
+    <t>verify 'Back to home' button funtionality</t>
+  </si>
+  <si>
+    <t>5.on purchase2 page click on 'Back To Home' button</t>
+  </si>
+  <si>
+    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercurywelcome.php"</t>
+  </si>
+  <si>
+    <t>button should be clicked and user should be navigated to url =http://newtours.demoaut.com/mercurywelcome.php</t>
+  </si>
+  <si>
+    <t>verify 'Logout' button funtionality</t>
+  </si>
+  <si>
+    <t>5.on purchase2 page click on 'Logout' button</t>
+  </si>
+  <si>
+    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercurysignon.php"</t>
+  </si>
+  <si>
+    <t>button should be clicked and user should be navigated to url =http://newtours.demoaut.com/mercurysignon.php</t>
   </si>
 </sst>
 </file>
@@ -1710,7 +1984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1971,6 +2245,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1988,15 +2280,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2294,8 +2577,8 @@
   <dimension ref="A1:I321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C135" sqref="C135"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5501,8 +5784,8 @@
   <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5548,10 +5831,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -5567,8 +5850,8 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="99"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
@@ -5580,8 +5863,8 @@
       <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="31" t="s">
         <v>85</v>
       </c>
@@ -5593,10 +5876,10 @@
       <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="98" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -5612,8 +5895,8 @@
       <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="99"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="31" t="s">
         <v>90</v>
       </c>
@@ -5625,8 +5908,8 @@
       <c r="I6" s="30"/>
     </row>
     <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="31" t="s">
         <v>91</v>
       </c>
@@ -5638,10 +5921,10 @@
       <c r="I7" s="30"/>
     </row>
     <row r="8" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="98" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -5657,8 +5940,8 @@
       <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="31" t="s">
         <v>186</v>
       </c>
@@ -5670,8 +5953,8 @@
       <c r="I9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
@@ -5683,10 +5966,10 @@
       <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="98" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -5702,8 +5985,8 @@
       <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="99"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="31" t="s">
         <v>99</v>
       </c>
@@ -5715,8 +5998,8 @@
       <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="31" t="s">
         <v>96</v>
       </c>
@@ -5728,10 +6011,10 @@
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="98" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -5747,8 +6030,8 @@
       <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="31" t="s">
         <v>101</v>
       </c>
@@ -5760,8 +6043,8 @@
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="31" t="s">
         <v>102</v>
       </c>
@@ -5773,10 +6056,10 @@
       <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="98" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -5792,8 +6075,8 @@
       <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="99"/>
-      <c r="B18" s="93"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="31" t="s">
         <v>105</v>
       </c>
@@ -5805,8 +6088,8 @@
       <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="31" t="s">
         <v>96</v>
       </c>
@@ -5818,10 +6101,10 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="98" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -5837,8 +6120,8 @@
       <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
-      <c r="B21" s="93"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="31" t="s">
         <v>111</v>
       </c>
@@ -5850,8 +6133,8 @@
       <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="31" t="s">
         <v>96</v>
       </c>
@@ -5863,10 +6146,10 @@
       <c r="I22" s="30"/>
     </row>
     <row r="23" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="98" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -5882,8 +6165,8 @@
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="99"/>
-      <c r="B24" s="93"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="31" t="s">
         <v>113</v>
       </c>
@@ -5895,8 +6178,8 @@
       <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="31" t="s">
         <v>114</v>
       </c>
@@ -5908,10 +6191,10 @@
       <c r="I25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="98" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -5927,8 +6210,8 @@
       <c r="I26" s="30"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="93"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="31" t="s">
         <v>117</v>
       </c>
@@ -5940,8 +6223,8 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="31" t="s">
         <v>118</v>
       </c>
@@ -5953,10 +6236,10 @@
       <c r="I28" s="30"/>
     </row>
     <row r="29" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="98" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -5972,8 +6255,8 @@
       <c r="I29" s="30"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="93"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="31" t="s">
         <v>121</v>
       </c>
@@ -5985,8 +6268,8 @@
       <c r="I30" s="30"/>
     </row>
     <row r="31" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="31" t="s">
         <v>96</v>
       </c>
@@ -5998,10 +6281,10 @@
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="98" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -6017,8 +6300,8 @@
       <c r="I32" s="30"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="99"/>
-      <c r="B33" s="93"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="31" t="s">
         <v>126</v>
       </c>
@@ -6030,8 +6313,8 @@
       <c r="I33" s="30"/>
     </row>
     <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="31" t="s">
         <v>96</v>
       </c>
@@ -6043,10 +6326,10 @@
       <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="98" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -6062,8 +6345,8 @@
       <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="99"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="31" t="s">
         <v>127</v>
       </c>
@@ -6075,8 +6358,8 @@
       <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="31" t="s">
         <v>96</v>
       </c>
@@ -6088,10 +6371,10 @@
       <c r="I37" s="30"/>
     </row>
     <row r="38" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -6107,8 +6390,8 @@
       <c r="I38" s="30"/>
     </row>
     <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="99"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="31" t="s">
         <v>140</v>
       </c>
@@ -6120,8 +6403,8 @@
       <c r="I39" s="30"/>
     </row>
     <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="31" t="s">
         <v>96</v>
       </c>
@@ -6133,10 +6416,10 @@
       <c r="I40" s="30"/>
     </row>
     <row r="41" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="98" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -6152,8 +6435,8 @@
       <c r="I41" s="30"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="99"/>
-      <c r="B42" s="93"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="99"/>
       <c r="C42" s="31" t="s">
         <v>142</v>
       </c>
@@ -6165,8 +6448,8 @@
       <c r="I42" s="30"/>
     </row>
     <row r="43" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="31" t="s">
         <v>118</v>
       </c>
@@ -6178,10 +6461,10 @@
       <c r="I43" s="30"/>
     </row>
     <row r="44" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="98" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -6197,8 +6480,8 @@
       <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="99"/>
-      <c r="B45" s="93"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="31" t="s">
         <v>145</v>
       </c>
@@ -6210,8 +6493,8 @@
       <c r="I45" s="30"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="100"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="30"/>
@@ -6221,10 +6504,10 @@
       <c r="I46" s="30"/>
     </row>
     <row r="47" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="98" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -6240,8 +6523,8 @@
       <c r="I47" s="30"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="99"/>
-      <c r="B48" s="93"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="31" t="s">
         <v>127</v>
       </c>
@@ -6253,8 +6536,8 @@
       <c r="I48" s="30"/>
     </row>
     <row r="49" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="100"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="31" t="s">
         <v>96</v>
       </c>
@@ -6266,10 +6549,10 @@
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="98" t="s">
+      <c r="A50" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="98" t="s">
         <v>149</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -6285,8 +6568,8 @@
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="99"/>
-      <c r="B51" s="93"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="31" t="s">
         <v>140</v>
       </c>
@@ -6298,8 +6581,8 @@
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="31" t="s">
         <v>96</v>
       </c>
@@ -6311,10 +6594,10 @@
       <c r="I52" s="30"/>
     </row>
     <row r="53" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="98" t="s">
+      <c r="A53" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="98" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -6330,8 +6613,8 @@
       <c r="I53" s="30"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="99"/>
-      <c r="B54" s="93"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="99"/>
       <c r="C54" s="31" t="s">
         <v>142</v>
       </c>
@@ -6343,8 +6626,8 @@
       <c r="I54" s="30"/>
     </row>
     <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="100"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="31" t="s">
         <v>118</v>
       </c>
@@ -6356,10 +6639,10 @@
       <c r="I55" s="30"/>
     </row>
     <row r="56" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="98" t="s">
+      <c r="A56" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="98" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="31" t="s">
@@ -6375,8 +6658,8 @@
       <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="99"/>
-      <c r="B57" s="93"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="99"/>
       <c r="C57" s="31" t="s">
         <v>145</v>
       </c>
@@ -6388,8 +6671,8 @@
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="100"/>
-      <c r="B58" s="94"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="30"/>
@@ -6399,10 +6682,10 @@
       <c r="I58" s="30"/>
     </row>
     <row r="59" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="101" t="s">
+      <c r="B59" s="104" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="31" t="s">
@@ -6418,8 +6701,8 @@
       <c r="I59" s="30"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="99"/>
-      <c r="B60" s="102"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="105"/>
       <c r="C60" s="31" t="s">
         <v>127</v>
       </c>
@@ -6431,8 +6714,8 @@
       <c r="I60" s="30"/>
     </row>
     <row r="61" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
-      <c r="B61" s="103"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="106"/>
       <c r="C61" s="31" t="s">
         <v>96</v>
       </c>
@@ -6444,10 +6727,10 @@
       <c r="I61" s="30"/>
     </row>
     <row r="62" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="98" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -6463,8 +6746,8 @@
       <c r="I62" s="30"/>
     </row>
     <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="99"/>
-      <c r="B63" s="93"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="99"/>
       <c r="C63" s="31" t="s">
         <v>140</v>
       </c>
@@ -6476,8 +6759,8 @@
       <c r="I63" s="30"/>
     </row>
     <row r="64" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="100"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="31" t="s">
         <v>96</v>
       </c>
@@ -6489,10 +6772,10 @@
       <c r="I64" s="30"/>
     </row>
     <row r="65" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="98" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -6508,8 +6791,8 @@
       <c r="I65" s="30"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="99"/>
-      <c r="B66" s="93"/>
+      <c r="A66" s="93"/>
+      <c r="B66" s="99"/>
       <c r="C66" s="31" t="s">
         <v>142</v>
       </c>
@@ -6521,8 +6804,8 @@
       <c r="I66" s="30"/>
     </row>
     <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="100"/>
-      <c r="B67" s="94"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
@@ -6534,10 +6817,10 @@
       <c r="I67" s="30"/>
     </row>
     <row r="68" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="98" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -6553,8 +6836,8 @@
       <c r="I68" s="30"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="99"/>
-      <c r="B69" s="93"/>
+      <c r="A69" s="93"/>
+      <c r="B69" s="99"/>
       <c r="C69" s="31" t="s">
         <v>145</v>
       </c>
@@ -6566,8 +6849,8 @@
       <c r="I69" s="30"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
-      <c r="B70" s="94"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="30"/>
@@ -6577,10 +6860,10 @@
       <c r="I70" s="30"/>
     </row>
     <row r="71" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="98" t="s">
         <v>162</v>
       </c>
       <c r="C71" s="31" t="s">
@@ -6596,8 +6879,8 @@
       <c r="I71" s="30"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
-      <c r="B72" s="93"/>
+      <c r="A72" s="93"/>
+      <c r="B72" s="99"/>
       <c r="C72" s="31" t="s">
         <v>164</v>
       </c>
@@ -6609,8 +6892,8 @@
       <c r="I72" s="30"/>
     </row>
     <row r="73" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="100"/>
-      <c r="B73" s="94"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="31" t="s">
         <v>187</v>
       </c>
@@ -6622,10 +6905,10 @@
       <c r="I73" s="30"/>
     </row>
     <row r="74" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="98" t="s">
+      <c r="A74" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="98" t="s">
         <v>166</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -6641,8 +6924,8 @@
       <c r="I74" s="30"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="99"/>
-      <c r="B75" s="93"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="99"/>
       <c r="C75" s="31" t="s">
         <v>168</v>
       </c>
@@ -6654,8 +6937,8 @@
       <c r="I75" s="30"/>
     </row>
     <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="100"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="31" t="s">
         <v>169</v>
       </c>
@@ -6667,10 +6950,10 @@
       <c r="I76" s="30"/>
     </row>
     <row r="77" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="98" t="s">
+      <c r="A77" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="92" t="s">
+      <c r="B77" s="98" t="s">
         <v>188</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -6686,8 +6969,8 @@
       <c r="I77" s="30"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="99"/>
-      <c r="B78" s="93"/>
+      <c r="A78" s="93"/>
+      <c r="B78" s="99"/>
       <c r="C78" s="31" t="s">
         <v>190</v>
       </c>
@@ -6699,8 +6982,8 @@
       <c r="I78" s="30"/>
     </row>
     <row r="79" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="99"/>
-      <c r="B79" s="93"/>
+      <c r="A79" s="93"/>
+      <c r="B79" s="99"/>
       <c r="C79" s="31" t="s">
         <v>191</v>
       </c>
@@ -6712,8 +6995,8 @@
       <c r="I79" s="30"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="99"/>
-      <c r="B80" s="93"/>
+      <c r="A80" s="93"/>
+      <c r="B80" s="99"/>
       <c r="C80" s="38" t="s">
         <v>192</v>
       </c>
@@ -6725,8 +7008,8 @@
       <c r="I80" s="30"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="100"/>
-      <c r="B81" s="94"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="31" t="s">
         <v>193</v>
       </c>
@@ -6738,10 +7021,10 @@
       <c r="I81" s="30"/>
     </row>
     <row r="82" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="98" t="s">
+      <c r="A82" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="92" t="s">
+      <c r="B82" s="98" t="s">
         <v>201</v>
       </c>
       <c r="C82" s="31" t="s">
@@ -6757,8 +7040,8 @@
       <c r="I82" s="30"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="99"/>
-      <c r="B83" s="93"/>
+      <c r="A83" s="93"/>
+      <c r="B83" s="99"/>
       <c r="C83" s="31" t="s">
         <v>194</v>
       </c>
@@ -6770,8 +7053,8 @@
       <c r="I83" s="30"/>
     </row>
     <row r="84" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="99"/>
-      <c r="B84" s="93"/>
+      <c r="A84" s="93"/>
+      <c r="B84" s="99"/>
       <c r="C84" s="31" t="s">
         <v>195</v>
       </c>
@@ -6783,8 +7066,8 @@
       <c r="I84" s="30"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="99"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="93"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="31" t="s">
         <v>196</v>
       </c>
@@ -6796,8 +7079,8 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="99"/>
-      <c r="B86" s="93"/>
+      <c r="A86" s="93"/>
+      <c r="B86" s="99"/>
       <c r="C86" s="31" t="s">
         <v>197</v>
       </c>
@@ -6809,8 +7092,8 @@
       <c r="I86" s="30"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="99"/>
-      <c r="B87" s="93"/>
+      <c r="A87" s="93"/>
+      <c r="B87" s="99"/>
       <c r="C87" s="31" t="s">
         <v>198</v>
       </c>
@@ -6822,8 +7105,8 @@
       <c r="I87" s="30"/>
     </row>
     <row r="88" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A88" s="100"/>
-      <c r="B88" s="94"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="100"/>
       <c r="C88" s="31" t="s">
         <v>199</v>
       </c>
@@ -6835,10 +7118,10 @@
       <c r="I88" s="30"/>
     </row>
     <row r="89" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="98" t="s">
+      <c r="A89" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="98" t="s">
         <v>203</v>
       </c>
       <c r="C89" s="31" t="s">
@@ -6854,8 +7137,8 @@
       <c r="I89" s="30"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="99"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="93"/>
+      <c r="B90" s="99"/>
       <c r="C90" s="31" t="s">
         <v>202</v>
       </c>
@@ -6867,8 +7150,8 @@
       <c r="I90" s="30"/>
     </row>
     <row r="91" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="99"/>
-      <c r="B91" s="94"/>
+      <c r="A91" s="93"/>
+      <c r="B91" s="100"/>
       <c r="C91" s="31" t="s">
         <v>227</v>
       </c>
@@ -6880,10 +7163,10 @@
       <c r="I91" s="30"/>
     </row>
     <row r="92" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="98" t="s">
+      <c r="A92" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="98" t="s">
         <v>208</v>
       </c>
       <c r="C92" s="31" t="s">
@@ -6899,8 +7182,8 @@
       <c r="I92" s="30"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="99"/>
-      <c r="B93" s="93"/>
+      <c r="A93" s="93"/>
+      <c r="B93" s="99"/>
       <c r="C93" s="31" t="s">
         <v>209</v>
       </c>
@@ -6912,8 +7195,8 @@
       <c r="I93" s="30"/>
     </row>
     <row r="94" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="99"/>
-      <c r="B94" s="94"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="100"/>
       <c r="C94" s="31" t="s">
         <v>204</v>
       </c>
@@ -6925,10 +7208,10 @@
       <c r="I94" s="30"/>
     </row>
     <row r="95" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="98" t="s">
+      <c r="A95" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="98" t="s">
         <v>210</v>
       </c>
       <c r="C95" s="31" t="s">
@@ -6944,8 +7227,8 @@
       <c r="I95" s="30"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="99"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="93"/>
+      <c r="B96" s="99"/>
       <c r="C96" s="31" t="s">
         <v>213</v>
       </c>
@@ -6957,8 +7240,8 @@
       <c r="I96" s="30"/>
     </row>
     <row r="97" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="99"/>
-      <c r="B97" s="94"/>
+      <c r="A97" s="93"/>
+      <c r="B97" s="100"/>
       <c r="C97" s="31" t="s">
         <v>204</v>
       </c>
@@ -6970,10 +7253,10 @@
       <c r="I97" s="30"/>
     </row>
     <row r="98" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="98" t="s">
+      <c r="A98" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B98" s="98" t="s">
         <v>211</v>
       </c>
       <c r="C98" s="31" t="s">
@@ -6989,8 +7272,8 @@
       <c r="I98" s="30"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
-      <c r="B99" s="93"/>
+      <c r="A99" s="93"/>
+      <c r="B99" s="99"/>
       <c r="C99" s="31" t="s">
         <v>212</v>
       </c>
@@ -7002,8 +7285,8 @@
       <c r="I99" s="30"/>
     </row>
     <row r="100" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="99"/>
-      <c r="B100" s="94"/>
+      <c r="A100" s="93"/>
+      <c r="B100" s="100"/>
       <c r="C100" s="31" t="s">
         <v>204</v>
       </c>
@@ -7015,10 +7298,10 @@
       <c r="I100" s="30"/>
     </row>
     <row r="101" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="98" t="s">
+      <c r="A101" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="98" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="31" t="s">
@@ -7034,8 +7317,8 @@
       <c r="I101" s="30"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="99"/>
-      <c r="B102" s="93"/>
+      <c r="A102" s="93"/>
+      <c r="B102" s="99"/>
       <c r="C102" s="31" t="s">
         <v>219</v>
       </c>
@@ -7047,8 +7330,8 @@
       <c r="I102" s="30"/>
     </row>
     <row r="103" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="99"/>
-      <c r="B103" s="94"/>
+      <c r="A103" s="93"/>
+      <c r="B103" s="100"/>
       <c r="C103" s="31" t="s">
         <v>204</v>
       </c>
@@ -7060,10 +7343,10 @@
       <c r="I103" s="30"/>
     </row>
     <row r="104" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="98" t="s">
+      <c r="A104" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="92" t="s">
+      <c r="B104" s="98" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="31" t="s">
@@ -7079,8 +7362,8 @@
       <c r="I104" s="30"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="99"/>
-      <c r="B105" s="93"/>
+      <c r="A105" s="93"/>
+      <c r="B105" s="99"/>
       <c r="C105" s="31" t="s">
         <v>221</v>
       </c>
@@ -7092,8 +7375,8 @@
       <c r="I105" s="30"/>
     </row>
     <row r="106" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="99"/>
-      <c r="B106" s="94"/>
+      <c r="A106" s="93"/>
+      <c r="B106" s="100"/>
       <c r="C106" s="31" t="s">
         <v>204</v>
       </c>
@@ -7105,10 +7388,10 @@
       <c r="I106" s="30"/>
     </row>
     <row r="107" spans="1:9" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="98" t="s">
+      <c r="A107" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="92" t="s">
+      <c r="B107" s="98" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="31" t="s">
@@ -7124,8 +7407,8 @@
       <c r="I107" s="30"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="99"/>
-      <c r="B108" s="93"/>
+      <c r="A108" s="93"/>
+      <c r="B108" s="99"/>
       <c r="C108" s="31" t="s">
         <v>223</v>
       </c>
@@ -7137,8 +7420,8 @@
       <c r="I108" s="30"/>
     </row>
     <row r="109" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A109" s="99"/>
-      <c r="B109" s="94"/>
+      <c r="A109" s="93"/>
+      <c r="B109" s="100"/>
       <c r="C109" s="31" t="s">
         <v>204</v>
       </c>
@@ -7150,10 +7433,10 @@
       <c r="I109" s="30"/>
     </row>
     <row r="110" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A110" s="98" t="s">
+      <c r="A110" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="92" t="s">
+      <c r="B110" s="98" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="31" t="s">
@@ -7169,8 +7452,8 @@
       <c r="I110" s="30"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="99"/>
-      <c r="B111" s="93"/>
+      <c r="A111" s="93"/>
+      <c r="B111" s="99"/>
       <c r="C111" s="31" t="s">
         <v>226</v>
       </c>
@@ -7182,8 +7465,8 @@
       <c r="I111" s="30"/>
     </row>
     <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="99"/>
-      <c r="B112" s="94"/>
+      <c r="A112" s="93"/>
+      <c r="B112" s="100"/>
       <c r="C112" s="31" t="s">
         <v>204</v>
       </c>
@@ -7195,10 +7478,10 @@
       <c r="I112" s="30"/>
     </row>
     <row r="113" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="98" t="s">
+      <c r="A113" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="92" t="s">
+      <c r="B113" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="31" t="s">
@@ -7214,8 +7497,8 @@
       <c r="I113" s="30"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="99"/>
-      <c r="B114" s="93"/>
+      <c r="A114" s="93"/>
+      <c r="B114" s="99"/>
       <c r="C114" s="31" t="s">
         <v>229</v>
       </c>
@@ -7227,8 +7510,8 @@
       <c r="I114" s="30"/>
     </row>
     <row r="115" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="99"/>
-      <c r="B115" s="94"/>
+      <c r="A115" s="93"/>
+      <c r="B115" s="100"/>
       <c r="C115" s="31" t="s">
         <v>230</v>
       </c>
@@ -7240,10 +7523,10 @@
       <c r="I115" s="30"/>
     </row>
     <row r="116" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="98" t="s">
+      <c r="A116" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B116" s="92" t="s">
+      <c r="B116" s="98" t="s">
         <v>233</v>
       </c>
       <c r="C116" s="31" t="s">
@@ -7259,8 +7542,8 @@
       <c r="I116" s="30"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="99"/>
-      <c r="B117" s="93"/>
+      <c r="A117" s="93"/>
+      <c r="B117" s="99"/>
       <c r="C117" s="31" t="s">
         <v>234</v>
       </c>
@@ -7272,8 +7555,8 @@
       <c r="I117" s="30"/>
     </row>
     <row r="118" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="99"/>
-      <c r="B118" s="94"/>
+      <c r="A118" s="93"/>
+      <c r="B118" s="100"/>
       <c r="C118" s="31" t="s">
         <v>235</v>
       </c>
@@ -7285,10 +7568,10 @@
       <c r="I118" s="30"/>
     </row>
     <row r="119" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="98" t="s">
+      <c r="A119" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="92" t="s">
+      <c r="B119" s="98" t="s">
         <v>237</v>
       </c>
       <c r="C119" s="31" t="s">
@@ -7304,8 +7587,8 @@
       <c r="I119" s="30"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="99"/>
-      <c r="B120" s="93"/>
+      <c r="A120" s="93"/>
+      <c r="B120" s="99"/>
       <c r="C120" s="31" t="s">
         <v>238</v>
       </c>
@@ -7317,8 +7600,8 @@
       <c r="I120" s="30"/>
     </row>
     <row r="121" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="99"/>
-      <c r="B121" s="94"/>
+      <c r="A121" s="93"/>
+      <c r="B121" s="100"/>
       <c r="C121" s="31" t="s">
         <v>239</v>
       </c>
@@ -7330,10 +7613,10 @@
       <c r="I121" s="30"/>
     </row>
     <row r="122" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="98" t="s">
+      <c r="A122" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="95" t="s">
+      <c r="B122" s="101" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -7349,8 +7632,8 @@
       <c r="I122" s="30"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="99"/>
-      <c r="B123" s="96"/>
+      <c r="A123" s="93"/>
+      <c r="B123" s="102"/>
       <c r="C123" s="31" t="s">
         <v>242</v>
       </c>
@@ -7362,8 +7645,8 @@
       <c r="I123" s="30"/>
     </row>
     <row r="124" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A124" s="99"/>
-      <c r="B124" s="96"/>
+      <c r="A124" s="93"/>
+      <c r="B124" s="102"/>
       <c r="C124" s="31" t="s">
         <v>394</v>
       </c>
@@ -7375,8 +7658,8 @@
       <c r="I124" s="30"/>
     </row>
     <row r="125" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="100"/>
-      <c r="B125" s="97"/>
+      <c r="A125" s="94"/>
+      <c r="B125" s="103"/>
       <c r="C125" s="31" t="s">
         <v>243</v>
       </c>
@@ -7388,10 +7671,10 @@
       <c r="I125" s="30"/>
     </row>
     <row r="126" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="98" t="s">
+      <c r="A126" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B126" s="92" t="s">
+      <c r="B126" s="98" t="s">
         <v>246</v>
       </c>
       <c r="C126" s="31" t="s">
@@ -7407,8 +7690,8 @@
       <c r="I126" s="30"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="99"/>
-      <c r="B127" s="93"/>
+      <c r="A127" s="93"/>
+      <c r="B127" s="99"/>
       <c r="C127" s="31" t="s">
         <v>247</v>
       </c>
@@ -7420,8 +7703,8 @@
       <c r="I127" s="30"/>
     </row>
     <row r="128" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="99"/>
-      <c r="B128" s="93"/>
+      <c r="A128" s="93"/>
+      <c r="B128" s="99"/>
       <c r="C128" s="31" t="s">
         <v>248</v>
       </c>
@@ -7433,8 +7716,8 @@
       <c r="I128" s="30"/>
     </row>
     <row r="129" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A129" s="99"/>
-      <c r="B129" s="93"/>
+      <c r="A129" s="93"/>
+      <c r="B129" s="99"/>
       <c r="C129" s="31" t="s">
         <v>249</v>
       </c>
@@ -7446,8 +7729,8 @@
       <c r="I129" s="30"/>
     </row>
     <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="99"/>
-      <c r="B130" s="93"/>
+      <c r="A130" s="93"/>
+      <c r="B130" s="99"/>
       <c r="C130" s="31" t="s">
         <v>250</v>
       </c>
@@ -7459,8 +7742,8 @@
       <c r="I130" s="30"/>
     </row>
     <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A131" s="99"/>
-      <c r="B131" s="93"/>
+      <c r="A131" s="93"/>
+      <c r="B131" s="99"/>
       <c r="C131" s="31" t="s">
         <v>251</v>
       </c>
@@ -7472,8 +7755,8 @@
       <c r="I131" s="30"/>
     </row>
     <row r="132" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="99"/>
-      <c r="B132" s="93"/>
+      <c r="A132" s="93"/>
+      <c r="B132" s="99"/>
       <c r="C132" s="31" t="s">
         <v>252</v>
       </c>
@@ -7485,8 +7768,8 @@
       <c r="I132" s="30"/>
     </row>
     <row r="133" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="99"/>
-      <c r="B133" s="93"/>
+      <c r="A133" s="93"/>
+      <c r="B133" s="99"/>
       <c r="C133" s="31" t="s">
         <v>253</v>
       </c>
@@ -7498,8 +7781,8 @@
       <c r="I133" s="30"/>
     </row>
     <row r="134" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="99"/>
-      <c r="B134" s="93"/>
+      <c r="A134" s="93"/>
+      <c r="B134" s="99"/>
       <c r="C134" s="31" t="s">
         <v>255</v>
       </c>
@@ -7511,8 +7794,8 @@
       <c r="I134" s="30"/>
     </row>
     <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="100"/>
-      <c r="B135" s="94"/>
+      <c r="A135" s="94"/>
+      <c r="B135" s="100"/>
       <c r="C135" s="31" t="s">
         <v>254</v>
       </c>
@@ -7524,10 +7807,10 @@
       <c r="I135" s="30"/>
     </row>
     <row r="136" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="98" t="s">
+      <c r="A136" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B136" s="92" t="s">
+      <c r="B136" s="98" t="s">
         <v>258</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -7543,8 +7826,8 @@
       <c r="I136" s="30"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="99"/>
-      <c r="B137" s="93"/>
+      <c r="A137" s="93"/>
+      <c r="B137" s="99"/>
       <c r="C137" s="31" t="s">
         <v>247</v>
       </c>
@@ -7556,8 +7839,8 @@
       <c r="I137" s="30"/>
     </row>
     <row r="138" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A138" s="99"/>
-      <c r="B138" s="93"/>
+      <c r="A138" s="93"/>
+      <c r="B138" s="99"/>
       <c r="C138" s="31" t="s">
         <v>259</v>
       </c>
@@ -7569,8 +7852,8 @@
       <c r="I138" s="30"/>
     </row>
     <row r="139" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A139" s="99"/>
-      <c r="B139" s="93"/>
+      <c r="A139" s="93"/>
+      <c r="B139" s="99"/>
       <c r="C139" s="31" t="s">
         <v>249</v>
       </c>
@@ -7582,8 +7865,8 @@
       <c r="I139" s="30"/>
     </row>
     <row r="140" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="99"/>
-      <c r="B140" s="93"/>
+      <c r="A140" s="93"/>
+      <c r="B140" s="99"/>
       <c r="C140" s="31" t="s">
         <v>260</v>
       </c>
@@ -7595,8 +7878,8 @@
       <c r="I140" s="30"/>
     </row>
     <row r="141" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="99"/>
-      <c r="B141" s="93"/>
+      <c r="A141" s="93"/>
+      <c r="B141" s="99"/>
       <c r="C141" s="31" t="s">
         <v>251</v>
       </c>
@@ -7608,8 +7891,8 @@
       <c r="I141" s="30"/>
     </row>
     <row r="142" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="99"/>
-      <c r="B142" s="93"/>
+      <c r="A142" s="93"/>
+      <c r="B142" s="99"/>
       <c r="C142" s="31" t="s">
         <v>261</v>
       </c>
@@ -7621,8 +7904,8 @@
       <c r="I142" s="30"/>
     </row>
     <row r="143" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="99"/>
-      <c r="B143" s="93"/>
+      <c r="A143" s="93"/>
+      <c r="B143" s="99"/>
       <c r="C143" s="31" t="s">
         <v>253</v>
       </c>
@@ -7634,8 +7917,8 @@
       <c r="I143" s="30"/>
     </row>
     <row r="144" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A144" s="99"/>
-      <c r="B144" s="93"/>
+      <c r="A144" s="93"/>
+      <c r="B144" s="99"/>
       <c r="C144" s="31" t="s">
         <v>262</v>
       </c>
@@ -7647,8 +7930,8 @@
       <c r="I144" s="30"/>
     </row>
     <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="100"/>
-      <c r="B145" s="94"/>
+      <c r="A145" s="94"/>
+      <c r="B145" s="100"/>
       <c r="C145" s="31" t="s">
         <v>254</v>
       </c>
@@ -7660,10 +7943,10 @@
       <c r="I145" s="30"/>
     </row>
     <row r="146" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="98" t="s">
+      <c r="A146" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="B146" s="92" t="s">
+      <c r="B146" s="98" t="s">
         <v>269</v>
       </c>
       <c r="C146" s="31" t="s">
@@ -7679,8 +7962,8 @@
       <c r="I146" s="30"/>
     </row>
     <row r="147" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A147" s="99"/>
-      <c r="B147" s="93"/>
+      <c r="A147" s="93"/>
+      <c r="B147" s="99"/>
       <c r="C147" s="31" t="s">
         <v>264</v>
       </c>
@@ -7692,8 +7975,8 @@
       <c r="I147" s="30"/>
     </row>
     <row r="148" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="99"/>
-      <c r="B148" s="93"/>
+      <c r="A148" s="93"/>
+      <c r="B148" s="99"/>
       <c r="C148" s="31" t="s">
         <v>265</v>
       </c>
@@ -7705,8 +7988,8 @@
       <c r="I148" s="30"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="99"/>
-      <c r="B149" s="93"/>
+      <c r="A149" s="93"/>
+      <c r="B149" s="99"/>
       <c r="C149" s="31" t="s">
         <v>266</v>
       </c>
@@ -7718,8 +8001,8 @@
       <c r="I149" s="30"/>
     </row>
     <row r="150" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="99"/>
-      <c r="B150" s="94"/>
+      <c r="A150" s="93"/>
+      <c r="B150" s="100"/>
       <c r="C150" s="22" t="s">
         <v>393</v>
       </c>
@@ -7731,10 +8014,10 @@
       <c r="I150" s="30"/>
     </row>
     <row r="151" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="98" t="s">
+      <c r="A151" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="92" t="s">
+      <c r="B151" s="98" t="s">
         <v>270</v>
       </c>
       <c r="C151" s="31" t="s">
@@ -7750,8 +8033,8 @@
       <c r="I151" s="30"/>
     </row>
     <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="99"/>
-      <c r="B152" s="93"/>
+      <c r="A152" s="93"/>
+      <c r="B152" s="99"/>
       <c r="C152" s="31" t="s">
         <v>264</v>
       </c>
@@ -7763,8 +8046,8 @@
       <c r="I152" s="30"/>
     </row>
     <row r="153" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="99"/>
-      <c r="B153" s="93"/>
+      <c r="A153" s="93"/>
+      <c r="B153" s="99"/>
       <c r="C153" s="31" t="s">
         <v>265</v>
       </c>
@@ -7776,8 +8059,8 @@
       <c r="I153" s="30"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="99"/>
-      <c r="B154" s="93"/>
+      <c r="A154" s="93"/>
+      <c r="B154" s="99"/>
       <c r="C154" s="31" t="s">
         <v>266</v>
       </c>
@@ -7789,8 +8072,8 @@
       <c r="I154" s="30"/>
     </row>
     <row r="155" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="99"/>
-      <c r="B155" s="94"/>
+      <c r="A155" s="93"/>
+      <c r="B155" s="100"/>
       <c r="C155" s="22" t="s">
         <v>274</v>
       </c>
@@ -7802,10 +8085,10 @@
       <c r="I155" s="30"/>
     </row>
     <row r="156" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="98" t="s">
+      <c r="A156" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="B156" s="92" t="s">
+      <c r="B156" s="98" t="s">
         <v>280</v>
       </c>
       <c r="C156" s="31" t="s">
@@ -7821,8 +8104,8 @@
       <c r="I156" s="30"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="99"/>
-      <c r="B157" s="93"/>
+      <c r="A157" s="93"/>
+      <c r="B157" s="99"/>
       <c r="C157" s="31" t="s">
         <v>272</v>
       </c>
@@ -7834,8 +8117,8 @@
       <c r="I157" s="30"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="99"/>
-      <c r="B158" s="93"/>
+      <c r="A158" s="93"/>
+      <c r="B158" s="99"/>
       <c r="C158" s="31" t="s">
         <v>273</v>
       </c>
@@ -7847,8 +8130,8 @@
       <c r="I158" s="30"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="99"/>
-      <c r="B159" s="93"/>
+      <c r="A159" s="93"/>
+      <c r="B159" s="99"/>
       <c r="C159" s="31" t="s">
         <v>277</v>
       </c>
@@ -7860,8 +8143,8 @@
       <c r="I159" s="30"/>
     </row>
     <row r="160" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A160" s="99"/>
-      <c r="B160" s="94"/>
+      <c r="A160" s="93"/>
+      <c r="B160" s="100"/>
       <c r="C160" s="31" t="s">
         <v>278</v>
       </c>
@@ -7873,10 +8156,10 @@
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="104" t="s">
+      <c r="A161" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="B161" s="92" t="s">
+      <c r="B161" s="98" t="s">
         <v>279</v>
       </c>
       <c r="C161" s="31" t="s">
@@ -7892,8 +8175,8 @@
       <c r="I161" s="30"/>
     </row>
     <row r="162" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="104"/>
-      <c r="B162" s="93"/>
+      <c r="A162" s="107"/>
+      <c r="B162" s="99"/>
       <c r="C162" s="31" t="s">
         <v>282</v>
       </c>
@@ -7905,8 +8188,8 @@
       <c r="I162" s="30"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="104"/>
-      <c r="B163" s="93"/>
+      <c r="A163" s="107"/>
+      <c r="B163" s="99"/>
       <c r="C163" s="31" t="s">
         <v>281</v>
       </c>
@@ -7918,8 +8201,8 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="104"/>
-      <c r="B164" s="93"/>
+      <c r="A164" s="107"/>
+      <c r="B164" s="99"/>
       <c r="C164" s="31" t="s">
         <v>277</v>
       </c>
@@ -7931,8 +8214,8 @@
       <c r="I164" s="30"/>
     </row>
     <row r="165" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="104"/>
-      <c r="B165" s="94"/>
+      <c r="A165" s="107"/>
+      <c r="B165" s="100"/>
       <c r="C165" s="31" t="s">
         <v>283</v>
       </c>
@@ -7944,10 +8227,10 @@
       <c r="I165" s="30"/>
     </row>
     <row r="166" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A166" s="98" t="s">
+      <c r="A166" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="B166" s="92" t="s">
+      <c r="B166" s="98" t="s">
         <v>288</v>
       </c>
       <c r="C166" s="31" t="s">
@@ -7963,8 +8246,8 @@
       <c r="I166" s="30"/>
     </row>
     <row r="167" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="99"/>
-      <c r="B167" s="93"/>
+      <c r="A167" s="93"/>
+      <c r="B167" s="99"/>
       <c r="C167" s="31" t="s">
         <v>289</v>
       </c>
@@ -7976,8 +8259,8 @@
       <c r="I167" s="30"/>
     </row>
     <row r="168" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A168" s="99"/>
-      <c r="B168" s="93"/>
+      <c r="A168" s="93"/>
+      <c r="B168" s="99"/>
       <c r="C168" s="31" t="s">
         <v>290</v>
       </c>
@@ -7989,8 +8272,8 @@
       <c r="I168" s="30"/>
     </row>
     <row r="169" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A169" s="100"/>
-      <c r="B169" s="94"/>
+      <c r="A169" s="94"/>
+      <c r="B169" s="100"/>
       <c r="C169" s="31" t="s">
         <v>291</v>
       </c>
@@ -8002,10 +8285,10 @@
       <c r="I169" s="30"/>
     </row>
     <row r="170" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="98" t="s">
+      <c r="A170" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="B170" s="92" t="s">
+      <c r="B170" s="98" t="s">
         <v>285</v>
       </c>
       <c r="C170" s="31" t="s">
@@ -8021,8 +8304,8 @@
       <c r="I170" s="30"/>
     </row>
     <row r="171" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A171" s="99"/>
-      <c r="B171" s="93"/>
+      <c r="A171" s="93"/>
+      <c r="B171" s="99"/>
       <c r="C171" s="31" t="s">
         <v>264</v>
       </c>
@@ -8034,8 +8317,8 @@
       <c r="I171" s="30"/>
     </row>
     <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A172" s="99"/>
-      <c r="B172" s="93"/>
+      <c r="A172" s="93"/>
+      <c r="B172" s="99"/>
       <c r="C172" s="31" t="s">
         <v>265</v>
       </c>
@@ -8047,8 +8330,8 @@
       <c r="I172" s="30"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="99"/>
-      <c r="B173" s="93"/>
+      <c r="A173" s="93"/>
+      <c r="B173" s="99"/>
       <c r="C173" s="31" t="s">
         <v>266</v>
       </c>
@@ -8060,8 +8343,8 @@
       <c r="I173" s="30"/>
     </row>
     <row r="174" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A174" s="99"/>
-      <c r="B174" s="93"/>
+      <c r="A174" s="93"/>
+      <c r="B174" s="99"/>
       <c r="C174" s="22" t="s">
         <v>286</v>
       </c>
@@ -8073,8 +8356,8 @@
       <c r="I174" s="30"/>
     </row>
     <row r="175" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="100"/>
-      <c r="B175" s="94"/>
+      <c r="A175" s="94"/>
+      <c r="B175" s="100"/>
       <c r="C175" s="31" t="s">
         <v>287</v>
       </c>
@@ -8086,10 +8369,10 @@
       <c r="I175" s="30"/>
     </row>
     <row r="176" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="98" t="s">
+      <c r="A176" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="B176" s="92" t="s">
+      <c r="B176" s="98" t="s">
         <v>285</v>
       </c>
       <c r="C176" s="31" t="s">
@@ -8105,8 +8388,8 @@
       <c r="I176" s="30"/>
     </row>
     <row r="177" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A177" s="99"/>
-      <c r="B177" s="93"/>
+      <c r="A177" s="93"/>
+      <c r="B177" s="99"/>
       <c r="C177" s="31" t="s">
         <v>264</v>
       </c>
@@ -8118,8 +8401,8 @@
       <c r="I177" s="30"/>
     </row>
     <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A178" s="99"/>
-      <c r="B178" s="93"/>
+      <c r="A178" s="93"/>
+      <c r="B178" s="99"/>
       <c r="C178" s="31" t="s">
         <v>265</v>
       </c>
@@ -8131,8 +8414,8 @@
       <c r="I178" s="30"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="99"/>
-      <c r="B179" s="93"/>
+      <c r="A179" s="93"/>
+      <c r="B179" s="99"/>
       <c r="C179" s="31" t="s">
         <v>266</v>
       </c>
@@ -8144,8 +8427,8 @@
       <c r="I179" s="30"/>
     </row>
     <row r="180" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A180" s="99"/>
-      <c r="B180" s="93"/>
+      <c r="A180" s="93"/>
+      <c r="B180" s="99"/>
       <c r="C180" s="22" t="s">
         <v>286</v>
       </c>
@@ -8157,8 +8440,8 @@
       <c r="I180" s="30"/>
     </row>
     <row r="181" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A181" s="100"/>
-      <c r="B181" s="94"/>
+      <c r="A181" s="94"/>
+      <c r="B181" s="100"/>
       <c r="C181" s="31" t="s">
         <v>296</v>
       </c>
@@ -8170,10 +8453,10 @@
       <c r="I181" s="30"/>
     </row>
     <row r="182" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="98" t="s">
+      <c r="A182" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="B182" s="92" t="s">
+      <c r="B182" s="98" t="s">
         <v>299</v>
       </c>
       <c r="C182" s="31" t="s">
@@ -8189,8 +8472,8 @@
       <c r="I182" s="30"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A183" s="99"/>
-      <c r="B183" s="93"/>
+      <c r="A183" s="93"/>
+      <c r="B183" s="99"/>
       <c r="C183" s="31" t="s">
         <v>272</v>
       </c>
@@ -8202,8 +8485,8 @@
       <c r="I183" s="30"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="99"/>
-      <c r="B184" s="93"/>
+      <c r="A184" s="93"/>
+      <c r="B184" s="99"/>
       <c r="C184" s="31" t="s">
         <v>273</v>
       </c>
@@ -8215,8 +8498,8 @@
       <c r="I184" s="30"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="99"/>
-      <c r="B185" s="93"/>
+      <c r="A185" s="93"/>
+      <c r="B185" s="99"/>
       <c r="C185" s="31" t="s">
         <v>277</v>
       </c>
@@ -8228,8 +8511,8 @@
       <c r="I185" s="30"/>
     </row>
     <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="99"/>
-      <c r="B186" s="93"/>
+      <c r="A186" s="93"/>
+      <c r="B186" s="99"/>
       <c r="C186" s="31" t="s">
         <v>304</v>
       </c>
@@ -8241,8 +8524,8 @@
       <c r="I186" s="30"/>
     </row>
     <row r="187" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A187" s="100"/>
-      <c r="B187" s="94"/>
+      <c r="A187" s="94"/>
+      <c r="B187" s="100"/>
       <c r="C187" s="31" t="s">
         <v>301</v>
       </c>
@@ -8254,10 +8537,10 @@
       <c r="I187" s="30"/>
     </row>
     <row r="188" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="98" t="s">
+      <c r="A188" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="B188" s="92" t="s">
+      <c r="B188" s="98" t="s">
         <v>303</v>
       </c>
       <c r="C188" s="31" t="s">
@@ -8273,8 +8556,8 @@
       <c r="I188" s="30"/>
     </row>
     <row r="189" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A189" s="99"/>
-      <c r="B189" s="93"/>
+      <c r="A189" s="93"/>
+      <c r="B189" s="99"/>
       <c r="C189" s="31" t="s">
         <v>282</v>
       </c>
@@ -8286,8 +8569,8 @@
       <c r="I189" s="30"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="99"/>
-      <c r="B190" s="93"/>
+      <c r="A190" s="93"/>
+      <c r="B190" s="99"/>
       <c r="C190" s="31" t="s">
         <v>281</v>
       </c>
@@ -8299,8 +8582,8 @@
       <c r="I190" s="30"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="99"/>
-      <c r="B191" s="93"/>
+      <c r="A191" s="93"/>
+      <c r="B191" s="99"/>
       <c r="C191" s="31" t="s">
         <v>277</v>
       </c>
@@ -8312,8 +8595,8 @@
       <c r="I191" s="30"/>
     </row>
     <row r="192" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A192" s="99"/>
-      <c r="B192" s="93"/>
+      <c r="A192" s="93"/>
+      <c r="B192" s="99"/>
       <c r="C192" s="31" t="s">
         <v>304</v>
       </c>
@@ -8325,8 +8608,8 @@
       <c r="I192" s="30"/>
     </row>
     <row r="193" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="100"/>
-      <c r="B193" s="94"/>
+      <c r="A193" s="94"/>
+      <c r="B193" s="100"/>
       <c r="C193" s="31" t="s">
         <v>305</v>
       </c>
@@ -8338,10 +8621,10 @@
       <c r="I193" s="30"/>
     </row>
     <row r="194" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="98" t="s">
+      <c r="A194" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="B194" s="92" t="s">
+      <c r="B194" s="98" t="s">
         <v>308</v>
       </c>
       <c r="C194" s="31" t="s">
@@ -8357,8 +8640,8 @@
       <c r="I194" s="30"/>
     </row>
     <row r="195" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="99"/>
-      <c r="B195" s="93"/>
+      <c r="A195" s="93"/>
+      <c r="B195" s="99"/>
       <c r="C195" s="31" t="s">
         <v>307</v>
       </c>
@@ -8370,8 +8653,8 @@
       <c r="I195" s="30"/>
     </row>
     <row r="196" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A196" s="99"/>
-      <c r="B196" s="93"/>
+      <c r="A196" s="93"/>
+      <c r="B196" s="99"/>
       <c r="C196" s="31" t="s">
         <v>309</v>
       </c>
@@ -8383,8 +8666,8 @@
       <c r="I196" s="30"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="99"/>
-      <c r="B197" s="93"/>
+      <c r="A197" s="93"/>
+      <c r="B197" s="99"/>
       <c r="C197" s="31" t="s">
         <v>310</v>
       </c>
@@ -8396,8 +8679,8 @@
       <c r="I197" s="30"/>
     </row>
     <row r="198" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A198" s="99"/>
-      <c r="B198" s="94"/>
+      <c r="A198" s="93"/>
+      <c r="B198" s="100"/>
       <c r="C198" s="31" t="s">
         <v>315</v>
       </c>
@@ -8409,10 +8692,10 @@
       <c r="I198" s="30"/>
     </row>
     <row r="199" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="98" t="s">
+      <c r="A199" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="B199" s="92" t="s">
+      <c r="B199" s="98" t="s">
         <v>313</v>
       </c>
       <c r="C199" s="31" t="s">
@@ -8428,8 +8711,8 @@
       <c r="I199" s="30"/>
     </row>
     <row r="200" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A200" s="99"/>
-      <c r="B200" s="93"/>
+      <c r="A200" s="93"/>
+      <c r="B200" s="99"/>
       <c r="C200" s="31" t="s">
         <v>307</v>
       </c>
@@ -8441,8 +8724,8 @@
       <c r="I200" s="30"/>
     </row>
     <row r="201" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A201" s="99"/>
-      <c r="B201" s="93"/>
+      <c r="A201" s="93"/>
+      <c r="B201" s="99"/>
       <c r="C201" s="31" t="s">
         <v>316</v>
       </c>
@@ -8454,8 +8737,8 @@
       <c r="I201" s="30"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="99"/>
-      <c r="B202" s="93"/>
+      <c r="A202" s="93"/>
+      <c r="B202" s="99"/>
       <c r="C202" s="31" t="s">
         <v>310</v>
       </c>
@@ -8467,8 +8750,8 @@
       <c r="I202" s="30"/>
     </row>
     <row r="203" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="99"/>
-      <c r="B203" s="94"/>
+      <c r="A203" s="93"/>
+      <c r="B203" s="100"/>
       <c r="C203" s="31" t="s">
         <v>314</v>
       </c>
@@ -8480,10 +8763,10 @@
       <c r="I203" s="30"/>
     </row>
     <row r="204" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A204" s="98" t="s">
+      <c r="A204" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="B204" s="92" t="s">
+      <c r="B204" s="98" t="s">
         <v>322</v>
       </c>
       <c r="C204" s="31" t="s">
@@ -8499,8 +8782,8 @@
       <c r="I204" s="30"/>
     </row>
     <row r="205" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A205" s="99"/>
-      <c r="B205" s="93"/>
+      <c r="A205" s="93"/>
+      <c r="B205" s="99"/>
       <c r="C205" s="31" t="s">
         <v>307</v>
       </c>
@@ -8512,8 +8795,8 @@
       <c r="I205" s="30"/>
     </row>
     <row r="206" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A206" s="99"/>
-      <c r="B206" s="93"/>
+      <c r="A206" s="93"/>
+      <c r="B206" s="99"/>
       <c r="C206" s="31" t="s">
         <v>309</v>
       </c>
@@ -8525,8 +8808,8 @@
       <c r="I206" s="30"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="99"/>
-      <c r="B207" s="93"/>
+      <c r="A207" s="93"/>
+      <c r="B207" s="99"/>
       <c r="C207" s="31" t="s">
         <v>310</v>
       </c>
@@ -8538,8 +8821,8 @@
       <c r="I207" s="30"/>
     </row>
     <row r="208" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A208" s="99"/>
-      <c r="B208" s="94"/>
+      <c r="A208" s="93"/>
+      <c r="B208" s="100"/>
       <c r="C208" s="31" t="s">
         <v>318</v>
       </c>
@@ -8551,10 +8834,10 @@
       <c r="I208" s="30"/>
     </row>
     <row r="209" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A209" s="98" t="s">
+      <c r="A209" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="B209" s="92" t="s">
+      <c r="B209" s="98" t="s">
         <v>321</v>
       </c>
       <c r="C209" s="31" t="s">
@@ -8570,8 +8853,8 @@
       <c r="I209" s="30"/>
     </row>
     <row r="210" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A210" s="99"/>
-      <c r="B210" s="93"/>
+      <c r="A210" s="93"/>
+      <c r="B210" s="99"/>
       <c r="C210" s="31" t="s">
         <v>307</v>
       </c>
@@ -8583,8 +8866,8 @@
       <c r="I210" s="30"/>
     </row>
     <row r="211" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A211" s="99"/>
-      <c r="B211" s="93"/>
+      <c r="A211" s="93"/>
+      <c r="B211" s="99"/>
       <c r="C211" s="31" t="s">
         <v>316</v>
       </c>
@@ -8596,8 +8879,8 @@
       <c r="I211" s="30"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="99"/>
-      <c r="B212" s="93"/>
+      <c r="A212" s="93"/>
+      <c r="B212" s="99"/>
       <c r="C212" s="31" t="s">
         <v>310</v>
       </c>
@@ -8609,8 +8892,8 @@
       <c r="I212" s="30"/>
     </row>
     <row r="213" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="99"/>
-      <c r="B213" s="94"/>
+      <c r="A213" s="93"/>
+      <c r="B213" s="100"/>
       <c r="C213" s="31" t="s">
         <v>323</v>
       </c>
@@ -8622,10 +8905,10 @@
       <c r="I213" s="30"/>
     </row>
     <row r="214" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="98" t="s">
+      <c r="A214" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="B214" s="92" t="s">
+      <c r="B214" s="98" t="s">
         <v>341</v>
       </c>
       <c r="C214" s="31" t="s">
@@ -8641,8 +8924,8 @@
       <c r="I214" s="30"/>
     </row>
     <row r="215" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A215" s="99"/>
-      <c r="B215" s="93"/>
+      <c r="A215" s="93"/>
+      <c r="B215" s="99"/>
       <c r="C215" s="31" t="s">
         <v>325</v>
       </c>
@@ -8654,8 +8937,8 @@
       <c r="I215" s="30"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="99"/>
-      <c r="B216" s="93"/>
+      <c r="A216" s="93"/>
+      <c r="B216" s="99"/>
       <c r="C216" s="31" t="s">
         <v>326</v>
       </c>
@@ -8667,8 +8950,8 @@
       <c r="I216" s="30"/>
     </row>
     <row r="217" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A217" s="99"/>
-      <c r="B217" s="93"/>
+      <c r="A217" s="93"/>
+      <c r="B217" s="99"/>
       <c r="C217" s="31" t="s">
         <v>327</v>
       </c>
@@ -8680,8 +8963,8 @@
       <c r="I217" s="30"/>
     </row>
     <row r="218" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A218" s="99"/>
-      <c r="B218" s="94"/>
+      <c r="A218" s="93"/>
+      <c r="B218" s="100"/>
       <c r="C218" s="31" t="s">
         <v>328</v>
       </c>
@@ -8693,10 +8976,10 @@
       <c r="I218" s="30"/>
     </row>
     <row r="219" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="98" t="s">
+      <c r="A219" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="B219" s="92" t="s">
+      <c r="B219" s="98" t="s">
         <v>340</v>
       </c>
       <c r="C219" s="31" t="s">
@@ -8712,8 +8995,8 @@
       <c r="I219" s="30"/>
     </row>
     <row r="220" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A220" s="99"/>
-      <c r="B220" s="93"/>
+      <c r="A220" s="93"/>
+      <c r="B220" s="99"/>
       <c r="C220" s="31" t="s">
         <v>332</v>
       </c>
@@ -8725,8 +9008,8 @@
       <c r="I220" s="30"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="99"/>
-      <c r="B221" s="93"/>
+      <c r="A221" s="93"/>
+      <c r="B221" s="99"/>
       <c r="C221" s="31" t="s">
         <v>326</v>
       </c>
@@ -8738,8 +9021,8 @@
       <c r="I221" s="30"/>
     </row>
     <row r="222" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A222" s="99"/>
-      <c r="B222" s="93"/>
+      <c r="A222" s="93"/>
+      <c r="B222" s="99"/>
       <c r="C222" s="31" t="s">
         <v>327</v>
       </c>
@@ -8751,8 +9034,8 @@
       <c r="I222" s="30"/>
     </row>
     <row r="223" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A223" s="99"/>
-      <c r="B223" s="94"/>
+      <c r="A223" s="93"/>
+      <c r="B223" s="100"/>
       <c r="C223" s="31" t="s">
         <v>333</v>
       </c>
@@ -8764,10 +9047,10 @@
       <c r="I223" s="30"/>
     </row>
     <row r="224" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="98" t="s">
+      <c r="A224" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="B224" s="92" t="s">
+      <c r="B224" s="98" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="31" t="s">
@@ -8783,8 +9066,8 @@
       <c r="I224" s="30"/>
     </row>
     <row r="225" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A225" s="99"/>
-      <c r="B225" s="93"/>
+      <c r="A225" s="93"/>
+      <c r="B225" s="99"/>
       <c r="C225" s="31" t="s">
         <v>335</v>
       </c>
@@ -8796,8 +9079,8 @@
       <c r="I225" s="30"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="99"/>
-      <c r="B226" s="93"/>
+      <c r="A226" s="93"/>
+      <c r="B226" s="99"/>
       <c r="C226" s="31" t="s">
         <v>326</v>
       </c>
@@ -8809,8 +9092,8 @@
       <c r="I226" s="30"/>
     </row>
     <row r="227" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A227" s="99"/>
-      <c r="B227" s="93"/>
+      <c r="A227" s="93"/>
+      <c r="B227" s="99"/>
       <c r="C227" s="31" t="s">
         <v>327</v>
       </c>
@@ -8822,8 +9105,8 @@
       <c r="I227" s="30"/>
     </row>
     <row r="228" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="99"/>
-      <c r="B228" s="94"/>
+      <c r="A228" s="93"/>
+      <c r="B228" s="100"/>
       <c r="C228" s="31" t="s">
         <v>336</v>
       </c>
@@ -8835,10 +9118,10 @@
       <c r="I228" s="30"/>
     </row>
     <row r="229" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A229" s="98" t="s">
+      <c r="A229" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="B229" s="92" t="s">
+      <c r="B229" s="98" t="s">
         <v>342</v>
       </c>
       <c r="C229" s="31" t="s">
@@ -8854,8 +9137,8 @@
       <c r="I229" s="30"/>
     </row>
     <row r="230" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A230" s="99"/>
-      <c r="B230" s="93"/>
+      <c r="A230" s="93"/>
+      <c r="B230" s="99"/>
       <c r="C230" s="31" t="s">
         <v>343</v>
       </c>
@@ -8867,8 +9150,8 @@
       <c r="I230" s="30"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A231" s="99"/>
-      <c r="B231" s="93"/>
+      <c r="A231" s="93"/>
+      <c r="B231" s="99"/>
       <c r="C231" s="31" t="s">
         <v>344</v>
       </c>
@@ -8880,8 +9163,8 @@
       <c r="I231" s="30"/>
     </row>
     <row r="232" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="99"/>
-      <c r="B232" s="93"/>
+      <c r="A232" s="93"/>
+      <c r="B232" s="99"/>
       <c r="C232" s="31" t="s">
         <v>345</v>
       </c>
@@ -8893,8 +9176,8 @@
       <c r="I232" s="30"/>
     </row>
     <row r="233" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A233" s="99"/>
-      <c r="B233" s="94"/>
+      <c r="A233" s="93"/>
+      <c r="B233" s="100"/>
       <c r="C233" s="31" t="s">
         <v>346</v>
       </c>
@@ -8906,10 +9189,10 @@
       <c r="I233" s="30"/>
     </row>
     <row r="234" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="98" t="s">
+      <c r="A234" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="B234" s="92" t="s">
+      <c r="B234" s="98" t="s">
         <v>349</v>
       </c>
       <c r="C234" s="31" t="s">
@@ -8925,8 +9208,8 @@
       <c r="I234" s="30"/>
     </row>
     <row r="235" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A235" s="99"/>
-      <c r="B235" s="93"/>
+      <c r="A235" s="93"/>
+      <c r="B235" s="99"/>
       <c r="C235" s="31" t="s">
         <v>360</v>
       </c>
@@ -8938,8 +9221,8 @@
       <c r="I235" s="30"/>
     </row>
     <row r="236" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="99"/>
-      <c r="B236" s="93"/>
+      <c r="A236" s="93"/>
+      <c r="B236" s="99"/>
       <c r="C236" s="31" t="s">
         <v>350</v>
       </c>
@@ -8951,8 +9234,8 @@
       <c r="I236" s="30"/>
     </row>
     <row r="237" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A237" s="99"/>
-      <c r="B237" s="93"/>
+      <c r="A237" s="93"/>
+      <c r="B237" s="99"/>
       <c r="C237" s="31" t="s">
         <v>327</v>
       </c>
@@ -8964,8 +9247,8 @@
       <c r="I237" s="30"/>
     </row>
     <row r="238" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A238" s="99"/>
-      <c r="B238" s="94"/>
+      <c r="A238" s="93"/>
+      <c r="B238" s="100"/>
       <c r="C238" s="31" t="s">
         <v>359</v>
       </c>
@@ -8977,10 +9260,10 @@
       <c r="I238" s="30"/>
     </row>
     <row r="239" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="98" t="s">
+      <c r="A239" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="B239" s="92" t="s">
+      <c r="B239" s="98" t="s">
         <v>361</v>
       </c>
       <c r="C239" s="31" t="s">
@@ -8996,8 +9279,8 @@
       <c r="I239" s="30"/>
     </row>
     <row r="240" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A240" s="99"/>
-      <c r="B240" s="93"/>
+      <c r="A240" s="93"/>
+      <c r="B240" s="99"/>
       <c r="C240" s="31" t="s">
         <v>362</v>
       </c>
@@ -9009,8 +9292,8 @@
       <c r="I240" s="30"/>
     </row>
     <row r="241" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A241" s="99"/>
-      <c r="B241" s="93"/>
+      <c r="A241" s="93"/>
+      <c r="B241" s="99"/>
       <c r="C241" s="31" t="s">
         <v>355</v>
       </c>
@@ -9022,8 +9305,8 @@
       <c r="I241" s="30"/>
     </row>
     <row r="242" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A242" s="99"/>
-      <c r="B242" s="94"/>
+      <c r="A242" s="93"/>
+      <c r="B242" s="100"/>
       <c r="C242" s="39" t="s">
         <v>363</v>
       </c>
@@ -9035,10 +9318,10 @@
       <c r="I242" s="30"/>
     </row>
     <row r="243" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="98" t="s">
+      <c r="A243" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="B243" s="92" t="s">
+      <c r="B243" s="98" t="s">
         <v>353</v>
       </c>
       <c r="C243" s="31" t="s">
@@ -9054,8 +9337,8 @@
       <c r="I243" s="30"/>
     </row>
     <row r="244" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A244" s="99"/>
-      <c r="B244" s="93"/>
+      <c r="A244" s="93"/>
+      <c r="B244" s="99"/>
       <c r="C244" s="31" t="s">
         <v>354</v>
       </c>
@@ -9067,8 +9350,8 @@
       <c r="I244" s="30"/>
     </row>
     <row r="245" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A245" s="99"/>
-      <c r="B245" s="93"/>
+      <c r="A245" s="93"/>
+      <c r="B245" s="99"/>
       <c r="C245" s="31" t="s">
         <v>355</v>
       </c>
@@ -9080,8 +9363,8 @@
       <c r="I245" s="30"/>
     </row>
     <row r="246" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A246" s="99"/>
-      <c r="B246" s="93"/>
+      <c r="A246" s="93"/>
+      <c r="B246" s="99"/>
       <c r="C246" s="31" t="s">
         <v>356</v>
       </c>
@@ -9093,8 +9376,8 @@
       <c r="I246" s="30"/>
     </row>
     <row r="247" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A247" s="100"/>
-      <c r="B247" s="94"/>
+      <c r="A247" s="94"/>
+      <c r="B247" s="100"/>
       <c r="C247" s="31" t="s">
         <v>357</v>
       </c>
@@ -9106,10 +9389,10 @@
       <c r="I247" s="30"/>
     </row>
     <row r="248" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="98" t="s">
+      <c r="A248" s="92" t="s">
         <v>365</v>
       </c>
-      <c r="B248" s="92" t="s">
+      <c r="B248" s="98" t="s">
         <v>367</v>
       </c>
       <c r="C248" s="31" t="s">
@@ -9125,8 +9408,8 @@
       <c r="I248" s="30"/>
     </row>
     <row r="249" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A249" s="99"/>
-      <c r="B249" s="93"/>
+      <c r="A249" s="93"/>
+      <c r="B249" s="99"/>
       <c r="C249" s="31" t="s">
         <v>354</v>
       </c>
@@ -9138,8 +9421,8 @@
       <c r="I249" s="30"/>
     </row>
     <row r="250" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="99"/>
-      <c r="B250" s="93"/>
+      <c r="A250" s="93"/>
+      <c r="B250" s="99"/>
       <c r="C250" s="31" t="s">
         <v>355</v>
       </c>
@@ -9151,8 +9434,8 @@
       <c r="I250" s="30"/>
     </row>
     <row r="251" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A251" s="99"/>
-      <c r="B251" s="93"/>
+      <c r="A251" s="93"/>
+      <c r="B251" s="99"/>
       <c r="C251" s="31" t="s">
         <v>368</v>
       </c>
@@ -9164,8 +9447,8 @@
       <c r="I251" s="30"/>
     </row>
     <row r="252" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A252" s="100"/>
-      <c r="B252" s="94"/>
+      <c r="A252" s="94"/>
+      <c r="B252" s="100"/>
       <c r="C252" s="31" t="s">
         <v>357</v>
       </c>
@@ -9177,10 +9460,10 @@
       <c r="I252" s="30"/>
     </row>
     <row r="253" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="98" t="s">
+      <c r="A253" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="B253" s="92" t="s">
+      <c r="B253" s="98" t="s">
         <v>369</v>
       </c>
       <c r="C253" s="31" t="s">
@@ -9196,8 +9479,8 @@
       <c r="I253" s="30"/>
     </row>
     <row r="254" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A254" s="99"/>
-      <c r="B254" s="93"/>
+      <c r="A254" s="93"/>
+      <c r="B254" s="99"/>
       <c r="C254" s="31" t="s">
         <v>354</v>
       </c>
@@ -9209,8 +9492,8 @@
       <c r="I254" s="30"/>
     </row>
     <row r="255" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A255" s="99"/>
-      <c r="B255" s="93"/>
+      <c r="A255" s="93"/>
+      <c r="B255" s="99"/>
       <c r="C255" s="31" t="s">
         <v>355</v>
       </c>
@@ -9222,8 +9505,8 @@
       <c r="I255" s="30"/>
     </row>
     <row r="256" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A256" s="99"/>
-      <c r="B256" s="93"/>
+      <c r="A256" s="93"/>
+      <c r="B256" s="99"/>
       <c r="C256" s="31" t="s">
         <v>370</v>
       </c>
@@ -9235,8 +9518,8 @@
       <c r="I256" s="30"/>
     </row>
     <row r="257" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A257" s="100"/>
-      <c r="B257" s="94"/>
+      <c r="A257" s="94"/>
+      <c r="B257" s="100"/>
       <c r="C257" s="31" t="s">
         <v>357</v>
       </c>
@@ -9248,10 +9531,10 @@
       <c r="I257" s="30"/>
     </row>
     <row r="258" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="98" t="s">
+      <c r="A258" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="B258" s="92" t="s">
+      <c r="B258" s="98" t="s">
         <v>374</v>
       </c>
       <c r="C258" s="31" t="s">
@@ -9267,8 +9550,8 @@
       <c r="I258" s="30"/>
     </row>
     <row r="259" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="99"/>
-      <c r="B259" s="93"/>
+      <c r="A259" s="93"/>
+      <c r="B259" s="99"/>
       <c r="C259" s="31" t="s">
         <v>354</v>
       </c>
@@ -9280,8 +9563,8 @@
       <c r="I259" s="30"/>
     </row>
     <row r="260" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A260" s="99"/>
-      <c r="B260" s="93"/>
+      <c r="A260" s="93"/>
+      <c r="B260" s="99"/>
       <c r="C260" s="31" t="s">
         <v>355</v>
       </c>
@@ -9293,8 +9576,8 @@
       <c r="I260" s="30"/>
     </row>
     <row r="261" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A261" s="99"/>
-      <c r="B261" s="93"/>
+      <c r="A261" s="93"/>
+      <c r="B261" s="99"/>
       <c r="C261" s="31" t="s">
         <v>375</v>
       </c>
@@ -9306,8 +9589,8 @@
       <c r="I261" s="30"/>
     </row>
     <row r="262" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A262" s="100"/>
-      <c r="B262" s="94"/>
+      <c r="A262" s="94"/>
+      <c r="B262" s="100"/>
       <c r="C262" s="31" t="s">
         <v>357</v>
       </c>
@@ -9319,10 +9602,10 @@
       <c r="I262" s="30"/>
     </row>
     <row r="263" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="98" t="s">
+      <c r="A263" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="B263" s="92" t="s">
+      <c r="B263" s="98" t="s">
         <v>373</v>
       </c>
       <c r="C263" s="31" t="s">
@@ -9338,8 +9621,8 @@
       <c r="I263" s="30"/>
     </row>
     <row r="264" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A264" s="99"/>
-      <c r="B264" s="93"/>
+      <c r="A264" s="93"/>
+      <c r="B264" s="99"/>
       <c r="C264" s="31" t="s">
         <v>354</v>
       </c>
@@ -9351,8 +9634,8 @@
       <c r="I264" s="30"/>
     </row>
     <row r="265" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A265" s="99"/>
-      <c r="B265" s="93"/>
+      <c r="A265" s="93"/>
+      <c r="B265" s="99"/>
       <c r="C265" s="31" t="s">
         <v>355</v>
       </c>
@@ -9364,8 +9647,8 @@
       <c r="I265" s="30"/>
     </row>
     <row r="266" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A266" s="99"/>
-      <c r="B266" s="93"/>
+      <c r="A266" s="93"/>
+      <c r="B266" s="99"/>
       <c r="C266" s="31" t="s">
         <v>376</v>
       </c>
@@ -9377,8 +9660,8 @@
       <c r="I266" s="30"/>
     </row>
     <row r="267" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A267" s="100"/>
-      <c r="B267" s="94"/>
+      <c r="A267" s="94"/>
+      <c r="B267" s="100"/>
       <c r="C267" s="31" t="s">
         <v>357</v>
       </c>
@@ -9390,10 +9673,10 @@
       <c r="I267" s="30"/>
     </row>
     <row r="268" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="98" t="s">
+      <c r="A268" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="B268" s="92" t="s">
+      <c r="B268" s="98" t="s">
         <v>378</v>
       </c>
       <c r="C268" s="31" t="s">
@@ -9409,8 +9692,8 @@
       <c r="I268" s="30"/>
     </row>
     <row r="269" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A269" s="99"/>
-      <c r="B269" s="93"/>
+      <c r="A269" s="93"/>
+      <c r="B269" s="99"/>
       <c r="C269" s="31" t="s">
         <v>354</v>
       </c>
@@ -9422,8 +9705,8 @@
       <c r="I269" s="30"/>
     </row>
     <row r="270" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A270" s="99"/>
-      <c r="B270" s="93"/>
+      <c r="A270" s="93"/>
+      <c r="B270" s="99"/>
       <c r="C270" s="31" t="s">
         <v>355</v>
       </c>
@@ -9435,8 +9718,8 @@
       <c r="I270" s="30"/>
     </row>
     <row r="271" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A271" s="99"/>
-      <c r="B271" s="93"/>
+      <c r="A271" s="93"/>
+      <c r="B271" s="99"/>
       <c r="C271" s="31" t="s">
         <v>379</v>
       </c>
@@ -9448,8 +9731,8 @@
       <c r="I271" s="30"/>
     </row>
     <row r="272" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A272" s="100"/>
-      <c r="B272" s="94"/>
+      <c r="A272" s="94"/>
+      <c r="B272" s="100"/>
       <c r="C272" s="31" t="s">
         <v>357</v>
       </c>
@@ -9461,10 +9744,10 @@
       <c r="I272" s="30"/>
     </row>
     <row r="273" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="98" t="s">
+      <c r="A273" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="B273" s="92" t="s">
+      <c r="B273" s="98" t="s">
         <v>382</v>
       </c>
       <c r="C273" s="31" t="s">
@@ -9480,8 +9763,8 @@
       <c r="I273" s="30"/>
     </row>
     <row r="274" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A274" s="99"/>
-      <c r="B274" s="93"/>
+      <c r="A274" s="93"/>
+      <c r="B274" s="99"/>
       <c r="C274" s="31" t="s">
         <v>354</v>
       </c>
@@ -9493,8 +9776,8 @@
       <c r="I274" s="30"/>
     </row>
     <row r="275" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A275" s="99"/>
-      <c r="B275" s="93"/>
+      <c r="A275" s="93"/>
+      <c r="B275" s="99"/>
       <c r="C275" s="31" t="s">
         <v>355</v>
       </c>
@@ -9506,8 +9789,8 @@
       <c r="I275" s="30"/>
     </row>
     <row r="276" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A276" s="99"/>
-      <c r="B276" s="93"/>
+      <c r="A276" s="93"/>
+      <c r="B276" s="99"/>
       <c r="C276" s="31" t="s">
         <v>383</v>
       </c>
@@ -9519,8 +9802,8 @@
       <c r="I276" s="30"/>
     </row>
     <row r="277" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A277" s="100"/>
-      <c r="B277" s="94"/>
+      <c r="A277" s="94"/>
+      <c r="B277" s="100"/>
       <c r="C277" s="31" t="s">
         <v>384</v>
       </c>
@@ -9532,10 +9815,10 @@
       <c r="I277" s="30"/>
     </row>
     <row r="278" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="98" t="s">
+      <c r="A278" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="B278" s="92" t="s">
+      <c r="B278" s="98" t="s">
         <v>386</v>
       </c>
       <c r="C278" s="31" t="s">
@@ -9551,8 +9834,8 @@
       <c r="I278" s="30"/>
     </row>
     <row r="279" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="99"/>
-      <c r="B279" s="93"/>
+      <c r="A279" s="93"/>
+      <c r="B279" s="99"/>
       <c r="C279" s="31" t="s">
         <v>354</v>
       </c>
@@ -9564,8 +9847,8 @@
       <c r="I279" s="30"/>
     </row>
     <row r="280" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A280" s="99"/>
-      <c r="B280" s="93"/>
+      <c r="A280" s="93"/>
+      <c r="B280" s="99"/>
       <c r="C280" s="31" t="s">
         <v>355</v>
       </c>
@@ -9577,8 +9860,8 @@
       <c r="I280" s="30"/>
     </row>
     <row r="281" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A281" s="99"/>
-      <c r="B281" s="93"/>
+      <c r="A281" s="93"/>
+      <c r="B281" s="99"/>
       <c r="C281" s="31" t="s">
         <v>387</v>
       </c>
@@ -9590,8 +9873,8 @@
       <c r="I281" s="30"/>
     </row>
     <row r="282" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A282" s="100"/>
-      <c r="B282" s="94"/>
+      <c r="A282" s="94"/>
+      <c r="B282" s="100"/>
       <c r="C282" s="31" t="s">
         <v>384</v>
       </c>
@@ -9603,10 +9886,10 @@
       <c r="I282" s="30"/>
     </row>
     <row r="283" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A283" s="98" t="s">
+      <c r="A283" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="B283" s="92" t="s">
+      <c r="B283" s="98" t="s">
         <v>389</v>
       </c>
       <c r="C283" s="31" t="s">
@@ -9622,8 +9905,8 @@
       <c r="I283" s="30"/>
     </row>
     <row r="284" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A284" s="99"/>
-      <c r="B284" s="93"/>
+      <c r="A284" s="93"/>
+      <c r="B284" s="99"/>
       <c r="C284" s="31" t="s">
         <v>354</v>
       </c>
@@ -9635,8 +9918,8 @@
       <c r="I284" s="30"/>
     </row>
     <row r="285" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A285" s="99"/>
-      <c r="B285" s="93"/>
+      <c r="A285" s="93"/>
+      <c r="B285" s="99"/>
       <c r="C285" s="31" t="s">
         <v>355</v>
       </c>
@@ -9648,8 +9931,8 @@
       <c r="I285" s="30"/>
     </row>
     <row r="286" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A286" s="99"/>
-      <c r="B286" s="93"/>
+      <c r="A286" s="93"/>
+      <c r="B286" s="99"/>
       <c r="C286" s="31" t="s">
         <v>390</v>
       </c>
@@ -9661,8 +9944,8 @@
       <c r="I286" s="30"/>
     </row>
     <row r="287" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A287" s="100"/>
-      <c r="B287" s="94"/>
+      <c r="A287" s="94"/>
+      <c r="B287" s="100"/>
       <c r="C287" s="31" t="s">
         <v>391</v>
       </c>
@@ -9673,21 +9956,31 @@
       <c r="H287" s="30"/>
       <c r="I287" s="30"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" s="30"/>
-      <c r="B288" s="31"/>
-      <c r="C288" s="31"/>
+    <row r="288" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A288" s="92" t="s">
+        <v>395</v>
+      </c>
+      <c r="B288" s="95" t="s">
+        <v>396</v>
+      </c>
+      <c r="C288" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D288" s="31"/>
       <c r="E288" s="30"/>
       <c r="F288" s="30"/>
-      <c r="G288" s="31"/>
+      <c r="G288" s="31" t="s">
+        <v>398</v>
+      </c>
       <c r="H288" s="30"/>
       <c r="I288" s="30"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="30"/>
-      <c r="B289" s="31"/>
-      <c r="C289" s="31"/>
+    <row r="289" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A289" s="93"/>
+      <c r="B289" s="96"/>
+      <c r="C289" s="31" t="s">
+        <v>354</v>
+      </c>
       <c r="D289" s="31"/>
       <c r="E289" s="30"/>
       <c r="F289" s="30"/>
@@ -9695,10 +9988,12 @@
       <c r="H289" s="30"/>
       <c r="I289" s="30"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="30"/>
-      <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+    <row r="290" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A290" s="93"/>
+      <c r="B290" s="96"/>
+      <c r="C290" s="31" t="s">
+        <v>355</v>
+      </c>
       <c r="D290" s="31"/>
       <c r="E290" s="30"/>
       <c r="F290" s="30"/>
@@ -9706,10 +10001,12 @@
       <c r="H290" s="30"/>
       <c r="I290" s="30"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" s="30"/>
-      <c r="B291" s="31"/>
-      <c r="C291" s="31"/>
+    <row r="291" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A291" s="93"/>
+      <c r="B291" s="96"/>
+      <c r="C291" s="31" t="s">
+        <v>390</v>
+      </c>
       <c r="D291" s="31"/>
       <c r="E291" s="30"/>
       <c r="F291" s="30"/>
@@ -9717,10 +10014,12 @@
       <c r="H291" s="30"/>
       <c r="I291" s="30"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" s="30"/>
-      <c r="B292" s="31"/>
-      <c r="C292" s="31"/>
+    <row r="292" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A292" s="94"/>
+      <c r="B292" s="97"/>
+      <c r="C292" s="31" t="s">
+        <v>397</v>
+      </c>
       <c r="D292" s="31"/>
       <c r="E292" s="30"/>
       <c r="F292" s="30"/>
@@ -9728,21 +10027,31 @@
       <c r="H292" s="30"/>
       <c r="I292" s="30"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" s="30"/>
-      <c r="B293" s="31"/>
-      <c r="C293" s="31"/>
+    <row r="293" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="B293" s="95" t="s">
+        <v>400</v>
+      </c>
+      <c r="C293" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D293" s="31"/>
       <c r="E293" s="30"/>
       <c r="F293" s="30"/>
-      <c r="G293" s="31"/>
+      <c r="G293" s="31" t="s">
+        <v>405</v>
+      </c>
       <c r="H293" s="30"/>
       <c r="I293" s="30"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" s="30"/>
-      <c r="B294" s="31"/>
-      <c r="C294" s="31"/>
+    <row r="294" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A294" s="93"/>
+      <c r="B294" s="96"/>
+      <c r="C294" s="31" t="s">
+        <v>401</v>
+      </c>
       <c r="D294" s="31"/>
       <c r="E294" s="30"/>
       <c r="F294" s="30"/>
@@ -9750,10 +10059,12 @@
       <c r="H294" s="30"/>
       <c r="I294" s="30"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A295" s="30"/>
-      <c r="B295" s="31"/>
-      <c r="C295" s="31"/>
+    <row r="295" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A295" s="93"/>
+      <c r="B295" s="96"/>
+      <c r="C295" s="31" t="s">
+        <v>402</v>
+      </c>
       <c r="D295" s="31"/>
       <c r="E295" s="30"/>
       <c r="F295" s="30"/>
@@ -9761,10 +10072,12 @@
       <c r="H295" s="30"/>
       <c r="I295" s="30"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="30"/>
-      <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
+    <row r="296" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A296" s="93"/>
+      <c r="B296" s="96"/>
+      <c r="C296" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D296" s="31"/>
       <c r="E296" s="30"/>
       <c r="F296" s="30"/>
@@ -9772,10 +10085,12 @@
       <c r="H296" s="30"/>
       <c r="I296" s="30"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="30"/>
-      <c r="B297" s="31"/>
-      <c r="C297" s="31"/>
+    <row r="297" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A297" s="94"/>
+      <c r="B297" s="97"/>
+      <c r="C297" s="31" t="s">
+        <v>404</v>
+      </c>
       <c r="D297" s="31"/>
       <c r="E297" s="30"/>
       <c r="F297" s="30"/>
@@ -9783,21 +10098,31 @@
       <c r="H297" s="30"/>
       <c r="I297" s="30"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A298" s="30"/>
-      <c r="B298" s="31"/>
-      <c r="C298" s="31"/>
+    <row r="298" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A298" s="92" t="s">
+        <v>406</v>
+      </c>
+      <c r="B298" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="C298" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D298" s="31"/>
       <c r="E298" s="30"/>
       <c r="F298" s="30"/>
-      <c r="G298" s="31"/>
+      <c r="G298" s="31" t="s">
+        <v>412</v>
+      </c>
       <c r="H298" s="30"/>
       <c r="I298" s="30"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A299" s="30"/>
-      <c r="B299" s="31"/>
-      <c r="C299" s="31"/>
+    <row r="299" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A299" s="93"/>
+      <c r="B299" s="96"/>
+      <c r="C299" s="31" t="s">
+        <v>408</v>
+      </c>
       <c r="D299" s="31"/>
       <c r="E299" s="30"/>
       <c r="F299" s="30"/>
@@ -9805,10 +10130,12 @@
       <c r="H299" s="30"/>
       <c r="I299" s="30"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="30"/>
-      <c r="B300" s="31"/>
-      <c r="C300" s="31"/>
+    <row r="300" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A300" s="93"/>
+      <c r="B300" s="96"/>
+      <c r="C300" s="31" t="s">
+        <v>409</v>
+      </c>
       <c r="D300" s="31"/>
       <c r="E300" s="30"/>
       <c r="F300" s="30"/>
@@ -9816,10 +10143,12 @@
       <c r="H300" s="30"/>
       <c r="I300" s="30"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="30"/>
-      <c r="B301" s="31"/>
-      <c r="C301" s="31"/>
+    <row r="301" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A301" s="93"/>
+      <c r="B301" s="96"/>
+      <c r="C301" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D301" s="31"/>
       <c r="E301" s="30"/>
       <c r="F301" s="30"/>
@@ -9827,10 +10156,12 @@
       <c r="H301" s="30"/>
       <c r="I301" s="30"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="30"/>
-      <c r="B302" s="31"/>
-      <c r="C302" s="31"/>
+    <row r="302" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A302" s="94"/>
+      <c r="B302" s="97"/>
+      <c r="C302" s="31" t="s">
+        <v>433</v>
+      </c>
       <c r="D302" s="31"/>
       <c r="E302" s="30"/>
       <c r="F302" s="30"/>
@@ -9838,21 +10169,31 @@
       <c r="H302" s="30"/>
       <c r="I302" s="30"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="30"/>
-      <c r="B303" s="31"/>
-      <c r="C303" s="31"/>
+    <row r="303" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A303" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="B303" s="95" t="s">
+        <v>411</v>
+      </c>
+      <c r="C303" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D303" s="31"/>
       <c r="E303" s="30"/>
       <c r="F303" s="30"/>
-      <c r="G303" s="31"/>
+      <c r="G303" s="31" t="s">
+        <v>422</v>
+      </c>
       <c r="H303" s="30"/>
       <c r="I303" s="30"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="30"/>
-      <c r="B304" s="31"/>
-      <c r="C304" s="31"/>
+    <row r="304" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A304" s="93"/>
+      <c r="B304" s="96"/>
+      <c r="C304" s="31" t="s">
+        <v>413</v>
+      </c>
       <c r="D304" s="31"/>
       <c r="E304" s="30"/>
       <c r="F304" s="30"/>
@@ -9860,10 +10201,12 @@
       <c r="H304" s="30"/>
       <c r="I304" s="30"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A305" s="30"/>
-      <c r="B305" s="31"/>
-      <c r="C305" s="31"/>
+    <row r="305" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A305" s="93"/>
+      <c r="B305" s="96"/>
+      <c r="C305" s="31" t="s">
+        <v>414</v>
+      </c>
       <c r="D305" s="31"/>
       <c r="E305" s="30"/>
       <c r="F305" s="30"/>
@@ -9871,10 +10214,12 @@
       <c r="H305" s="30"/>
       <c r="I305" s="30"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A306" s="30"/>
-      <c r="B306" s="31"/>
-      <c r="C306" s="31"/>
+    <row r="306" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A306" s="93"/>
+      <c r="B306" s="96"/>
+      <c r="C306" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D306" s="31"/>
       <c r="E306" s="30"/>
       <c r="F306" s="30"/>
@@ -9882,10 +10227,12 @@
       <c r="H306" s="30"/>
       <c r="I306" s="30"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A307" s="30"/>
-      <c r="B307" s="31"/>
-      <c r="C307" s="31"/>
+    <row r="307" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A307" s="94"/>
+      <c r="B307" s="97"/>
+      <c r="C307" s="31" t="s">
+        <v>415</v>
+      </c>
       <c r="D307" s="31"/>
       <c r="E307" s="30"/>
       <c r="F307" s="30"/>
@@ -9893,21 +10240,31 @@
       <c r="H307" s="30"/>
       <c r="I307" s="30"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A308" s="30"/>
-      <c r="B308" s="31"/>
-      <c r="C308" s="31"/>
+    <row r="308" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A308" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="B308" s="95" t="s">
+        <v>420</v>
+      </c>
+      <c r="C308" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D308" s="31"/>
       <c r="E308" s="30"/>
       <c r="F308" s="30"/>
-      <c r="G308" s="31"/>
+      <c r="G308" s="31" t="s">
+        <v>421</v>
+      </c>
       <c r="H308" s="30"/>
       <c r="I308" s="30"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A309" s="30"/>
-      <c r="B309" s="31"/>
-      <c r="C309" s="31"/>
+    <row r="309" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A309" s="93"/>
+      <c r="B309" s="96"/>
+      <c r="C309" s="31" t="s">
+        <v>417</v>
+      </c>
       <c r="D309" s="31"/>
       <c r="E309" s="30"/>
       <c r="F309" s="30"/>
@@ -9915,10 +10272,12 @@
       <c r="H309" s="30"/>
       <c r="I309" s="30"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A310" s="30"/>
-      <c r="B310" s="31"/>
-      <c r="C310" s="31"/>
+    <row r="310" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A310" s="93"/>
+      <c r="B310" s="96"/>
+      <c r="C310" s="31" t="s">
+        <v>418</v>
+      </c>
       <c r="D310" s="31"/>
       <c r="E310" s="30"/>
       <c r="F310" s="30"/>
@@ -9926,10 +10285,12 @@
       <c r="H310" s="30"/>
       <c r="I310" s="30"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A311" s="30"/>
-      <c r="B311" s="31"/>
-      <c r="C311" s="31"/>
+    <row r="311" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A311" s="93"/>
+      <c r="B311" s="96"/>
+      <c r="C311" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D311" s="31"/>
       <c r="E311" s="30"/>
       <c r="F311" s="30"/>
@@ -9937,10 +10298,12 @@
       <c r="H311" s="30"/>
       <c r="I311" s="30"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A312" s="30"/>
-      <c r="B312" s="31"/>
-      <c r="C312" s="31"/>
+    <row r="312" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A312" s="94"/>
+      <c r="B312" s="97"/>
+      <c r="C312" s="31" t="s">
+        <v>419</v>
+      </c>
       <c r="D312" s="31"/>
       <c r="E312" s="30"/>
       <c r="F312" s="30"/>
@@ -9948,21 +10311,31 @@
       <c r="H312" s="30"/>
       <c r="I312" s="30"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A313" s="30"/>
-      <c r="B313" s="31"/>
-      <c r="C313" s="31"/>
+    <row r="313" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A313" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="B313" s="95" t="s">
+        <v>427</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D313" s="31"/>
       <c r="E313" s="30"/>
       <c r="F313" s="30"/>
-      <c r="G313" s="31"/>
+      <c r="G313" s="31" t="s">
+        <v>429</v>
+      </c>
       <c r="H313" s="30"/>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A314" s="30"/>
-      <c r="B314" s="31"/>
-      <c r="C314" s="31"/>
+    <row r="314" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A314" s="93"/>
+      <c r="B314" s="96"/>
+      <c r="C314" s="31" t="s">
+        <v>401</v>
+      </c>
       <c r="D314" s="31"/>
       <c r="E314" s="30"/>
       <c r="F314" s="30"/>
@@ -9970,10 +10343,12 @@
       <c r="H314" s="30"/>
       <c r="I314" s="30"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A315" s="30"/>
-      <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
+    <row r="315" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A315" s="93"/>
+      <c r="B315" s="96"/>
+      <c r="C315" s="31" t="s">
+        <v>402</v>
+      </c>
       <c r="D315" s="31"/>
       <c r="E315" s="30"/>
       <c r="F315" s="30"/>
@@ -9981,10 +10356,12 @@
       <c r="H315" s="30"/>
       <c r="I315" s="30"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A316" s="30"/>
-      <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
+    <row r="316" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A316" s="93"/>
+      <c r="B316" s="96"/>
+      <c r="C316" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D316" s="31"/>
       <c r="E316" s="30"/>
       <c r="F316" s="30"/>
@@ -9992,10 +10369,12 @@
       <c r="H316" s="30"/>
       <c r="I316" s="30"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A317" s="30"/>
-      <c r="B317" s="31"/>
-      <c r="C317" s="31"/>
+    <row r="317" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A317" s="94"/>
+      <c r="B317" s="97"/>
+      <c r="C317" s="31" t="s">
+        <v>428</v>
+      </c>
       <c r="D317" s="31"/>
       <c r="E317" s="30"/>
       <c r="F317" s="30"/>
@@ -10003,21 +10382,31 @@
       <c r="H317" s="30"/>
       <c r="I317" s="30"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A318" s="30"/>
-      <c r="B318" s="31"/>
-      <c r="C318" s="31"/>
+    <row r="318" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A318" s="92" t="s">
+        <v>424</v>
+      </c>
+      <c r="B318" s="95" t="s">
+        <v>407</v>
+      </c>
+      <c r="C318" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D318" s="31"/>
       <c r="E318" s="30"/>
       <c r="F318" s="30"/>
-      <c r="G318" s="31"/>
+      <c r="G318" s="31" t="s">
+        <v>434</v>
+      </c>
       <c r="H318" s="30"/>
       <c r="I318" s="30"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A319" s="30"/>
-      <c r="B319" s="31"/>
-      <c r="C319" s="31"/>
+    <row r="319" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A319" s="93"/>
+      <c r="B319" s="96"/>
+      <c r="C319" s="31" t="s">
+        <v>430</v>
+      </c>
       <c r="D319" s="31"/>
       <c r="E319" s="30"/>
       <c r="F319" s="30"/>
@@ -10025,10 +10414,12 @@
       <c r="H319" s="30"/>
       <c r="I319" s="30"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A320" s="30"/>
-      <c r="B320" s="31"/>
-      <c r="C320" s="31"/>
+    <row r="320" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A320" s="93"/>
+      <c r="B320" s="96"/>
+      <c r="C320" s="31" t="s">
+        <v>431</v>
+      </c>
       <c r="D320" s="31"/>
       <c r="E320" s="30"/>
       <c r="F320" s="30"/>
@@ -10036,10 +10427,12 @@
       <c r="H320" s="30"/>
       <c r="I320" s="30"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A321" s="30"/>
-      <c r="B321" s="31"/>
-      <c r="C321" s="31"/>
+    <row r="321" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A321" s="93"/>
+      <c r="B321" s="96"/>
+      <c r="C321" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D321" s="31"/>
       <c r="E321" s="30"/>
       <c r="F321" s="30"/>
@@ -10047,10 +10440,12 @@
       <c r="H321" s="30"/>
       <c r="I321" s="30"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A322" s="30"/>
-      <c r="B322" s="31"/>
-      <c r="C322" s="31"/>
+    <row r="322" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A322" s="94"/>
+      <c r="B322" s="97"/>
+      <c r="C322" s="31" t="s">
+        <v>432</v>
+      </c>
       <c r="D322" s="31"/>
       <c r="E322" s="30"/>
       <c r="F322" s="30"/>
@@ -10058,21 +10453,31 @@
       <c r="H322" s="30"/>
       <c r="I322" s="30"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A323" s="30"/>
-      <c r="B323" s="31"/>
-      <c r="C323" s="31"/>
+    <row r="323" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A323" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="B323" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="C323" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D323" s="31"/>
       <c r="E323" s="30"/>
       <c r="F323" s="30"/>
-      <c r="G323" s="31"/>
+      <c r="G323" s="31" t="s">
+        <v>422</v>
+      </c>
       <c r="H323" s="30"/>
       <c r="I323" s="30"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A324" s="30"/>
-      <c r="B324" s="31"/>
-      <c r="C324" s="31"/>
+    <row r="324" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A324" s="93"/>
+      <c r="B324" s="96"/>
+      <c r="C324" s="31" t="s">
+        <v>413</v>
+      </c>
       <c r="D324" s="31"/>
       <c r="E324" s="30"/>
       <c r="F324" s="30"/>
@@ -10080,10 +10485,12 @@
       <c r="H324" s="30"/>
       <c r="I324" s="30"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A325" s="30"/>
-      <c r="B325" s="31"/>
-      <c r="C325" s="31"/>
+    <row r="325" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A325" s="93"/>
+      <c r="B325" s="96"/>
+      <c r="C325" s="31" t="s">
+        <v>414</v>
+      </c>
       <c r="D325" s="31"/>
       <c r="E325" s="30"/>
       <c r="F325" s="30"/>
@@ -10091,10 +10498,12 @@
       <c r="H325" s="30"/>
       <c r="I325" s="30"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A326" s="30"/>
-      <c r="B326" s="31"/>
-      <c r="C326" s="31"/>
+    <row r="326" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A326" s="93"/>
+      <c r="B326" s="96"/>
+      <c r="C326" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D326" s="31"/>
       <c r="E326" s="30"/>
       <c r="F326" s="30"/>
@@ -10102,10 +10511,12 @@
       <c r="H326" s="30"/>
       <c r="I326" s="30"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A327" s="30"/>
-      <c r="B327" s="31"/>
-      <c r="C327" s="31"/>
+    <row r="327" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A327" s="94"/>
+      <c r="B327" s="97"/>
+      <c r="C327" s="31" t="s">
+        <v>436</v>
+      </c>
       <c r="D327" s="31"/>
       <c r="E327" s="30"/>
       <c r="F327" s="30"/>
@@ -10113,21 +10524,31 @@
       <c r="H327" s="30"/>
       <c r="I327" s="30"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A328" s="30"/>
-      <c r="B328" s="31"/>
-      <c r="C328" s="31"/>
+    <row r="328" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A328" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="B328" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="C328" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D328" s="31"/>
       <c r="E328" s="30"/>
       <c r="F328" s="30"/>
-      <c r="G328" s="31"/>
+      <c r="G328" s="31" t="s">
+        <v>421</v>
+      </c>
       <c r="H328" s="30"/>
       <c r="I328" s="30"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A329" s="30"/>
-      <c r="B329" s="31"/>
-      <c r="C329" s="31"/>
+    <row r="329" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A329" s="93"/>
+      <c r="B329" s="96"/>
+      <c r="C329" s="31" t="s">
+        <v>438</v>
+      </c>
       <c r="D329" s="31"/>
       <c r="E329" s="30"/>
       <c r="F329" s="30"/>
@@ -10135,10 +10556,12 @@
       <c r="H329" s="30"/>
       <c r="I329" s="30"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A330" s="30"/>
-      <c r="B330" s="31"/>
-      <c r="C330" s="31"/>
+    <row r="330" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A330" s="93"/>
+      <c r="B330" s="96"/>
+      <c r="C330" s="31" t="s">
+        <v>439</v>
+      </c>
       <c r="D330" s="31"/>
       <c r="E330" s="30"/>
       <c r="F330" s="30"/>
@@ -10146,10 +10569,12 @@
       <c r="H330" s="30"/>
       <c r="I330" s="30"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A331" s="30"/>
-      <c r="B331" s="31"/>
-      <c r="C331" s="31"/>
+    <row r="331" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A331" s="93"/>
+      <c r="B331" s="96"/>
+      <c r="C331" s="31" t="s">
+        <v>403</v>
+      </c>
       <c r="D331" s="31"/>
       <c r="E331" s="30"/>
       <c r="F331" s="30"/>
@@ -10157,10 +10582,12 @@
       <c r="H331" s="30"/>
       <c r="I331" s="30"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A332" s="30"/>
-      <c r="B332" s="31"/>
-      <c r="C332" s="31"/>
+    <row r="332" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A332" s="94"/>
+      <c r="B332" s="97"/>
+      <c r="C332" s="31" t="s">
+        <v>440</v>
+      </c>
       <c r="D332" s="31"/>
       <c r="E332" s="30"/>
       <c r="F332" s="30"/>
@@ -10168,21 +10595,31 @@
       <c r="H332" s="30"/>
       <c r="I332" s="30"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A333" s="30"/>
-      <c r="B333" s="31"/>
-      <c r="C333" s="31"/>
+    <row r="333" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A333" s="92" t="s">
+        <v>441</v>
+      </c>
+      <c r="B333" s="95" t="s">
+        <v>443</v>
+      </c>
+      <c r="C333" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D333" s="31"/>
       <c r="E333" s="30"/>
       <c r="F333" s="30"/>
-      <c r="G333" s="31"/>
+      <c r="G333" s="31" t="s">
+        <v>448</v>
+      </c>
       <c r="H333" s="30"/>
       <c r="I333" s="30"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A334" s="30"/>
-      <c r="B334" s="31"/>
-      <c r="C334" s="31"/>
+    <row r="334" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A334" s="93"/>
+      <c r="B334" s="96"/>
+      <c r="C334" s="31" t="s">
+        <v>444</v>
+      </c>
       <c r="D334" s="31"/>
       <c r="E334" s="30"/>
       <c r="F334" s="30"/>
@@ -10190,10 +10627,12 @@
       <c r="H334" s="30"/>
       <c r="I334" s="30"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A335" s="30"/>
-      <c r="B335" s="31"/>
-      <c r="C335" s="31"/>
+    <row r="335" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A335" s="93"/>
+      <c r="B335" s="96"/>
+      <c r="C335" s="31" t="s">
+        <v>445</v>
+      </c>
       <c r="D335" s="31"/>
       <c r="E335" s="30"/>
       <c r="F335" s="30"/>
@@ -10201,10 +10640,12 @@
       <c r="H335" s="30"/>
       <c r="I335" s="30"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A336" s="30"/>
-      <c r="B336" s="31"/>
-      <c r="C336" s="31"/>
+    <row r="336" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A336" s="93"/>
+      <c r="B336" s="96"/>
+      <c r="C336" s="31" t="s">
+        <v>446</v>
+      </c>
       <c r="D336" s="31"/>
       <c r="E336" s="30"/>
       <c r="F336" s="30"/>
@@ -10212,10 +10653,12 @@
       <c r="H336" s="30"/>
       <c r="I336" s="30"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A337" s="30"/>
-      <c r="B337" s="31"/>
-      <c r="C337" s="31"/>
+    <row r="337" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A337" s="94"/>
+      <c r="B337" s="97"/>
+      <c r="C337" s="31" t="s">
+        <v>447</v>
+      </c>
       <c r="D337" s="31"/>
       <c r="E337" s="30"/>
       <c r="F337" s="30"/>
@@ -10223,21 +10666,31 @@
       <c r="H337" s="30"/>
       <c r="I337" s="30"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A338" s="30"/>
-      <c r="B338" s="31"/>
-      <c r="C338" s="31"/>
+    <row r="338" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A338" s="92" t="s">
+        <v>442</v>
+      </c>
+      <c r="B338" s="95" t="s">
+        <v>449</v>
+      </c>
+      <c r="C338" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D338" s="31"/>
       <c r="E338" s="30"/>
       <c r="F338" s="30"/>
-      <c r="G338" s="31"/>
+      <c r="G338" s="31" t="s">
+        <v>454</v>
+      </c>
       <c r="H338" s="30"/>
       <c r="I338" s="30"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A339" s="30"/>
-      <c r="B339" s="31"/>
-      <c r="C339" s="31"/>
+    <row r="339" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A339" s="93"/>
+      <c r="B339" s="96"/>
+      <c r="C339" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="D339" s="31"/>
       <c r="E339" s="30"/>
       <c r="F339" s="30"/>
@@ -10245,10 +10698,12 @@
       <c r="H339" s="30"/>
       <c r="I339" s="30"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A340" s="30"/>
-      <c r="B340" s="31"/>
-      <c r="C340" s="31"/>
+    <row r="340" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A340" s="93"/>
+      <c r="B340" s="96"/>
+      <c r="C340" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D340" s="31"/>
       <c r="E340" s="30"/>
       <c r="F340" s="30"/>
@@ -10256,10 +10711,12 @@
       <c r="H340" s="30"/>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A341" s="30"/>
-      <c r="B341" s="31"/>
-      <c r="C341" s="31"/>
+    <row r="341" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+      <c r="A341" s="93"/>
+      <c r="B341" s="96"/>
+      <c r="C341" s="31" t="s">
+        <v>452</v>
+      </c>
       <c r="D341" s="31"/>
       <c r="E341" s="30"/>
       <c r="F341" s="30"/>
@@ -10267,10 +10724,12 @@
       <c r="H341" s="30"/>
       <c r="I341" s="30"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A342" s="30"/>
-      <c r="B342" s="31"/>
-      <c r="C342" s="31"/>
+    <row r="342" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A342" s="94"/>
+      <c r="B342" s="97"/>
+      <c r="C342" s="31" t="s">
+        <v>453</v>
+      </c>
       <c r="D342" s="31"/>
       <c r="E342" s="30"/>
       <c r="F342" s="30"/>
@@ -10278,21 +10737,31 @@
       <c r="H342" s="30"/>
       <c r="I342" s="30"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A343" s="30"/>
-      <c r="B343" s="31"/>
-      <c r="C343" s="31"/>
+    <row r="343" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A343" s="92" t="s">
+        <v>455</v>
+      </c>
+      <c r="B343" s="95" t="s">
+        <v>456</v>
+      </c>
+      <c r="C343" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D343" s="31"/>
       <c r="E343" s="30"/>
       <c r="F343" s="30"/>
-      <c r="G343" s="31"/>
+      <c r="G343" s="31" t="s">
+        <v>454</v>
+      </c>
       <c r="H343" s="30"/>
       <c r="I343" s="30"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A344" s="30"/>
-      <c r="B344" s="31"/>
-      <c r="C344" s="31"/>
+    <row r="344" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A344" s="93"/>
+      <c r="B344" s="96"/>
+      <c r="C344" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="D344" s="31"/>
       <c r="E344" s="30"/>
       <c r="F344" s="30"/>
@@ -10300,10 +10769,12 @@
       <c r="H344" s="30"/>
       <c r="I344" s="30"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A345" s="30"/>
-      <c r="B345" s="31"/>
-      <c r="C345" s="31"/>
+    <row r="345" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A345" s="93"/>
+      <c r="B345" s="96"/>
+      <c r="C345" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D345" s="31"/>
       <c r="E345" s="30"/>
       <c r="F345" s="30"/>
@@ -10311,10 +10782,12 @@
       <c r="H345" s="30"/>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A346" s="30"/>
-      <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
+    <row r="346" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+      <c r="A346" s="93"/>
+      <c r="B346" s="96"/>
+      <c r="C346" s="31" t="s">
+        <v>457</v>
+      </c>
       <c r="D346" s="31"/>
       <c r="E346" s="30"/>
       <c r="F346" s="30"/>
@@ -10322,10 +10795,12 @@
       <c r="H346" s="30"/>
       <c r="I346" s="30"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A347" s="30"/>
-      <c r="B347" s="31"/>
-      <c r="C347" s="31"/>
+    <row r="347" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A347" s="94"/>
+      <c r="B347" s="97"/>
+      <c r="C347" s="31" t="s">
+        <v>458</v>
+      </c>
       <c r="D347" s="31"/>
       <c r="E347" s="30"/>
       <c r="F347" s="30"/>
@@ -10333,21 +10808,31 @@
       <c r="H347" s="30"/>
       <c r="I347" s="30"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A348" s="30"/>
-      <c r="B348" s="31"/>
-      <c r="C348" s="31"/>
+    <row r="348" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A348" s="92" t="s">
+        <v>459</v>
+      </c>
+      <c r="B348" s="95" t="s">
+        <v>460</v>
+      </c>
+      <c r="C348" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D348" s="31"/>
       <c r="E348" s="30"/>
       <c r="F348" s="30"/>
-      <c r="G348" s="31"/>
+      <c r="G348" s="31" t="s">
+        <v>464</v>
+      </c>
       <c r="H348" s="30"/>
       <c r="I348" s="30"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A349" s="30"/>
-      <c r="B349" s="31"/>
-      <c r="C349" s="31"/>
+    <row r="349" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A349" s="93"/>
+      <c r="B349" s="96"/>
+      <c r="C349" s="31" t="s">
+        <v>461</v>
+      </c>
       <c r="D349" s="31"/>
       <c r="E349" s="30"/>
       <c r="F349" s="30"/>
@@ -10355,10 +10840,12 @@
       <c r="H349" s="30"/>
       <c r="I349" s="30"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A350" s="30"/>
-      <c r="B350" s="31"/>
-      <c r="C350" s="31"/>
+    <row r="350" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A350" s="93"/>
+      <c r="B350" s="96"/>
+      <c r="C350" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D350" s="31"/>
       <c r="E350" s="30"/>
       <c r="F350" s="30"/>
@@ -10366,10 +10853,12 @@
       <c r="H350" s="30"/>
       <c r="I350" s="30"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A351" s="30"/>
-      <c r="B351" s="31"/>
-      <c r="C351" s="31"/>
+    <row r="351" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A351" s="93"/>
+      <c r="B351" s="96"/>
+      <c r="C351" s="31" t="s">
+        <v>462</v>
+      </c>
       <c r="D351" s="31"/>
       <c r="E351" s="30"/>
       <c r="F351" s="30"/>
@@ -10377,10 +10866,12 @@
       <c r="H351" s="30"/>
       <c r="I351" s="30"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A352" s="30"/>
-      <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
+    <row r="352" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A352" s="94"/>
+      <c r="B352" s="97"/>
+      <c r="C352" s="31" t="s">
+        <v>463</v>
+      </c>
       <c r="D352" s="31"/>
       <c r="E352" s="30"/>
       <c r="F352" s="30"/>
@@ -10388,21 +10879,31 @@
       <c r="H352" s="30"/>
       <c r="I352" s="30"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A353" s="30"/>
-      <c r="B353" s="31"/>
-      <c r="C353" s="31"/>
+    <row r="353" spans="1:9" ht="78" x14ac:dyDescent="0.3">
+      <c r="A353" s="92" t="s">
+        <v>465</v>
+      </c>
+      <c r="B353" s="95" t="s">
+        <v>466</v>
+      </c>
+      <c r="C353" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D353" s="31"/>
       <c r="E353" s="30"/>
       <c r="F353" s="30"/>
-      <c r="G353" s="31"/>
+      <c r="G353" s="31" t="s">
+        <v>469</v>
+      </c>
       <c r="H353" s="30"/>
       <c r="I353" s="30"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A354" s="30"/>
-      <c r="B354" s="31"/>
-      <c r="C354" s="31"/>
+    <row r="354" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A354" s="93"/>
+      <c r="B354" s="96"/>
+      <c r="C354" s="31" t="s">
+        <v>461</v>
+      </c>
       <c r="D354" s="31"/>
       <c r="E354" s="30"/>
       <c r="F354" s="30"/>
@@ -10410,10 +10911,12 @@
       <c r="H354" s="30"/>
       <c r="I354" s="30"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A355" s="30"/>
-      <c r="B355" s="31"/>
-      <c r="C355" s="31"/>
+    <row r="355" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A355" s="93"/>
+      <c r="B355" s="96"/>
+      <c r="C355" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D355" s="31"/>
       <c r="E355" s="30"/>
       <c r="F355" s="30"/>
@@ -10421,10 +10924,12 @@
       <c r="H355" s="30"/>
       <c r="I355" s="30"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A356" s="30"/>
-      <c r="B356" s="31"/>
-      <c r="C356" s="31"/>
+    <row r="356" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A356" s="93"/>
+      <c r="B356" s="96"/>
+      <c r="C356" s="31" t="s">
+        <v>467</v>
+      </c>
       <c r="D356" s="31"/>
       <c r="E356" s="30"/>
       <c r="F356" s="30"/>
@@ -10432,10 +10937,12 @@
       <c r="H356" s="30"/>
       <c r="I356" s="30"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A357" s="30"/>
-      <c r="B357" s="31"/>
-      <c r="C357" s="31"/>
+    <row r="357" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A357" s="94"/>
+      <c r="B357" s="97"/>
+      <c r="C357" s="31" t="s">
+        <v>468</v>
+      </c>
       <c r="D357" s="31"/>
       <c r="E357" s="30"/>
       <c r="F357" s="30"/>
@@ -10443,21 +10950,31 @@
       <c r="H357" s="30"/>
       <c r="I357" s="30"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A358" s="30"/>
-      <c r="B358" s="31"/>
-      <c r="C358" s="31"/>
+    <row r="358" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="92" t="s">
+        <v>470</v>
+      </c>
+      <c r="B358" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="C358" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D358" s="31"/>
       <c r="E358" s="30"/>
       <c r="F358" s="30"/>
-      <c r="G358" s="31"/>
+      <c r="G358" s="31" t="s">
+        <v>477</v>
+      </c>
       <c r="H358" s="30"/>
       <c r="I358" s="30"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A359" s="30"/>
+    <row r="359" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A359" s="93"/>
       <c r="B359" s="31"/>
-      <c r="C359" s="31"/>
+      <c r="C359" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="D359" s="31"/>
       <c r="E359" s="30"/>
       <c r="F359" s="30"/>
@@ -10465,10 +10982,12 @@
       <c r="H359" s="30"/>
       <c r="I359" s="30"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A360" s="30"/>
+    <row r="360" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A360" s="93"/>
       <c r="B360" s="31"/>
-      <c r="C360" s="31"/>
+      <c r="C360" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D360" s="31"/>
       <c r="E360" s="30"/>
       <c r="F360" s="30"/>
@@ -10476,10 +10995,12 @@
       <c r="H360" s="30"/>
       <c r="I360" s="30"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A361" s="30"/>
+    <row r="361" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A361" s="93"/>
       <c r="B361" s="31"/>
-      <c r="C361" s="31"/>
+      <c r="C361" s="31" t="s">
+        <v>474</v>
+      </c>
       <c r="D361" s="31"/>
       <c r="E361" s="30"/>
       <c r="F361" s="30"/>
@@ -10487,10 +11008,12 @@
       <c r="H361" s="30"/>
       <c r="I361" s="30"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A362" s="30"/>
+    <row r="362" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A362" s="93"/>
       <c r="B362" s="31"/>
-      <c r="C362" s="31"/>
+      <c r="C362" s="31" t="s">
+        <v>475</v>
+      </c>
       <c r="D362" s="31"/>
       <c r="E362" s="30"/>
       <c r="F362" s="30"/>
@@ -10498,10 +11021,12 @@
       <c r="H362" s="30"/>
       <c r="I362" s="30"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A363" s="30"/>
+    <row r="363" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A363" s="94"/>
       <c r="B363" s="31"/>
-      <c r="C363" s="31"/>
+      <c r="C363" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="D363" s="31"/>
       <c r="E363" s="30"/>
       <c r="F363" s="30"/>
@@ -10509,21 +11034,31 @@
       <c r="H363" s="30"/>
       <c r="I363" s="30"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A364" s="30"/>
-      <c r="B364" s="31"/>
-      <c r="C364" s="31"/>
+    <row r="364" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A364" s="92" t="s">
+        <v>471</v>
+      </c>
+      <c r="B364" s="31" t="s">
+        <v>478</v>
+      </c>
+      <c r="C364" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D364" s="31"/>
       <c r="E364" s="30"/>
       <c r="F364" s="30"/>
-      <c r="G364" s="31"/>
+      <c r="G364" s="31" t="s">
+        <v>481</v>
+      </c>
       <c r="H364" s="30"/>
       <c r="I364" s="30"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A365" s="30"/>
+    <row r="365" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A365" s="93"/>
       <c r="B365" s="31"/>
-      <c r="C365" s="31"/>
+      <c r="C365" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="D365" s="31"/>
       <c r="E365" s="30"/>
       <c r="F365" s="30"/>
@@ -10531,10 +11066,12 @@
       <c r="H365" s="30"/>
       <c r="I365" s="30"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A366" s="30"/>
+    <row r="366" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A366" s="93"/>
       <c r="B366" s="31"/>
-      <c r="C366" s="31"/>
+      <c r="C366" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D366" s="31"/>
       <c r="E366" s="30"/>
       <c r="F366" s="30"/>
@@ -10542,10 +11079,12 @@
       <c r="H366" s="30"/>
       <c r="I366" s="30"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A367" s="30"/>
+    <row r="367" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A367" s="93"/>
       <c r="B367" s="31"/>
-      <c r="C367" s="31"/>
+      <c r="C367" s="31" t="s">
+        <v>474</v>
+      </c>
       <c r="D367" s="31"/>
       <c r="E367" s="30"/>
       <c r="F367" s="30"/>
@@ -10553,10 +11092,12 @@
       <c r="H367" s="30"/>
       <c r="I367" s="30"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A368" s="30"/>
+    <row r="368" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A368" s="93"/>
       <c r="B368" s="31"/>
-      <c r="C368" s="31"/>
+      <c r="C368" s="31" t="s">
+        <v>479</v>
+      </c>
       <c r="D368" s="31"/>
       <c r="E368" s="30"/>
       <c r="F368" s="30"/>
@@ -10564,10 +11105,12 @@
       <c r="H368" s="30"/>
       <c r="I368" s="30"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A369" s="30"/>
+    <row r="369" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A369" s="94"/>
       <c r="B369" s="31"/>
-      <c r="C369" s="31"/>
+      <c r="C369" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="D369" s="31"/>
       <c r="E369" s="30"/>
       <c r="F369" s="30"/>
@@ -10575,21 +11118,31 @@
       <c r="H369" s="30"/>
       <c r="I369" s="30"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A370" s="30"/>
-      <c r="B370" s="31"/>
-      <c r="C370" s="31"/>
+    <row r="370" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A370" s="92" t="s">
+        <v>472</v>
+      </c>
+      <c r="B370" s="31" t="s">
+        <v>482</v>
+      </c>
+      <c r="C370" s="31" t="s">
+        <v>189</v>
+      </c>
       <c r="D370" s="31"/>
       <c r="E370" s="30"/>
       <c r="F370" s="30"/>
-      <c r="G370" s="31"/>
+      <c r="G370" s="31" t="s">
+        <v>485</v>
+      </c>
       <c r="H370" s="30"/>
       <c r="I370" s="30"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A371" s="30"/>
+    <row r="371" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A371" s="93"/>
       <c r="B371" s="31"/>
-      <c r="C371" s="31"/>
+      <c r="C371" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="D371" s="31"/>
       <c r="E371" s="30"/>
       <c r="F371" s="30"/>
@@ -10597,10 +11150,12 @@
       <c r="H371" s="30"/>
       <c r="I371" s="30"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A372" s="30"/>
+    <row r="372" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A372" s="93"/>
       <c r="B372" s="31"/>
-      <c r="C372" s="31"/>
+      <c r="C372" s="31" t="s">
+        <v>451</v>
+      </c>
       <c r="D372" s="31"/>
       <c r="E372" s="30"/>
       <c r="F372" s="30"/>
@@ -10608,10 +11163,12 @@
       <c r="H372" s="30"/>
       <c r="I372" s="30"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A373" s="30"/>
+    <row r="373" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A373" s="93"/>
       <c r="B373" s="31"/>
-      <c r="C373" s="31"/>
+      <c r="C373" s="31" t="s">
+        <v>474</v>
+      </c>
       <c r="D373" s="31"/>
       <c r="E373" s="30"/>
       <c r="F373" s="30"/>
@@ -10619,10 +11176,12 @@
       <c r="H373" s="30"/>
       <c r="I373" s="30"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A374" s="30"/>
+    <row r="374" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A374" s="93"/>
       <c r="B374" s="31"/>
-      <c r="C374" s="31"/>
+      <c r="C374" s="31" t="s">
+        <v>483</v>
+      </c>
       <c r="D374" s="31"/>
       <c r="E374" s="30"/>
       <c r="F374" s="30"/>
@@ -10630,10 +11189,12 @@
       <c r="H374" s="30"/>
       <c r="I374" s="30"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A375" s="30"/>
+    <row r="375" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A375" s="94"/>
       <c r="B375" s="31"/>
-      <c r="C375" s="31"/>
+      <c r="C375" s="31" t="s">
+        <v>484</v>
+      </c>
       <c r="D375" s="31"/>
       <c r="E375" s="30"/>
       <c r="F375" s="30"/>
@@ -11632,7 +12193,20 @@
       <c r="I465" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="169">
+    <mergeCell ref="A358:A363"/>
+    <mergeCell ref="A364:A369"/>
+    <mergeCell ref="A370:A375"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="A338:A342"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="A343:A347"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="A348:A352"/>
+    <mergeCell ref="A353:A357"/>
+    <mergeCell ref="B348:B352"/>
+    <mergeCell ref="B353:B357"/>
     <mergeCell ref="B278:B282"/>
     <mergeCell ref="B283:B287"/>
     <mergeCell ref="B204:B208"/>
@@ -11644,6 +12218,12 @@
     <mergeCell ref="B234:B238"/>
     <mergeCell ref="B239:B242"/>
     <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B277"/>
     <mergeCell ref="A113:A115"/>
     <mergeCell ref="A161:A165"/>
     <mergeCell ref="A156:A160"/>
@@ -11748,12 +12328,6 @@
     <mergeCell ref="A253:A257"/>
     <mergeCell ref="A258:A262"/>
     <mergeCell ref="A263:A267"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B277"/>
     <mergeCell ref="B161:B165"/>
     <mergeCell ref="B166:B169"/>
     <mergeCell ref="B170:B175"/>
@@ -11771,6 +12345,24 @@
     <mergeCell ref="B146:B150"/>
     <mergeCell ref="B151:B155"/>
     <mergeCell ref="B156:B160"/>
+    <mergeCell ref="A313:A317"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A332"/>
+    <mergeCell ref="B313:B317"/>
+    <mergeCell ref="B318:B322"/>
+    <mergeCell ref="B323:B327"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="A288:A292"/>
+    <mergeCell ref="A293:A297"/>
+    <mergeCell ref="B293:B297"/>
+    <mergeCell ref="A298:A302"/>
+    <mergeCell ref="B298:B302"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="B288:B292"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="B308:B312"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punit\workspace\uiFrameworkVersion1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C4ECFF-C2CD-4629-A4CB-927F2E1105A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE2E4FF-F73A-4E5B-8717-5CFB3C71C822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="TestScriptSet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1535,10 +1534,10 @@
     <t>5.on purchase2 page click on 'Logout' button</t>
   </si>
   <si>
-    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercurysignon.php"</t>
-  </si>
-  <si>
     <t>button should be clicked and user should be navigated to url =http://newtours.demoaut.com/mercurysignon.php</t>
+  </si>
+  <si>
+    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercurysignon.php".</t>
   </si>
 </sst>
 </file>
@@ -2092,18 +2091,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2113,17 +2100,14 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2134,64 +2118,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2211,6 +2150,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2236,14 +2178,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2272,14 +2271,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2290,8 +2283,14 @@
     <xf numFmtId="164" fontId="8" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2625,722 +2624,722 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="82"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="86"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="67"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="82"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="86"/>
+      <c r="F3" s="63"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="82"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="86"/>
+      <c r="F4" s="63"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="82"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="86"/>
+      <c r="F5" s="63"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="83"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="87"/>
+      <c r="F6" s="64"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="51" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="78"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="58"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="73"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="79"/>
+      <c r="F8" s="74"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="73"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="79"/>
+      <c r="F9" s="74"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="70"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="73"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="79"/>
+      <c r="F10" s="74"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D11" s="71"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="74"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="80"/>
+      <c r="F11" s="75"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="51" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="66"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="79"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="67"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="61"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="83"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="80"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="44"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="67"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="61"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="83"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="80"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="44"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="67"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="61"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="83"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="80"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="71"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="68"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="84"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="66"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="67"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="61"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="83"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="80"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="67"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="61"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="83"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="80"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="67"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="61"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="83"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="13" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="71"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="68"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="84"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="51" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="66"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="58"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="79"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="69"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="67"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="61"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="83"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="80"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="69"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="67"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="61"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="83"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="67"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="61"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="83"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="67"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="61"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="83"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="44"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="67"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="61"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="51"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="83"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="44"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="51"/>
       <c r="D28" s="71"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="68"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="84"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="51" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="72"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="79"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="44"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="73"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="61"/>
+      <c r="F30" s="74"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="80"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="44"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="73"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="61"/>
+      <c r="F31" s="74"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="80"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="44"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D32" s="65"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="73"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="61"/>
+      <c r="F32" s="74"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="80"/>
     </row>
     <row r="33" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="44"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="65"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="73"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="61"/>
+      <c r="F33" s="74"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="80"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="44"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="D34" s="70"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="73"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="61"/>
+      <c r="F34" s="74"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="80"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="51"/>
-      <c r="B35" s="44"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
       <c r="D35" s="71"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="74"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="63"/>
+      <c r="F35" s="75"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="81"/>
     </row>
     <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="66"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="82"/>
       <c r="G36" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="44"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="65"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="67"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="61"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="83"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="80"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="44"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="65"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="67"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="61"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="83"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="80"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="44"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="67"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="61"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="83"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="80"/>
     </row>
     <row r="40" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="44"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="D40" s="65"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="67"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="61"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="83"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="44"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="67"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="61"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="51"/>
+      <c r="D41" s="70"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="83"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="80"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="44"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="51"/>
       <c r="D42" s="71"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="68"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="63"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="84"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="81"/>
     </row>
     <row r="43" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="60"/>
-      <c r="F43" s="66"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="82"/>
       <c r="G43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="58"/>
-      <c r="I43" s="60"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="79"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="44"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="65"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="67"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="61"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="83"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="80"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="51"/>
-      <c r="B45" s="44"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="65"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="67"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="61"/>
+      <c r="D45" s="70"/>
+      <c r="E45" s="80"/>
+      <c r="F45" s="83"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="80"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D46" s="65"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="67"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="61"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="83"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="80"/>
     </row>
     <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="67"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="61"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="83"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="80"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="44"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="67"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="61"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="83"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="80"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
       <c r="D49" s="71"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="68"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="63"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="84"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="81"/>
     </row>
     <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="85" t="s">
         <v>41</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="66"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="82"/>
       <c r="G50" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="58"/>
-      <c r="I50" s="60"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="79"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="53"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="85"/>
       <c r="C51" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="65"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="67"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="61"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="83"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="80"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="53"/>
-      <c r="B52" s="70"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="85"/>
       <c r="C52" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D52" s="65"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="67"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="61"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="83"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="80"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="B53" s="70"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="67"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="61"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="83"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="80"/>
     </row>
     <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="53"/>
-      <c r="B54" s="70"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="65"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="67"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="61"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="83"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="80"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="53"/>
-      <c r="B55" s="70"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="67"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="61"/>
+      <c r="A55" s="48"/>
+      <c r="B55" s="85"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="83"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="80"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="70"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="68"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="61"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="85"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="84"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="80"/>
     </row>
     <row r="57" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51" t="s">
+      <c r="A57" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D57" s="34" t="s">
@@ -3355,9 +3354,9 @@
       <c r="I57" s="14"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="43"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="34"/>
       <c r="E58" s="14"/>
       <c r="F58" s="17"/>
@@ -3365,8 +3364,8 @@
       <c r="I58" s="14"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="44"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="51"/>
       <c r="C59" s="13" t="s">
         <v>22</v>
       </c>
@@ -3377,8 +3376,8 @@
       <c r="I59" s="14"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="50"/>
+      <c r="B60" s="51"/>
       <c r="C60" s="13" t="s">
         <v>21</v>
       </c>
@@ -3389,8 +3388,8 @@
       <c r="I60" s="14"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13" t="s">
         <v>181</v>
       </c>
@@ -3401,8 +3400,8 @@
       <c r="I61" s="14"/>
     </row>
     <row r="62" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="50"/>
+      <c r="B62" s="51"/>
       <c r="C62" s="13" t="s">
         <v>183</v>
       </c>
@@ -3413,8 +3412,8 @@
       <c r="I62" s="14"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="51"/>
       <c r="D63" s="34"/>
       <c r="E63" s="14"/>
       <c r="F63" s="17"/>
@@ -3422,13 +3421,13 @@
       <c r="I63" s="14"/>
     </row>
     <row r="64" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="C64" s="41" t="s">
+      <c r="C64" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D64" s="34" t="s">
@@ -3443,9 +3442,9 @@
       <c r="I64" s="14"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="53"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="43"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="34"/>
       <c r="E65" s="14"/>
       <c r="F65" s="17"/>
@@ -3453,8 +3452,8 @@
       <c r="I65" s="14"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="53"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="48"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13" t="s">
         <v>22</v>
       </c>
@@ -3465,8 +3464,8 @@
       <c r="I66" s="14"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="53"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="48"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="13" t="s">
         <v>23</v>
       </c>
@@ -3477,8 +3476,8 @@
       <c r="I67" s="14"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="53"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="48"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="13" t="s">
         <v>181</v>
       </c>
@@ -3489,8 +3488,8 @@
       <c r="I68" s="14"/>
     </row>
     <row r="69" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="53"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="48"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="13" t="s">
         <v>182</v>
       </c>
@@ -3501,8 +3500,8 @@
       <c r="I69" s="14"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="49"/>
+      <c r="B70" s="51"/>
       <c r="D70" s="34"/>
       <c r="E70" s="14"/>
       <c r="F70" s="17"/>
@@ -3510,13 +3509,13 @@
       <c r="I70" s="14"/>
     </row>
     <row r="71" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="55" t="s">
+      <c r="A71" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C71" s="41" t="s">
+      <c r="C71" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D71" s="34" t="s">
@@ -3531,9 +3530,9 @@
       <c r="I71" s="14"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="56"/>
-      <c r="B72" s="46"/>
-      <c r="C72" s="43"/>
+      <c r="A72" s="87"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="34"/>
       <c r="E72" s="14"/>
       <c r="F72" s="17"/>
@@ -3541,8 +3540,8 @@
       <c r="I72" s="14"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="56"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="87"/>
+      <c r="B73" s="42"/>
       <c r="D73" s="34"/>
       <c r="E73" s="14"/>
       <c r="F73" s="17"/>
@@ -3550,8 +3549,8 @@
       <c r="I73" s="14"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="56"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="42"/>
       <c r="C74" s="13" t="s">
         <v>20</v>
       </c>
@@ -3562,8 +3561,8 @@
       <c r="I74" s="14"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="56"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="42"/>
       <c r="C75" s="13" t="s">
         <v>23</v>
       </c>
@@ -3574,8 +3573,8 @@
       <c r="I75" s="14"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="56"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="87"/>
+      <c r="B76" s="42"/>
       <c r="C76" s="13" t="s">
         <v>181</v>
       </c>
@@ -3586,8 +3585,8 @@
       <c r="I76" s="14"/>
     </row>
     <row r="77" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="57"/>
-      <c r="B77" s="47"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="13" t="s">
         <v>185</v>
       </c>
@@ -3598,13 +3597,13 @@
       <c r="I77" s="14"/>
     </row>
     <row r="78" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B78" s="48" t="s">
+      <c r="B78" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C78" s="41" t="s">
+      <c r="C78" s="89" t="s">
         <v>171</v>
       </c>
       <c r="D78" s="34" t="s">
@@ -3619,9 +3618,9 @@
       <c r="I78" s="14"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="49"/>
-      <c r="C79" s="43"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="34"/>
       <c r="E79" s="14"/>
       <c r="F79" s="17"/>
@@ -3629,8 +3628,8 @@
       <c r="I79" s="14"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="53"/>
-      <c r="B80" s="49"/>
+      <c r="A80" s="48"/>
+      <c r="B80" s="53"/>
       <c r="D80" s="34"/>
       <c r="E80" s="14"/>
       <c r="F80" s="17"/>
@@ -3638,8 +3637,8 @@
       <c r="I80" s="14"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="53"/>
-      <c r="B81" s="49"/>
+      <c r="A81" s="48"/>
+      <c r="B81" s="53"/>
       <c r="C81" s="13" t="s">
         <v>20</v>
       </c>
@@ -3650,8 +3649,8 @@
       <c r="I81" s="14"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="53"/>
-      <c r="B82" s="49"/>
+      <c r="A82" s="48"/>
+      <c r="B82" s="53"/>
       <c r="C82" s="13" t="s">
         <v>21</v>
       </c>
@@ -3662,8 +3661,8 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="53"/>
-      <c r="B83" s="49"/>
+      <c r="A83" s="48"/>
+      <c r="B83" s="53"/>
       <c r="C83" s="13" t="s">
         <v>181</v>
       </c>
@@ -3674,8 +3673,8 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="54"/>
-      <c r="B84" s="50"/>
+      <c r="A84" s="49"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="13" t="s">
         <v>185</v>
       </c>
@@ -3686,13 +3685,13 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="51" t="s">
+      <c r="A85" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="44" t="s">
+      <c r="B85" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D85" s="34" t="s">
@@ -3707,9 +3706,9 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="51"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="42"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="91"/>
       <c r="D86" s="34"/>
       <c r="E86" s="2"/>
       <c r="F86" s="18"/>
@@ -3717,9 +3716,9 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="51"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="43"/>
+      <c r="A87" s="50"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="34"/>
       <c r="E87" s="2"/>
       <c r="F87" s="18"/>
@@ -3727,8 +3726,8 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="51"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="50"/>
+      <c r="B88" s="51"/>
       <c r="C88" s="13" t="s">
         <v>22</v>
       </c>
@@ -3739,8 +3738,8 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="51"/>
-      <c r="B89" s="44"/>
+      <c r="A89" s="50"/>
+      <c r="B89" s="51"/>
       <c r="C89" s="13" t="s">
         <v>21</v>
       </c>
@@ -3751,8 +3750,8 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="51"/>
-      <c r="B90" s="44"/>
+      <c r="A90" s="50"/>
+      <c r="B90" s="51"/>
       <c r="C90" s="13" t="s">
         <v>181</v>
       </c>
@@ -3763,8 +3762,8 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="51"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="51"/>
       <c r="C91" s="13" t="s">
         <v>185</v>
       </c>
@@ -3775,13 +3774,13 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="B92" s="44" t="s">
+      <c r="B92" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D92" s="34" t="s">
@@ -3796,9 +3795,9 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="53"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="91"/>
       <c r="D93" s="34"/>
       <c r="E93" s="2"/>
       <c r="F93" s="18"/>
@@ -3806,9 +3805,9 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="53"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="43"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="34"/>
       <c r="E94" s="2"/>
       <c r="F94" s="18"/>
@@ -3816,8 +3815,8 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="53"/>
-      <c r="B95" s="44"/>
+      <c r="A95" s="48"/>
+      <c r="B95" s="51"/>
       <c r="C95" s="13" t="s">
         <v>22</v>
       </c>
@@ -3828,8 +3827,8 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="53"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="48"/>
+      <c r="B96" s="51"/>
       <c r="C96" s="13" t="s">
         <v>23</v>
       </c>
@@ -3840,8 +3839,8 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="53"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="48"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="13" t="s">
         <v>181</v>
       </c>
@@ -3852,8 +3851,8 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="54"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="49"/>
+      <c r="B98" s="51"/>
       <c r="C98" s="13" t="s">
         <v>182</v>
       </c>
@@ -3864,13 +3863,13 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="44" t="s">
+      <c r="B99" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D99" s="34" t="s">
@@ -3885,9 +3884,9 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="51"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="42"/>
+      <c r="A100" s="50"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="91"/>
       <c r="D100" s="34"/>
       <c r="E100" s="2"/>
       <c r="F100" s="18"/>
@@ -3895,9 +3894,9 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="51"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="43"/>
+      <c r="A101" s="50"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="34"/>
       <c r="E101" s="2"/>
       <c r="F101" s="18"/>
@@ -3905,8 +3904,8 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="51"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="50"/>
+      <c r="B102" s="51"/>
       <c r="C102" s="13" t="s">
         <v>42</v>
       </c>
@@ -3917,8 +3916,8 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103" s="51"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="50"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="13" t="s">
         <v>43</v>
       </c>
@@ -3929,8 +3928,8 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="51"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="50"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="13" t="s">
         <v>44</v>
       </c>
@@ -3941,8 +3940,8 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="51"/>
-      <c r="B105" s="44"/>
+      <c r="A105" s="50"/>
+      <c r="B105" s="51"/>
       <c r="C105" s="13" t="s">
         <v>53</v>
       </c>
@@ -3953,13 +3952,13 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="89" t="s">
         <v>172</v>
       </c>
       <c r="D106" s="34" t="s">
@@ -3974,9 +3973,9 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="53"/>
-      <c r="B107" s="49"/>
-      <c r="C107" s="42"/>
+      <c r="A107" s="48"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="91"/>
       <c r="D107" s="34"/>
       <c r="E107" s="2"/>
       <c r="F107" s="18"/>
@@ -3984,9 +3983,9 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="53"/>
-      <c r="B108" s="49"/>
-      <c r="C108" s="43"/>
+      <c r="A108" s="48"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="34"/>
       <c r="E108" s="2"/>
       <c r="F108" s="18"/>
@@ -3994,8 +3993,8 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="53"/>
-      <c r="B109" s="49"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="53"/>
       <c r="C109" s="13" t="s">
         <v>20</v>
       </c>
@@ -4006,8 +4005,8 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="53"/>
-      <c r="B110" s="49"/>
+      <c r="A110" s="48"/>
+      <c r="B110" s="53"/>
       <c r="C110" s="13" t="s">
         <v>21</v>
       </c>
@@ -4018,8 +4017,8 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="53"/>
-      <c r="B111" s="49"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="53"/>
       <c r="C111" s="13" t="s">
         <v>181</v>
       </c>
@@ -4030,8 +4029,8 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="54"/>
-      <c r="B112" s="50"/>
+      <c r="A112" s="49"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="13" t="s">
         <v>185</v>
       </c>
@@ -4042,10 +4041,10 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="41" t="s">
         <v>67</v>
       </c>
       <c r="C113" s="13" t="s">
@@ -4063,8 +4062,8 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="90"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="13" t="s">
         <v>22</v>
       </c>
@@ -4075,8 +4074,8 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="90"/>
-      <c r="B115" s="46"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="42"/>
       <c r="C115" s="13" t="s">
         <v>23</v>
       </c>
@@ -4087,8 +4086,8 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="90"/>
-      <c r="B116" s="46"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="13" t="s">
         <v>68</v>
       </c>
@@ -4099,8 +4098,8 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="90"/>
-      <c r="B117" s="46"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="13" t="s">
         <v>174</v>
       </c>
@@ -4111,8 +4110,8 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="90"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="13" t="s">
         <v>69</v>
       </c>
@@ -4123,8 +4122,8 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="91"/>
-      <c r="B119" s="47"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="13" t="s">
         <v>53</v>
       </c>
@@ -4135,10 +4134,10 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A120" s="52" t="s">
+      <c r="A120" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="41" t="s">
         <v>70</v>
       </c>
       <c r="C120" s="13" t="s">
@@ -4156,8 +4155,8 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="53"/>
-      <c r="B121" s="46"/>
+      <c r="A121" s="48"/>
+      <c r="B121" s="42"/>
       <c r="D121" s="34"/>
       <c r="E121" s="2"/>
       <c r="F121" s="18"/>
@@ -4165,8 +4164,8 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="53"/>
-      <c r="B122" s="46"/>
+      <c r="A122" s="48"/>
+      <c r="B122" s="42"/>
       <c r="C122" s="13" t="s">
         <v>22</v>
       </c>
@@ -4177,8 +4176,8 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="53"/>
-      <c r="B123" s="46"/>
+      <c r="A123" s="48"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="13" t="s">
         <v>23</v>
       </c>
@@ -4189,8 +4188,8 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="53"/>
-      <c r="B124" s="46"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="13" t="s">
         <v>71</v>
       </c>
@@ -4201,8 +4200,8 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="53"/>
-      <c r="B125" s="46"/>
+      <c r="A125" s="48"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="13" t="s">
         <v>72</v>
       </c>
@@ -4213,8 +4212,8 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="53"/>
-      <c r="B126" s="46"/>
+      <c r="A126" s="48"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="13" t="s">
         <v>73</v>
       </c>
@@ -4225,8 +4224,8 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A127" s="54"/>
-      <c r="B127" s="47"/>
+      <c r="A127" s="49"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="13" t="s">
         <v>74</v>
       </c>
@@ -4237,10 +4236,10 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B128" s="45" t="s">
+      <c r="B128" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C128" s="13" t="s">
@@ -4258,8 +4257,8 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="53"/>
-      <c r="B129" s="46"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="42"/>
       <c r="D129" s="34"/>
       <c r="E129" s="2"/>
       <c r="F129" s="18"/>
@@ -4267,8 +4266,8 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="53"/>
-      <c r="B130" s="46"/>
+      <c r="A130" s="48"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="13" t="s">
         <v>22</v>
       </c>
@@ -4279,8 +4278,8 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="53"/>
-      <c r="B131" s="46"/>
+      <c r="A131" s="48"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="13" t="s">
         <v>23</v>
       </c>
@@ -4291,8 +4290,8 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="53"/>
-      <c r="B132" s="46"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="13" t="s">
         <v>68</v>
       </c>
@@ -4303,8 +4302,8 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A133" s="53"/>
-      <c r="B133" s="46"/>
+      <c r="A133" s="48"/>
+      <c r="B133" s="42"/>
       <c r="C133" s="13" t="s">
         <v>26</v>
       </c>
@@ -4315,8 +4314,8 @@
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="53"/>
-      <c r="B134" s="46"/>
+      <c r="A134" s="48"/>
+      <c r="B134" s="42"/>
       <c r="C134" s="13" t="s">
         <v>69</v>
       </c>
@@ -4327,8 +4326,8 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A135" s="54"/>
-      <c r="B135" s="47"/>
+      <c r="A135" s="49"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="13" t="s">
         <v>184</v>
       </c>
@@ -4338,10 +4337,10 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B136" s="45" t="s">
+      <c r="B136" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C136" s="13" t="s">
@@ -4359,16 +4358,16 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="53"/>
-      <c r="B137" s="46"/>
+      <c r="A137" s="48"/>
+      <c r="B137" s="42"/>
       <c r="E137" s="10"/>
       <c r="F137" s="18"/>
       <c r="H137" s="10"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="53"/>
-      <c r="B138" s="46"/>
+      <c r="A138" s="48"/>
+      <c r="B138" s="42"/>
       <c r="C138" s="13" t="s">
         <v>22</v>
       </c>
@@ -4378,8 +4377,8 @@
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="53"/>
-      <c r="B139" s="46"/>
+      <c r="A139" s="48"/>
+      <c r="B139" s="42"/>
       <c r="C139" s="13" t="s">
         <v>23</v>
       </c>
@@ -4389,8 +4388,8 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="53"/>
-      <c r="B140" s="46"/>
+      <c r="A140" s="48"/>
+      <c r="B140" s="42"/>
       <c r="C140" s="13" t="s">
         <v>68</v>
       </c>
@@ -4400,8 +4399,8 @@
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A141" s="53"/>
-      <c r="B141" s="46"/>
+      <c r="A141" s="48"/>
+      <c r="B141" s="42"/>
       <c r="C141" s="13" t="s">
         <v>26</v>
       </c>
@@ -4411,8 +4410,8 @@
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="53"/>
-      <c r="B142" s="46"/>
+      <c r="A142" s="48"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="13" t="s">
         <v>69</v>
       </c>
@@ -4422,8 +4421,8 @@
       <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="54"/>
-      <c r="B143" s="47"/>
+      <c r="A143" s="49"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="13" t="s">
         <v>184</v>
       </c>
@@ -5680,58 +5679,30 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="A113:A119"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="B128:B135"/>
-    <mergeCell ref="B136:B143"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="A128:A135"/>
-    <mergeCell ref="A136:A143"/>
-    <mergeCell ref="A85:A91"/>
-    <mergeCell ref="B85:B91"/>
-    <mergeCell ref="B92:B98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B106:B112"/>
-    <mergeCell ref="A92:A98"/>
-    <mergeCell ref="A99:A105"/>
-    <mergeCell ref="A106:A112"/>
-    <mergeCell ref="H7:H11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E22:E28"/>
-    <mergeCell ref="F22:F28"/>
-    <mergeCell ref="H22:H28"/>
-    <mergeCell ref="D36:D42"/>
-    <mergeCell ref="E36:E42"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="B22:B28"/>
-    <mergeCell ref="I22:I28"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="B71:B77"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A70"/>
+    <mergeCell ref="A71:A77"/>
+    <mergeCell ref="A78:A84"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="H29:H35"/>
+    <mergeCell ref="I29:I35"/>
+    <mergeCell ref="H36:H42"/>
+    <mergeCell ref="I36:I42"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
     <mergeCell ref="D50:D56"/>
     <mergeCell ref="E50:E56"/>
     <mergeCell ref="F50:F56"/>
@@ -5748,30 +5719,58 @@
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="F29:F35"/>
     <mergeCell ref="B36:B42"/>
-    <mergeCell ref="H50:H56"/>
-    <mergeCell ref="I50:I56"/>
-    <mergeCell ref="H29:H35"/>
-    <mergeCell ref="I29:I35"/>
-    <mergeCell ref="H36:H42"/>
-    <mergeCell ref="I36:I42"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A64:A70"/>
-    <mergeCell ref="A71:A77"/>
-    <mergeCell ref="A78:A84"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="B64:B70"/>
-    <mergeCell ref="B71:B77"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C99:C101"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E36:E42"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="B22:B28"/>
+    <mergeCell ref="I22:I28"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="A22:A28"/>
+    <mergeCell ref="D22:D28"/>
+    <mergeCell ref="E22:E28"/>
+    <mergeCell ref="F22:F28"/>
+    <mergeCell ref="H22:H28"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="A85:A91"/>
+    <mergeCell ref="B85:B91"/>
+    <mergeCell ref="B92:B98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B106:B112"/>
+    <mergeCell ref="A92:A98"/>
+    <mergeCell ref="A99:A105"/>
+    <mergeCell ref="A106:A112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="A113:A119"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B128:B135"/>
+    <mergeCell ref="B136:B143"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="A128:A135"/>
+    <mergeCell ref="A136:A143"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5784,8 +5783,8 @@
   <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6685,7 +6684,7 @@
       <c r="A59" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="102" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="31" t="s">
@@ -6702,7 +6701,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="93"/>
-      <c r="B60" s="105"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="31" t="s">
         <v>127</v>
       </c>
@@ -6715,7 +6714,7 @@
     </row>
     <row r="61" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="94"/>
-      <c r="B61" s="106"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="31" t="s">
         <v>96</v>
       </c>
@@ -7616,7 +7615,7 @@
       <c r="A122" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="101" t="s">
+      <c r="B122" s="105" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -7633,7 +7632,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="93"/>
-      <c r="B123" s="102"/>
+      <c r="B123" s="106"/>
       <c r="C123" s="31" t="s">
         <v>242</v>
       </c>
@@ -7646,7 +7645,7 @@
     </row>
     <row r="124" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="93"/>
-      <c r="B124" s="102"/>
+      <c r="B124" s="106"/>
       <c r="C124" s="31" t="s">
         <v>394</v>
       </c>
@@ -7659,7 +7658,7 @@
     </row>
     <row r="125" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A125" s="94"/>
-      <c r="B125" s="103"/>
+      <c r="B125" s="107"/>
       <c r="C125" s="31" t="s">
         <v>243</v>
       </c>
@@ -8156,7 +8155,7 @@
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="107" t="s">
+      <c r="A161" s="101" t="s">
         <v>275</v>
       </c>
       <c r="B161" s="98" t="s">
@@ -8175,7 +8174,7 @@
       <c r="I161" s="30"/>
     </row>
     <row r="162" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="107"/>
+      <c r="A162" s="101"/>
       <c r="B162" s="99"/>
       <c r="C162" s="31" t="s">
         <v>282</v>
@@ -8188,7 +8187,7 @@
       <c r="I162" s="30"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="107"/>
+      <c r="A163" s="101"/>
       <c r="B163" s="99"/>
       <c r="C163" s="31" t="s">
         <v>281</v>
@@ -8201,7 +8200,7 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="107"/>
+      <c r="A164" s="101"/>
       <c r="B164" s="99"/>
       <c r="C164" s="31" t="s">
         <v>277</v>
@@ -8214,7 +8213,7 @@
       <c r="I164" s="30"/>
     </row>
     <row r="165" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="107"/>
+      <c r="A165" s="101"/>
       <c r="B165" s="100"/>
       <c r="C165" s="31" t="s">
         <v>283</v>
@@ -11132,7 +11131,7 @@
       <c r="E370" s="30"/>
       <c r="F370" s="30"/>
       <c r="G370" s="31" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H370" s="30"/>
       <c r="I370" s="30"/>
@@ -11193,7 +11192,7 @@
       <c r="A375" s="94"/>
       <c r="B375" s="31"/>
       <c r="C375" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D375" s="31"/>
       <c r="E375" s="30"/>
@@ -12194,51 +12193,112 @@
     </row>
   </sheetData>
   <mergeCells count="169">
-    <mergeCell ref="A358:A363"/>
-    <mergeCell ref="A364:A369"/>
-    <mergeCell ref="A370:A375"/>
-    <mergeCell ref="A333:A337"/>
-    <mergeCell ref="A338:A342"/>
-    <mergeCell ref="B333:B337"/>
-    <mergeCell ref="B338:B342"/>
-    <mergeCell ref="A343:A347"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="A348:A352"/>
-    <mergeCell ref="A353:A357"/>
-    <mergeCell ref="B348:B352"/>
-    <mergeCell ref="B353:B357"/>
-    <mergeCell ref="B278:B282"/>
-    <mergeCell ref="B283:B287"/>
-    <mergeCell ref="B204:B208"/>
-    <mergeCell ref="B209:B213"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="B219:B223"/>
-    <mergeCell ref="B224:B228"/>
-    <mergeCell ref="B229:B233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="B239:B242"/>
-    <mergeCell ref="B243:B247"/>
-    <mergeCell ref="B248:B252"/>
-    <mergeCell ref="B253:B257"/>
-    <mergeCell ref="B258:B262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="B268:B272"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A161:A165"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="A136:A145"/>
-    <mergeCell ref="A146:A150"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="A188:A193"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A176:A181"/>
-    <mergeCell ref="A182:A187"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="A313:A317"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A332"/>
+    <mergeCell ref="B313:B317"/>
+    <mergeCell ref="B318:B322"/>
+    <mergeCell ref="B323:B327"/>
+    <mergeCell ref="B328:B332"/>
+    <mergeCell ref="A288:A292"/>
+    <mergeCell ref="A293:A297"/>
+    <mergeCell ref="B293:B297"/>
+    <mergeCell ref="A298:A302"/>
+    <mergeCell ref="B298:B302"/>
+    <mergeCell ref="A303:A307"/>
+    <mergeCell ref="A308:A312"/>
+    <mergeCell ref="B288:B292"/>
+    <mergeCell ref="B303:B307"/>
+    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="B161:B165"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="B170:B175"/>
+    <mergeCell ref="B176:B181"/>
+    <mergeCell ref="B182:B187"/>
+    <mergeCell ref="B188:B193"/>
+    <mergeCell ref="B194:B198"/>
+    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="B126:B135"/>
+    <mergeCell ref="B136:B145"/>
+    <mergeCell ref="B146:B150"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="A283:A287"/>
+    <mergeCell ref="A268:A272"/>
+    <mergeCell ref="A273:A277"/>
+    <mergeCell ref="A278:A282"/>
+    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A243:A247"/>
+    <mergeCell ref="A248:A252"/>
+    <mergeCell ref="A253:A257"/>
+    <mergeCell ref="A258:A262"/>
+    <mergeCell ref="A263:A267"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="A219:A223"/>
+    <mergeCell ref="A224:A228"/>
+    <mergeCell ref="A229:A233"/>
+    <mergeCell ref="A234:A238"/>
+    <mergeCell ref="A194:A198"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="A209:A213"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
     <mergeCell ref="B77:B81"/>
     <mergeCell ref="A89:A91"/>
     <mergeCell ref="A92:A94"/>
@@ -12257,112 +12317,51 @@
     <mergeCell ref="A104:A106"/>
     <mergeCell ref="A107:A109"/>
     <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="A219:A223"/>
-    <mergeCell ref="A224:A228"/>
-    <mergeCell ref="A229:A233"/>
-    <mergeCell ref="A234:A238"/>
-    <mergeCell ref="A194:A198"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="A204:A208"/>
-    <mergeCell ref="A209:A213"/>
-    <mergeCell ref="A283:A287"/>
-    <mergeCell ref="A268:A272"/>
-    <mergeCell ref="A273:A277"/>
-    <mergeCell ref="A278:A282"/>
-    <mergeCell ref="A239:A242"/>
-    <mergeCell ref="A243:A247"/>
-    <mergeCell ref="A248:A252"/>
-    <mergeCell ref="A253:A257"/>
-    <mergeCell ref="A258:A262"/>
-    <mergeCell ref="A263:A267"/>
-    <mergeCell ref="B161:B165"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="B170:B175"/>
-    <mergeCell ref="B176:B181"/>
-    <mergeCell ref="B182:B187"/>
-    <mergeCell ref="B188:B193"/>
-    <mergeCell ref="B194:B198"/>
-    <mergeCell ref="B199:B203"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="B126:B135"/>
-    <mergeCell ref="B136:B145"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="A313:A317"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A332"/>
-    <mergeCell ref="B313:B317"/>
-    <mergeCell ref="B318:B322"/>
-    <mergeCell ref="B323:B327"/>
-    <mergeCell ref="B328:B332"/>
-    <mergeCell ref="A288:A292"/>
-    <mergeCell ref="A293:A297"/>
-    <mergeCell ref="B293:B297"/>
-    <mergeCell ref="A298:A302"/>
-    <mergeCell ref="B298:B302"/>
-    <mergeCell ref="A303:A307"/>
-    <mergeCell ref="A308:A312"/>
-    <mergeCell ref="B288:B292"/>
-    <mergeCell ref="B303:B307"/>
-    <mergeCell ref="B308:B312"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="A136:A145"/>
+    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A175"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A182:A187"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A135"/>
+    <mergeCell ref="B278:B282"/>
+    <mergeCell ref="B283:B287"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="B209:B213"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="B219:B223"/>
+    <mergeCell ref="B224:B228"/>
+    <mergeCell ref="B229:B233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="B239:B242"/>
+    <mergeCell ref="B243:B247"/>
+    <mergeCell ref="B248:B252"/>
+    <mergeCell ref="B253:B257"/>
+    <mergeCell ref="B258:B262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="B268:B272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="A358:A363"/>
+    <mergeCell ref="A364:A369"/>
+    <mergeCell ref="A370:A375"/>
+    <mergeCell ref="A333:A337"/>
+    <mergeCell ref="A338:A342"/>
+    <mergeCell ref="B333:B337"/>
+    <mergeCell ref="B338:B342"/>
+    <mergeCell ref="A343:A347"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="A348:A352"/>
+    <mergeCell ref="A353:A357"/>
+    <mergeCell ref="B348:B352"/>
+    <mergeCell ref="B353:B357"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test cases.xlsx
+++ b/test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Punit\workspace\uiFrameworkVersion1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse workspace backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE2E4FF-F73A-4E5B-8717-5CFB3C71C822}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDD9100-739D-416C-A961-20122B6D990B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="487">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1438,9 +1438,6 @@
     <t>3.on resevation2'page click on "continue" button</t>
   </si>
   <si>
-    <t>4.on 'purchase' page enter addresss in 1st address box  "N-12 C-30/2" and in 2nd address box enter "Hudco",    enter in city text box "Aurangabad'    , enter in state text box "Germany"    ,enter in postal text box "431001"  , choose country as "Germany" from country dripdown list then click on "Sercure Purchase" button</t>
-  </si>
-  <si>
     <t>5.verify on 'purchase2' page under 'Billed to' section address is shown as filled by customer in step:4</t>
   </si>
   <si>
@@ -1453,9 +1450,6 @@
     <t>verify Delivery address of customer on 'purchase2' page</t>
   </si>
   <si>
-    <t>4.on 'purchase' page under 'Billing address' section enter addresss in 1st address box  "N-12 C-30/2" and in 2nd address box enter "Hudco",    enter in city text box "Aurangabad'    , enter in state text box "Germany"    ,enter in postal text box "431001"  , choose country as "Germany" from country dripdown list then click on "Sercure Purchase" button</t>
-  </si>
-  <si>
     <t>5.verify on 'purchase2' page under 'Delivery address' section address is shown as filled by customer in step:4</t>
   </si>
   <si>
@@ -1534,10 +1528,19 @@
     <t>5.on purchase2 page click on 'Logout' button</t>
   </si>
   <si>
+    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercurysignon.php"</t>
+  </si>
+  <si>
     <t>button should be clicked and user should be navigated to url =http://newtours.demoaut.com/mercurysignon.php</t>
   </si>
   <si>
-    <t>5. verify user is navigated to url="http://newtours.demoaut.com/mercurysignon.php".</t>
+    <t>4.on 'purchase' page enter addresss in 1st address box  "N-12 C-30/2" and in 2nd address box enter "Hudco",    enter in city text box "Aurangabad'    , enter in state text box "UNITED STATES"    ,enter in postal text box "431001"  , choose country as "UNITED STATES" from country dropdown list then click on "Sercure Purchase" button</t>
+  </si>
+  <si>
+    <t>4.on 'purchase' page under 'Billing address' section enter addresss in 1st address box  "N-12 C-30/2" and in 2nd address box enter "Hudco",    enter in city text box "Aurangabad'    , enter in state text box "UNITED STATES"    ,enter in postal text box "431001"  , choose country as "UNITED STATES" from country dripdown list then click on "Sercure Purchase" button</t>
+  </si>
+  <si>
+    <t>unable to find element on page</t>
   </si>
 </sst>
 </file>
@@ -1983,7 +1986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2252,15 +2255,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -5780,11 +5774,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I465"/>
+  <dimension ref="A1:J465"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C375" sqref="C375"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B370" sqref="B370:B375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5833,7 +5827,7 @@
       <c r="A2" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="95" t="s">
         <v>94</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -5850,7 +5844,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="93"/>
-      <c r="B3" s="99"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="31" t="s">
         <v>59</v>
       </c>
@@ -5863,7 +5857,7 @@
     </row>
     <row r="4" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A4" s="94"/>
-      <c r="B4" s="100"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="31" t="s">
         <v>85</v>
       </c>
@@ -5878,7 +5872,7 @@
       <c r="A5" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="95" t="s">
         <v>95</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -5895,7 +5889,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="93"/>
-      <c r="B6" s="99"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="31" t="s">
         <v>90</v>
       </c>
@@ -5908,7 +5902,7 @@
     </row>
     <row r="7" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="94"/>
-      <c r="B7" s="100"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="31" t="s">
         <v>91</v>
       </c>
@@ -5923,7 +5917,7 @@
       <c r="A8" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="95" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -5940,7 +5934,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="93"/>
-      <c r="B9" s="99"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="31" t="s">
         <v>186</v>
       </c>
@@ -5953,7 +5947,7 @@
     </row>
     <row r="10" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="94"/>
-      <c r="B10" s="100"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="31" t="s">
         <v>96</v>
       </c>
@@ -5968,7 +5962,7 @@
       <c r="A11" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="95" t="s">
         <v>98</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -5985,7 +5979,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="93"/>
-      <c r="B12" s="99"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="31" t="s">
         <v>99</v>
       </c>
@@ -5998,7 +5992,7 @@
     </row>
     <row r="13" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="94"/>
-      <c r="B13" s="100"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="31" t="s">
         <v>96</v>
       </c>
@@ -6013,7 +6007,7 @@
       <c r="A14" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="95" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="31" t="s">
@@ -6030,7 +6024,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="93"/>
-      <c r="B15" s="99"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="31" t="s">
         <v>101</v>
       </c>
@@ -6043,7 +6037,7 @@
     </row>
     <row r="16" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="94"/>
-      <c r="B16" s="100"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="31" t="s">
         <v>102</v>
       </c>
@@ -6058,7 +6052,7 @@
       <c r="A17" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="98" t="s">
+      <c r="B17" s="95" t="s">
         <v>104</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -6075,7 +6069,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="93"/>
-      <c r="B18" s="99"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="31" t="s">
         <v>105</v>
       </c>
@@ -6088,7 +6082,7 @@
     </row>
     <row r="19" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="94"/>
-      <c r="B19" s="100"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="31" t="s">
         <v>96</v>
       </c>
@@ -6103,7 +6097,7 @@
       <c r="A20" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="95" t="s">
         <v>110</v>
       </c>
       <c r="C20" s="31" t="s">
@@ -6120,7 +6114,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="93"/>
-      <c r="B21" s="99"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="31" t="s">
         <v>111</v>
       </c>
@@ -6133,7 +6127,7 @@
     </row>
     <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="94"/>
-      <c r="B22" s="100"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="31" t="s">
         <v>96</v>
       </c>
@@ -6148,7 +6142,7 @@
       <c r="A23" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="95" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="31" t="s">
@@ -6165,7 +6159,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="93"/>
-      <c r="B24" s="99"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="31" t="s">
         <v>113</v>
       </c>
@@ -6178,7 +6172,7 @@
     </row>
     <row r="25" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="94"/>
-      <c r="B25" s="100"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="31" t="s">
         <v>114</v>
       </c>
@@ -6193,7 +6187,7 @@
       <c r="A26" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="95" t="s">
         <v>116</v>
       </c>
       <c r="C26" s="31" t="s">
@@ -6210,7 +6204,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="93"/>
-      <c r="B27" s="99"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="31" t="s">
         <v>117</v>
       </c>
@@ -6223,7 +6217,7 @@
     </row>
     <row r="28" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="94"/>
-      <c r="B28" s="100"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="31" t="s">
         <v>118</v>
       </c>
@@ -6238,7 +6232,7 @@
       <c r="A29" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="95" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="31" t="s">
@@ -6255,7 +6249,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="93"/>
-      <c r="B30" s="99"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="31" t="s">
         <v>121</v>
       </c>
@@ -6268,7 +6262,7 @@
     </row>
     <row r="31" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="94"/>
-      <c r="B31" s="100"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="31" t="s">
         <v>96</v>
       </c>
@@ -6283,7 +6277,7 @@
       <c r="A32" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="95" t="s">
         <v>125</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -6300,7 +6294,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="93"/>
-      <c r="B33" s="99"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="31" t="s">
         <v>126</v>
       </c>
@@ -6313,7 +6307,7 @@
     </row>
     <row r="34" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="94"/>
-      <c r="B34" s="100"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="31" t="s">
         <v>96</v>
       </c>
@@ -6328,7 +6322,7 @@
       <c r="A35" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="95" t="s">
         <v>138</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -6345,7 +6339,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="93"/>
-      <c r="B36" s="99"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="31" t="s">
         <v>127</v>
       </c>
@@ -6358,7 +6352,7 @@
     </row>
     <row r="37" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A37" s="94"/>
-      <c r="B37" s="100"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="31" t="s">
         <v>96</v>
       </c>
@@ -6373,7 +6367,7 @@
       <c r="A38" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="95" t="s">
         <v>139</v>
       </c>
       <c r="C38" s="31" t="s">
@@ -6390,7 +6384,7 @@
     </row>
     <row r="39" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="93"/>
-      <c r="B39" s="99"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="31" t="s">
         <v>140</v>
       </c>
@@ -6403,7 +6397,7 @@
     </row>
     <row r="40" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="94"/>
-      <c r="B40" s="100"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="31" t="s">
         <v>96</v>
       </c>
@@ -6418,7 +6412,7 @@
       <c r="A41" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="95" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="31" t="s">
@@ -6435,7 +6429,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="93"/>
-      <c r="B42" s="99"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="31" t="s">
         <v>142</v>
       </c>
@@ -6448,7 +6442,7 @@
     </row>
     <row r="43" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="94"/>
-      <c r="B43" s="100"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="31" t="s">
         <v>118</v>
       </c>
@@ -6463,7 +6457,7 @@
       <c r="A44" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="95" t="s">
         <v>144</v>
       </c>
       <c r="C44" s="31" t="s">
@@ -6480,7 +6474,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="93"/>
-      <c r="B45" s="99"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="31" t="s">
         <v>145</v>
       </c>
@@ -6493,7 +6487,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="94"/>
-      <c r="B46" s="100"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="31"/>
       <c r="D46" s="31"/>
       <c r="E46" s="30"/>
@@ -6506,7 +6500,7 @@
       <c r="A47" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="98" t="s">
+      <c r="B47" s="95" t="s">
         <v>147</v>
       </c>
       <c r="C47" s="31" t="s">
@@ -6523,7 +6517,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="93"/>
-      <c r="B48" s="99"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="31" t="s">
         <v>127</v>
       </c>
@@ -6536,7 +6530,7 @@
     </row>
     <row r="49" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="94"/>
-      <c r="B49" s="100"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="31" t="s">
         <v>96</v>
       </c>
@@ -6551,7 +6545,7 @@
       <c r="A50" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="95" t="s">
         <v>149</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -6568,7 +6562,7 @@
     </row>
     <row r="51" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="93"/>
-      <c r="B51" s="99"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="31" t="s">
         <v>140</v>
       </c>
@@ -6581,7 +6575,7 @@
     </row>
     <row r="52" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A52" s="94"/>
-      <c r="B52" s="100"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="31" t="s">
         <v>96</v>
       </c>
@@ -6596,7 +6590,7 @@
       <c r="A53" s="92" t="s">
         <v>132</v>
       </c>
-      <c r="B53" s="98" t="s">
+      <c r="B53" s="95" t="s">
         <v>150</v>
       </c>
       <c r="C53" s="31" t="s">
@@ -6613,7 +6607,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="93"/>
-      <c r="B54" s="99"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="31" t="s">
         <v>142</v>
       </c>
@@ -6626,7 +6620,7 @@
     </row>
     <row r="55" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A55" s="94"/>
-      <c r="B55" s="100"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="31" t="s">
         <v>118</v>
       </c>
@@ -6641,7 +6635,7 @@
       <c r="A56" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="95" t="s">
         <v>156</v>
       </c>
       <c r="C56" s="31" t="s">
@@ -6658,7 +6652,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="93"/>
-      <c r="B57" s="99"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="31" t="s">
         <v>145</v>
       </c>
@@ -6671,7 +6665,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="94"/>
-      <c r="B58" s="100"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="31"/>
       <c r="D58" s="31"/>
       <c r="E58" s="30"/>
@@ -6684,7 +6678,7 @@
       <c r="A59" s="92" t="s">
         <v>134</v>
       </c>
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="99" t="s">
         <v>151</v>
       </c>
       <c r="C59" s="31" t="s">
@@ -6701,7 +6695,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="93"/>
-      <c r="B60" s="103"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="31" t="s">
         <v>127</v>
       </c>
@@ -6714,7 +6708,7 @@
     </row>
     <row r="61" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A61" s="94"/>
-      <c r="B61" s="104"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="31" t="s">
         <v>96</v>
       </c>
@@ -6729,7 +6723,7 @@
       <c r="A62" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="98" t="s">
+      <c r="B62" s="95" t="s">
         <v>153</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -6746,7 +6740,7 @@
     </row>
     <row r="63" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="93"/>
-      <c r="B63" s="99"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="31" t="s">
         <v>140</v>
       </c>
@@ -6759,7 +6753,7 @@
     </row>
     <row r="64" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A64" s="94"/>
-      <c r="B64" s="100"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="31" t="s">
         <v>96</v>
       </c>
@@ -6774,7 +6768,7 @@
       <c r="A65" s="92" t="s">
         <v>136</v>
       </c>
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="95" t="s">
         <v>154</v>
       </c>
       <c r="C65" s="31" t="s">
@@ -6791,7 +6785,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="93"/>
-      <c r="B66" s="99"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="31" t="s">
         <v>142</v>
       </c>
@@ -6804,7 +6798,7 @@
     </row>
     <row r="67" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="94"/>
-      <c r="B67" s="100"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="31" t="s">
         <v>118</v>
       </c>
@@ -6819,7 +6813,7 @@
       <c r="A68" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="95" t="s">
         <v>155</v>
       </c>
       <c r="C68" s="31" t="s">
@@ -6836,7 +6830,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="93"/>
-      <c r="B69" s="99"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="31" t="s">
         <v>145</v>
       </c>
@@ -6849,7 +6843,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="94"/>
-      <c r="B70" s="100"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="31"/>
       <c r="D70" s="31"/>
       <c r="E70" s="30"/>
@@ -6862,7 +6856,7 @@
       <c r="A71" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="98" t="s">
+      <c r="B71" s="95" t="s">
         <v>162</v>
       </c>
       <c r="C71" s="31" t="s">
@@ -6879,7 +6873,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="93"/>
-      <c r="B72" s="99"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="31" t="s">
         <v>164</v>
       </c>
@@ -6892,7 +6886,7 @@
     </row>
     <row r="73" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A73" s="94"/>
-      <c r="B73" s="100"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="31" t="s">
         <v>187</v>
       </c>
@@ -6907,7 +6901,7 @@
       <c r="A74" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="B74" s="98" t="s">
+      <c r="B74" s="95" t="s">
         <v>166</v>
       </c>
       <c r="C74" s="31" t="s">
@@ -6924,7 +6918,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="93"/>
-      <c r="B75" s="99"/>
+      <c r="B75" s="96"/>
       <c r="C75" s="31" t="s">
         <v>168</v>
       </c>
@@ -6937,7 +6931,7 @@
     </row>
     <row r="76" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="94"/>
-      <c r="B76" s="100"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="31" t="s">
         <v>169</v>
       </c>
@@ -6952,7 +6946,7 @@
       <c r="A77" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="98" t="s">
+      <c r="B77" s="95" t="s">
         <v>188</v>
       </c>
       <c r="C77" s="31" t="s">
@@ -6969,7 +6963,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="93"/>
-      <c r="B78" s="99"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="31" t="s">
         <v>190</v>
       </c>
@@ -6982,7 +6976,7 @@
     </row>
     <row r="79" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="93"/>
-      <c r="B79" s="99"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="31" t="s">
         <v>191</v>
       </c>
@@ -6995,7 +6989,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="93"/>
-      <c r="B80" s="99"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="38" t="s">
         <v>192</v>
       </c>
@@ -7008,7 +7002,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="94"/>
-      <c r="B81" s="100"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="31" t="s">
         <v>193</v>
       </c>
@@ -7023,7 +7017,7 @@
       <c r="A82" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="98" t="s">
+      <c r="B82" s="95" t="s">
         <v>201</v>
       </c>
       <c r="C82" s="31" t="s">
@@ -7040,7 +7034,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="93"/>
-      <c r="B83" s="99"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="31" t="s">
         <v>194</v>
       </c>
@@ -7053,7 +7047,7 @@
     </row>
     <row r="84" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="93"/>
-      <c r="B84" s="99"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="31" t="s">
         <v>195</v>
       </c>
@@ -7066,7 +7060,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="93"/>
-      <c r="B85" s="99"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="31" t="s">
         <v>196</v>
       </c>
@@ -7079,7 +7073,7 @@
     </row>
     <row r="86" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="93"/>
-      <c r="B86" s="99"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="31" t="s">
         <v>197</v>
       </c>
@@ -7092,7 +7086,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="93"/>
-      <c r="B87" s="99"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="31" t="s">
         <v>198</v>
       </c>
@@ -7105,7 +7099,7 @@
     </row>
     <row r="88" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="94"/>
-      <c r="B88" s="100"/>
+      <c r="B88" s="97"/>
       <c r="C88" s="31" t="s">
         <v>199</v>
       </c>
@@ -7120,7 +7114,7 @@
       <c r="A89" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="B89" s="98" t="s">
+      <c r="B89" s="95" t="s">
         <v>203</v>
       </c>
       <c r="C89" s="31" t="s">
@@ -7137,7 +7131,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="93"/>
-      <c r="B90" s="99"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="31" t="s">
         <v>202</v>
       </c>
@@ -7150,7 +7144,7 @@
     </row>
     <row r="91" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="93"/>
-      <c r="B91" s="100"/>
+      <c r="B91" s="97"/>
       <c r="C91" s="31" t="s">
         <v>227</v>
       </c>
@@ -7165,7 +7159,7 @@
       <c r="A92" s="92" t="s">
         <v>205</v>
       </c>
-      <c r="B92" s="98" t="s">
+      <c r="B92" s="95" t="s">
         <v>208</v>
       </c>
       <c r="C92" s="31" t="s">
@@ -7182,7 +7176,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="93"/>
-      <c r="B93" s="99"/>
+      <c r="B93" s="96"/>
       <c r="C93" s="31" t="s">
         <v>209</v>
       </c>
@@ -7195,7 +7189,7 @@
     </row>
     <row r="94" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="93"/>
-      <c r="B94" s="100"/>
+      <c r="B94" s="97"/>
       <c r="C94" s="31" t="s">
         <v>204</v>
       </c>
@@ -7210,7 +7204,7 @@
       <c r="A95" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B95" s="98" t="s">
+      <c r="B95" s="95" t="s">
         <v>210</v>
       </c>
       <c r="C95" s="31" t="s">
@@ -7227,7 +7221,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="93"/>
-      <c r="B96" s="99"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="31" t="s">
         <v>213</v>
       </c>
@@ -7240,7 +7234,7 @@
     </row>
     <row r="97" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="93"/>
-      <c r="B97" s="100"/>
+      <c r="B97" s="97"/>
       <c r="C97" s="31" t="s">
         <v>204</v>
       </c>
@@ -7255,7 +7249,7 @@
       <c r="A98" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="B98" s="98" t="s">
+      <c r="B98" s="95" t="s">
         <v>211</v>
       </c>
       <c r="C98" s="31" t="s">
@@ -7272,7 +7266,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="93"/>
-      <c r="B99" s="99"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="31" t="s">
         <v>212</v>
       </c>
@@ -7285,7 +7279,7 @@
     </row>
     <row r="100" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A100" s="93"/>
-      <c r="B100" s="100"/>
+      <c r="B100" s="97"/>
       <c r="C100" s="31" t="s">
         <v>204</v>
       </c>
@@ -7300,7 +7294,7 @@
       <c r="A101" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="B101" s="98" t="s">
+      <c r="B101" s="95" t="s">
         <v>218</v>
       </c>
       <c r="C101" s="31" t="s">
@@ -7317,7 +7311,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="93"/>
-      <c r="B102" s="99"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="31" t="s">
         <v>219</v>
       </c>
@@ -7330,7 +7324,7 @@
     </row>
     <row r="103" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="93"/>
-      <c r="B103" s="100"/>
+      <c r="B103" s="97"/>
       <c r="C103" s="31" t="s">
         <v>204</v>
       </c>
@@ -7345,7 +7339,7 @@
       <c r="A104" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="98" t="s">
+      <c r="B104" s="95" t="s">
         <v>220</v>
       </c>
       <c r="C104" s="31" t="s">
@@ -7362,7 +7356,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="93"/>
-      <c r="B105" s="99"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="31" t="s">
         <v>221</v>
       </c>
@@ -7375,7 +7369,7 @@
     </row>
     <row r="106" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A106" s="93"/>
-      <c r="B106" s="100"/>
+      <c r="B106" s="97"/>
       <c r="C106" s="31" t="s">
         <v>204</v>
       </c>
@@ -7390,7 +7384,7 @@
       <c r="A107" s="92" t="s">
         <v>216</v>
       </c>
-      <c r="B107" s="98" t="s">
+      <c r="B107" s="95" t="s">
         <v>222</v>
       </c>
       <c r="C107" s="31" t="s">
@@ -7407,7 +7401,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="93"/>
-      <c r="B108" s="99"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="31" t="s">
         <v>223</v>
       </c>
@@ -7420,7 +7414,7 @@
     </row>
     <row r="109" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A109" s="93"/>
-      <c r="B109" s="100"/>
+      <c r="B109" s="97"/>
       <c r="C109" s="31" t="s">
         <v>204</v>
       </c>
@@ -7435,7 +7429,7 @@
       <c r="A110" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="B110" s="98" t="s">
+      <c r="B110" s="95" t="s">
         <v>225</v>
       </c>
       <c r="C110" s="31" t="s">
@@ -7452,7 +7446,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="93"/>
-      <c r="B111" s="99"/>
+      <c r="B111" s="96"/>
       <c r="C111" s="31" t="s">
         <v>226</v>
       </c>
@@ -7465,7 +7459,7 @@
     </row>
     <row r="112" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A112" s="93"/>
-      <c r="B112" s="100"/>
+      <c r="B112" s="97"/>
       <c r="C112" s="31" t="s">
         <v>204</v>
       </c>
@@ -7476,11 +7470,11 @@
       <c r="H112" s="30"/>
       <c r="I112" s="30"/>
     </row>
-    <row r="113" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A113" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="98" t="s">
+      <c r="B113" s="95" t="s">
         <v>228</v>
       </c>
       <c r="C113" s="31" t="s">
@@ -7495,9 +7489,9 @@
       <c r="H113" s="30"/>
       <c r="I113" s="30"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="93"/>
-      <c r="B114" s="99"/>
+      <c r="B114" s="96"/>
       <c r="C114" s="31" t="s">
         <v>229</v>
       </c>
@@ -7508,9 +7502,9 @@
       <c r="H114" s="30"/>
       <c r="I114" s="30"/>
     </row>
-    <row r="115" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A115" s="93"/>
-      <c r="B115" s="100"/>
+      <c r="B115" s="97"/>
       <c r="C115" s="31" t="s">
         <v>230</v>
       </c>
@@ -7521,11 +7515,11 @@
       <c r="H115" s="30"/>
       <c r="I115" s="30"/>
     </row>
-    <row r="116" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B116" s="98" t="s">
+      <c r="B116" s="95" t="s">
         <v>233</v>
       </c>
       <c r="C116" s="31" t="s">
@@ -7540,9 +7534,9 @@
       <c r="H116" s="30"/>
       <c r="I116" s="30"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="93"/>
-      <c r="B117" s="99"/>
+      <c r="B117" s="96"/>
       <c r="C117" s="31" t="s">
         <v>234</v>
       </c>
@@ -7553,9 +7547,9 @@
       <c r="H117" s="30"/>
       <c r="I117" s="30"/>
     </row>
-    <row r="118" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A118" s="93"/>
-      <c r="B118" s="100"/>
+      <c r="B118" s="97"/>
       <c r="C118" s="31" t="s">
         <v>235</v>
       </c>
@@ -7566,11 +7560,11 @@
       <c r="H118" s="30"/>
       <c r="I118" s="30"/>
     </row>
-    <row r="119" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A119" s="92" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="98" t="s">
+      <c r="B119" s="95" t="s">
         <v>237</v>
       </c>
       <c r="C119" s="31" t="s">
@@ -7585,9 +7579,9 @@
       <c r="H119" s="30"/>
       <c r="I119" s="30"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="93"/>
-      <c r="B120" s="99"/>
+      <c r="B120" s="96"/>
       <c r="C120" s="31" t="s">
         <v>238</v>
       </c>
@@ -7598,9 +7592,9 @@
       <c r="H120" s="30"/>
       <c r="I120" s="30"/>
     </row>
-    <row r="121" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A121" s="93"/>
-      <c r="B121" s="100"/>
+      <c r="B121" s="97"/>
       <c r="C121" s="31" t="s">
         <v>239</v>
       </c>
@@ -7611,11 +7605,11 @@
       <c r="H121" s="30"/>
       <c r="I121" s="30"/>
     </row>
-    <row r="122" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A122" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="105" t="s">
+      <c r="B122" s="102" t="s">
         <v>241</v>
       </c>
       <c r="C122" s="31" t="s">
@@ -7629,10 +7623,13 @@
       </c>
       <c r="H122" s="30"/>
       <c r="I122" s="30"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J122" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="93"/>
-      <c r="B123" s="106"/>
+      <c r="B123" s="103"/>
       <c r="C123" s="31" t="s">
         <v>242</v>
       </c>
@@ -7643,9 +7640,9 @@
       <c r="H123" s="30"/>
       <c r="I123" s="30"/>
     </row>
-    <row r="124" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="93"/>
-      <c r="B124" s="106"/>
+      <c r="B124" s="103"/>
       <c r="C124" s="31" t="s">
         <v>394</v>
       </c>
@@ -7656,9 +7653,9 @@
       <c r="H124" s="30"/>
       <c r="I124" s="30"/>
     </row>
-    <row r="125" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A125" s="94"/>
-      <c r="B125" s="107"/>
+      <c r="B125" s="104"/>
       <c r="C125" s="31" t="s">
         <v>243</v>
       </c>
@@ -7669,11 +7666,11 @@
       <c r="H125" s="30"/>
       <c r="I125" s="30"/>
     </row>
-    <row r="126" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A126" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="B126" s="98" t="s">
+      <c r="B126" s="95" t="s">
         <v>246</v>
       </c>
       <c r="C126" s="31" t="s">
@@ -7688,9 +7685,9 @@
       <c r="H126" s="30"/>
       <c r="I126" s="30"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="93"/>
-      <c r="B127" s="99"/>
+      <c r="B127" s="96"/>
       <c r="C127" s="31" t="s">
         <v>247</v>
       </c>
@@ -7701,9 +7698,9 @@
       <c r="H127" s="30"/>
       <c r="I127" s="30"/>
     </row>
-    <row r="128" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="93"/>
-      <c r="B128" s="99"/>
+      <c r="B128" s="96"/>
       <c r="C128" s="31" t="s">
         <v>248</v>
       </c>
@@ -7716,7 +7713,7 @@
     </row>
     <row r="129" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A129" s="93"/>
-      <c r="B129" s="99"/>
+      <c r="B129" s="96"/>
       <c r="C129" s="31" t="s">
         <v>249</v>
       </c>
@@ -7729,7 +7726,7 @@
     </row>
     <row r="130" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="93"/>
-      <c r="B130" s="99"/>
+      <c r="B130" s="96"/>
       <c r="C130" s="31" t="s">
         <v>250</v>
       </c>
@@ -7742,7 +7739,7 @@
     </row>
     <row r="131" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A131" s="93"/>
-      <c r="B131" s="99"/>
+      <c r="B131" s="96"/>
       <c r="C131" s="31" t="s">
         <v>251</v>
       </c>
@@ -7755,7 +7752,7 @@
     </row>
     <row r="132" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A132" s="93"/>
-      <c r="B132" s="99"/>
+      <c r="B132" s="96"/>
       <c r="C132" s="31" t="s">
         <v>252</v>
       </c>
@@ -7768,7 +7765,7 @@
     </row>
     <row r="133" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A133" s="93"/>
-      <c r="B133" s="99"/>
+      <c r="B133" s="96"/>
       <c r="C133" s="31" t="s">
         <v>253</v>
       </c>
@@ -7781,7 +7778,7 @@
     </row>
     <row r="134" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="93"/>
-      <c r="B134" s="99"/>
+      <c r="B134" s="96"/>
       <c r="C134" s="31" t="s">
         <v>255</v>
       </c>
@@ -7794,7 +7791,7 @@
     </row>
     <row r="135" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="94"/>
-      <c r="B135" s="100"/>
+      <c r="B135" s="97"/>
       <c r="C135" s="31" t="s">
         <v>254</v>
       </c>
@@ -7809,7 +7806,7 @@
       <c r="A136" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="B136" s="98" t="s">
+      <c r="B136" s="95" t="s">
         <v>258</v>
       </c>
       <c r="C136" s="31" t="s">
@@ -7826,7 +7823,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="93"/>
-      <c r="B137" s="99"/>
+      <c r="B137" s="96"/>
       <c r="C137" s="31" t="s">
         <v>247</v>
       </c>
@@ -7839,7 +7836,7 @@
     </row>
     <row r="138" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A138" s="93"/>
-      <c r="B138" s="99"/>
+      <c r="B138" s="96"/>
       <c r="C138" s="31" t="s">
         <v>259</v>
       </c>
@@ -7852,7 +7849,7 @@
     </row>
     <row r="139" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A139" s="93"/>
-      <c r="B139" s="99"/>
+      <c r="B139" s="96"/>
       <c r="C139" s="31" t="s">
         <v>249</v>
       </c>
@@ -7865,7 +7862,7 @@
     </row>
     <row r="140" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A140" s="93"/>
-      <c r="B140" s="99"/>
+      <c r="B140" s="96"/>
       <c r="C140" s="31" t="s">
         <v>260</v>
       </c>
@@ -7878,7 +7875,7 @@
     </row>
     <row r="141" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="93"/>
-      <c r="B141" s="99"/>
+      <c r="B141" s="96"/>
       <c r="C141" s="31" t="s">
         <v>251</v>
       </c>
@@ -7891,7 +7888,7 @@
     </row>
     <row r="142" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="93"/>
-      <c r="B142" s="99"/>
+      <c r="B142" s="96"/>
       <c r="C142" s="31" t="s">
         <v>261</v>
       </c>
@@ -7904,7 +7901,7 @@
     </row>
     <row r="143" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A143" s="93"/>
-      <c r="B143" s="99"/>
+      <c r="B143" s="96"/>
       <c r="C143" s="31" t="s">
         <v>253</v>
       </c>
@@ -7917,7 +7914,7 @@
     </row>
     <row r="144" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A144" s="93"/>
-      <c r="B144" s="99"/>
+      <c r="B144" s="96"/>
       <c r="C144" s="31" t="s">
         <v>262</v>
       </c>
@@ -7930,7 +7927,7 @@
     </row>
     <row r="145" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A145" s="94"/>
-      <c r="B145" s="100"/>
+      <c r="B145" s="97"/>
       <c r="C145" s="31" t="s">
         <v>254</v>
       </c>
@@ -7945,7 +7942,7 @@
       <c r="A146" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="B146" s="98" t="s">
+      <c r="B146" s="95" t="s">
         <v>269</v>
       </c>
       <c r="C146" s="31" t="s">
@@ -7962,7 +7959,7 @@
     </row>
     <row r="147" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A147" s="93"/>
-      <c r="B147" s="99"/>
+      <c r="B147" s="96"/>
       <c r="C147" s="31" t="s">
         <v>264</v>
       </c>
@@ -7975,7 +7972,7 @@
     </row>
     <row r="148" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A148" s="93"/>
-      <c r="B148" s="99"/>
+      <c r="B148" s="96"/>
       <c r="C148" s="31" t="s">
         <v>265</v>
       </c>
@@ -7988,7 +7985,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="93"/>
-      <c r="B149" s="99"/>
+      <c r="B149" s="96"/>
       <c r="C149" s="31" t="s">
         <v>266</v>
       </c>
@@ -8001,7 +7998,7 @@
     </row>
     <row r="150" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A150" s="93"/>
-      <c r="B150" s="100"/>
+      <c r="B150" s="97"/>
       <c r="C150" s="22" t="s">
         <v>393</v>
       </c>
@@ -8016,7 +8013,7 @@
       <c r="A151" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="B151" s="98" t="s">
+      <c r="B151" s="95" t="s">
         <v>270</v>
       </c>
       <c r="C151" s="31" t="s">
@@ -8033,7 +8030,7 @@
     </row>
     <row r="152" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A152" s="93"/>
-      <c r="B152" s="99"/>
+      <c r="B152" s="96"/>
       <c r="C152" s="31" t="s">
         <v>264</v>
       </c>
@@ -8046,7 +8043,7 @@
     </row>
     <row r="153" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A153" s="93"/>
-      <c r="B153" s="99"/>
+      <c r="B153" s="96"/>
       <c r="C153" s="31" t="s">
         <v>265</v>
       </c>
@@ -8059,7 +8056,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="93"/>
-      <c r="B154" s="99"/>
+      <c r="B154" s="96"/>
       <c r="C154" s="31" t="s">
         <v>266</v>
       </c>
@@ -8072,7 +8069,7 @@
     </row>
     <row r="155" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A155" s="93"/>
-      <c r="B155" s="100"/>
+      <c r="B155" s="97"/>
       <c r="C155" s="22" t="s">
         <v>274</v>
       </c>
@@ -8087,7 +8084,7 @@
       <c r="A156" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="B156" s="98" t="s">
+      <c r="B156" s="95" t="s">
         <v>280</v>
       </c>
       <c r="C156" s="31" t="s">
@@ -8104,7 +8101,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="93"/>
-      <c r="B157" s="99"/>
+      <c r="B157" s="96"/>
       <c r="C157" s="31" t="s">
         <v>272</v>
       </c>
@@ -8117,7 +8114,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="93"/>
-      <c r="B158" s="99"/>
+      <c r="B158" s="96"/>
       <c r="C158" s="31" t="s">
         <v>273</v>
       </c>
@@ -8130,7 +8127,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="93"/>
-      <c r="B159" s="99"/>
+      <c r="B159" s="96"/>
       <c r="C159" s="31" t="s">
         <v>277</v>
       </c>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="160" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A160" s="93"/>
-      <c r="B160" s="100"/>
+      <c r="B160" s="97"/>
       <c r="C160" s="31" t="s">
         <v>278</v>
       </c>
@@ -8155,10 +8152,10 @@
       <c r="I160" s="30"/>
     </row>
     <row r="161" spans="1:9" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="101" t="s">
+      <c r="A161" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="B161" s="98" t="s">
+      <c r="B161" s="95" t="s">
         <v>279</v>
       </c>
       <c r="C161" s="31" t="s">
@@ -8174,8 +8171,8 @@
       <c r="I161" s="30"/>
     </row>
     <row r="162" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A162" s="101"/>
-      <c r="B162" s="99"/>
+      <c r="A162" s="98"/>
+      <c r="B162" s="96"/>
       <c r="C162" s="31" t="s">
         <v>282</v>
       </c>
@@ -8187,8 +8184,8 @@
       <c r="I162" s="30"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="101"/>
-      <c r="B163" s="99"/>
+      <c r="A163" s="98"/>
+      <c r="B163" s="96"/>
       <c r="C163" s="31" t="s">
         <v>281</v>
       </c>
@@ -8200,8 +8197,8 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="101"/>
-      <c r="B164" s="99"/>
+      <c r="A164" s="98"/>
+      <c r="B164" s="96"/>
       <c r="C164" s="31" t="s">
         <v>277</v>
       </c>
@@ -8213,8 +8210,8 @@
       <c r="I164" s="30"/>
     </row>
     <row r="165" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="101"/>
-      <c r="B165" s="100"/>
+      <c r="A165" s="98"/>
+      <c r="B165" s="97"/>
       <c r="C165" s="31" t="s">
         <v>283</v>
       </c>
@@ -8229,7 +8226,7 @@
       <c r="A166" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="B166" s="98" t="s">
+      <c r="B166" s="95" t="s">
         <v>288</v>
       </c>
       <c r="C166" s="31" t="s">
@@ -8246,7 +8243,7 @@
     </row>
     <row r="167" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A167" s="93"/>
-      <c r="B167" s="99"/>
+      <c r="B167" s="96"/>
       <c r="C167" s="31" t="s">
         <v>289</v>
       </c>
@@ -8259,7 +8256,7 @@
     </row>
     <row r="168" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A168" s="93"/>
-      <c r="B168" s="99"/>
+      <c r="B168" s="96"/>
       <c r="C168" s="31" t="s">
         <v>290</v>
       </c>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="169" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A169" s="94"/>
-      <c r="B169" s="100"/>
+      <c r="B169" s="97"/>
       <c r="C169" s="31" t="s">
         <v>291</v>
       </c>
@@ -8287,7 +8284,7 @@
       <c r="A170" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="B170" s="98" t="s">
+      <c r="B170" s="95" t="s">
         <v>285</v>
       </c>
       <c r="C170" s="31" t="s">
@@ -8304,7 +8301,7 @@
     </row>
     <row r="171" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A171" s="93"/>
-      <c r="B171" s="99"/>
+      <c r="B171" s="96"/>
       <c r="C171" s="31" t="s">
         <v>264</v>
       </c>
@@ -8317,7 +8314,7 @@
     </row>
     <row r="172" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A172" s="93"/>
-      <c r="B172" s="99"/>
+      <c r="B172" s="96"/>
       <c r="C172" s="31" t="s">
         <v>265</v>
       </c>
@@ -8330,7 +8327,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="93"/>
-      <c r="B173" s="99"/>
+      <c r="B173" s="96"/>
       <c r="C173" s="31" t="s">
         <v>266</v>
       </c>
@@ -8343,7 +8340,7 @@
     </row>
     <row r="174" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A174" s="93"/>
-      <c r="B174" s="99"/>
+      <c r="B174" s="96"/>
       <c r="C174" s="22" t="s">
         <v>286</v>
       </c>
@@ -8356,7 +8353,7 @@
     </row>
     <row r="175" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A175" s="94"/>
-      <c r="B175" s="100"/>
+      <c r="B175" s="97"/>
       <c r="C175" s="31" t="s">
         <v>287</v>
       </c>
@@ -8371,7 +8368,7 @@
       <c r="A176" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="B176" s="98" t="s">
+      <c r="B176" s="95" t="s">
         <v>285</v>
       </c>
       <c r="C176" s="31" t="s">
@@ -8388,7 +8385,7 @@
     </row>
     <row r="177" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A177" s="93"/>
-      <c r="B177" s="99"/>
+      <c r="B177" s="96"/>
       <c r="C177" s="31" t="s">
         <v>264</v>
       </c>
@@ -8401,7 +8398,7 @@
     </row>
     <row r="178" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="93"/>
-      <c r="B178" s="99"/>
+      <c r="B178" s="96"/>
       <c r="C178" s="31" t="s">
         <v>265</v>
       </c>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="93"/>
-      <c r="B179" s="99"/>
+      <c r="B179" s="96"/>
       <c r="C179" s="31" t="s">
         <v>266</v>
       </c>
@@ -8427,7 +8424,7 @@
     </row>
     <row r="180" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A180" s="93"/>
-      <c r="B180" s="99"/>
+      <c r="B180" s="96"/>
       <c r="C180" s="22" t="s">
         <v>286</v>
       </c>
@@ -8440,7 +8437,7 @@
     </row>
     <row r="181" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A181" s="94"/>
-      <c r="B181" s="100"/>
+      <c r="B181" s="97"/>
       <c r="C181" s="31" t="s">
         <v>296</v>
       </c>
@@ -8455,7 +8452,7 @@
       <c r="A182" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="B182" s="98" t="s">
+      <c r="B182" s="95" t="s">
         <v>299</v>
       </c>
       <c r="C182" s="31" t="s">
@@ -8472,7 +8469,7 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="93"/>
-      <c r="B183" s="99"/>
+      <c r="B183" s="96"/>
       <c r="C183" s="31" t="s">
         <v>272</v>
       </c>
@@ -8485,7 +8482,7 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="93"/>
-      <c r="B184" s="99"/>
+      <c r="B184" s="96"/>
       <c r="C184" s="31" t="s">
         <v>273</v>
       </c>
@@ -8498,7 +8495,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="93"/>
-      <c r="B185" s="99"/>
+      <c r="B185" s="96"/>
       <c r="C185" s="31" t="s">
         <v>277</v>
       </c>
@@ -8511,7 +8508,7 @@
     </row>
     <row r="186" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A186" s="93"/>
-      <c r="B186" s="99"/>
+      <c r="B186" s="96"/>
       <c r="C186" s="31" t="s">
         <v>304</v>
       </c>
@@ -8524,7 +8521,7 @@
     </row>
     <row r="187" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A187" s="94"/>
-      <c r="B187" s="100"/>
+      <c r="B187" s="97"/>
       <c r="C187" s="31" t="s">
         <v>301</v>
       </c>
@@ -8539,7 +8536,7 @@
       <c r="A188" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="B188" s="98" t="s">
+      <c r="B188" s="95" t="s">
         <v>303</v>
       </c>
       <c r="C188" s="31" t="s">
@@ -8556,7 +8553,7 @@
     </row>
     <row r="189" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A189" s="93"/>
-      <c r="B189" s="99"/>
+      <c r="B189" s="96"/>
       <c r="C189" s="31" t="s">
         <v>282</v>
       </c>
@@ -8569,7 +8566,7 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="93"/>
-      <c r="B190" s="99"/>
+      <c r="B190" s="96"/>
       <c r="C190" s="31" t="s">
         <v>281</v>
       </c>
@@ -8582,7 +8579,7 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="93"/>
-      <c r="B191" s="99"/>
+      <c r="B191" s="96"/>
       <c r="C191" s="31" t="s">
         <v>277</v>
       </c>
@@ -8595,7 +8592,7 @@
     </row>
     <row r="192" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A192" s="93"/>
-      <c r="B192" s="99"/>
+      <c r="B192" s="96"/>
       <c r="C192" s="31" t="s">
         <v>304</v>
       </c>
@@ -8608,7 +8605,7 @@
     </row>
     <row r="193" spans="1:9" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A193" s="94"/>
-      <c r="B193" s="100"/>
+      <c r="B193" s="97"/>
       <c r="C193" s="31" t="s">
         <v>305</v>
       </c>
@@ -8623,7 +8620,7 @@
       <c r="A194" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="B194" s="98" t="s">
+      <c r="B194" s="95" t="s">
         <v>308</v>
       </c>
       <c r="C194" s="31" t="s">
@@ -8640,7 +8637,7 @@
     </row>
     <row r="195" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="93"/>
-      <c r="B195" s="99"/>
+      <c r="B195" s="96"/>
       <c r="C195" s="31" t="s">
         <v>307</v>
       </c>
@@ -8653,7 +8650,7 @@
     </row>
     <row r="196" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="93"/>
-      <c r="B196" s="99"/>
+      <c r="B196" s="96"/>
       <c r="C196" s="31" t="s">
         <v>309</v>
       </c>
@@ -8666,7 +8663,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="93"/>
-      <c r="B197" s="99"/>
+      <c r="B197" s="96"/>
       <c r="C197" s="31" t="s">
         <v>310</v>
       </c>
@@ -8679,7 +8676,7 @@
     </row>
     <row r="198" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A198" s="93"/>
-      <c r="B198" s="100"/>
+      <c r="B198" s="97"/>
       <c r="C198" s="31" t="s">
         <v>315</v>
       </c>
@@ -8694,7 +8691,7 @@
       <c r="A199" s="92" t="s">
         <v>312</v>
       </c>
-      <c r="B199" s="98" t="s">
+      <c r="B199" s="95" t="s">
         <v>313</v>
       </c>
       <c r="C199" s="31" t="s">
@@ -8711,7 +8708,7 @@
     </row>
     <row r="200" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A200" s="93"/>
-      <c r="B200" s="99"/>
+      <c r="B200" s="96"/>
       <c r="C200" s="31" t="s">
         <v>307</v>
       </c>
@@ -8724,7 +8721,7 @@
     </row>
     <row r="201" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A201" s="93"/>
-      <c r="B201" s="99"/>
+      <c r="B201" s="96"/>
       <c r="C201" s="31" t="s">
         <v>316</v>
       </c>
@@ -8737,7 +8734,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="93"/>
-      <c r="B202" s="99"/>
+      <c r="B202" s="96"/>
       <c r="C202" s="31" t="s">
         <v>310</v>
       </c>
@@ -8750,7 +8747,7 @@
     </row>
     <row r="203" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A203" s="93"/>
-      <c r="B203" s="100"/>
+      <c r="B203" s="97"/>
       <c r="C203" s="31" t="s">
         <v>314</v>
       </c>
@@ -8765,7 +8762,7 @@
       <c r="A204" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="B204" s="98" t="s">
+      <c r="B204" s="95" t="s">
         <v>322</v>
       </c>
       <c r="C204" s="31" t="s">
@@ -8782,7 +8779,7 @@
     </row>
     <row r="205" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A205" s="93"/>
-      <c r="B205" s="99"/>
+      <c r="B205" s="96"/>
       <c r="C205" s="31" t="s">
         <v>307</v>
       </c>
@@ -8795,7 +8792,7 @@
     </row>
     <row r="206" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A206" s="93"/>
-      <c r="B206" s="99"/>
+      <c r="B206" s="96"/>
       <c r="C206" s="31" t="s">
         <v>309</v>
       </c>
@@ -8808,7 +8805,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="93"/>
-      <c r="B207" s="99"/>
+      <c r="B207" s="96"/>
       <c r="C207" s="31" t="s">
         <v>310</v>
       </c>
@@ -8821,7 +8818,7 @@
     </row>
     <row r="208" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A208" s="93"/>
-      <c r="B208" s="100"/>
+      <c r="B208" s="97"/>
       <c r="C208" s="31" t="s">
         <v>318</v>
       </c>
@@ -8836,7 +8833,7 @@
       <c r="A209" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="B209" s="98" t="s">
+      <c r="B209" s="95" t="s">
         <v>321</v>
       </c>
       <c r="C209" s="31" t="s">
@@ -8853,7 +8850,7 @@
     </row>
     <row r="210" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A210" s="93"/>
-      <c r="B210" s="99"/>
+      <c r="B210" s="96"/>
       <c r="C210" s="31" t="s">
         <v>307</v>
       </c>
@@ -8866,7 +8863,7 @@
     </row>
     <row r="211" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A211" s="93"/>
-      <c r="B211" s="99"/>
+      <c r="B211" s="96"/>
       <c r="C211" s="31" t="s">
         <v>316</v>
       </c>
@@ -8879,7 +8876,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="93"/>
-      <c r="B212" s="99"/>
+      <c r="B212" s="96"/>
       <c r="C212" s="31" t="s">
         <v>310</v>
       </c>
@@ -8892,7 +8889,7 @@
     </row>
     <row r="213" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A213" s="93"/>
-      <c r="B213" s="100"/>
+      <c r="B213" s="97"/>
       <c r="C213" s="31" t="s">
         <v>323</v>
       </c>
@@ -8907,7 +8904,7 @@
       <c r="A214" s="92" t="s">
         <v>324</v>
       </c>
-      <c r="B214" s="98" t="s">
+      <c r="B214" s="95" t="s">
         <v>341</v>
       </c>
       <c r="C214" s="31" t="s">
@@ -8924,7 +8921,7 @@
     </row>
     <row r="215" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A215" s="93"/>
-      <c r="B215" s="99"/>
+      <c r="B215" s="96"/>
       <c r="C215" s="31" t="s">
         <v>325</v>
       </c>
@@ -8937,7 +8934,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="93"/>
-      <c r="B216" s="99"/>
+      <c r="B216" s="96"/>
       <c r="C216" s="31" t="s">
         <v>326</v>
       </c>
@@ -8950,7 +8947,7 @@
     </row>
     <row r="217" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A217" s="93"/>
-      <c r="B217" s="99"/>
+      <c r="B217" s="96"/>
       <c r="C217" s="31" t="s">
         <v>327</v>
       </c>
@@ -8963,7 +8960,7 @@
     </row>
     <row r="218" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A218" s="93"/>
-      <c r="B218" s="100"/>
+      <c r="B218" s="97"/>
       <c r="C218" s="31" t="s">
         <v>328</v>
       </c>
@@ -8978,7 +8975,7 @@
       <c r="A219" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="B219" s="98" t="s">
+      <c r="B219" s="95" t="s">
         <v>340</v>
       </c>
       <c r="C219" s="31" t="s">
@@ -8995,7 +8992,7 @@
     </row>
     <row r="220" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A220" s="93"/>
-      <c r="B220" s="99"/>
+      <c r="B220" s="96"/>
       <c r="C220" s="31" t="s">
         <v>332</v>
       </c>
@@ -9008,7 +9005,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="93"/>
-      <c r="B221" s="99"/>
+      <c r="B221" s="96"/>
       <c r="C221" s="31" t="s">
         <v>326</v>
       </c>
@@ -9021,7 +9018,7 @@
     </row>
     <row r="222" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A222" s="93"/>
-      <c r="B222" s="99"/>
+      <c r="B222" s="96"/>
       <c r="C222" s="31" t="s">
         <v>327</v>
       </c>
@@ -9034,7 +9031,7 @@
     </row>
     <row r="223" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A223" s="93"/>
-      <c r="B223" s="100"/>
+      <c r="B223" s="97"/>
       <c r="C223" s="31" t="s">
         <v>333</v>
       </c>
@@ -9049,7 +9046,7 @@
       <c r="A224" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="B224" s="98" t="s">
+      <c r="B224" s="95" t="s">
         <v>339</v>
       </c>
       <c r="C224" s="31" t="s">
@@ -9066,7 +9063,7 @@
     </row>
     <row r="225" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A225" s="93"/>
-      <c r="B225" s="99"/>
+      <c r="B225" s="96"/>
       <c r="C225" s="31" t="s">
         <v>335</v>
       </c>
@@ -9079,7 +9076,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="93"/>
-      <c r="B226" s="99"/>
+      <c r="B226" s="96"/>
       <c r="C226" s="31" t="s">
         <v>326</v>
       </c>
@@ -9092,7 +9089,7 @@
     </row>
     <row r="227" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A227" s="93"/>
-      <c r="B227" s="99"/>
+      <c r="B227" s="96"/>
       <c r="C227" s="31" t="s">
         <v>327</v>
       </c>
@@ -9105,7 +9102,7 @@
     </row>
     <row r="228" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A228" s="93"/>
-      <c r="B228" s="100"/>
+      <c r="B228" s="97"/>
       <c r="C228" s="31" t="s">
         <v>336</v>
       </c>
@@ -9120,7 +9117,7 @@
       <c r="A229" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="B229" s="98" t="s">
+      <c r="B229" s="95" t="s">
         <v>342</v>
       </c>
       <c r="C229" s="31" t="s">
@@ -9137,7 +9134,7 @@
     </row>
     <row r="230" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A230" s="93"/>
-      <c r="B230" s="99"/>
+      <c r="B230" s="96"/>
       <c r="C230" s="31" t="s">
         <v>343</v>
       </c>
@@ -9150,7 +9147,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="93"/>
-      <c r="B231" s="99"/>
+      <c r="B231" s="96"/>
       <c r="C231" s="31" t="s">
         <v>344</v>
       </c>
@@ -9163,7 +9160,7 @@
     </row>
     <row r="232" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="93"/>
-      <c r="B232" s="99"/>
+      <c r="B232" s="96"/>
       <c r="C232" s="31" t="s">
         <v>345</v>
       </c>
@@ -9176,7 +9173,7 @@
     </row>
     <row r="233" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A233" s="93"/>
-      <c r="B233" s="100"/>
+      <c r="B233" s="97"/>
       <c r="C233" s="31" t="s">
         <v>346</v>
       </c>
@@ -9191,7 +9188,7 @@
       <c r="A234" s="92" t="s">
         <v>348</v>
       </c>
-      <c r="B234" s="98" t="s">
+      <c r="B234" s="95" t="s">
         <v>349</v>
       </c>
       <c r="C234" s="31" t="s">
@@ -9208,7 +9205,7 @@
     </row>
     <row r="235" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A235" s="93"/>
-      <c r="B235" s="99"/>
+      <c r="B235" s="96"/>
       <c r="C235" s="31" t="s">
         <v>360</v>
       </c>
@@ -9221,7 +9218,7 @@
     </row>
     <row r="236" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A236" s="93"/>
-      <c r="B236" s="99"/>
+      <c r="B236" s="96"/>
       <c r="C236" s="31" t="s">
         <v>350</v>
       </c>
@@ -9234,7 +9231,7 @@
     </row>
     <row r="237" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A237" s="93"/>
-      <c r="B237" s="99"/>
+      <c r="B237" s="96"/>
       <c r="C237" s="31" t="s">
         <v>327</v>
       </c>
@@ -9247,7 +9244,7 @@
     </row>
     <row r="238" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A238" s="93"/>
-      <c r="B238" s="100"/>
+      <c r="B238" s="97"/>
       <c r="C238" s="31" t="s">
         <v>359</v>
       </c>
@@ -9262,7 +9259,7 @@
       <c r="A239" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="B239" s="98" t="s">
+      <c r="B239" s="95" t="s">
         <v>361</v>
       </c>
       <c r="C239" s="31" t="s">
@@ -9279,7 +9276,7 @@
     </row>
     <row r="240" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A240" s="93"/>
-      <c r="B240" s="99"/>
+      <c r="B240" s="96"/>
       <c r="C240" s="31" t="s">
         <v>362</v>
       </c>
@@ -9292,7 +9289,7 @@
     </row>
     <row r="241" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A241" s="93"/>
-      <c r="B241" s="99"/>
+      <c r="B241" s="96"/>
       <c r="C241" s="31" t="s">
         <v>355</v>
       </c>
@@ -9305,7 +9302,7 @@
     </row>
     <row r="242" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A242" s="93"/>
-      <c r="B242" s="100"/>
+      <c r="B242" s="97"/>
       <c r="C242" s="39" t="s">
         <v>363</v>
       </c>
@@ -9320,7 +9317,7 @@
       <c r="A243" s="92" t="s">
         <v>358</v>
       </c>
-      <c r="B243" s="98" t="s">
+      <c r="B243" s="95" t="s">
         <v>353</v>
       </c>
       <c r="C243" s="31" t="s">
@@ -9337,7 +9334,7 @@
     </row>
     <row r="244" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A244" s="93"/>
-      <c r="B244" s="99"/>
+      <c r="B244" s="96"/>
       <c r="C244" s="31" t="s">
         <v>354</v>
       </c>
@@ -9350,7 +9347,7 @@
     </row>
     <row r="245" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A245" s="93"/>
-      <c r="B245" s="99"/>
+      <c r="B245" s="96"/>
       <c r="C245" s="31" t="s">
         <v>355</v>
       </c>
@@ -9363,7 +9360,7 @@
     </row>
     <row r="246" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A246" s="93"/>
-      <c r="B246" s="99"/>
+      <c r="B246" s="96"/>
       <c r="C246" s="31" t="s">
         <v>356</v>
       </c>
@@ -9376,7 +9373,7 @@
     </row>
     <row r="247" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A247" s="94"/>
-      <c r="B247" s="100"/>
+      <c r="B247" s="97"/>
       <c r="C247" s="31" t="s">
         <v>357</v>
       </c>
@@ -9391,7 +9388,7 @@
       <c r="A248" s="92" t="s">
         <v>365</v>
       </c>
-      <c r="B248" s="98" t="s">
+      <c r="B248" s="95" t="s">
         <v>367</v>
       </c>
       <c r="C248" s="31" t="s">
@@ -9408,7 +9405,7 @@
     </row>
     <row r="249" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A249" s="93"/>
-      <c r="B249" s="99"/>
+      <c r="B249" s="96"/>
       <c r="C249" s="31" t="s">
         <v>354</v>
       </c>
@@ -9421,7 +9418,7 @@
     </row>
     <row r="250" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A250" s="93"/>
-      <c r="B250" s="99"/>
+      <c r="B250" s="96"/>
       <c r="C250" s="31" t="s">
         <v>355</v>
       </c>
@@ -9434,7 +9431,7 @@
     </row>
     <row r="251" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A251" s="93"/>
-      <c r="B251" s="99"/>
+      <c r="B251" s="96"/>
       <c r="C251" s="31" t="s">
         <v>368</v>
       </c>
@@ -9447,7 +9444,7 @@
     </row>
     <row r="252" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A252" s="94"/>
-      <c r="B252" s="100"/>
+      <c r="B252" s="97"/>
       <c r="C252" s="31" t="s">
         <v>357</v>
       </c>
@@ -9462,7 +9459,7 @@
       <c r="A253" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="B253" s="98" t="s">
+      <c r="B253" s="95" t="s">
         <v>369</v>
       </c>
       <c r="C253" s="31" t="s">
@@ -9479,7 +9476,7 @@
     </row>
     <row r="254" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A254" s="93"/>
-      <c r="B254" s="99"/>
+      <c r="B254" s="96"/>
       <c r="C254" s="31" t="s">
         <v>354</v>
       </c>
@@ -9492,7 +9489,7 @@
     </row>
     <row r="255" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A255" s="93"/>
-      <c r="B255" s="99"/>
+      <c r="B255" s="96"/>
       <c r="C255" s="31" t="s">
         <v>355</v>
       </c>
@@ -9505,7 +9502,7 @@
     </row>
     <row r="256" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A256" s="93"/>
-      <c r="B256" s="99"/>
+      <c r="B256" s="96"/>
       <c r="C256" s="31" t="s">
         <v>370</v>
       </c>
@@ -9518,7 +9515,7 @@
     </row>
     <row r="257" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A257" s="94"/>
-      <c r="B257" s="100"/>
+      <c r="B257" s="97"/>
       <c r="C257" s="31" t="s">
         <v>357</v>
       </c>
@@ -9533,7 +9530,7 @@
       <c r="A258" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="B258" s="98" t="s">
+      <c r="B258" s="95" t="s">
         <v>374</v>
       </c>
       <c r="C258" s="31" t="s">
@@ -9550,7 +9547,7 @@
     </row>
     <row r="259" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A259" s="93"/>
-      <c r="B259" s="99"/>
+      <c r="B259" s="96"/>
       <c r="C259" s="31" t="s">
         <v>354</v>
       </c>
@@ -9563,7 +9560,7 @@
     </row>
     <row r="260" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A260" s="93"/>
-      <c r="B260" s="99"/>
+      <c r="B260" s="96"/>
       <c r="C260" s="31" t="s">
         <v>355</v>
       </c>
@@ -9576,7 +9573,7 @@
     </row>
     <row r="261" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A261" s="93"/>
-      <c r="B261" s="99"/>
+      <c r="B261" s="96"/>
       <c r="C261" s="31" t="s">
         <v>375</v>
       </c>
@@ -9589,7 +9586,7 @@
     </row>
     <row r="262" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A262" s="94"/>
-      <c r="B262" s="100"/>
+      <c r="B262" s="97"/>
       <c r="C262" s="31" t="s">
         <v>357</v>
       </c>
@@ -9604,7 +9601,7 @@
       <c r="A263" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="B263" s="98" t="s">
+      <c r="B263" s="95" t="s">
         <v>373</v>
       </c>
       <c r="C263" s="31" t="s">
@@ -9621,7 +9618,7 @@
     </row>
     <row r="264" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A264" s="93"/>
-      <c r="B264" s="99"/>
+      <c r="B264" s="96"/>
       <c r="C264" s="31" t="s">
         <v>354</v>
       </c>
@@ -9634,7 +9631,7 @@
     </row>
     <row r="265" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A265" s="93"/>
-      <c r="B265" s="99"/>
+      <c r="B265" s="96"/>
       <c r="C265" s="31" t="s">
         <v>355</v>
       </c>
@@ -9647,7 +9644,7 @@
     </row>
     <row r="266" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A266" s="93"/>
-      <c r="B266" s="99"/>
+      <c r="B266" s="96"/>
       <c r="C266" s="31" t="s">
         <v>376</v>
       </c>
@@ -9660,7 +9657,7 @@
     </row>
     <row r="267" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A267" s="94"/>
-      <c r="B267" s="100"/>
+      <c r="B267" s="97"/>
       <c r="C267" s="31" t="s">
         <v>357</v>
       </c>
@@ -9675,7 +9672,7 @@
       <c r="A268" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="B268" s="98" t="s">
+      <c r="B268" s="95" t="s">
         <v>378</v>
       </c>
       <c r="C268" s="31" t="s">
@@ -9692,7 +9689,7 @@
     </row>
     <row r="269" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A269" s="93"/>
-      <c r="B269" s="99"/>
+      <c r="B269" s="96"/>
       <c r="C269" s="31" t="s">
         <v>354</v>
       </c>
@@ -9705,7 +9702,7 @@
     </row>
     <row r="270" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A270" s="93"/>
-      <c r="B270" s="99"/>
+      <c r="B270" s="96"/>
       <c r="C270" s="31" t="s">
         <v>355</v>
       </c>
@@ -9718,7 +9715,7 @@
     </row>
     <row r="271" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A271" s="93"/>
-      <c r="B271" s="99"/>
+      <c r="B271" s="96"/>
       <c r="C271" s="31" t="s">
         <v>379</v>
       </c>
@@ -9731,7 +9728,7 @@
     </row>
     <row r="272" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A272" s="94"/>
-      <c r="B272" s="100"/>
+      <c r="B272" s="97"/>
       <c r="C272" s="31" t="s">
         <v>357</v>
       </c>
@@ -9746,7 +9743,7 @@
       <c r="A273" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="B273" s="98" t="s">
+      <c r="B273" s="95" t="s">
         <v>382</v>
       </c>
       <c r="C273" s="31" t="s">
@@ -9763,7 +9760,7 @@
     </row>
     <row r="274" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A274" s="93"/>
-      <c r="B274" s="99"/>
+      <c r="B274" s="96"/>
       <c r="C274" s="31" t="s">
         <v>354</v>
       </c>
@@ -9776,7 +9773,7 @@
     </row>
     <row r="275" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A275" s="93"/>
-      <c r="B275" s="99"/>
+      <c r="B275" s="96"/>
       <c r="C275" s="31" t="s">
         <v>355</v>
       </c>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="276" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A276" s="93"/>
-      <c r="B276" s="99"/>
+      <c r="B276" s="96"/>
       <c r="C276" s="31" t="s">
         <v>383</v>
       </c>
@@ -9802,7 +9799,7 @@
     </row>
     <row r="277" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A277" s="94"/>
-      <c r="B277" s="100"/>
+      <c r="B277" s="97"/>
       <c r="C277" s="31" t="s">
         <v>384</v>
       </c>
@@ -9817,7 +9814,7 @@
       <c r="A278" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="B278" s="98" t="s">
+      <c r="B278" s="95" t="s">
         <v>386</v>
       </c>
       <c r="C278" s="31" t="s">
@@ -9834,7 +9831,7 @@
     </row>
     <row r="279" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A279" s="93"/>
-      <c r="B279" s="99"/>
+      <c r="B279" s="96"/>
       <c r="C279" s="31" t="s">
         <v>354</v>
       </c>
@@ -9847,7 +9844,7 @@
     </row>
     <row r="280" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A280" s="93"/>
-      <c r="B280" s="99"/>
+      <c r="B280" s="96"/>
       <c r="C280" s="31" t="s">
         <v>355</v>
       </c>
@@ -9860,7 +9857,7 @@
     </row>
     <row r="281" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A281" s="93"/>
-      <c r="B281" s="99"/>
+      <c r="B281" s="96"/>
       <c r="C281" s="31" t="s">
         <v>387</v>
       </c>
@@ -9873,7 +9870,7 @@
     </row>
     <row r="282" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A282" s="94"/>
-      <c r="B282" s="100"/>
+      <c r="B282" s="97"/>
       <c r="C282" s="31" t="s">
         <v>384</v>
       </c>
@@ -9888,7 +9885,7 @@
       <c r="A283" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="B283" s="98" t="s">
+      <c r="B283" s="95" t="s">
         <v>389</v>
       </c>
       <c r="C283" s="31" t="s">
@@ -9905,7 +9902,7 @@
     </row>
     <row r="284" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A284" s="93"/>
-      <c r="B284" s="99"/>
+      <c r="B284" s="96"/>
       <c r="C284" s="31" t="s">
         <v>354</v>
       </c>
@@ -9918,7 +9915,7 @@
     </row>
     <row r="285" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A285" s="93"/>
-      <c r="B285" s="99"/>
+      <c r="B285" s="96"/>
       <c r="C285" s="31" t="s">
         <v>355</v>
       </c>
@@ -9931,7 +9928,7 @@
     </row>
     <row r="286" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A286" s="93"/>
-      <c r="B286" s="99"/>
+      <c r="B286" s="96"/>
       <c r="C286" s="31" t="s">
         <v>390</v>
       </c>
@@ -9944,7 +9941,7 @@
     </row>
     <row r="287" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A287" s="94"/>
-      <c r="B287" s="100"/>
+      <c r="B287" s="97"/>
       <c r="C287" s="31" t="s">
         <v>391</v>
       </c>
@@ -10679,7 +10676,7 @@
       <c r="E338" s="30"/>
       <c r="F338" s="30"/>
       <c r="G338" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H338" s="30"/>
       <c r="I338" s="30"/>
@@ -10710,11 +10707,11 @@
       <c r="H340" s="30"/>
       <c r="I340" s="30"/>
     </row>
-    <row r="341" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A341" s="93"/>
       <c r="B341" s="96"/>
       <c r="C341" s="31" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="D341" s="31"/>
       <c r="E341" s="30"/>
@@ -10727,7 +10724,7 @@
       <c r="A342" s="94"/>
       <c r="B342" s="97"/>
       <c r="C342" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D342" s="31"/>
       <c r="E342" s="30"/>
@@ -10738,10 +10735,10 @@
     </row>
     <row r="343" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A343" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="B343" s="95" t="s">
         <v>455</v>
-      </c>
-      <c r="B343" s="95" t="s">
-        <v>456</v>
       </c>
       <c r="C343" s="31" t="s">
         <v>189</v>
@@ -10750,7 +10747,7 @@
       <c r="E343" s="30"/>
       <c r="F343" s="30"/>
       <c r="G343" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H343" s="30"/>
       <c r="I343" s="30"/>
@@ -10781,11 +10778,11 @@
       <c r="H345" s="30"/>
       <c r="I345" s="30"/>
     </row>
-    <row r="346" spans="1:9" ht="156" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A346" s="93"/>
       <c r="B346" s="96"/>
       <c r="C346" s="31" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="D346" s="31"/>
       <c r="E346" s="30"/>
@@ -10798,7 +10795,7 @@
       <c r="A347" s="94"/>
       <c r="B347" s="97"/>
       <c r="C347" s="31" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D347" s="31"/>
       <c r="E347" s="30"/>
@@ -10809,10 +10806,10 @@
     </row>
     <row r="348" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A348" s="92" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B348" s="95" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C348" s="31" t="s">
         <v>189</v>
@@ -10821,7 +10818,7 @@
       <c r="E348" s="30"/>
       <c r="F348" s="30"/>
       <c r="G348" s="31" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H348" s="30"/>
       <c r="I348" s="30"/>
@@ -10830,7 +10827,7 @@
       <c r="A349" s="93"/>
       <c r="B349" s="96"/>
       <c r="C349" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D349" s="31"/>
       <c r="E349" s="30"/>
@@ -10856,7 +10853,7 @@
       <c r="A351" s="93"/>
       <c r="B351" s="96"/>
       <c r="C351" s="31" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D351" s="31"/>
       <c r="E351" s="30"/>
@@ -10869,7 +10866,7 @@
       <c r="A352" s="94"/>
       <c r="B352" s="97"/>
       <c r="C352" s="31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D352" s="31"/>
       <c r="E352" s="30"/>
@@ -10880,10 +10877,10 @@
     </row>
     <row r="353" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A353" s="92" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B353" s="95" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C353" s="31" t="s">
         <v>189</v>
@@ -10892,7 +10889,7 @@
       <c r="E353" s="30"/>
       <c r="F353" s="30"/>
       <c r="G353" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H353" s="30"/>
       <c r="I353" s="30"/>
@@ -10901,7 +10898,7 @@
       <c r="A354" s="93"/>
       <c r="B354" s="96"/>
       <c r="C354" s="31" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D354" s="31"/>
       <c r="E354" s="30"/>
@@ -10927,7 +10924,7 @@
       <c r="A356" s="93"/>
       <c r="B356" s="96"/>
       <c r="C356" s="31" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D356" s="31"/>
       <c r="E356" s="30"/>
@@ -10940,7 +10937,7 @@
       <c r="A357" s="94"/>
       <c r="B357" s="97"/>
       <c r="C357" s="31" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D357" s="31"/>
       <c r="E357" s="30"/>
@@ -10951,10 +10948,10 @@
     </row>
     <row r="358" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A358" s="92" t="s">
-        <v>470</v>
-      </c>
-      <c r="B358" s="31" t="s">
-        <v>473</v>
+        <v>468</v>
+      </c>
+      <c r="B358" s="95" t="s">
+        <v>471</v>
       </c>
       <c r="C358" s="31" t="s">
         <v>189</v>
@@ -10963,14 +10960,14 @@
       <c r="E358" s="30"/>
       <c r="F358" s="30"/>
       <c r="G358" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H358" s="30"/>
       <c r="I358" s="30"/>
     </row>
     <row r="359" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A359" s="93"/>
-      <c r="B359" s="31"/>
+      <c r="B359" s="96"/>
       <c r="C359" s="31" t="s">
         <v>450</v>
       </c>
@@ -10983,7 +10980,7 @@
     </row>
     <row r="360" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A360" s="93"/>
-      <c r="B360" s="31"/>
+      <c r="B360" s="96"/>
       <c r="C360" s="31" t="s">
         <v>451</v>
       </c>
@@ -10996,9 +10993,9 @@
     </row>
     <row r="361" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A361" s="93"/>
-      <c r="B361" s="31"/>
+      <c r="B361" s="96"/>
       <c r="C361" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D361" s="31"/>
       <c r="E361" s="30"/>
@@ -11009,9 +11006,9 @@
     </row>
     <row r="362" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A362" s="93"/>
-      <c r="B362" s="31"/>
+      <c r="B362" s="96"/>
       <c r="C362" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D362" s="31"/>
       <c r="E362" s="30"/>
@@ -11022,9 +11019,9 @@
     </row>
     <row r="363" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A363" s="94"/>
-      <c r="B363" s="31"/>
+      <c r="B363" s="97"/>
       <c r="C363" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D363" s="31"/>
       <c r="E363" s="30"/>
@@ -11035,10 +11032,10 @@
     </row>
     <row r="364" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A364" s="92" t="s">
-        <v>471</v>
-      </c>
-      <c r="B364" s="31" t="s">
-        <v>478</v>
+        <v>469</v>
+      </c>
+      <c r="B364" s="95" t="s">
+        <v>476</v>
       </c>
       <c r="C364" s="31" t="s">
         <v>189</v>
@@ -11047,14 +11044,14 @@
       <c r="E364" s="30"/>
       <c r="F364" s="30"/>
       <c r="G364" s="31" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H364" s="30"/>
       <c r="I364" s="30"/>
     </row>
     <row r="365" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A365" s="93"/>
-      <c r="B365" s="31"/>
+      <c r="B365" s="96"/>
       <c r="C365" s="31" t="s">
         <v>450</v>
       </c>
@@ -11067,7 +11064,7 @@
     </row>
     <row r="366" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A366" s="93"/>
-      <c r="B366" s="31"/>
+      <c r="B366" s="96"/>
       <c r="C366" s="31" t="s">
         <v>451</v>
       </c>
@@ -11080,9 +11077,9 @@
     </row>
     <row r="367" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A367" s="93"/>
-      <c r="B367" s="31"/>
+      <c r="B367" s="96"/>
       <c r="C367" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D367" s="31"/>
       <c r="E367" s="30"/>
@@ -11093,9 +11090,9 @@
     </row>
     <row r="368" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A368" s="93"/>
-      <c r="B368" s="31"/>
+      <c r="B368" s="96"/>
       <c r="C368" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D368" s="31"/>
       <c r="E368" s="30"/>
@@ -11106,9 +11103,9 @@
     </row>
     <row r="369" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A369" s="94"/>
-      <c r="B369" s="31"/>
+      <c r="B369" s="97"/>
       <c r="C369" s="31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D369" s="31"/>
       <c r="E369" s="30"/>
@@ -11119,10 +11116,10 @@
     </row>
     <row r="370" spans="1:9" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A370" s="92" t="s">
-        <v>472</v>
-      </c>
-      <c r="B370" s="31" t="s">
-        <v>482</v>
+        <v>470</v>
+      </c>
+      <c r="B370" s="95" t="s">
+        <v>480</v>
       </c>
       <c r="C370" s="31" t="s">
         <v>189</v>
@@ -11131,14 +11128,14 @@
       <c r="E370" s="30"/>
       <c r="F370" s="30"/>
       <c r="G370" s="31" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H370" s="30"/>
       <c r="I370" s="30"/>
     </row>
     <row r="371" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A371" s="93"/>
-      <c r="B371" s="31"/>
+      <c r="B371" s="96"/>
       <c r="C371" s="31" t="s">
         <v>450</v>
       </c>
@@ -11151,7 +11148,7 @@
     </row>
     <row r="372" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A372" s="93"/>
-      <c r="B372" s="31"/>
+      <c r="B372" s="96"/>
       <c r="C372" s="31" t="s">
         <v>451</v>
       </c>
@@ -11164,9 +11161,9 @@
     </row>
     <row r="373" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A373" s="93"/>
-      <c r="B373" s="31"/>
+      <c r="B373" s="96"/>
       <c r="C373" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D373" s="31"/>
       <c r="E373" s="30"/>
@@ -11177,9 +11174,9 @@
     </row>
     <row r="374" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A374" s="93"/>
-      <c r="B374" s="31"/>
+      <c r="B374" s="96"/>
       <c r="C374" s="31" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D374" s="31"/>
       <c r="E374" s="30"/>
@@ -11190,9 +11187,9 @@
     </row>
     <row r="375" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A375" s="94"/>
-      <c r="B375" s="31"/>
+      <c r="B375" s="97"/>
       <c r="C375" s="31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D375" s="31"/>
       <c r="E375" s="30"/>
@@ -12192,7 +12189,7 @@
       <c r="I465" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="169">
+  <mergeCells count="172">
     <mergeCell ref="A313:A317"/>
     <mergeCell ref="A318:A322"/>
     <mergeCell ref="A323:A327"/>
@@ -12362,6 +12359,9 @@
     <mergeCell ref="A353:A357"/>
     <mergeCell ref="B348:B352"/>
     <mergeCell ref="B353:B357"/>
+    <mergeCell ref="B370:B375"/>
+    <mergeCell ref="B364:B369"/>
+    <mergeCell ref="B358:B363"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
